--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$R$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$R$215</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="230">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>custom-input-accOther</t>
+  </si>
+  <si>
+    <t>IN0039</t>
+  </si>
+  <si>
+    <t>00502008</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -740,8 +746,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,29 +807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,22 +817,6 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,47 +844,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,6 +863,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,7 +911,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +1019,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,145 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,17 +1120,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,8 +1132,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,24 +1153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1186,13 +1168,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,16 +1197,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1229,133 +1235,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1739,10 +1745,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
@@ -1753,7 +1759,7 @@
     <col min="14" max="14" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:18">
+    <row r="1" ht="81" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11943,15 +11949,33 @@
       <c r="R215" s="13"/>
     </row>
     <row r="216" spans="1:18">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="14"/>
-      <c r="I216" s="14"/>
+      <c r="A216" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H216" s="14">
+        <v>0</v>
+      </c>
+      <c r="I216" s="14">
+        <v>0</v>
+      </c>
       <c r="J216" s="13"/>
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
@@ -12608,7 +12632,7 @@
       <c r="R250" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R214">
+  <autoFilter ref="A1:R215">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A13:A14">
@@ -12643,16 +12667,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="60.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="22488" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$369</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4693" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -618,7 +618,7 @@
     <t>00302017</t>
   </si>
   <si>
-    <t>custom-input_remitAmount</t>
+    <t>custom-txAmt</t>
   </si>
   <si>
     <t>IN0014</t>
@@ -1839,6 +1839,9 @@
     <t>custom-input-cardNo</t>
   </si>
   <si>
+    <t>0020101604</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1861,10 +1864,26 @@
     </r>
   </si>
   <si>
-    <t>custom-input-accNo2</t>
-  </si>
-  <si>
-    <t>custTypeCdBankBook</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>custom-input-accNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1889,9 +1908,6 @@
     </r>
   </si>
   <si>
-    <t>custom-selector-acctDrawManrCd3</t>
-  </si>
-  <si>
     <t>acctDrawManrCd3</t>
   </si>
   <si>
@@ -2224,6 +2240,9 @@
     </r>
   </si>
   <si>
+    <t>0030101504</t>
+  </si>
+  <si>
     <t>00502301</t>
   </si>
   <si>
@@ -2258,6 +2277,15 @@
   </si>
   <si>
     <t>custom-input-recvrAcctNo</t>
+  </si>
+  <si>
+    <t>00603002</t>
+  </si>
+  <si>
+    <t>IN0006</t>
+  </si>
+  <si>
+    <t>00603001</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -2268,10 +2296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2308,13 +2336,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2323,14 +2350,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2344,49 +2371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2408,9 +2397,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2429,7 +2434,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2437,17 +2442,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2466,7 +2494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79970702230903"/>
+        <fgColor theme="3" tint="0.799645985290078"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,31 +2506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,19 +2524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,19 +2548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2574,7 +2590,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,25 +2674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,61 +2686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2699,17 +2727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2731,10 +2753,43 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2769,43 +2824,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2814,137 +2842,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3027,6 +3055,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
@@ -3364,29 +3395,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S533"/>
+  <dimension ref="A1:S536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.3833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.3796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.3833333333333" customWidth="1"/>
+    <col min="7" max="7" width="33.1296296296296" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="38.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="38.1296296296296" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
     <col min="15" max="15" width="38" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:19">
+    <row r="1" ht="81.6" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4121,7 +4152,7 @@
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -4136,7 +4167,7 @@
       <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="39" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -4311,7 +4342,7 @@
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -4326,7 +4357,7 @@
       <c r="E21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -4351,7 +4382,7 @@
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -4366,7 +4397,7 @@
       <c r="E22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -4625,7 +4656,7 @@
       <c r="S27" s="15"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -4640,7 +4671,7 @@
       <c r="E28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G28" s="21" t="s">
@@ -5060,7 +5091,7 @@
       <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="42" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -5075,7 +5106,7 @@
       <c r="E38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -5098,7 +5129,7 @@
       <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -5113,7 +5144,7 @@
       <c r="E39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="43" t="s">
         <v>102</v>
       </c>
       <c r="G39" s="15" t="s">
@@ -5136,7 +5167,7 @@
       <c r="S39" s="15"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>103</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -5151,7 +5182,7 @@
       <c r="E40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -5174,7 +5205,7 @@
       <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -5189,7 +5220,7 @@
       <c r="E41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="43" t="s">
         <v>104</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -5212,7 +5243,7 @@
       <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -5227,7 +5258,7 @@
       <c r="E42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="43" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -5250,7 +5281,7 @@
       <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="42" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -5265,7 +5296,7 @@
       <c r="E43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="43" t="s">
         <v>106</v>
       </c>
       <c r="G43" s="15" t="s">
@@ -5288,7 +5319,7 @@
       <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -5303,7 +5334,7 @@
       <c r="E44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="43" t="s">
         <v>107</v>
       </c>
       <c r="G44" s="15" t="s">
@@ -5326,7 +5357,7 @@
       <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -5341,7 +5372,7 @@
       <c r="E45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="43" t="s">
         <v>109</v>
       </c>
       <c r="G45" s="15" t="s">
@@ -5364,7 +5395,7 @@
       <c r="S45" s="15"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>111</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -5379,7 +5410,7 @@
       <c r="E46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="43" t="s">
         <v>111</v>
       </c>
       <c r="G46" s="15" t="s">
@@ -5402,7 +5433,7 @@
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -5417,7 +5448,7 @@
       <c r="E47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="43" t="s">
         <v>113</v>
       </c>
       <c r="G47" s="15" t="s">
@@ -5440,7 +5471,7 @@
       <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>115</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -5455,7 +5486,7 @@
       <c r="E48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="43" t="s">
         <v>115</v>
       </c>
       <c r="G48" s="15" t="s">
@@ -5478,7 +5509,7 @@
       <c r="S48" s="15"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>117</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -5493,7 +5524,7 @@
       <c r="E49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F49" s="43" t="s">
         <v>117</v>
       </c>
       <c r="G49" s="15" t="s">
@@ -5516,7 +5547,7 @@
       <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="42" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -5531,7 +5562,7 @@
       <c r="E50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="43" t="s">
         <v>118</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -5554,7 +5585,7 @@
       <c r="S50" s="15"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>119</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -5569,7 +5600,7 @@
       <c r="E51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="43" t="s">
         <v>119</v>
       </c>
       <c r="G51" s="15" t="s">
@@ -5592,7 +5623,7 @@
       <c r="S51" s="15"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>120</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -5607,7 +5638,7 @@
       <c r="E52" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="43" t="s">
         <v>120</v>
       </c>
       <c r="G52" s="15" t="s">
@@ -5630,7 +5661,7 @@
       <c r="S52" s="15"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="42" t="s">
         <v>121</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -5645,7 +5676,7 @@
       <c r="E53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="43" t="s">
         <v>121</v>
       </c>
       <c r="G53" s="15" t="s">
@@ -5668,7 +5699,7 @@
       <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>123</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -5683,7 +5714,7 @@
       <c r="E54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="43" t="s">
         <v>123</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -5706,7 +5737,7 @@
       <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>124</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -5721,7 +5752,7 @@
       <c r="E55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="43" t="s">
         <v>124</v>
       </c>
       <c r="G55" s="15" t="s">
@@ -5744,7 +5775,7 @@
       <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -5759,7 +5790,7 @@
       <c r="E56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="43" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -5782,7 +5813,7 @@
       <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>126</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -5797,7 +5828,7 @@
       <c r="E57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="43" t="s">
         <v>126</v>
       </c>
       <c r="G57" s="15" t="s">
@@ -5820,7 +5851,7 @@
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="42" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -5835,7 +5866,7 @@
       <c r="E58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="43" t="s">
         <v>127</v>
       </c>
       <c r="G58" s="15" t="s">
@@ -5858,7 +5889,7 @@
       <c r="S58" s="15"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>128</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -5873,7 +5904,7 @@
       <c r="E59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="42" t="s">
+      <c r="F59" s="43" t="s">
         <v>128</v>
       </c>
       <c r="G59" s="15" t="s">
@@ -6175,7 +6206,7 @@
       <c r="R65" s="30"/>
       <c r="S65" s="15"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" ht="14.4" spans="1:19">
       <c r="A66" s="20" t="s">
         <v>150</v>
       </c>
@@ -6275,7 +6306,7 @@
       <c r="R67" s="30"/>
       <c r="S67" s="15"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" ht="14.4" spans="1:19">
       <c r="A68" s="20" t="s">
         <v>156</v>
       </c>
@@ -6428,7 +6459,7 @@
       <c r="R70" s="30"/>
       <c r="S70" s="15"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" ht="14.4" spans="1:19">
       <c r="A71" s="20" t="s">
         <v>165</v>
       </c>
@@ -6528,7 +6559,7 @@
       <c r="R72" s="30"/>
       <c r="S72" s="15"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" ht="14.4" spans="1:19">
       <c r="A73" s="20" t="s">
         <v>170</v>
       </c>
@@ -6774,7 +6805,7 @@
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -6789,7 +6820,7 @@
       <c r="E78" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="44" t="s">
         <v>179</v>
       </c>
       <c r="G78" s="15" t="s">
@@ -6823,7 +6854,7 @@
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="44" t="s">
         <v>180</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -6838,7 +6869,7 @@
       <c r="E79" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="44" t="s">
         <v>180</v>
       </c>
       <c r="G79" s="15" t="s">
@@ -6872,7 +6903,7 @@
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -6887,7 +6918,7 @@
       <c r="E80" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="44" t="s">
         <v>181</v>
       </c>
       <c r="G80" s="15" t="s">
@@ -6921,7 +6952,7 @@
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -6936,7 +6967,7 @@
       <c r="E81" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="44" t="s">
         <v>99</v>
       </c>
       <c r="G81" s="15" t="s">
@@ -6970,7 +7001,7 @@
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -6985,7 +7016,7 @@
       <c r="E82" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="44" t="s">
         <v>183</v>
       </c>
       <c r="G82" s="15" t="s">
@@ -7019,7 +7050,7 @@
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -7034,7 +7065,7 @@
       <c r="E83" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="44" t="s">
         <v>184</v>
       </c>
       <c r="G83" s="15" t="s">
@@ -7107,7 +7138,7 @@
       <c r="M84" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N84" s="40" t="s">
+      <c r="N84" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
@@ -7160,7 +7191,7 @@
       <c r="M85" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N85" s="40" t="s">
+      <c r="N85" s="41" t="s">
         <v>196</v>
       </c>
       <c r="O85" s="20" t="s">
@@ -7213,7 +7244,7 @@
       <c r="M86" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N86" s="40" t="s">
+      <c r="N86" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
@@ -7266,7 +7297,7 @@
       <c r="M87" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="40" t="s">
+      <c r="N87" s="41" t="s">
         <v>38</v>
       </c>
       <c r="O87" s="20" t="s">
@@ -7319,7 +7350,7 @@
       <c r="M88" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N88" s="40" t="s">
+      <c r="N88" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
@@ -7372,7 +7403,7 @@
       <c r="M89" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N89" s="40" t="s">
+      <c r="N89" s="41" t="s">
         <v>196</v>
       </c>
       <c r="O89" s="20" t="s">
@@ -7425,7 +7456,7 @@
       <c r="M90" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N90" s="40" t="s">
+      <c r="N90" s="41" t="s">
         <v>196</v>
       </c>
       <c r="O90" s="20" t="s">
@@ -7478,7 +7509,7 @@
       <c r="M91" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N91" s="40" t="s">
+      <c r="N91" s="41" t="s">
         <v>38</v>
       </c>
       <c r="O91" s="20" t="s">
@@ -7492,7 +7523,7 @@
       </c>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="45" t="s">
         <v>201</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -7507,7 +7538,7 @@
       <c r="E92" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="45" t="s">
         <v>202</v>
       </c>
       <c r="G92" s="15" t="s">
@@ -7531,7 +7562,7 @@
       <c r="M92" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N92" s="40" t="s">
+      <c r="N92" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
@@ -7545,7 +7576,7 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="44" t="s">
+      <c r="A93" s="45" t="s">
         <v>207</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -7560,7 +7591,7 @@
       <c r="E93" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="45" t="s">
         <v>202</v>
       </c>
       <c r="G93" s="15" t="s">
@@ -7584,7 +7615,7 @@
       <c r="M93" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N93" s="40" t="s">
+      <c r="N93" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
@@ -7598,7 +7629,7 @@
       </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="45" t="s">
         <v>209</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -7613,7 +7644,7 @@
       <c r="E94" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="45" t="s">
         <v>202</v>
       </c>
       <c r="G94" s="15" t="s">
@@ -7651,7 +7682,7 @@
       </c>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="45" t="s">
         <v>211</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -7666,7 +7697,7 @@
       <c r="E95" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="45" t="s">
         <v>202</v>
       </c>
       <c r="G95" s="15" t="s">
@@ -7690,7 +7721,7 @@
       <c r="M95" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N95" s="40" t="s">
+      <c r="N95" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
@@ -7704,7 +7735,7 @@
       </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="45" t="s">
         <v>212</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -7719,7 +7750,7 @@
       <c r="E96" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="45" t="s">
         <v>213</v>
       </c>
       <c r="G96" s="15" t="s">
@@ -7746,7 +7777,7 @@
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="45" t="s">
         <v>216</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -7761,7 +7792,7 @@
       <c r="E97" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="45" t="s">
         <v>217</v>
       </c>
       <c r="G97" s="15" t="s">
@@ -7788,7 +7819,7 @@
       </c>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="45" t="s">
         <v>218</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -7803,7 +7834,7 @@
       <c r="E98" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="F98" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G98" s="15" t="s">
@@ -7827,7 +7858,7 @@
       <c r="M98" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N98" s="40" t="s">
+      <c r="N98" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="20" t="s">
@@ -7841,7 +7872,7 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="45" t="s">
         <v>218</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -7856,7 +7887,7 @@
       <c r="E99" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G99" s="15" t="s">
@@ -7880,7 +7911,7 @@
       <c r="M99" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N99" s="45" t="s">
+      <c r="N99" s="46" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="31" t="s">
@@ -7894,7 +7925,7 @@
       </c>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="45" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -7909,7 +7940,7 @@
       <c r="E100" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F100" s="44" t="s">
+      <c r="F100" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G100" s="15" t="s">
@@ -7933,7 +7964,7 @@
       <c r="M100" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N100" s="40" t="s">
+      <c r="N100" s="41" t="s">
         <v>196</v>
       </c>
       <c r="O100" s="20" t="s">
@@ -7947,7 +7978,7 @@
       </c>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="44" t="s">
+      <c r="A101" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -7962,7 +7993,7 @@
       <c r="E101" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F101" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G101" s="15" t="s">
@@ -7986,7 +8017,7 @@
       <c r="M101" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N101" s="40" t="s">
+      <c r="N101" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
@@ -8000,7 +8031,7 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="45" t="s">
         <v>230</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -8015,7 +8046,7 @@
       <c r="E102" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G102" s="15" t="s">
@@ -8039,7 +8070,7 @@
       <c r="M102" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N102" s="40" t="s">
+      <c r="N102" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
@@ -8053,7 +8084,7 @@
       </c>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="45" t="s">
         <v>230</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -8068,7 +8099,7 @@
       <c r="E103" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="44" t="s">
+      <c r="F103" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G103" s="15" t="s">
@@ -8092,7 +8123,7 @@
       <c r="M103" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N103" s="45" t="s">
+      <c r="N103" s="46" t="s">
         <v>196</v>
       </c>
       <c r="O103" s="31" t="s">
@@ -8106,7 +8137,7 @@
       </c>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="45" t="s">
         <v>232</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -8121,7 +8152,7 @@
       <c r="E104" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="44" t="s">
+      <c r="F104" s="45" t="s">
         <v>219</v>
       </c>
       <c r="G104" s="15" t="s">
@@ -8145,7 +8176,7 @@
       <c r="M104" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N104" s="40" t="s">
+      <c r="N104" s="41" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
@@ -8211,7 +8242,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="106" ht="28.5" spans="1:19">
+    <row r="106" ht="27.6" spans="1:19">
       <c r="A106" s="20" t="s">
         <v>239</v>
       </c>
@@ -8266,7 +8297,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" ht="28.5" spans="1:19">
+    <row r="107" ht="27.6" spans="1:19">
       <c r="A107" s="20" t="s">
         <v>239</v>
       </c>
@@ -8321,7 +8352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" ht="28.5" spans="1:19">
+    <row r="108" ht="27.6" spans="1:19">
       <c r="A108" s="20" t="s">
         <v>239</v>
       </c>
@@ -8376,7 +8407,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="109" ht="28.5" spans="1:19">
+    <row r="109" ht="27.6" spans="1:19">
       <c r="A109" s="20" t="s">
         <v>243</v>
       </c>
@@ -8431,7 +8462,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" ht="28.5" spans="1:19">
+    <row r="110" ht="27.6" spans="1:19">
       <c r="A110" s="20" t="s">
         <v>243</v>
       </c>
@@ -8486,7 +8517,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" ht="28.5" spans="1:19">
+    <row r="111" ht="27.6" spans="1:19">
       <c r="A111" s="20" t="s">
         <v>249</v>
       </c>
@@ -8541,7 +8572,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" ht="28.5" spans="1:19">
+    <row r="112" ht="27.6" spans="1:19">
       <c r="A112" s="20" t="s">
         <v>249</v>
       </c>
@@ -8596,7 +8627,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" ht="28.5" spans="1:19">
+    <row r="113" ht="27.6" spans="1:19">
       <c r="A113" s="20" t="s">
         <v>251</v>
       </c>
@@ -8651,7 +8682,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="114" ht="28.5" spans="1:19">
+    <row r="114" ht="27.6" spans="1:19">
       <c r="A114" s="20" t="s">
         <v>251</v>
       </c>
@@ -8759,7 +8790,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="116" ht="28.5" spans="1:19">
+    <row r="116" ht="27.6" spans="1:19">
       <c r="A116" s="20" t="s">
         <v>256</v>
       </c>
@@ -8814,7 +8845,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" ht="28.5" spans="1:19">
+    <row r="117" ht="27.6" spans="1:19">
       <c r="A117" s="20" t="s">
         <v>256</v>
       </c>
@@ -8869,7 +8900,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" ht="28.5" spans="1:19">
+    <row r="118" ht="27.6" spans="1:19">
       <c r="A118" s="20" t="s">
         <v>256</v>
       </c>
@@ -9030,7 +9061,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" ht="28.5" spans="1:19">
+    <row r="121" ht="27.6" spans="1:19">
       <c r="A121" s="20" t="s">
         <v>263</v>
       </c>
@@ -9085,7 +9116,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" ht="28.5" spans="1:19">
+    <row r="122" ht="27.6" spans="1:19">
       <c r="A122" s="20" t="s">
         <v>263</v>
       </c>
@@ -9193,7 +9224,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" ht="28.5" spans="1:19">
+    <row r="124" ht="27.6" spans="1:19">
       <c r="A124" s="20" t="s">
         <v>269</v>
       </c>
@@ -9248,7 +9279,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" ht="28.5" spans="1:19">
+    <row r="125" ht="27.6" spans="1:19">
       <c r="A125" s="20" t="s">
         <v>269</v>
       </c>
@@ -9303,7 +9334,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="126" ht="28.5" spans="1:19">
+    <row r="126" ht="27.6" spans="1:19">
       <c r="A126" s="20" t="s">
         <v>269</v>
       </c>
@@ -9517,7 +9548,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="130" ht="28.5" spans="1:19">
+    <row r="130" ht="27.6" spans="1:19">
       <c r="A130" s="20" t="s">
         <v>276</v>
       </c>
@@ -9572,7 +9603,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" ht="28.5" spans="1:19">
+    <row r="131" ht="27.6" spans="1:19">
       <c r="A131" s="20" t="s">
         <v>276</v>
       </c>
@@ -9627,7 +9658,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" ht="28.5" spans="1:19">
+    <row r="132" ht="27.6" spans="1:19">
       <c r="A132" s="20" t="s">
         <v>276</v>
       </c>
@@ -9682,7 +9713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" ht="28.5" spans="1:19">
+    <row r="133" ht="27.6" spans="1:19">
       <c r="A133" s="20" t="s">
         <v>278</v>
       </c>
@@ -9737,7 +9768,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" ht="28.5" spans="1:19">
+    <row r="134" ht="27.6" spans="1:19">
       <c r="A134" s="20" t="s">
         <v>278</v>
       </c>
@@ -9898,7 +9929,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" ht="28.5" spans="1:19">
+    <row r="137" ht="27.6" spans="1:19">
       <c r="A137" s="20" t="s">
         <v>283</v>
       </c>
@@ -9953,7 +9984,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="138" ht="28.5" spans="1:19">
+    <row r="138" ht="27.6" spans="1:19">
       <c r="A138" s="20" t="s">
         <v>283</v>
       </c>
@@ -10061,7 +10092,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" ht="28.5" spans="1:19">
+    <row r="140" ht="27.6" spans="1:19">
       <c r="A140" s="20" t="s">
         <v>289</v>
       </c>
@@ -10116,7 +10147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" ht="28.5" spans="1:19">
+    <row r="141" ht="27.6" spans="1:19">
       <c r="A141" s="20" t="s">
         <v>289</v>
       </c>
@@ -10171,7 +10202,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" ht="28.5" spans="1:19">
+    <row r="142" ht="27.6" spans="1:19">
       <c r="A142" s="20" t="s">
         <v>289</v>
       </c>
@@ -10226,7 +10257,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="143" ht="28.5" spans="1:19">
+    <row r="143" ht="27.6" spans="1:19">
       <c r="A143" s="20" t="s">
         <v>290</v>
       </c>
@@ -10281,7 +10312,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" ht="28.5" spans="1:19">
+    <row r="144" ht="27.6" spans="1:19">
       <c r="A144" s="20" t="s">
         <v>290</v>
       </c>
@@ -10601,7 +10632,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" ht="28.5" spans="1:19">
+    <row r="150" ht="27.6" spans="1:19">
       <c r="A150" s="20" t="s">
         <v>300</v>
       </c>
@@ -10656,7 +10687,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" ht="28.5" spans="1:19">
+    <row r="151" ht="27.6" spans="1:19">
       <c r="A151" s="20" t="s">
         <v>300</v>
       </c>
@@ -10711,7 +10742,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" ht="28.5" spans="1:19">
+    <row r="152" ht="27.6" spans="1:19">
       <c r="A152" s="20" t="s">
         <v>300</v>
       </c>
@@ -10766,7 +10797,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" ht="28.5" spans="1:19">
+    <row r="153" ht="27.6" spans="1:19">
       <c r="A153" s="20" t="s">
         <v>300</v>
       </c>
@@ -15640,7 +15671,7 @@
         <v>415</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="H245" s="16">
         <v>1</v>
@@ -15650,19 +15681,19 @@
       </c>
       <c r="J245" s="15"/>
       <c r="K245" s="15" t="s">
-        <v>425</v>
+        <v>205</v>
       </c>
       <c r="L245" s="15" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M245" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O245" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P245" s="15"/>
       <c r="Q245" s="15"/>
@@ -15673,7 +15704,7 @@
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>20</v>
@@ -15690,8 +15721,8 @@
       <c r="F246" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G246" s="15" t="s">
-        <v>427</v>
+      <c r="G246" s="21" t="s">
+        <v>425</v>
       </c>
       <c r="H246" s="16">
         <v>1</v>
@@ -15701,19 +15732,19 @@
       </c>
       <c r="J246" s="15"/>
       <c r="K246" s="15" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L246" s="15" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="M246" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="O246" s="20" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="P246" s="15"/>
       <c r="Q246" s="15"/>
@@ -15724,7 +15755,7 @@
     </row>
     <row r="247" spans="1:19">
       <c r="A247" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>20</v>
@@ -15742,7 +15773,7 @@
         <v>415</v>
       </c>
       <c r="G247" s="15" t="s">
-        <v>427</v>
+        <v>203</v>
       </c>
       <c r="H247" s="16">
         <v>1</v>
@@ -15752,19 +15783,19 @@
       </c>
       <c r="J247" s="15"/>
       <c r="K247" s="15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L247" s="15" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M247" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O247" s="20" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P247" s="15"/>
       <c r="Q247" s="15"/>
@@ -15775,7 +15806,7 @@
     </row>
     <row r="248" spans="1:19">
       <c r="A248" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>20</v>
@@ -15790,7 +15821,7 @@
         <v>23</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="G248" s="15" t="s">
         <v>203</v>
@@ -15802,11 +15833,11 @@
         <v>0</v>
       </c>
       <c r="J248" s="15"/>
-      <c r="K248" s="15" t="s">
-        <v>205</v>
+      <c r="K248" s="21" t="s">
+        <v>419</v>
       </c>
       <c r="L248" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M248" s="15" t="s">
         <v>31</v>
@@ -15826,22 +15857,22 @@
     </row>
     <row r="249" spans="1:19">
       <c r="A249" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D249" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E249" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="G249" s="15" t="s">
         <v>203</v>
@@ -15854,19 +15885,19 @@
       </c>
       <c r="J249" s="15"/>
       <c r="K249" s="15" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="L249" s="15" t="s">
-        <v>433</v>
+        <v>30</v>
       </c>
       <c r="M249" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N249" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O249" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P249" s="15"/>
       <c r="Q249" s="15"/>
@@ -15877,7 +15908,7 @@
     </row>
     <row r="250" spans="1:19">
       <c r="A250" s="20" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>20</v>
@@ -15892,7 +15923,7 @@
         <v>23</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G250" s="15" t="s">
         <v>203</v>
@@ -15905,19 +15936,19 @@
       </c>
       <c r="J250" s="15"/>
       <c r="K250" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L250" s="15" t="s">
-        <v>261</v>
+        <v>432</v>
       </c>
       <c r="M250" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N250" s="5" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="O250" s="20" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="P250" s="15"/>
       <c r="Q250" s="15"/>
@@ -15928,7 +15959,7 @@
     </row>
     <row r="251" spans="1:19">
       <c r="A251" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>20</v>
@@ -15943,10 +15974,10 @@
         <v>23</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="H251" s="16">
         <v>1</v>
@@ -15956,19 +15987,19 @@
       </c>
       <c r="J251" s="15"/>
       <c r="K251" s="15" t="s">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="L251" s="15" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="M251" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N251" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O251" s="20" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P251" s="15"/>
       <c r="Q251" s="15"/>
@@ -15979,25 +16010,25 @@
     </row>
     <row r="252" spans="1:19">
       <c r="A252" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G252" s="15" t="s">
         <v>436</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G252" s="15" t="s">
-        <v>437</v>
       </c>
       <c r="H252" s="16">
         <v>1</v>
@@ -16007,10 +16038,10 @@
       </c>
       <c r="J252" s="15"/>
       <c r="K252" s="15" t="s">
-        <v>438</v>
+        <v>205</v>
       </c>
       <c r="L252" s="15" t="s">
-        <v>439</v>
+        <v>30</v>
       </c>
       <c r="M252" s="15" t="s">
         <v>31</v>
@@ -16030,25 +16061,25 @@
     </row>
     <row r="253" spans="1:19">
       <c r="A253" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G253" s="15" t="s">
         <v>436</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G253" s="15" t="s">
-        <v>437</v>
       </c>
       <c r="H253" s="16">
         <v>1</v>
@@ -16058,22 +16089,22 @@
       </c>
       <c r="J253" s="15"/>
       <c r="K253" s="15" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L253" s="15" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M253" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N253" s="5" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="O253" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="P253" s="34"/>
-      <c r="Q253" s="34"/>
+        <v>35</v>
+      </c>
+      <c r="P253" s="15"/>
+      <c r="Q253" s="15"/>
       <c r="R253" s="30"/>
       <c r="S253" s="15" t="s">
         <v>405</v>
@@ -16081,25 +16112,25 @@
     </row>
     <row r="254" spans="1:19">
       <c r="A254" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="B254" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D254" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E254" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G254" s="15" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H254" s="16">
         <v>1</v>
@@ -16109,22 +16140,22 @@
       </c>
       <c r="J254" s="15"/>
       <c r="K254" s="15" t="s">
-        <v>294</v>
+        <v>431</v>
       </c>
       <c r="L254" s="15" t="s">
-        <v>30</v>
+        <v>432</v>
       </c>
       <c r="M254" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="O254" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P254" s="15"/>
-      <c r="Q254" s="15"/>
+        <v>439</v>
+      </c>
+      <c r="P254" s="34"/>
+      <c r="Q254" s="34"/>
       <c r="R254" s="30"/>
       <c r="S254" s="15" t="s">
         <v>405</v>
@@ -16132,7 +16163,7 @@
     </row>
     <row r="255" spans="1:19">
       <c r="A255" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B255" s="15" t="s">
         <v>20</v>
@@ -16147,10 +16178,10 @@
         <v>23</v>
       </c>
       <c r="F255" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G255" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="G255" s="15" t="s">
-        <v>443</v>
       </c>
       <c r="H255" s="16">
         <v>1</v>
@@ -16160,16 +16191,16 @@
       </c>
       <c r="J255" s="15"/>
       <c r="K255" s="15" t="s">
-        <v>445</v>
+        <v>294</v>
       </c>
       <c r="L255" s="15" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M255" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="O255" s="20" t="s">
         <v>25</v>
@@ -16183,7 +16214,7 @@
     </row>
     <row r="256" spans="1:19">
       <c r="A256" s="20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B256" s="15" t="s">
         <v>20</v>
@@ -16198,10 +16229,10 @@
         <v>23</v>
       </c>
       <c r="F256" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G256" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="G256" s="15" t="s">
-        <v>443</v>
       </c>
       <c r="H256" s="16">
         <v>1</v>
@@ -16211,19 +16242,19 @@
       </c>
       <c r="J256" s="15"/>
       <c r="K256" s="15" t="s">
-        <v>294</v>
+        <v>444</v>
       </c>
       <c r="L256" s="15" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M256" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="O256" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P256" s="15"/>
       <c r="Q256" s="15"/>
@@ -16234,7 +16265,7 @@
     </row>
     <row r="257" spans="1:19">
       <c r="A257" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B257" s="15" t="s">
         <v>20</v>
@@ -16249,10 +16280,10 @@
         <v>23</v>
       </c>
       <c r="F257" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G257" s="15" t="s">
         <v>442</v>
-      </c>
-      <c r="G257" s="15" t="s">
-        <v>448</v>
       </c>
       <c r="H257" s="16">
         <v>1</v>
@@ -16262,10 +16293,10 @@
       </c>
       <c r="J257" s="15"/>
       <c r="K257" s="15" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="L257" s="15" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M257" s="15" t="s">
         <v>31</v>
@@ -16285,7 +16316,7 @@
     </row>
     <row r="258" spans="1:19">
       <c r="A258" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B258" s="15" t="s">
         <v>20</v>
@@ -16300,10 +16331,10 @@
         <v>23</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G258" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H258" s="16">
         <v>1</v>
@@ -16322,7 +16353,7 @@
         <v>31</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="O258" s="20" t="s">
         <v>35</v>
@@ -16336,37 +16367,35 @@
     </row>
     <row r="259" spans="1:19">
       <c r="A259" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E259" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="H259" s="16">
         <v>1</v>
       </c>
       <c r="I259" s="16">
-        <v>1</v>
-      </c>
-      <c r="J259" s="15" t="s">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J259" s="15"/>
       <c r="K259" s="15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L259" s="15" t="s">
         <v>86</v>
@@ -16375,7 +16404,7 @@
         <v>31</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="O259" s="20" t="s">
         <v>35</v>
@@ -16384,12 +16413,12 @@
       <c r="Q259" s="15"/>
       <c r="R259" s="30"/>
       <c r="S259" s="15" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
     </row>
     <row r="260" spans="1:19">
       <c r="A260" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>20</v>
@@ -16404,19 +16433,19 @@
         <v>23</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="H260" s="16">
         <v>1</v>
       </c>
       <c r="I260" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K260" s="15" t="s">
         <v>135</v>
@@ -16428,7 +16457,7 @@
         <v>31</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O260" s="20" t="s">
         <v>35</v>
@@ -16437,12 +16466,12 @@
       <c r="Q260" s="15"/>
       <c r="R260" s="30"/>
       <c r="S260" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="261" spans="1:19">
       <c r="A261" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>20</v>
@@ -16457,10 +16486,10 @@
         <v>23</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G261" s="15" t="s">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="H261" s="16">
         <v>1</v>
@@ -16469,19 +16498,19 @@
         <v>0</v>
       </c>
       <c r="J261" s="15" t="s">
-        <v>457</v>
+        <v>227</v>
       </c>
       <c r="K261" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L261" s="28" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="L261" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="M261" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>458</v>
+        <v>196</v>
       </c>
       <c r="O261" s="20" t="s">
         <v>35</v>
@@ -16490,51 +16519,51 @@
       <c r="Q261" s="15"/>
       <c r="R261" s="30"/>
       <c r="S261" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:19">
       <c r="A262" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F262" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B262" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E262" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F262" s="5" t="s">
+      <c r="G262" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="G262" s="15" t="s">
+      <c r="H262" s="16">
+        <v>1</v>
+      </c>
+      <c r="I262" s="16">
+        <v>0</v>
+      </c>
+      <c r="J262" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="H262" s="16">
-        <v>1</v>
-      </c>
-      <c r="I262" s="16">
-        <v>0</v>
-      </c>
-      <c r="J262" s="15" t="s">
+      <c r="K262" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L262" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M262" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N262" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K262" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="L262" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M262" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N262" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="O262" s="20" t="s">
         <v>35</v>
@@ -16543,65 +16572,65 @@
       <c r="Q262" s="15"/>
       <c r="R262" s="30"/>
       <c r="S262" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:19">
       <c r="A263" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F263" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B263" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D263" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E263" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F263" s="5" t="s">
+      <c r="G263" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="G263" s="15" t="s">
+      <c r="H263" s="16">
+        <v>1</v>
+      </c>
+      <c r="I263" s="16">
+        <v>0</v>
+      </c>
+      <c r="J263" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="H263" s="16">
-        <v>1</v>
-      </c>
-      <c r="I263" s="16">
-        <v>0</v>
-      </c>
-      <c r="J263" s="15" t="s">
-        <v>457</v>
-      </c>
       <c r="K263" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L263" s="28" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M263" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="O263" s="20" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="P263" s="15"/>
       <c r="Q263" s="15"/>
       <c r="R263" s="30"/>
       <c r="S263" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:19">
       <c r="A264" s="20" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>20</v>
@@ -16616,11 +16645,11 @@
         <v>23</v>
       </c>
       <c r="F264" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G264" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="G264" s="15" t="s">
-        <v>350</v>
-      </c>
       <c r="H264" s="16">
         <v>1</v>
       </c>
@@ -16628,33 +16657,33 @@
         <v>0</v>
       </c>
       <c r="J264" s="15" t="s">
-        <v>246</v>
+        <v>456</v>
       </c>
       <c r="K264" s="15" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="L264" s="28" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="M264" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>196</v>
+        <v>461</v>
       </c>
       <c r="O264" s="20" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P264" s="15"/>
       <c r="Q264" s="15"/>
       <c r="R264" s="30"/>
       <c r="S264" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="1:19">
       <c r="A265" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>20</v>
@@ -16669,7 +16698,7 @@
         <v>23</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G265" s="15" t="s">
         <v>350</v>
@@ -16684,30 +16713,30 @@
         <v>246</v>
       </c>
       <c r="K265" s="15" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="L265" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M265" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O265" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P265" s="15"/>
       <c r="Q265" s="15"/>
       <c r="R265" s="30"/>
       <c r="S265" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="266" spans="1:19">
       <c r="A266" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>20</v>
@@ -16722,7 +16751,7 @@
         <v>23</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G266" s="15" t="s">
         <v>350</v>
@@ -16734,33 +16763,33 @@
         <v>0</v>
       </c>
       <c r="J266" s="15" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="K266" s="15" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="L266" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M266" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O266" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P266" s="15"/>
       <c r="Q266" s="15"/>
       <c r="R266" s="30"/>
       <c r="S266" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="267" spans="1:19">
       <c r="A267" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>20</v>
@@ -16775,7 +16804,7 @@
         <v>23</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G267" s="15" t="s">
         <v>350</v>
@@ -16790,30 +16819,30 @@
         <v>265</v>
       </c>
       <c r="K267" s="15" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="L267" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M267" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O267" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P267" s="15"/>
       <c r="Q267" s="15"/>
       <c r="R267" s="30"/>
       <c r="S267" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:19">
       <c r="A268" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>20</v>
@@ -16828,10 +16857,10 @@
         <v>23</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>172</v>
+        <v>350</v>
       </c>
       <c r="H268" s="16">
         <v>1</v>
@@ -16840,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="15" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
       <c r="K268" s="15" t="s">
         <v>210</v>
@@ -16852,36 +16881,36 @@
         <v>31</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="O268" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P268" s="15"/>
       <c r="Q268" s="15"/>
       <c r="R268" s="30"/>
       <c r="S268" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="269" spans="1:19">
       <c r="A269" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F269" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D269" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E269" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="G269" s="15" t="s">
         <v>172</v>
@@ -16893,19 +16922,19 @@
         <v>0</v>
       </c>
       <c r="J269" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="K269" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L269" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M269" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N269" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K269" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="L269" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M269" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N269" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="O269" s="20" t="s">
         <v>35</v>
@@ -16914,27 +16943,27 @@
       <c r="Q269" s="15"/>
       <c r="R269" s="30"/>
       <c r="S269" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="270" spans="1:19">
       <c r="A270" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F270" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D270" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E270" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F270" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="G270" s="15" t="s">
         <v>172</v>
@@ -16946,33 +16975,33 @@
         <v>0</v>
       </c>
       <c r="J270" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K270" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L270" s="28" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M270" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="O270" s="20" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="P270" s="15"/>
       <c r="Q270" s="15"/>
       <c r="R270" s="30"/>
       <c r="S270" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="271" spans="1:19">
       <c r="A271" s="20" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>20</v>
@@ -16987,7 +17016,7 @@
         <v>23</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G271" s="15" t="s">
         <v>172</v>
@@ -16999,33 +17028,33 @@
         <v>0</v>
       </c>
       <c r="J271" s="15" t="s">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="K271" s="15" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="L271" s="28" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="M271" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N271" s="5" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="O271" s="20" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P271" s="15"/>
       <c r="Q271" s="15"/>
       <c r="R271" s="30"/>
       <c r="S271" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="272" spans="1:19">
       <c r="A272" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>20</v>
@@ -17040,7 +17069,7 @@
         <v>23</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G272" s="15" t="s">
         <v>172</v>
@@ -17055,30 +17084,30 @@
         <v>265</v>
       </c>
       <c r="K272" s="15" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="L272" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M272" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O272" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P272" s="15"/>
       <c r="Q272" s="15"/>
       <c r="R272" s="30"/>
       <c r="S272" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:19">
       <c r="A273" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>20</v>
@@ -17093,10 +17122,10 @@
         <v>23</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G273" s="15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H273" s="16">
         <v>1</v>
@@ -17105,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="15" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
       <c r="K273" s="15" t="s">
         <v>210</v>
@@ -17117,36 +17146,36 @@
         <v>31</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="O273" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P273" s="15"/>
       <c r="Q273" s="15"/>
       <c r="R273" s="30"/>
       <c r="S273" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="274" spans="1:19">
       <c r="A274" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F274" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D274" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E274" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F274" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="G274" s="15" t="s">
         <v>158</v>
@@ -17158,19 +17187,19 @@
         <v>0</v>
       </c>
       <c r="J274" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="K274" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L274" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M274" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N274" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K274" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="L274" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M274" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N274" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="O274" s="20" t="s">
         <v>35</v>
@@ -17179,27 +17208,27 @@
       <c r="Q274" s="15"/>
       <c r="R274" s="30"/>
       <c r="S274" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:19">
       <c r="A275" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F275" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D275" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E275" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F275" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="G275" s="15" t="s">
         <v>158</v>
@@ -17211,33 +17240,33 @@
         <v>0</v>
       </c>
       <c r="J275" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K275" s="15" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L275" s="28" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M275" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="O275" s="20" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="P275" s="15"/>
       <c r="Q275" s="15"/>
       <c r="R275" s="30"/>
       <c r="S275" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="276" spans="1:19">
       <c r="A276" s="20" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>20</v>
@@ -17252,7 +17281,7 @@
         <v>23</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G276" s="15" t="s">
         <v>158</v>
@@ -17264,33 +17293,33 @@
         <v>0</v>
       </c>
       <c r="J276" s="15" t="s">
-        <v>246</v>
+        <v>456</v>
       </c>
       <c r="K276" s="15" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="L276" s="28" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="M276" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>196</v>
+        <v>461</v>
       </c>
       <c r="O276" s="20" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P276" s="15"/>
       <c r="Q276" s="15"/>
       <c r="R276" s="30"/>
       <c r="S276" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="277" spans="1:19">
       <c r="A277" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>20</v>
@@ -17305,7 +17334,7 @@
         <v>23</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G277" s="15" t="s">
         <v>158</v>
@@ -17320,30 +17349,30 @@
         <v>246</v>
       </c>
       <c r="K277" s="15" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="L277" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M277" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O277" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P277" s="15"/>
       <c r="Q277" s="15"/>
       <c r="R277" s="30"/>
       <c r="S277" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="278" spans="1:19">
       <c r="A278" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>20</v>
@@ -17358,10 +17387,10 @@
         <v>23</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G278" s="15" t="s">
-        <v>476</v>
+        <v>158</v>
       </c>
       <c r="H278" s="16">
         <v>1</v>
@@ -17370,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="15" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="K278" s="15" t="s">
         <v>210</v>
@@ -17382,40 +17411,40 @@
         <v>31</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="O278" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P278" s="15"/>
       <c r="Q278" s="15"/>
       <c r="R278" s="30"/>
       <c r="S278" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="279" spans="1:19">
       <c r="A279" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F279" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B279" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D279" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E279" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F279" s="5" t="s">
+      <c r="G279" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="G279" s="15" t="s">
-        <v>476</v>
-      </c>
       <c r="H279" s="16">
         <v>1</v>
       </c>
@@ -17423,19 +17452,19 @@
         <v>0</v>
       </c>
       <c r="J279" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="K279" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L279" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M279" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N279" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K279" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="L279" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M279" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N279" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="O279" s="20" t="s">
         <v>35</v>
@@ -17444,31 +17473,31 @@
       <c r="Q279" s="15"/>
       <c r="R279" s="30"/>
       <c r="S279" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="280" spans="1:19">
       <c r="A280" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F280" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B280" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D280" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E280" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F280" s="5" t="s">
+      <c r="G280" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="G280" s="15" t="s">
-        <v>476</v>
-      </c>
       <c r="H280" s="16">
         <v>1</v>
       </c>
@@ -17476,33 +17505,33 @@
         <v>0</v>
       </c>
       <c r="J280" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K280" s="15" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L280" s="28" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M280" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="O280" s="20" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="P280" s="15"/>
       <c r="Q280" s="15"/>
       <c r="R280" s="30"/>
       <c r="S280" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="281" spans="1:19">
       <c r="A281" s="20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>20</v>
@@ -17517,11 +17546,11 @@
         <v>23</v>
       </c>
       <c r="F281" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G281" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="G281" s="15" t="s">
-        <v>476</v>
-      </c>
       <c r="H281" s="16">
         <v>1</v>
       </c>
@@ -17529,33 +17558,33 @@
         <v>0</v>
       </c>
       <c r="J281" s="15" t="s">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="K281" s="15" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="L281" s="28" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="M281" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N281" s="5" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="O281" s="20" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P281" s="15"/>
       <c r="Q281" s="15"/>
       <c r="R281" s="30"/>
       <c r="S281" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:19">
       <c r="A282" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>20</v>
@@ -17570,10 +17599,10 @@
         <v>23</v>
       </c>
       <c r="F282" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G282" s="15" t="s">
         <v>475</v>
-      </c>
-      <c r="G282" s="15" t="s">
-        <v>476</v>
       </c>
       <c r="H282" s="16">
         <v>1</v>
@@ -17585,30 +17614,30 @@
         <v>265</v>
       </c>
       <c r="K282" s="15" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="L282" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M282" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N282" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O282" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P282" s="15"/>
       <c r="Q282" s="15"/>
       <c r="R282" s="30"/>
       <c r="S282" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="283" spans="1:19">
       <c r="A283" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>20</v>
@@ -17623,10 +17652,10 @@
         <v>23</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G283" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H283" s="16">
         <v>1</v>
@@ -17635,7 +17664,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="15" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
       <c r="K283" s="15" t="s">
         <v>210</v>
@@ -17647,39 +17676,39 @@
         <v>31</v>
       </c>
       <c r="N283" s="5" t="s">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="O283" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P283" s="15"/>
       <c r="Q283" s="15"/>
       <c r="R283" s="30"/>
       <c r="S283" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="284" spans="1:19">
       <c r="A284" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F284" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B284" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D284" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E284" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="G284" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H284" s="16">
         <v>1</v>
@@ -17688,19 +17717,19 @@
         <v>0</v>
       </c>
       <c r="J284" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="K284" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L284" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M284" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N284" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K284" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="L284" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M284" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N284" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="O284" s="20" t="s">
         <v>35</v>
@@ -17709,30 +17738,30 @@
       <c r="Q284" s="15"/>
       <c r="R284" s="30"/>
       <c r="S284" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="285" spans="1:19">
       <c r="A285" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F285" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B285" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D285" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E285" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="G285" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H285" s="16">
         <v>1</v>
@@ -17741,33 +17770,33 @@
         <v>0</v>
       </c>
       <c r="J285" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K285" s="15" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L285" s="28" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M285" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N285" s="5" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="O285" s="20" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="P285" s="15"/>
       <c r="Q285" s="15"/>
       <c r="R285" s="30"/>
       <c r="S285" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:19">
       <c r="A286" s="20" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>20</v>
@@ -17782,10 +17811,10 @@
         <v>23</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G286" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H286" s="16">
         <v>1</v>
@@ -17794,33 +17823,33 @@
         <v>0</v>
       </c>
       <c r="J286" s="15" t="s">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="K286" s="15" t="s">
-        <v>151</v>
+        <v>468</v>
       </c>
       <c r="L286" s="28" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="M286" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N286" s="5" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="O286" s="20" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P286" s="15"/>
       <c r="Q286" s="15"/>
       <c r="R286" s="30"/>
       <c r="S286" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="287" spans="1:19">
       <c r="A287" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B287" s="9" t="s">
         <v>20</v>
@@ -17835,10 +17864,10 @@
         <v>23</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G287" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H287" s="16">
         <v>1</v>
@@ -17850,30 +17879,30 @@
         <v>265</v>
       </c>
       <c r="K287" s="15" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L287" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M287" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N287" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O287" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P287" s="15"/>
       <c r="Q287" s="15"/>
       <c r="R287" s="30"/>
       <c r="S287" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="288" spans="1:19">
       <c r="A288" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>20</v>
@@ -17888,10 +17917,10 @@
         <v>23</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G288" s="15" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H288" s="16">
         <v>1</v>
@@ -17900,51 +17929,51 @@
         <v>0</v>
       </c>
       <c r="J288" s="15" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K288" s="15" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="L288" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M288" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N288" s="5" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="O288" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P288" s="15"/>
       <c r="Q288" s="15"/>
       <c r="R288" s="30"/>
       <c r="S288" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:19">
       <c r="A289" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F289" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B289" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D289" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E289" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F289" s="5" t="s">
+      <c r="G289" s="15" t="s">
         <v>482</v>
-      </c>
-      <c r="G289" s="15" t="s">
-        <v>483</v>
       </c>
       <c r="H289" s="16">
         <v>1</v>
@@ -17956,30 +17985,30 @@
         <v>246</v>
       </c>
       <c r="K289" s="15" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="L289" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M289" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N289" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O289" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P289" s="15"/>
       <c r="Q289" s="15"/>
       <c r="R289" s="30"/>
       <c r="S289" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="290" spans="1:19">
       <c r="A290" s="20" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>20</v>
@@ -17994,10 +18023,10 @@
         <v>23</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G290" s="15" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H290" s="16">
         <v>1</v>
@@ -18006,10 +18035,10 @@
         <v>0</v>
       </c>
       <c r="J290" s="15" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="K290" s="15" t="s">
-        <v>486</v>
+        <v>210</v>
       </c>
       <c r="L290" s="28" t="s">
         <v>149</v>
@@ -18018,60 +18047,60 @@
         <v>31</v>
       </c>
       <c r="N290" s="5" t="s">
-        <v>458</v>
+        <v>38</v>
       </c>
       <c r="O290" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P290" s="15"/>
       <c r="Q290" s="15"/>
       <c r="R290" s="30"/>
       <c r="S290" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:19">
       <c r="A291" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F291" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B291" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D291" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E291" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F291" s="5" t="s">
+      <c r="G291" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="H291" s="16">
+        <v>1</v>
+      </c>
+      <c r="I291" s="16">
+        <v>0</v>
+      </c>
+      <c r="J291" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="G291" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="H291" s="16">
-        <v>1</v>
-      </c>
-      <c r="I291" s="16">
-        <v>0</v>
-      </c>
-      <c r="J291" s="15" t="s">
+      <c r="L291" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M291" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N291" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="K291" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="L291" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M291" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N291" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="O291" s="20" t="s">
         <v>35</v>
@@ -18080,30 +18109,30 @@
       <c r="Q291" s="15"/>
       <c r="R291" s="30"/>
       <c r="S291" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F292" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B292" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D292" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F292" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="G292" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H292" s="16">
         <v>1</v>
@@ -18112,33 +18141,33 @@
         <v>0</v>
       </c>
       <c r="J292" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K292" s="15" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L292" s="28" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M292" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N292" s="5" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="O292" s="20" t="s">
-        <v>463</v>
+        <v>35</v>
       </c>
       <c r="P292" s="15"/>
       <c r="Q292" s="15"/>
       <c r="R292" s="30"/>
       <c r="S292" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="293" spans="1:19">
       <c r="A293" s="20" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B293" s="9" t="s">
         <v>20</v>
@@ -18153,10 +18182,10 @@
         <v>23</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G293" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H293" s="16">
         <v>1</v>
@@ -18165,33 +18194,33 @@
         <v>0</v>
       </c>
       <c r="J293" s="15" t="s">
-        <v>246</v>
+        <v>456</v>
       </c>
       <c r="K293" s="15" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="L293" s="28" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="M293" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N293" s="5" t="s">
-        <v>196</v>
+        <v>461</v>
       </c>
       <c r="O293" s="20" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="P293" s="15"/>
       <c r="Q293" s="15"/>
       <c r="R293" s="30"/>
       <c r="S293" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="294" spans="1:19">
       <c r="A294" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>20</v>
@@ -18206,10 +18235,10 @@
         <v>23</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G294" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H294" s="16">
         <v>1</v>
@@ -18221,30 +18250,30 @@
         <v>246</v>
       </c>
       <c r="K294" s="15" t="s">
-        <v>486</v>
+        <v>242</v>
       </c>
       <c r="L294" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M294" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N294" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O294" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P294" s="15"/>
       <c r="Q294" s="15"/>
       <c r="R294" s="30"/>
       <c r="S294" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="295" spans="1:19">
       <c r="A295" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B295" s="9" t="s">
         <v>20</v>
@@ -18259,45 +18288,45 @@
         <v>23</v>
       </c>
       <c r="F295" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G295" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="H295" s="16">
+        <v>1</v>
+      </c>
+      <c r="I295" s="16">
+        <v>0</v>
+      </c>
+      <c r="J295" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K295" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="G295" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="H295" s="16">
-        <v>1</v>
-      </c>
-      <c r="I295" s="16">
-        <v>0</v>
-      </c>
-      <c r="J295" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="K295" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="L295" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M295" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N295" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O295" s="20" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="P295" s="15"/>
       <c r="Q295" s="15"/>
       <c r="R295" s="30"/>
       <c r="S295" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="296" spans="1:19">
       <c r="A296" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>20</v>
@@ -18312,10 +18341,10 @@
         <v>23</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G296" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H296" s="16">
         <v>1</v>
@@ -18327,30 +18356,30 @@
         <v>265</v>
       </c>
       <c r="K296" s="15" t="s">
-        <v>486</v>
+        <v>242</v>
       </c>
       <c r="L296" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M296" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N296" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O296" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P296" s="15"/>
       <c r="Q296" s="15"/>
       <c r="R296" s="30"/>
       <c r="S296" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="297" spans="1:19">
       <c r="A297" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B297" s="9" t="s">
         <v>20</v>
@@ -18365,10 +18394,10 @@
         <v>23</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G297" s="15" t="s">
-        <v>236</v>
+        <v>475</v>
       </c>
       <c r="H297" s="16">
         <v>1</v>
@@ -18377,33 +18406,33 @@
         <v>0</v>
       </c>
       <c r="J297" s="15" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="K297" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="L297" s="15" t="s">
-        <v>30</v>
+        <v>485</v>
+      </c>
+      <c r="L297" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="M297" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N297" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O297" s="20" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="P297" s="15"/>
       <c r="Q297" s="15"/>
       <c r="R297" s="30"/>
       <c r="S297" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:19">
       <c r="A298" s="20" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>20</v>
@@ -18418,7 +18447,7 @@
         <v>23</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G298" s="15" t="s">
         <v>236</v>
@@ -18430,12 +18459,12 @@
         <v>0</v>
       </c>
       <c r="J298" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K298" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="L298" s="28" t="s">
+      <c r="L298" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M298" s="15" t="s">
@@ -18445,18 +18474,18 @@
         <v>32</v>
       </c>
       <c r="O298" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P298" s="15"/>
       <c r="Q298" s="15"/>
       <c r="R298" s="30"/>
       <c r="S298" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="299" spans="1:19">
       <c r="A299" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>20</v>
@@ -18471,7 +18500,7 @@
         <v>23</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G299" s="15" t="s">
         <v>236</v>
@@ -18486,30 +18515,30 @@
         <v>208</v>
       </c>
       <c r="K299" s="15" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="L299" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M299" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N299" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O299" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O299" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P299" s="15"/>
       <c r="Q299" s="15"/>
       <c r="R299" s="30"/>
       <c r="S299" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="300" spans="1:19">
       <c r="A300" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>20</v>
@@ -18524,7 +18553,7 @@
         <v>23</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G300" s="15" t="s">
         <v>236</v>
@@ -18539,30 +18568,30 @@
         <v>208</v>
       </c>
       <c r="K300" s="15" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L300" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M300" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N300" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O300" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P300" s="15"/>
       <c r="Q300" s="15"/>
       <c r="R300" s="30"/>
       <c r="S300" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301" spans="1:19">
       <c r="A301" s="20" t="s">
-        <v>348</v>
+        <v>490</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>20</v>
@@ -18577,10 +18606,10 @@
         <v>23</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>349</v>
+        <v>489</v>
       </c>
       <c r="G301" s="15" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="H301" s="16">
         <v>1</v>
@@ -18589,13 +18618,13 @@
         <v>0</v>
       </c>
       <c r="J301" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K301" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="L301" s="15" t="s">
-        <v>30</v>
+        <v>242</v>
+      </c>
+      <c r="L301" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="M301" s="15" t="s">
         <v>31</v>
@@ -18603,19 +18632,19 @@
       <c r="N301" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O301" s="20" t="s">
-        <v>25</v>
+      <c r="O301" s="20">
+        <v>0</v>
       </c>
       <c r="P301" s="15"/>
       <c r="Q301" s="15"/>
       <c r="R301" s="30"/>
       <c r="S301" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" spans="1:19">
       <c r="A302" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>20</v>
@@ -18633,7 +18662,7 @@
         <v>349</v>
       </c>
       <c r="G302" s="15" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H302" s="16">
         <v>1</v>
@@ -18642,28 +18671,28 @@
         <v>0</v>
       </c>
       <c r="J302" s="15" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="K302" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="L302" s="28" t="s">
-        <v>86</v>
+        <v>355</v>
+      </c>
+      <c r="L302" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="M302" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N302" s="5" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O302" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P302" s="15"/>
       <c r="Q302" s="15"/>
       <c r="R302" s="30"/>
       <c r="S302" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -18698,30 +18727,30 @@
         <v>246</v>
       </c>
       <c r="K303" s="15" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="L303" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M303" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N303" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O303" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P303" s="15"/>
       <c r="Q303" s="15"/>
       <c r="R303" s="30"/>
       <c r="S303" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:19">
       <c r="A304" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>20</v>
@@ -18739,7 +18768,7 @@
         <v>349</v>
       </c>
       <c r="G304" s="15" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H304" s="16">
         <v>1</v>
@@ -18748,28 +18777,28 @@
         <v>0</v>
       </c>
       <c r="J304" s="15" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K304" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="L304" s="15" t="s">
-        <v>261</v>
+        <v>210</v>
+      </c>
+      <c r="L304" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="M304" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N304" s="5" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="O304" s="20" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="P304" s="15"/>
       <c r="Q304" s="15"/>
       <c r="R304" s="30"/>
       <c r="S304" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -18804,30 +18833,30 @@
         <v>259</v>
       </c>
       <c r="K305" s="15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L305" s="15" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M305" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N305" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O305" s="20" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P305" s="15"/>
       <c r="Q305" s="15"/>
       <c r="R305" s="30"/>
       <c r="S305" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="20" t="s">
-        <v>492</v>
+        <v>354</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>20</v>
@@ -18842,10 +18871,10 @@
         <v>23</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
       <c r="G306" s="15" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="H306" s="16">
         <v>1</v>
@@ -18854,13 +18883,13 @@
         <v>0</v>
       </c>
       <c r="J306" s="15" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="K306" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L306" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M306" s="15" t="s">
         <v>31</v>
@@ -18869,18 +18898,18 @@
         <v>32</v>
       </c>
       <c r="O306" s="20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P306" s="15"/>
       <c r="Q306" s="15"/>
       <c r="R306" s="30"/>
       <c r="S306" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>20</v>
@@ -18895,7 +18924,7 @@
         <v>23</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G307" s="15" t="s">
         <v>372</v>
@@ -18907,12 +18936,12 @@
         <v>0</v>
       </c>
       <c r="J307" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K307" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L307" s="28" t="s">
+      <c r="L307" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M307" s="15" t="s">
@@ -18922,18 +18951,18 @@
         <v>32</v>
       </c>
       <c r="O307" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P307" s="15"/>
       <c r="Q307" s="15"/>
       <c r="R307" s="30"/>
       <c r="S307" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>20</v>
@@ -18948,7 +18977,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G308" s="15" t="s">
         <v>372</v>
@@ -18963,30 +18992,30 @@
         <v>208</v>
       </c>
       <c r="K308" s="15" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="L308" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M308" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N308" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O308" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O308" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P308" s="15"/>
       <c r="Q308" s="15"/>
       <c r="R308" s="30"/>
       <c r="S308" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>20</v>
@@ -19001,7 +19030,7 @@
         <v>23</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G309" s="15" t="s">
         <v>372</v>
@@ -19016,30 +19045,30 @@
         <v>208</v>
       </c>
       <c r="K309" s="15" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="L309" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M309" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N309" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O309" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P309" s="15"/>
       <c r="Q309" s="15"/>
       <c r="R309" s="30"/>
       <c r="S309" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>20</v>
@@ -19054,7 +19083,7 @@
         <v>23</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G310" s="15" t="s">
         <v>372</v>
@@ -19066,33 +19095,33 @@
         <v>0</v>
       </c>
       <c r="J310" s="15" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="K310" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="L310" s="15" t="s">
-        <v>261</v>
+        <v>374</v>
+      </c>
+      <c r="L310" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="M310" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N310" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O310" s="20" t="s">
-        <v>262</v>
+        <v>32</v>
+      </c>
+      <c r="O310" s="20">
+        <v>0</v>
       </c>
       <c r="P310" s="15"/>
       <c r="Q310" s="15"/>
       <c r="R310" s="30"/>
       <c r="S310" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>20</v>
@@ -19107,7 +19136,7 @@
         <v>23</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G311" s="15" t="s">
         <v>372</v>
@@ -19122,30 +19151,30 @@
         <v>259</v>
       </c>
       <c r="K311" s="15" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="L311" s="15" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M311" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N311" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O311" s="20" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P311" s="15"/>
       <c r="Q311" s="15"/>
       <c r="R311" s="30"/>
       <c r="S311" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>20</v>
@@ -19160,7 +19189,7 @@
         <v>23</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G312" s="15" t="s">
         <v>372</v>
@@ -19172,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="J312" s="15" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K312" s="15" t="s">
         <v>374</v>
@@ -19193,12 +19222,12 @@
       <c r="Q312" s="15"/>
       <c r="R312" s="30"/>
       <c r="S312" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>20</v>
@@ -19213,7 +19242,7 @@
         <v>23</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G313" s="15" t="s">
         <v>372</v>
@@ -19225,13 +19254,13 @@
         <v>0</v>
       </c>
       <c r="J313" s="15" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K313" s="15" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L313" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M313" s="15" t="s">
         <v>31</v>
@@ -19240,18 +19269,18 @@
         <v>32</v>
       </c>
       <c r="O313" s="20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P313" s="15"/>
       <c r="Q313" s="15"/>
       <c r="R313" s="30"/>
       <c r="S313" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>20</v>
@@ -19266,7 +19295,7 @@
         <v>23</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G314" s="15" t="s">
         <v>372</v>
@@ -19278,12 +19307,12 @@
         <v>0</v>
       </c>
       <c r="J314" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K314" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L314" s="28" t="s">
+      <c r="L314" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M314" s="15" t="s">
@@ -19293,18 +19322,18 @@
         <v>32</v>
       </c>
       <c r="O314" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P314" s="15"/>
       <c r="Q314" s="15"/>
       <c r="R314" s="30"/>
       <c r="S314" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>20</v>
@@ -19319,7 +19348,7 @@
         <v>23</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G315" s="15" t="s">
         <v>372</v>
@@ -19334,30 +19363,30 @@
         <v>208</v>
       </c>
       <c r="K315" s="15" t="s">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="L315" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M315" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N315" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O315" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O315" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P315" s="15"/>
       <c r="Q315" s="15"/>
       <c r="R315" s="30"/>
       <c r="S315" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>20</v>
@@ -19372,7 +19401,7 @@
         <v>23</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G316" s="15" t="s">
         <v>372</v>
@@ -19387,30 +19416,30 @@
         <v>208</v>
       </c>
       <c r="K316" s="15" t="s">
-        <v>374</v>
+        <v>499</v>
       </c>
       <c r="L316" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M316" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N316" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O316" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P316" s="15"/>
       <c r="Q316" s="15"/>
       <c r="R316" s="30"/>
       <c r="S316" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="317" spans="1:19">
       <c r="A317" s="20" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>20</v>
@@ -19425,7 +19454,7 @@
         <v>23</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G317" s="15" t="s">
         <v>372</v>
@@ -19437,33 +19466,33 @@
         <v>0</v>
       </c>
       <c r="J317" s="15" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="K317" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="L317" s="15" t="s">
-        <v>261</v>
+        <v>374</v>
+      </c>
+      <c r="L317" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="M317" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N317" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O317" s="20" t="s">
-        <v>262</v>
+        <v>32</v>
+      </c>
+      <c r="O317" s="20">
+        <v>0</v>
       </c>
       <c r="P317" s="15"/>
       <c r="Q317" s="15"/>
       <c r="R317" s="30"/>
       <c r="S317" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>20</v>
@@ -19478,7 +19507,7 @@
         <v>23</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G318" s="15" t="s">
         <v>372</v>
@@ -19493,30 +19522,30 @@
         <v>259</v>
       </c>
       <c r="K318" s="15" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="L318" s="15" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M318" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N318" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O318" s="20" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P318" s="15"/>
       <c r="Q318" s="15"/>
       <c r="R318" s="30"/>
       <c r="S318" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>20</v>
@@ -19531,7 +19560,7 @@
         <v>23</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G319" s="15" t="s">
         <v>372</v>
@@ -19543,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="J319" s="15" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K319" s="15" t="s">
         <v>374</v>
@@ -19564,12 +19593,12 @@
       <c r="Q319" s="15"/>
       <c r="R319" s="30"/>
       <c r="S319" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="320" spans="1:19">
       <c r="A320" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>20</v>
@@ -19584,10 +19613,10 @@
         <v>23</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G320" s="15" t="s">
-        <v>245</v>
+        <v>372</v>
       </c>
       <c r="H320" s="16">
         <v>1</v>
@@ -19596,19 +19625,19 @@
         <v>0</v>
       </c>
       <c r="J320" s="15" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K320" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L320" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="L320" s="15" t="s">
         <v>86</v>
       </c>
       <c r="M320" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N320" s="5" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O320" s="20" t="s">
         <v>35</v>
@@ -19617,27 +19646,27 @@
       <c r="Q320" s="15"/>
       <c r="R320" s="30"/>
       <c r="S320" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="321" spans="1:19">
       <c r="A321" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F321" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D321" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E321" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F321" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="G321" s="15" t="s">
         <v>245</v>
@@ -19652,30 +19681,30 @@
         <v>246</v>
       </c>
       <c r="K321" s="15" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="L321" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M321" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N321" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O321" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P321" s="15"/>
       <c r="Q321" s="15"/>
       <c r="R321" s="30"/>
       <c r="S321" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="322" spans="1:19">
       <c r="A322" s="20" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B322" s="9" t="s">
         <v>20</v>
@@ -19690,10 +19719,10 @@
         <v>23</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G322" s="15" t="s">
-        <v>372</v>
+        <v>245</v>
       </c>
       <c r="H322" s="16">
         <v>1</v>
@@ -19702,33 +19731,33 @@
         <v>0</v>
       </c>
       <c r="J322" s="15" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="K322" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="L322" s="15" t="s">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="L322" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="M322" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N322" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O322" s="20" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="P322" s="15"/>
       <c r="Q322" s="15"/>
       <c r="R322" s="30"/>
       <c r="S322" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B323" s="9" t="s">
         <v>20</v>
@@ -19743,7 +19772,7 @@
         <v>23</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G323" s="15" t="s">
         <v>372</v>
@@ -19755,12 +19784,12 @@
         <v>0</v>
       </c>
       <c r="J323" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K323" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L323" s="28" t="s">
+      <c r="L323" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M323" s="15" t="s">
@@ -19770,18 +19799,18 @@
         <v>32</v>
       </c>
       <c r="O323" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P323" s="15"/>
       <c r="Q323" s="15"/>
       <c r="R323" s="30"/>
       <c r="S323" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="324" spans="1:19">
       <c r="A324" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B324" s="9" t="s">
         <v>20</v>
@@ -19796,7 +19825,7 @@
         <v>23</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G324" s="15" t="s">
         <v>372</v>
@@ -19811,30 +19840,30 @@
         <v>208</v>
       </c>
       <c r="K324" s="15" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="L324" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M324" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N324" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O324" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O324" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P324" s="15"/>
       <c r="Q324" s="15"/>
       <c r="R324" s="30"/>
       <c r="S324" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="325" spans="1:19">
       <c r="A325" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B325" s="9" t="s">
         <v>20</v>
@@ -19849,7 +19878,7 @@
         <v>23</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G325" s="15" t="s">
         <v>372</v>
@@ -19864,30 +19893,30 @@
         <v>208</v>
       </c>
       <c r="K325" s="15" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="L325" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M325" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N325" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O325" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P325" s="15"/>
       <c r="Q325" s="15"/>
       <c r="R325" s="30"/>
       <c r="S325" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="326" spans="1:19">
       <c r="A326" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B326" s="9" t="s">
         <v>20</v>
@@ -19902,10 +19931,10 @@
         <v>23</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>202</v>
+        <v>505</v>
       </c>
       <c r="G326" s="15" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="H326" s="16">
         <v>1</v>
@@ -19914,13 +19943,13 @@
         <v>0</v>
       </c>
       <c r="J326" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K326" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="L326" s="15" t="s">
-        <v>30</v>
+        <v>374</v>
+      </c>
+      <c r="L326" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="M326" s="15" t="s">
         <v>31</v>
@@ -19928,19 +19957,19 @@
       <c r="N326" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O326" s="20" t="s">
-        <v>25</v>
+      <c r="O326" s="20">
+        <v>0</v>
       </c>
       <c r="P326" s="15"/>
       <c r="Q326" s="15"/>
       <c r="R326" s="30"/>
       <c r="S326" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="327" spans="1:19">
       <c r="A327" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>20</v>
@@ -19967,12 +19996,12 @@
         <v>0</v>
       </c>
       <c r="J327" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K327" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="L327" s="28" t="s">
+      <c r="L327" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M327" s="15" t="s">
@@ -19982,18 +20011,18 @@
         <v>32</v>
       </c>
       <c r="O327" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P327" s="15"/>
       <c r="Q327" s="15"/>
       <c r="R327" s="30"/>
       <c r="S327" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>20</v>
@@ -20023,30 +20052,30 @@
         <v>208</v>
       </c>
       <c r="K328" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L328" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M328" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N328" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O328" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O328" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P328" s="15"/>
       <c r="Q328" s="15"/>
       <c r="R328" s="30"/>
       <c r="S328" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="329" spans="1:19">
       <c r="A329" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B329" s="9" t="s">
         <v>20</v>
@@ -20076,30 +20105,30 @@
         <v>208</v>
       </c>
       <c r="K329" s="15" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="L329" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M329" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N329" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O329" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P329" s="15"/>
       <c r="Q329" s="15"/>
       <c r="R329" s="30"/>
       <c r="S329" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>20</v>
@@ -20114,10 +20143,10 @@
         <v>23</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>513</v>
+        <v>202</v>
       </c>
       <c r="G330" s="15" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="H330" s="16">
         <v>1</v>
@@ -20126,13 +20155,13 @@
         <v>0</v>
       </c>
       <c r="J330" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K330" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="L330" s="15" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="L330" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="M330" s="15" t="s">
         <v>31</v>
@@ -20140,19 +20169,19 @@
       <c r="N330" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O330" s="20" t="s">
-        <v>25</v>
+      <c r="O330" s="20">
+        <v>0</v>
       </c>
       <c r="P330" s="15"/>
       <c r="Q330" s="15"/>
       <c r="R330" s="30"/>
       <c r="S330" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="20" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>20</v>
@@ -20167,7 +20196,7 @@
         <v>23</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G331" s="15" t="s">
         <v>236</v>
@@ -20179,12 +20208,12 @@
         <v>0</v>
       </c>
       <c r="J331" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K331" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="L331" s="28" t="s">
+      <c r="L331" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M331" s="15" t="s">
@@ -20194,18 +20223,18 @@
         <v>32</v>
       </c>
       <c r="O331" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P331" s="15"/>
       <c r="Q331" s="15"/>
       <c r="R331" s="30"/>
       <c r="S331" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="332" spans="1:19">
       <c r="A332" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>20</v>
@@ -20220,7 +20249,7 @@
         <v>23</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G332" s="15" t="s">
         <v>236</v>
@@ -20235,30 +20264,30 @@
         <v>208</v>
       </c>
       <c r="K332" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L332" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M332" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N332" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O332" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O332" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P332" s="15"/>
       <c r="Q332" s="15"/>
       <c r="R332" s="30"/>
       <c r="S332" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>20</v>
@@ -20273,7 +20302,7 @@
         <v>23</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G333" s="15" t="s">
         <v>236</v>
@@ -20288,30 +20317,30 @@
         <v>208</v>
       </c>
       <c r="K333" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L333" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M333" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N333" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O333" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P333" s="15"/>
       <c r="Q333" s="15"/>
       <c r="R333" s="30"/>
       <c r="S333" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="334" spans="1:19">
       <c r="A334" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>20</v>
@@ -20326,10 +20355,10 @@
         <v>23</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G334" s="15" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H334" s="16">
         <v>1</v>
@@ -20338,10 +20367,10 @@
         <v>0</v>
       </c>
       <c r="J334" s="15" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="K334" s="15" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="L334" s="28" t="s">
         <v>86</v>
@@ -20350,36 +20379,36 @@
         <v>31</v>
       </c>
       <c r="N334" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O334" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="O334" s="20">
+        <v>0</v>
       </c>
       <c r="P334" s="15"/>
       <c r="Q334" s="15"/>
       <c r="R334" s="30"/>
       <c r="S334" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:19">
       <c r="A335" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F335" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="B335" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D335" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E335" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F335" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="G335" s="15" t="s">
         <v>245</v>
@@ -20394,30 +20423,30 @@
         <v>246</v>
       </c>
       <c r="K335" s="15" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="L335" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M335" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N335" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O335" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P335" s="15"/>
       <c r="Q335" s="15"/>
       <c r="R335" s="30"/>
       <c r="S335" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:19">
       <c r="A336" s="20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B336" s="9" t="s">
         <v>20</v>
@@ -20432,10 +20461,10 @@
         <v>23</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G336" s="15" t="s">
-        <v>372</v>
+        <v>245</v>
       </c>
       <c r="H336" s="16">
         <v>1</v>
@@ -20444,33 +20473,33 @@
         <v>0</v>
       </c>
       <c r="J336" s="15" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="K336" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="L336" s="15" t="s">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="L336" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="M336" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N336" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O336" s="20" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="P336" s="15"/>
       <c r="Q336" s="15"/>
       <c r="R336" s="30"/>
       <c r="S336" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="337" spans="1:19">
       <c r="A337" s="20" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B337" s="9" t="s">
         <v>20</v>
@@ -20485,7 +20514,7 @@
         <v>23</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G337" s="15" t="s">
         <v>372</v>
@@ -20497,12 +20526,12 @@
         <v>0</v>
       </c>
       <c r="J337" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K337" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L337" s="28" t="s">
+      <c r="L337" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M337" s="15" t="s">
@@ -20512,18 +20541,18 @@
         <v>32</v>
       </c>
       <c r="O337" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P337" s="15"/>
       <c r="Q337" s="15"/>
       <c r="R337" s="30"/>
       <c r="S337" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:19">
       <c r="A338" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B338" s="9" t="s">
         <v>20</v>
@@ -20538,7 +20567,7 @@
         <v>23</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G338" s="15" t="s">
         <v>372</v>
@@ -20553,30 +20582,30 @@
         <v>208</v>
       </c>
       <c r="K338" s="15" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="L338" s="28" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="M338" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N338" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O338" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O338" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P338" s="15"/>
       <c r="Q338" s="15"/>
       <c r="R338" s="30"/>
       <c r="S338" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:19">
       <c r="A339" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B339" s="9" t="s">
         <v>20</v>
@@ -20591,7 +20620,7 @@
         <v>23</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G339" s="15" t="s">
         <v>372</v>
@@ -20606,30 +20635,30 @@
         <v>208</v>
       </c>
       <c r="K339" s="15" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="L339" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M339" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N339" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O339" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P339" s="15"/>
       <c r="Q339" s="15"/>
       <c r="R339" s="30"/>
       <c r="S339" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="340" spans="1:19">
       <c r="A340" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B340" s="9" t="s">
         <v>20</v>
@@ -20644,7 +20673,7 @@
         <v>23</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G340" s="15" t="s">
         <v>372</v>
@@ -20656,33 +20685,33 @@
         <v>0</v>
       </c>
       <c r="J340" s="15" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="K340" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="L340" s="15" t="s">
-        <v>261</v>
+        <v>374</v>
+      </c>
+      <c r="L340" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="M340" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N340" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O340" s="20" t="s">
-        <v>262</v>
+        <v>32</v>
+      </c>
+      <c r="O340" s="20">
+        <v>0</v>
       </c>
       <c r="P340" s="15"/>
       <c r="Q340" s="15"/>
       <c r="R340" s="30"/>
       <c r="S340" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="341" spans="1:19">
       <c r="A341" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B341" s="9" t="s">
         <v>20</v>
@@ -20697,7 +20726,7 @@
         <v>23</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G341" s="15" t="s">
         <v>372</v>
@@ -20712,30 +20741,30 @@
         <v>259</v>
       </c>
       <c r="K341" s="15" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="L341" s="15" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M341" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O341" s="20" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="P341" s="15"/>
       <c r="Q341" s="15"/>
       <c r="R341" s="30"/>
       <c r="S341" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="342" spans="1:19">
       <c r="A342" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B342" s="9" t="s">
         <v>20</v>
@@ -20750,7 +20779,7 @@
         <v>23</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G342" s="15" t="s">
         <v>372</v>
@@ -20762,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="J342" s="15" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K342" s="15" t="s">
         <v>374</v>
@@ -20783,12 +20812,12 @@
       <c r="Q342" s="15"/>
       <c r="R342" s="30"/>
       <c r="S342" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="343" spans="1:19">
       <c r="A343" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B343" s="9" t="s">
         <v>20</v>
@@ -20803,7 +20832,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G343" s="15" t="s">
         <v>372</v>
@@ -20815,13 +20844,13 @@
         <v>0</v>
       </c>
       <c r="J343" s="15" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K343" s="15" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L343" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M343" s="15" t="s">
         <v>31</v>
@@ -20830,18 +20859,18 @@
         <v>32</v>
       </c>
       <c r="O343" s="20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P343" s="15"/>
       <c r="Q343" s="15"/>
       <c r="R343" s="30"/>
       <c r="S343" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="344" spans="1:19">
       <c r="A344" s="20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B344" s="9" t="s">
         <v>20</v>
@@ -20856,7 +20885,7 @@
         <v>23</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G344" s="15" t="s">
         <v>372</v>
@@ -20868,12 +20897,12 @@
         <v>0</v>
       </c>
       <c r="J344" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K344" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L344" s="28" t="s">
+      <c r="L344" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M344" s="15" t="s">
@@ -20883,18 +20912,18 @@
         <v>32</v>
       </c>
       <c r="O344" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P344" s="15"/>
       <c r="Q344" s="15"/>
       <c r="R344" s="30"/>
       <c r="S344" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="345" spans="1:19">
       <c r="A345" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B345" s="9" t="s">
         <v>20</v>
@@ -20909,7 +20938,7 @@
         <v>23</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G345" s="15" t="s">
         <v>372</v>
@@ -20924,30 +20953,30 @@
         <v>208</v>
       </c>
       <c r="K345" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L345" s="28" t="s">
-        <v>149</v>
+        <v>355</v>
+      </c>
+      <c r="L345" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="M345" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O345" s="20">
-        <v>50000</v>
+        <v>32</v>
+      </c>
+      <c r="O345" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="P345" s="15"/>
       <c r="Q345" s="15"/>
       <c r="R345" s="30"/>
       <c r="S345" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:19">
       <c r="A346" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B346" s="9" t="s">
         <v>20</v>
@@ -20962,7 +20991,7 @@
         <v>23</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G346" s="15" t="s">
         <v>372</v>
@@ -20977,30 +21006,30 @@
         <v>208</v>
       </c>
       <c r="K346" s="15" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="L346" s="28" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="M346" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="O346" s="20">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="P346" s="15"/>
       <c r="Q346" s="15"/>
       <c r="R346" s="30"/>
       <c r="S346" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="347" spans="1:19">
-      <c r="A347" s="25" t="s">
-        <v>525</v>
+      <c r="A347" s="20" t="s">
+        <v>523</v>
       </c>
       <c r="B347" s="9" t="s">
         <v>20</v>
@@ -21015,10 +21044,10 @@
         <v>23</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G347" s="15" t="s">
-        <v>245</v>
+        <v>372</v>
       </c>
       <c r="H347" s="16">
         <v>1</v>
@@ -21027,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="J347" s="15" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="K347" s="15" t="s">
         <v>374</v>
@@ -21039,21 +21068,21 @@
         <v>31</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O347" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="O347" s="20">
+        <v>0</v>
       </c>
       <c r="P347" s="15"/>
       <c r="Q347" s="15"/>
       <c r="R347" s="30"/>
       <c r="S347" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" spans="1:19">
       <c r="A348" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B348" s="9" t="s">
         <v>20</v>
@@ -21068,7 +21097,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G348" s="15" t="s">
         <v>245</v>
@@ -21083,30 +21112,30 @@
         <v>246</v>
       </c>
       <c r="K348" s="15" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="L348" s="28" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M348" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O348" s="20" t="s">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P348" s="15"/>
       <c r="Q348" s="15"/>
       <c r="R348" s="30"/>
       <c r="S348" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="20" t="s">
-        <v>526</v>
+      <c r="A349" s="25" t="s">
+        <v>524</v>
       </c>
       <c r="B349" s="9" t="s">
         <v>20</v>
@@ -21121,10 +21150,10 @@
         <v>23</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="G349" s="21" t="s">
-        <v>527</v>
+        <v>522</v>
+      </c>
+      <c r="G349" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="H349" s="16">
         <v>1</v>
@@ -21135,29 +21164,31 @@
       <c r="J349" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="K349" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L349" s="15" t="s">
-        <v>86</v>
+      <c r="K349" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L349" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="M349" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N349" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O349" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="O349" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="P349" s="15"/>
       <c r="Q349" s="15"/>
       <c r="R349" s="30"/>
-      <c r="S349" s="15"/>
+      <c r="S349" s="15" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="350" spans="1:19">
-      <c r="A350" s="20" t="s">
-        <v>528</v>
+      <c r="A350" s="25" t="s">
+        <v>525</v>
       </c>
       <c r="B350" s="9" t="s">
         <v>20</v>
@@ -21172,10 +21203,10 @@
         <v>23</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="G350" s="21" t="s">
-        <v>304</v>
+        <v>522</v>
+      </c>
+      <c r="G350" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="H350" s="16">
         <v>1</v>
@@ -21183,20 +21214,32 @@
       <c r="I350" s="16">
         <v>0</v>
       </c>
-      <c r="J350" s="15"/>
-      <c r="K350" s="21"/>
-      <c r="L350" s="15"/>
-      <c r="M350" s="15"/>
-      <c r="N350"/>
-      <c r="O350" s="25"/>
+      <c r="J350" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K350" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="L350" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M350" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N350" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O350" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="P350" s="15"/>
       <c r="Q350" s="15"/>
       <c r="R350" s="30"/>
       <c r="S350" s="15"/>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="20" t="s">
-        <v>529</v>
+      <c r="A351" s="25" t="s">
+        <v>525</v>
       </c>
       <c r="B351" s="9" t="s">
         <v>20</v>
@@ -21211,10 +21254,10 @@
         <v>23</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G351" s="21" t="s">
-        <v>304</v>
+        <v>522</v>
+      </c>
+      <c r="G351" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="H351" s="16">
         <v>1</v>
@@ -21222,12 +21265,24 @@
       <c r="I351" s="16">
         <v>0</v>
       </c>
-      <c r="J351" s="15"/>
-      <c r="K351" s="21"/>
-      <c r="L351" s="15"/>
-      <c r="M351" s="15"/>
-      <c r="N351"/>
-      <c r="O351" s="20"/>
+      <c r="J351" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K351" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="L351" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M351" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N351" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O351" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="P351" s="15"/>
       <c r="Q351" s="15"/>
       <c r="R351" s="30"/>
@@ -21235,7 +21290,7 @@
     </row>
     <row r="352" spans="1:19">
       <c r="A352" s="20" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B352" s="9" t="s">
         <v>20</v>
@@ -21250,10 +21305,10 @@
         <v>23</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G352" s="21" t="s">
-        <v>304</v>
+        <v>527</v>
       </c>
       <c r="H352" s="16">
         <v>1</v>
@@ -21261,12 +21316,24 @@
       <c r="I352" s="16">
         <v>0</v>
       </c>
-      <c r="J352" s="15"/>
-      <c r="K352" s="15"/>
-      <c r="L352" s="15"/>
-      <c r="M352" s="15"/>
-      <c r="N352"/>
-      <c r="O352" s="25"/>
+      <c r="J352" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K352" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L352" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M352" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N352" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O352" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="P352" s="15"/>
       <c r="Q352" s="15"/>
       <c r="R352" s="30"/>
@@ -21274,7 +21341,7 @@
     </row>
     <row r="353" spans="1:19">
       <c r="A353" s="20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B353" s="9" t="s">
         <v>20</v>
@@ -21289,7 +21356,7 @@
         <v>23</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G353" s="21" t="s">
         <v>304</v>
@@ -21313,7 +21380,7 @@
     </row>
     <row r="354" spans="1:19">
       <c r="A354" s="20" t="s">
-        <v>97</v>
+        <v>529</v>
       </c>
       <c r="B354" s="9" t="s">
         <v>20</v>
@@ -21328,10 +21395,10 @@
         <v>23</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>97</v>
+        <v>529</v>
       </c>
       <c r="G354" s="21" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="H354" s="16">
         <v>1</v>
@@ -21339,24 +21406,12 @@
       <c r="I354" s="16">
         <v>0</v>
       </c>
-      <c r="J354" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K354" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="L354" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="M354" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N354" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O354" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="J354" s="15"/>
+      <c r="K354" s="21"/>
+      <c r="L354" s="15"/>
+      <c r="M354" s="15"/>
+      <c r="N354"/>
+      <c r="O354" s="20"/>
       <c r="P354" s="15"/>
       <c r="Q354" s="15"/>
       <c r="R354" s="30"/>
@@ -21364,7 +21419,7 @@
     </row>
     <row r="355" spans="1:19">
       <c r="A355" s="20" t="s">
-        <v>97</v>
+        <v>530</v>
       </c>
       <c r="B355" s="9" t="s">
         <v>20</v>
@@ -21379,10 +21434,10 @@
         <v>23</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>97</v>
+        <v>530</v>
       </c>
       <c r="G355" s="21" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="H355" s="16">
         <v>1</v>
@@ -21390,24 +21445,12 @@
       <c r="I355" s="16">
         <v>0</v>
       </c>
-      <c r="J355" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="K355" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L355" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M355" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N355" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O355" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="J355" s="15"/>
+      <c r="K355" s="15"/>
+      <c r="L355" s="15"/>
+      <c r="M355" s="15"/>
+      <c r="N355"/>
+      <c r="O355" s="25"/>
       <c r="P355" s="15"/>
       <c r="Q355" s="15"/>
       <c r="R355" s="30"/>
@@ -21415,7 +21458,7 @@
     </row>
     <row r="356" spans="1:19">
       <c r="A356" s="20" t="s">
-        <v>97</v>
+        <v>531</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>20</v>
@@ -21430,10 +21473,10 @@
         <v>23</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>97</v>
+        <v>531</v>
       </c>
       <c r="G356" s="21" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="H356" s="16">
         <v>1</v>
@@ -21441,24 +21484,12 @@
       <c r="I356" s="16">
         <v>0</v>
       </c>
-      <c r="J356" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K356" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="L356" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="M356" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N356" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O356" s="20" t="s">
-        <v>262</v>
-      </c>
+      <c r="J356" s="15"/>
+      <c r="K356" s="21"/>
+      <c r="L356" s="15"/>
+      <c r="M356" s="15"/>
+      <c r="N356"/>
+      <c r="O356" s="25"/>
       <c r="P356" s="15"/>
       <c r="Q356" s="15"/>
       <c r="R356" s="30"/>
@@ -21466,7 +21497,7 @@
     </row>
     <row r="357" spans="1:19">
       <c r="A357" s="20" t="s">
-        <v>532</v>
+        <v>97</v>
       </c>
       <c r="B357" s="9" t="s">
         <v>20</v>
@@ -21481,7 +21512,7 @@
         <v>23</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>532</v>
+        <v>97</v>
       </c>
       <c r="G357" s="21" t="s">
         <v>98</v>
@@ -21493,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="J357" s="15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K357" s="21" t="s">
         <v>148</v>
@@ -21517,7 +21548,7 @@
     </row>
     <row r="358" spans="1:19">
       <c r="A358" s="20" t="s">
-        <v>532</v>
+        <v>97</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>20</v>
@@ -21532,7 +21563,7 @@
         <v>23</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>532</v>
+        <v>97</v>
       </c>
       <c r="G358" s="21" t="s">
         <v>98</v>
@@ -21568,7 +21599,7 @@
     </row>
     <row r="359" spans="1:19">
       <c r="A359" s="20" t="s">
-        <v>533</v>
+        <v>97</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>20</v>
@@ -21583,10 +21614,10 @@
         <v>23</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G359" s="15" t="s">
-        <v>304</v>
+        <v>97</v>
+      </c>
+      <c r="G359" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="H359" s="16">
         <v>1</v>
@@ -21594,12 +21625,24 @@
       <c r="I359" s="16">
         <v>0</v>
       </c>
-      <c r="J359" s="15"/>
-      <c r="K359" s="15"/>
-      <c r="L359" s="15"/>
-      <c r="M359" s="15"/>
-      <c r="N359"/>
-      <c r="O359" s="20"/>
+      <c r="J359" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K359" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="L359" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M359" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N359" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O359" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="P359" s="15"/>
       <c r="Q359" s="15"/>
       <c r="R359" s="30"/>
@@ -21607,7 +21650,7 @@
     </row>
     <row r="360" spans="1:19">
       <c r="A360" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B360" s="9" t="s">
         <v>20</v>
@@ -21621,11 +21664,11 @@
       <c r="E360" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F360" s="20" t="s">
-        <v>534</v>
+      <c r="F360" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="G360" s="21" t="s">
-        <v>535</v>
+        <v>98</v>
       </c>
       <c r="H360" s="16">
         <v>1</v>
@@ -21634,7 +21677,7 @@
         <v>0</v>
       </c>
       <c r="J360" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K360" s="21" t="s">
         <v>148</v>
@@ -21658,7 +21701,7 @@
     </row>
     <row r="361" spans="1:19">
       <c r="A361" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B361" s="9" t="s">
         <v>20</v>
@@ -21672,11 +21715,11 @@
       <c r="E361" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F361" s="20" t="s">
-        <v>534</v>
+      <c r="F361" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="G361" s="21" t="s">
-        <v>535</v>
+        <v>98</v>
       </c>
       <c r="H361" s="16">
         <v>1</v>
@@ -21709,7 +21752,7 @@
     </row>
     <row r="362" spans="1:19">
       <c r="A362" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B362" s="9" t="s">
         <v>20</v>
@@ -21723,11 +21766,11 @@
       <c r="E362" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F362" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="G362" s="21" t="s">
-        <v>535</v>
+      <c r="F362" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G362" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="H362" s="16">
         <v>1</v>
@@ -21735,24 +21778,12 @@
       <c r="I362" s="16">
         <v>0</v>
       </c>
-      <c r="J362" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K362" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="L362" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="M362" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N362" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O362" s="20" t="s">
-        <v>262</v>
-      </c>
+      <c r="J362" s="15"/>
+      <c r="K362" s="15"/>
+      <c r="L362" s="15"/>
+      <c r="M362" s="15"/>
+      <c r="N362"/>
+      <c r="O362" s="20"/>
       <c r="P362" s="15"/>
       <c r="Q362" s="15"/>
       <c r="R362" s="30"/>
@@ -21760,7 +21791,7 @@
     </row>
     <row r="363" spans="1:19">
       <c r="A363" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B363" s="9" t="s">
         <v>20</v>
@@ -21775,10 +21806,10 @@
         <v>23</v>
       </c>
       <c r="F363" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G363" s="21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H363" s="16">
         <v>1</v>
@@ -21787,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="J363" s="15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K363" s="21" t="s">
         <v>148</v>
@@ -21811,7 +21842,7 @@
     </row>
     <row r="364" spans="1:19">
       <c r="A364" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B364" s="9" t="s">
         <v>20</v>
@@ -21826,10 +21857,10 @@
         <v>23</v>
       </c>
       <c r="F364" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G364" s="21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H364" s="16">
         <v>1</v>
@@ -21861,100 +21892,255 @@
       <c r="S364" s="15"/>
     </row>
     <row r="365" spans="1:19">
-      <c r="A365" s="20"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="15"/>
-      <c r="E365" s="15"/>
-      <c r="F365" s="5"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="16"/>
-      <c r="I365" s="16"/>
-      <c r="J365" s="15"/>
-      <c r="K365" s="15"/>
-      <c r="L365" s="15"/>
-      <c r="M365" s="15"/>
-      <c r="O365" s="20"/>
+      <c r="A365" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E365" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F365" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="G365" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="H365" s="16">
+        <v>1</v>
+      </c>
+      <c r="I365" s="16">
+        <v>0</v>
+      </c>
+      <c r="J365" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K365" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="L365" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M365" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N365" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O365" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="P365" s="15"/>
       <c r="Q365" s="15"/>
       <c r="R365" s="30"/>
       <c r="S365" s="15"/>
     </row>
     <row r="366" spans="1:19">
-      <c r="A366" s="20"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15"/>
-      <c r="F366" s="5"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="16"/>
-      <c r="I366" s="16"/>
-      <c r="J366" s="15"/>
-      <c r="K366" s="15"/>
-      <c r="L366" s="15"/>
-      <c r="M366" s="15"/>
-      <c r="O366" s="20"/>
+      <c r="A366" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E366" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F366" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="G366" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="H366" s="16">
+        <v>1</v>
+      </c>
+      <c r="I366" s="16">
+        <v>0</v>
+      </c>
+      <c r="J366" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K366" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L366" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M366" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N366" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O366" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="P366" s="15"/>
       <c r="Q366" s="15"/>
       <c r="R366" s="30"/>
       <c r="S366" s="15"/>
     </row>
     <row r="367" spans="1:19">
-      <c r="A367" s="20"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="15"/>
-      <c r="D367" s="15"/>
-      <c r="E367" s="15"/>
-      <c r="F367" s="5"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="16"/>
-      <c r="I367" s="16"/>
-      <c r="J367" s="15"/>
-      <c r="K367" s="15"/>
-      <c r="L367" s="15"/>
-      <c r="M367" s="15"/>
-      <c r="O367" s="20"/>
+      <c r="A367" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E367" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F367" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="G367" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="H367" s="16">
+        <v>1</v>
+      </c>
+      <c r="I367" s="16">
+        <v>0</v>
+      </c>
+      <c r="J367" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K367" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L367" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M367" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N367" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O367" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="P367" s="15"/>
       <c r="Q367" s="15"/>
       <c r="R367" s="30"/>
       <c r="S367" s="15"/>
     </row>
     <row r="368" spans="1:19">
-      <c r="A368" s="20"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="5"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="16"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="15"/>
-      <c r="L368" s="15"/>
-      <c r="M368" s="15"/>
-      <c r="O368" s="20"/>
+      <c r="A368" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="B368" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D368" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E368" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F368" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="G368" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H368" s="16">
+        <v>0</v>
+      </c>
+      <c r="I368" s="16">
+        <v>0</v>
+      </c>
+      <c r="J368" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="K368" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L368" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M368" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N368" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O368" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="P368" s="15"/>
       <c r="Q368" s="15"/>
       <c r="R368" s="30"/>
       <c r="S368" s="15"/>
     </row>
     <row r="369" spans="1:19">
-      <c r="A369" s="20"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="5"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="16"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
-      <c r="M369" s="15"/>
-      <c r="O369" s="20"/>
+      <c r="A369" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D369" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E369" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F369" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="G369" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H369" s="16">
+        <v>0</v>
+      </c>
+      <c r="I369" s="16">
+        <v>0</v>
+      </c>
+      <c r="J369" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="K369" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L369" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M369" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N369" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O369" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="P369" s="15"/>
       <c r="Q369" s="15"/>
       <c r="R369" s="30"/>
@@ -25240,16 +25426,76 @@
       <c r="R533" s="30"/>
       <c r="S533" s="15"/>
     </row>
+    <row r="534" spans="1:19">
+      <c r="A534" s="20"/>
+      <c r="B534" s="15"/>
+      <c r="C534" s="15"/>
+      <c r="D534" s="15"/>
+      <c r="E534" s="15"/>
+      <c r="F534" s="5"/>
+      <c r="G534" s="15"/>
+      <c r="H534" s="16"/>
+      <c r="I534" s="16"/>
+      <c r="J534" s="15"/>
+      <c r="K534" s="15"/>
+      <c r="L534" s="15"/>
+      <c r="M534" s="15"/>
+      <c r="O534" s="20"/>
+      <c r="P534" s="15"/>
+      <c r="Q534" s="15"/>
+      <c r="R534" s="30"/>
+      <c r="S534" s="15"/>
+    </row>
+    <row r="535" spans="1:19">
+      <c r="A535" s="20"/>
+      <c r="B535" s="15"/>
+      <c r="C535" s="15"/>
+      <c r="D535" s="15"/>
+      <c r="E535" s="15"/>
+      <c r="F535" s="5"/>
+      <c r="G535" s="15"/>
+      <c r="H535" s="16"/>
+      <c r="I535" s="16"/>
+      <c r="J535" s="15"/>
+      <c r="K535" s="15"/>
+      <c r="L535" s="15"/>
+      <c r="M535" s="15"/>
+      <c r="O535" s="20"/>
+      <c r="P535" s="15"/>
+      <c r="Q535" s="15"/>
+      <c r="R535" s="30"/>
+      <c r="S535" s="15"/>
+    </row>
+    <row r="536" spans="1:19">
+      <c r="A536" s="20"/>
+      <c r="B536" s="15"/>
+      <c r="C536" s="15"/>
+      <c r="D536" s="15"/>
+      <c r="E536" s="15"/>
+      <c r="F536" s="5"/>
+      <c r="G536" s="15"/>
+      <c r="H536" s="16"/>
+      <c r="I536" s="16"/>
+      <c r="J536" s="15"/>
+      <c r="K536" s="15"/>
+      <c r="L536" s="15"/>
+      <c r="M536" s="15"/>
+      <c r="O536" s="20"/>
+      <c r="P536" s="15"/>
+      <c r="Q536" s="15"/>
+      <c r="R536" s="30"/>
+      <c r="S536" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S364">
+  <autoFilter ref="A1:S369">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
-      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25267,16 +25513,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="61.2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$356</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="530">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -2229,6 +2229,27 @@
   </si>
   <si>
     <t>custom-input-recvrAcctNo</t>
+  </si>
+  <si>
+    <t>0030201906</t>
+  </si>
+  <si>
+    <t>0030200505</t>
+  </si>
+  <si>
+    <t>0030200703</t>
+  </si>
+  <si>
+    <t>0030200604</t>
+  </si>
+  <si>
+    <t>0030202102</t>
+  </si>
+  <si>
+    <t>0030201105</t>
+  </si>
+  <si>
+    <t>0030201806</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -2279,7 +2300,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2294,7 +2345,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2316,8 +2382,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2332,38 +2421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2377,46 +2435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,7 +2470,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,7 +2554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,37 +2590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,31 +2620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,79 +2644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,26 +2679,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2706,32 +2727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2755,16 +2750,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2773,133 +2794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3322,26 +3343,28 @@
   <dimension ref="A1:S518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I352" sqref="I352"/>
+      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.3833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
     <col min="7" max="7" width="24.3833333333333" customWidth="1"/>
     <col min="8" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="38.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="14" max="14" width="9" style="5"/>
     <col min="15" max="15" width="38" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:19">
+    <row r="1" ht="81" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5603,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" hidden="1" spans="1:19">
+    <row r="55" ht="14.25" hidden="1" spans="1:19">
       <c r="A55" s="16" t="s">
         <v>131</v>
       </c>
@@ -5680,7 +5703,7 @@
       <c r="R56" s="31"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" hidden="1" spans="1:19">
+    <row r="57" ht="14.25" hidden="1" spans="1:19">
       <c r="A57" s="16" t="s">
         <v>137</v>
       </c>
@@ -5833,7 +5856,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" hidden="1" spans="1:19">
+    <row r="60" ht="14.25" hidden="1" spans="1:19">
       <c r="A60" s="16" t="s">
         <v>146</v>
       </c>
@@ -5933,7 +5956,7 @@
       <c r="R61" s="31"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" hidden="1" spans="1:19">
+    <row r="62" ht="14.25" hidden="1" spans="1:19">
       <c r="A62" s="16" t="s">
         <v>151</v>
       </c>
@@ -7404,7 +7427,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" ht="28.5" hidden="1" spans="1:19">
+    <row r="91" ht="27" hidden="1" spans="1:19">
       <c r="A91" s="16" t="s">
         <v>213</v>
       </c>
@@ -7459,7 +7482,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="92" ht="28.5" hidden="1" spans="1:19">
+    <row r="92" ht="27" hidden="1" spans="1:19">
       <c r="A92" s="16" t="s">
         <v>213</v>
       </c>
@@ -7514,7 +7537,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" ht="28.5" hidden="1" spans="1:19">
+    <row r="93" ht="27" hidden="1" spans="1:19">
       <c r="A93" s="16" t="s">
         <v>213</v>
       </c>
@@ -7569,7 +7592,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" ht="28.5" hidden="1" spans="1:19">
+    <row r="94" ht="27" hidden="1" spans="1:19">
       <c r="A94" s="16" t="s">
         <v>218</v>
       </c>
@@ -7624,7 +7647,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" ht="28.5" hidden="1" spans="1:19">
+    <row r="95" ht="27" hidden="1" spans="1:19">
       <c r="A95" s="16" t="s">
         <v>218</v>
       </c>
@@ -7679,7 +7702,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" ht="28.5" hidden="1" spans="1:19">
+    <row r="96" ht="27" hidden="1" spans="1:19">
       <c r="A96" s="16" t="s">
         <v>225</v>
       </c>
@@ -7734,7 +7757,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" ht="28.5" hidden="1" spans="1:19">
+    <row r="97" ht="27" hidden="1" spans="1:19">
       <c r="A97" s="16" t="s">
         <v>225</v>
       </c>
@@ -7789,7 +7812,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" ht="28.5" hidden="1" spans="1:19">
+    <row r="98" ht="27" hidden="1" spans="1:19">
       <c r="A98" s="16" t="s">
         <v>227</v>
       </c>
@@ -7844,7 +7867,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" ht="28.5" hidden="1" spans="1:19">
+    <row r="99" ht="27" hidden="1" spans="1:19">
       <c r="A99" s="16" t="s">
         <v>227</v>
       </c>
@@ -7952,7 +7975,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" ht="28.5" hidden="1" spans="1:19">
+    <row r="101" ht="27" hidden="1" spans="1:19">
       <c r="A101" s="16" t="s">
         <v>232</v>
       </c>
@@ -8007,7 +8030,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" ht="28.5" hidden="1" spans="1:19">
+    <row r="102" ht="27" hidden="1" spans="1:19">
       <c r="A102" s="16" t="s">
         <v>232</v>
       </c>
@@ -8062,7 +8085,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" ht="28.5" hidden="1" spans="1:19">
+    <row r="103" ht="27" hidden="1" spans="1:19">
       <c r="A103" s="16" t="s">
         <v>232</v>
       </c>
@@ -8223,7 +8246,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" ht="28.5" hidden="1" spans="1:19">
+    <row r="106" ht="27" hidden="1" spans="1:19">
       <c r="A106" s="16" t="s">
         <v>239</v>
       </c>
@@ -8278,7 +8301,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" ht="28.5" hidden="1" spans="1:19">
+    <row r="107" ht="27" hidden="1" spans="1:19">
       <c r="A107" s="16" t="s">
         <v>239</v>
       </c>
@@ -8386,7 +8409,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" ht="28.5" hidden="1" spans="1:19">
+    <row r="109" ht="27" hidden="1" spans="1:19">
       <c r="A109" s="16" t="s">
         <v>245</v>
       </c>
@@ -8441,7 +8464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" ht="28.5" hidden="1" spans="1:19">
+    <row r="110" ht="27" hidden="1" spans="1:19">
       <c r="A110" s="16" t="s">
         <v>245</v>
       </c>
@@ -8496,7 +8519,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" ht="28.5" hidden="1" spans="1:19">
+    <row r="111" ht="27" hidden="1" spans="1:19">
       <c r="A111" s="16" t="s">
         <v>245</v>
       </c>
@@ -8710,7 +8733,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" ht="28.5" hidden="1" spans="1:19">
+    <row r="115" ht="27" hidden="1" spans="1:19">
       <c r="A115" s="16" t="s">
         <v>252</v>
       </c>
@@ -8765,7 +8788,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" ht="28.5" hidden="1" spans="1:19">
+    <row r="116" ht="27" hidden="1" spans="1:19">
       <c r="A116" s="16" t="s">
         <v>252</v>
       </c>
@@ -8820,7 +8843,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" ht="28.5" hidden="1" spans="1:19">
+    <row r="117" ht="27" hidden="1" spans="1:19">
       <c r="A117" s="16" t="s">
         <v>252</v>
       </c>
@@ -8875,7 +8898,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" ht="28.5" hidden="1" spans="1:19">
+    <row r="118" ht="27" hidden="1" spans="1:19">
       <c r="A118" s="16" t="s">
         <v>254</v>
       </c>
@@ -8930,7 +8953,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" ht="28.5" hidden="1" spans="1:19">
+    <row r="119" ht="27" hidden="1" spans="1:19">
       <c r="A119" s="16" t="s">
         <v>254</v>
       </c>
@@ -9091,7 +9114,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="122" ht="28.5" hidden="1" spans="1:19">
+    <row r="122" ht="27" hidden="1" spans="1:19">
       <c r="A122" s="16" t="s">
         <v>259</v>
       </c>
@@ -9146,7 +9169,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" ht="28.5" hidden="1" spans="1:19">
+    <row r="123" ht="27" hidden="1" spans="1:19">
       <c r="A123" s="16" t="s">
         <v>259</v>
       </c>
@@ -9254,7 +9277,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="125" ht="28.5" hidden="1" spans="1:19">
+    <row r="125" ht="27" hidden="1" spans="1:19">
       <c r="A125" s="16" t="s">
         <v>265</v>
       </c>
@@ -9309,7 +9332,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" ht="28.5" hidden="1" spans="1:19">
+    <row r="126" ht="27" hidden="1" spans="1:19">
       <c r="A126" s="16" t="s">
         <v>265</v>
       </c>
@@ -9364,7 +9387,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" ht="28.5" hidden="1" spans="1:19">
+    <row r="127" ht="27" hidden="1" spans="1:19">
       <c r="A127" s="16" t="s">
         <v>265</v>
       </c>
@@ -9419,7 +9442,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="128" ht="28.5" hidden="1" spans="1:19">
+    <row r="128" ht="27" hidden="1" spans="1:19">
       <c r="A128" s="16" t="s">
         <v>266</v>
       </c>
@@ -9474,7 +9497,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" ht="28.5" hidden="1" spans="1:19">
+    <row r="129" ht="27" hidden="1" spans="1:19">
       <c r="A129" s="16" t="s">
         <v>266</v>
       </c>
@@ -9794,7 +9817,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" ht="28.5" hidden="1" spans="1:19">
+    <row r="135" ht="27" hidden="1" spans="1:19">
       <c r="A135" s="16" t="s">
         <v>277</v>
       </c>
@@ -9849,7 +9872,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" ht="28.5" hidden="1" spans="1:19">
+    <row r="136" ht="27" hidden="1" spans="1:19">
       <c r="A136" s="16" t="s">
         <v>277</v>
       </c>
@@ -9904,7 +9927,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" ht="28.5" hidden="1" spans="1:19">
+    <row r="137" ht="27" hidden="1" spans="1:19">
       <c r="A137" s="16" t="s">
         <v>277</v>
       </c>
@@ -9959,7 +9982,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" ht="28.5" hidden="1" spans="1:19">
+    <row r="138" ht="27" hidden="1" spans="1:19">
       <c r="A138" s="16" t="s">
         <v>277</v>
       </c>
@@ -13671,7 +13694,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:19">
+    <row r="208" spans="1:19">
       <c r="A208" s="16" t="s">
         <v>373</v>
       </c>
@@ -13724,7 +13747,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:19">
+    <row r="209" spans="1:19">
       <c r="A209" s="16" t="s">
         <v>375</v>
       </c>
@@ -13777,7 +13800,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:19">
+    <row r="210" spans="1:19">
       <c r="A210" s="16" t="s">
         <v>375</v>
       </c>
@@ -13830,7 +13853,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:19">
+    <row r="211" spans="1:19">
       <c r="A211" s="16" t="s">
         <v>375</v>
       </c>
@@ -13883,7 +13906,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:19">
+    <row r="212" spans="1:19">
       <c r="A212" s="16" t="s">
         <v>376</v>
       </c>
@@ -13936,7 +13959,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:19">
+    <row r="213" spans="1:19">
       <c r="A213" s="16" t="s">
         <v>376</v>
       </c>
@@ -13989,7 +14012,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:19">
+    <row r="214" spans="1:19">
       <c r="A214" s="16" t="s">
         <v>377</v>
       </c>
@@ -17747,7 +17770,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="286" spans="1:19">
+    <row r="286" hidden="1" spans="1:19">
       <c r="A286" s="16" t="s">
         <v>473</v>
       </c>
@@ -17800,7 +17823,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="287" spans="1:19">
+    <row r="287" hidden="1" spans="1:19">
       <c r="A287" s="16" t="s">
         <v>475</v>
       </c>
@@ -17853,7 +17876,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="288" spans="1:19">
+    <row r="288" hidden="1" spans="1:19">
       <c r="A288" s="16" t="s">
         <v>475</v>
       </c>
@@ -17906,7 +17929,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" hidden="1" spans="1:19">
       <c r="A289" s="16" t="s">
         <v>476</v>
       </c>
@@ -17959,7 +17982,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" hidden="1" spans="1:19">
       <c r="A290" s="16" t="s">
         <v>476</v>
       </c>
@@ -21047,145 +21070,376 @@
       <c r="R349" s="31"/>
       <c r="S349" s="17"/>
     </row>
-    <row r="350" spans="1:19">
-      <c r="A350" s="16"/>
-      <c r="B350" s="17"/>
-      <c r="C350" s="17"/>
-      <c r="D350" s="17"/>
-      <c r="E350" s="17"/>
-      <c r="F350" s="5"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="18"/>
-      <c r="I350" s="18"/>
-      <c r="J350" s="17"/>
-      <c r="K350" s="17"/>
-      <c r="L350" s="17"/>
-      <c r="M350" s="17"/>
-      <c r="O350" s="16"/>
+    <row r="350" hidden="1" spans="1:19">
+      <c r="A350" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D350" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E350" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G350" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H350" s="18">
+        <v>1</v>
+      </c>
+      <c r="I350" s="18">
+        <v>0</v>
+      </c>
+      <c r="J350" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K350" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L350" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M350" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N350" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O350" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P350" s="17"/>
       <c r="Q350" s="17"/>
       <c r="R350" s="31"/>
-      <c r="S350" s="17"/>
+      <c r="S350" s="17" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="16"/>
-      <c r="B351" s="17"/>
-      <c r="C351" s="17"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="17"/>
-      <c r="F351" s="5"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="18"/>
-      <c r="I351" s="18"/>
-      <c r="J351" s="17"/>
-      <c r="K351" s="17"/>
-      <c r="L351" s="17"/>
-      <c r="M351" s="17"/>
-      <c r="O351" s="16"/>
+      <c r="A351" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G351" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H351" s="18">
+        <v>1</v>
+      </c>
+      <c r="I351" s="18">
+        <v>0</v>
+      </c>
+      <c r="J351" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K351" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L351" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M351" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N351" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O351" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P351" s="17"/>
       <c r="Q351" s="17"/>
       <c r="R351" s="31"/>
-      <c r="S351" s="17"/>
-    </row>
-    <row r="352" spans="1:19">
-      <c r="A352" s="16"/>
-      <c r="B352" s="17"/>
-      <c r="C352" s="17"/>
-      <c r="D352" s="17"/>
-      <c r="E352" s="17"/>
-      <c r="F352" s="5"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="18"/>
-      <c r="I352" s="18"/>
-      <c r="J352" s="17"/>
-      <c r="K352" s="17"/>
-      <c r="L352" s="17"/>
-      <c r="M352" s="17"/>
-      <c r="O352" s="16"/>
+      <c r="S351" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="352" hidden="1" spans="1:19">
+      <c r="A352" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E352" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G352" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H352" s="18">
+        <v>1</v>
+      </c>
+      <c r="I352" s="18">
+        <v>0</v>
+      </c>
+      <c r="J352" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K352" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L352" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M352" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N352" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O352" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P352" s="17"/>
       <c r="Q352" s="17"/>
       <c r="R352" s="31"/>
-      <c r="S352" s="17"/>
-    </row>
-    <row r="353" spans="1:19">
-      <c r="A353" s="16"/>
-      <c r="B353" s="17"/>
-      <c r="C353" s="17"/>
-      <c r="D353" s="17"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="5"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="18"/>
-      <c r="I353" s="18"/>
-      <c r="J353" s="17"/>
-      <c r="K353" s="17"/>
-      <c r="L353" s="17"/>
-      <c r="M353" s="17"/>
-      <c r="O353" s="16"/>
+      <c r="S352" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="353" hidden="1" spans="1:19">
+      <c r="A353" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D353" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E353" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G353" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H353" s="18">
+        <v>1</v>
+      </c>
+      <c r="I353" s="18">
+        <v>0</v>
+      </c>
+      <c r="J353" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K353" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L353" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M353" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N353" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O353" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P353" s="17"/>
       <c r="Q353" s="17"/>
       <c r="R353" s="31"/>
-      <c r="S353" s="17"/>
-    </row>
-    <row r="354" spans="1:19">
-      <c r="A354" s="16"/>
-      <c r="B354" s="17"/>
-      <c r="C354" s="17"/>
-      <c r="D354" s="17"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="5"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="18"/>
-      <c r="I354" s="18"/>
-      <c r="J354" s="17"/>
-      <c r="K354" s="17"/>
-      <c r="L354" s="17"/>
-      <c r="M354" s="17"/>
-      <c r="O354" s="16"/>
+      <c r="S353" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="354" hidden="1" spans="1:19">
+      <c r="A354" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D354" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E354" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G354" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H354" s="18">
+        <v>1</v>
+      </c>
+      <c r="I354" s="18">
+        <v>0</v>
+      </c>
+      <c r="J354" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K354" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="L354" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M354" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N354" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O354" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P354" s="17"/>
       <c r="Q354" s="17"/>
       <c r="R354" s="31"/>
-      <c r="S354" s="17"/>
-    </row>
-    <row r="355" spans="1:19">
-      <c r="A355" s="16"/>
-      <c r="B355" s="17"/>
-      <c r="C355" s="17"/>
-      <c r="D355" s="17"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="5"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="18"/>
-      <c r="I355" s="18"/>
-      <c r="J355" s="17"/>
-      <c r="K355" s="17"/>
-      <c r="L355" s="17"/>
-      <c r="M355" s="17"/>
-      <c r="O355" s="16"/>
+      <c r="S354" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="355" hidden="1" spans="1:19">
+      <c r="A355" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D355" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E355" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G355" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H355" s="18">
+        <v>1</v>
+      </c>
+      <c r="I355" s="18">
+        <v>0</v>
+      </c>
+      <c r="J355" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K355" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L355" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M355" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N355" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O355" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P355" s="17"/>
       <c r="Q355" s="17"/>
       <c r="R355" s="31"/>
-      <c r="S355" s="17"/>
-    </row>
-    <row r="356" spans="1:19">
-      <c r="A356" s="16"/>
-      <c r="B356" s="17"/>
-      <c r="C356" s="17"/>
-      <c r="D356" s="17"/>
-      <c r="E356" s="17"/>
-      <c r="F356" s="5"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="18"/>
-      <c r="I356" s="18"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="17"/>
-      <c r="L356" s="17"/>
-      <c r="M356" s="17"/>
-      <c r="O356" s="16"/>
+      <c r="S355" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="356" hidden="1" spans="1:19">
+      <c r="A356" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D356" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E356" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G356" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H356" s="18">
+        <v>1</v>
+      </c>
+      <c r="I356" s="18">
+        <v>0</v>
+      </c>
+      <c r="J356" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K356" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L356" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M356" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N356" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O356" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="P356" s="17"/>
       <c r="Q356" s="17"/>
       <c r="R356" s="31"/>
-      <c r="S356" s="17"/>
+      <c r="S356" s="17" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="357" spans="1:19">
       <c r="A357" s="16"/>
@@ -24428,20 +24682,20 @@
       <c r="S518" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S349">
+  <autoFilter ref="A1:S356">
     <filterColumn colId="5">
       <customFilters>
-        <customFilter operator="equal" val="00301007"/>
+        <customFilter operator="equal" val="00302005"/>
       </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3 N1:N2">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
-      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24459,16 +24713,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="60.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
@@ -2264,10 +2264,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2301,24 +2301,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2331,11 +2323,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2353,10 +2344,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2367,16 +2359,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,23 +2406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2415,22 +2417,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2446,7 +2432,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2485,13 +2478,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,19 +2550,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,121 +2610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,13 +2634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2751,6 +2744,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2776,31 +2784,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2809,16 +2802,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2827,119 +2820,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3025,10 +3018,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3368,9 +3357,9 @@
   <dimension ref="A1:S522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A288" sqref="A288"/>
+      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4000,7 +3989,7 @@
       <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -4015,7 +4004,7 @@
       <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="40" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -4200,7 +4189,7 @@
       <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4215,7 +4204,7 @@
       <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -4240,7 +4229,7 @@
       <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -4255,7 +4244,7 @@
       <c r="E19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -4524,7 +4513,7 @@
       <c r="S24" s="18"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -4539,7 +4528,7 @@
       <c r="E25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="20" t="s">
@@ -4575,7 +4564,7 @@
       <c r="S25" s="18"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -4590,7 +4579,7 @@
       <c r="E26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="20" t="s">
@@ -5030,7 +5019,7 @@
       <c r="S35" s="18"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -5045,7 +5034,7 @@
       <c r="E36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>103</v>
       </c>
       <c r="G36" s="18" t="s">
@@ -5070,7 +5059,7 @@
       <c r="S36" s="18"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="43" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -5085,7 +5074,7 @@
       <c r="E37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>105</v>
       </c>
       <c r="G37" s="18" t="s">
@@ -5110,7 +5099,7 @@
       <c r="S37" s="18"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="43" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -5125,7 +5114,7 @@
       <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>106</v>
       </c>
       <c r="G38" s="18" t="s">
@@ -5150,7 +5139,7 @@
       <c r="S38" s="18"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -5165,7 +5154,7 @@
       <c r="E39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>107</v>
       </c>
       <c r="G39" s="18" t="s">
@@ -5190,7 +5179,7 @@
       <c r="S39" s="18"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="43" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -5205,7 +5194,7 @@
       <c r="E40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>108</v>
       </c>
       <c r="G40" s="18" t="s">
@@ -5230,7 +5219,7 @@
       <c r="S40" s="18"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="43" t="s">
         <v>109</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -5245,7 +5234,7 @@
       <c r="E41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>109</v>
       </c>
       <c r="G41" s="18" t="s">
@@ -5270,7 +5259,7 @@
       <c r="S41" s="18"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="43" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -5285,7 +5274,7 @@
       <c r="E42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>110</v>
       </c>
       <c r="G42" s="18" t="s">
@@ -5310,7 +5299,7 @@
       <c r="S42" s="18"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -5325,7 +5314,7 @@
       <c r="E43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G43" s="18" t="s">
@@ -5350,7 +5339,7 @@
       <c r="S43" s="18"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -5365,7 +5354,7 @@
       <c r="E44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>114</v>
       </c>
       <c r="G44" s="18" t="s">
@@ -5390,7 +5379,7 @@
       <c r="S44" s="18"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="43" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -5405,7 +5394,7 @@
       <c r="E45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="44" t="s">
         <v>116</v>
       </c>
       <c r="G45" s="18" t="s">
@@ -5430,7 +5419,7 @@
       <c r="S45" s="18"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="43" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -5445,7 +5434,7 @@
       <c r="E46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="44" t="s">
         <v>118</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -5470,7 +5459,7 @@
       <c r="S46" s="18"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -5485,7 +5474,7 @@
       <c r="E47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="44" t="s">
         <v>120</v>
       </c>
       <c r="G47" s="18" t="s">
@@ -5510,7 +5499,7 @@
       <c r="S47" s="18"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -5525,7 +5514,7 @@
       <c r="E48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="44" t="s">
         <v>121</v>
       </c>
       <c r="G48" s="18" t="s">
@@ -5550,7 +5539,7 @@
       <c r="S48" s="18"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -5565,7 +5554,7 @@
       <c r="E49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="44" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="18" t="s">
@@ -5590,7 +5579,7 @@
       <c r="S49" s="18"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="43" t="s">
         <v>123</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -5605,7 +5594,7 @@
       <c r="E50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="44" t="s">
         <v>123</v>
       </c>
       <c r="G50" s="18" t="s">
@@ -5630,7 +5619,7 @@
       <c r="S50" s="18"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="43" t="s">
         <v>124</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -5645,7 +5634,7 @@
       <c r="E51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="44" t="s">
         <v>124</v>
       </c>
       <c r="G51" s="18" t="s">
@@ -5670,7 +5659,7 @@
       <c r="S51" s="18"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -5685,7 +5674,7 @@
       <c r="E52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="44" t="s">
         <v>126</v>
       </c>
       <c r="G52" s="18" t="s">
@@ -5710,7 +5699,7 @@
       <c r="S52" s="18"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -5725,7 +5714,7 @@
       <c r="E53" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G53" s="18" t="s">
@@ -5750,7 +5739,7 @@
       <c r="S53" s="18"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="43" t="s">
         <v>128</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -5765,7 +5754,7 @@
       <c r="E54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="44" t="s">
         <v>128</v>
       </c>
       <c r="G54" s="18" t="s">
@@ -5790,7 +5779,7 @@
       <c r="S54" s="18"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -5805,7 +5794,7 @@
       <c r="E55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="44" t="s">
         <v>129</v>
       </c>
       <c r="G55" s="18" t="s">
@@ -5830,7 +5819,7 @@
       <c r="S55" s="18"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="43" t="s">
         <v>130</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -5845,7 +5834,7 @@
       <c r="E56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="44" t="s">
         <v>130</v>
       </c>
       <c r="G56" s="18" t="s">
@@ -5870,7 +5859,7 @@
       <c r="S56" s="18"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="43" t="s">
         <v>131</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -5885,7 +5874,7 @@
       <c r="E57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="44" t="s">
         <v>131</v>
       </c>
       <c r="G57" s="18" t="s">
@@ -6746,7 +6735,7 @@
         <v>34</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="O74" s="26" t="s">
         <v>31</v>
@@ -6859,7 +6848,7 @@
       <c r="S76" s="33"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="45" t="s">
         <v>184</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -6874,7 +6863,7 @@
       <c r="E77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F77" s="45" t="s">
         <v>184</v>
       </c>
       <c r="G77" s="18" t="s">
@@ -6910,7 +6899,7 @@
       <c r="S77" s="18"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="45" t="s">
         <v>185</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -6925,7 +6914,7 @@
       <c r="E78" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F78" s="45" t="s">
         <v>185</v>
       </c>
       <c r="G78" s="18" t="s">
@@ -6961,7 +6950,7 @@
       <c r="S78" s="18"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="45" t="s">
         <v>186</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -6976,7 +6965,7 @@
       <c r="E79" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="F79" s="45" t="s">
         <v>186</v>
       </c>
       <c r="G79" s="18" t="s">
@@ -7012,7 +7001,7 @@
       <c r="S79" s="18"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="45" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -7027,7 +7016,7 @@
       <c r="E80" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="47" t="s">
+      <c r="F80" s="45" t="s">
         <v>102</v>
       </c>
       <c r="G80" s="18" t="s">
@@ -7063,7 +7052,7 @@
       <c r="S80" s="18"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -7078,7 +7067,7 @@
       <c r="E81" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F81" s="45" t="s">
         <v>188</v>
       </c>
       <c r="G81" s="18" t="s">
@@ -7114,7 +7103,7 @@
       <c r="S81" s="18"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="45" t="s">
         <v>189</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -7129,7 +7118,7 @@
       <c r="E82" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="47" t="s">
+      <c r="F82" s="45" t="s">
         <v>189</v>
       </c>
       <c r="G82" s="18" t="s">
@@ -7204,7 +7193,7 @@
       <c r="M83" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N83" s="44" t="s">
+      <c r="N83" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O83" s="17" t="s">
@@ -7257,7 +7246,7 @@
       <c r="M84" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N84" s="44" t="s">
+      <c r="N84" s="42" t="s">
         <v>199</v>
       </c>
       <c r="O84" s="17" t="s">
@@ -7310,7 +7299,7 @@
       <c r="M85" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N85" s="44" t="s">
+      <c r="N85" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O85" s="17" t="s">
@@ -7363,7 +7352,7 @@
       <c r="M86" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N86" s="44" t="s">
+      <c r="N86" s="42" t="s">
         <v>40</v>
       </c>
       <c r="O86" s="17" t="s">
@@ -7416,7 +7405,7 @@
       <c r="M87" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N87" s="44" t="s">
+      <c r="N87" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O87" s="17" t="s">
@@ -7469,7 +7458,7 @@
       <c r="M88" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N88" s="44" t="s">
+      <c r="N88" s="42" t="s">
         <v>199</v>
       </c>
       <c r="O88" s="17" t="s">
@@ -7522,7 +7511,7 @@
       <c r="M89" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N89" s="44" t="s">
+      <c r="N89" s="42" t="s">
         <v>199</v>
       </c>
       <c r="O89" s="17" t="s">
@@ -7575,7 +7564,7 @@
       <c r="M90" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N90" s="44" t="s">
+      <c r="N90" s="42" t="s">
         <v>40</v>
       </c>
       <c r="O90" s="17" t="s">
@@ -7589,7 +7578,7 @@
       </c>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="46" t="s">
         <v>203</v>
       </c>
       <c r="B91" s="10" t="s">
@@ -7604,7 +7593,7 @@
       <c r="E91" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="46" t="s">
         <v>204</v>
       </c>
       <c r="G91" s="18" t="s">
@@ -7631,7 +7620,7 @@
       </c>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="46" t="s">
         <v>207</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -7646,7 +7635,7 @@
       <c r="E92" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="46" t="s">
         <v>208</v>
       </c>
       <c r="G92" s="18" t="s">
@@ -7673,7 +7662,7 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="46" t="s">
         <v>209</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -7688,7 +7677,7 @@
       <c r="E93" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="48" t="s">
+      <c r="F93" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G93" s="18" t="s">
@@ -7712,7 +7701,7 @@
       <c r="M93" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N93" s="44" t="s">
+      <c r="N93" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O93" s="17" t="s">
@@ -7726,7 +7715,7 @@
       </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="46" t="s">
         <v>209</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -7741,7 +7730,7 @@
       <c r="E94" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="48" t="s">
+      <c r="F94" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G94" s="18" t="s">
@@ -7765,7 +7754,7 @@
       <c r="M94" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N94" s="49" t="s">
+      <c r="N94" s="47" t="s">
         <v>35</v>
       </c>
       <c r="O94" s="26" t="s">
@@ -7779,7 +7768,7 @@
       </c>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="46" t="s">
         <v>216</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -7794,7 +7783,7 @@
       <c r="E95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F95" s="48" t="s">
+      <c r="F95" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G95" s="18" t="s">
@@ -7818,7 +7807,7 @@
       <c r="M95" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N95" s="44" t="s">
+      <c r="N95" s="42" t="s">
         <v>199</v>
       </c>
       <c r="O95" s="17" t="s">
@@ -7832,7 +7821,7 @@
       </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="46" t="s">
         <v>217</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -7847,7 +7836,7 @@
       <c r="E96" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F96" s="48" t="s">
+      <c r="F96" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G96" s="18" t="s">
@@ -7871,7 +7860,7 @@
       <c r="M96" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N96" s="44" t="s">
+      <c r="N96" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O96" s="17" t="s">
@@ -7885,7 +7874,7 @@
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="46" t="s">
         <v>218</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -7900,7 +7889,7 @@
       <c r="E97" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F97" s="48" t="s">
+      <c r="F97" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G97" s="18" t="s">
@@ -7924,7 +7913,7 @@
       <c r="M97" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N97" s="44" t="s">
+      <c r="N97" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O97" s="17" t="s">
@@ -7938,7 +7927,7 @@
       </c>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="46" t="s">
         <v>218</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -7953,7 +7942,7 @@
       <c r="E98" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F98" s="48" t="s">
+      <c r="F98" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G98" s="18" t="s">
@@ -7977,7 +7966,7 @@
       <c r="M98" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N98" s="49" t="s">
+      <c r="N98" s="47" t="s">
         <v>199</v>
       </c>
       <c r="O98" s="26" t="s">
@@ -7991,7 +7980,7 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="46" t="s">
         <v>219</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -8006,7 +7995,7 @@
       <c r="E99" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F99" s="46" t="s">
         <v>210</v>
       </c>
       <c r="G99" s="18" t="s">
@@ -8030,7 +8019,7 @@
       <c r="M99" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="N99" s="44" t="s">
+      <c r="N99" s="42" t="s">
         <v>35</v>
       </c>
       <c r="O99" s="17" t="s">
@@ -11279,7 +11268,7 @@
       <c r="N159" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O159" s="39" t="s">
+      <c r="O159" s="24" t="s">
         <v>309</v>
       </c>
       <c r="P159" s="18"/>
@@ -11332,7 +11321,7 @@
       <c r="N160" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O160" s="39" t="s">
+      <c r="O160" s="24" t="s">
         <v>309</v>
       </c>
       <c r="P160" s="18"/>
@@ -11385,7 +11374,7 @@
       <c r="N161" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O161" s="39" t="s">
+      <c r="O161" s="24" t="s">
         <v>309</v>
       </c>
       <c r="P161" s="18"/>
@@ -11426,7 +11415,7 @@
       <c r="J162" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K162" s="40" t="s">
+      <c r="K162" s="20" t="s">
         <v>313</v>
       </c>
       <c r="L162" s="18" t="s">
@@ -11491,7 +11480,7 @@
       <c r="N163" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O163" s="39" t="s">
+      <c r="O163" s="24" t="s">
         <v>309</v>
       </c>
       <c r="P163" s="18"/>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$379</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$388</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5028" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5122" uniqueCount="609">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -2076,6 +2076,9 @@
     <t>0030100704</t>
   </si>
   <si>
+    <t>0030100705</t>
+  </si>
+  <si>
     <t>0030101401</t>
   </si>
   <si>
@@ -2237,10 +2240,16 @@
     <t>00502307</t>
   </si>
   <si>
+    <t>00502314_21</t>
+  </si>
+  <si>
     <t>00502314_2</t>
   </si>
   <si>
     <t>custom-input-payFeeCardNoOrAcctNo</t>
+  </si>
+  <si>
+    <t>00502314_22</t>
   </si>
   <si>
     <t>00502314_3</t>
@@ -2433,6 +2442,54 @@
     <t>谷博</t>
   </si>
   <si>
+    <t>0990800201</t>
+  </si>
+  <si>
+    <t>09908002</t>
+  </si>
+  <si>
+    <t>custom-selector-cashTranFlgCd</t>
+  </si>
+  <si>
+    <t>0990800301</t>
+  </si>
+  <si>
+    <t>09908003</t>
+  </si>
+  <si>
+    <t>0990800401</t>
+  </si>
+  <si>
+    <t>09908004</t>
+  </si>
+  <si>
+    <t>custom-input-vouchNo</t>
+  </si>
+  <si>
+    <t>0990800501</t>
+  </si>
+  <si>
+    <t>09908005</t>
+  </si>
+  <si>
+    <t>custom-input-flgCd</t>
+  </si>
+  <si>
+    <t>0990800601</t>
+  </si>
+  <si>
+    <t>09908006</t>
+  </si>
+  <si>
+    <t>custom-input-prodCd</t>
+  </si>
+  <si>
+    <t>0990800701</t>
+  </si>
+  <si>
+    <t>09908007</t>
+  </si>
+  <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
@@ -2441,10 +2498,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2493,17 +2550,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2515,30 +2564,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2554,7 +2587,69 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2569,29 +2664,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -2600,23 +2672,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2630,7 +2687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2651,7 +2708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799371318704794"/>
+        <fgColor theme="3" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2675,13 +2732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2699,13 +2756,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,61 +2882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,79 +2906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2880,15 +2937,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2925,35 +2973,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2976,8 +2998,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2987,10 +3044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2999,133 +3056,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3585,12 +3642,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S529"/>
+  <dimension ref="A1:S532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
+      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14946,7 +15003,7 @@
         <v>1</v>
       </c>
       <c r="I224" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="11" t="s">
         <v>27</v>
@@ -18285,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" s="11" t="s">
         <v>27</v>
@@ -18338,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" s="11" t="s">
         <v>27</v>
@@ -18391,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" s="11" t="s">
         <v>27</v>
@@ -18912,16 +18969,16 @@
         <v>23</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G299" s="19" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H299" s="20">
         <v>1</v>
       </c>
       <c r="I299" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" s="11" t="s">
         <v>27</v>
@@ -18929,7 +18986,7 @@
       <c r="K299" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="L299" s="19" t="s">
+      <c r="L299" s="28" t="s">
         <v>33</v>
       </c>
       <c r="M299" s="19" t="s">
@@ -18939,7 +18996,7 @@
         <v>35</v>
       </c>
       <c r="O299" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P299" s="19"/>
       <c r="Q299" s="19"/>
@@ -18950,7 +19007,7 @@
     </row>
     <row r="300" spans="1:19">
       <c r="A300" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B300" s="11" t="s">
         <v>20</v>
@@ -18965,34 +19022,34 @@
         <v>23</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G300" s="19" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H300" s="20">
         <v>1</v>
       </c>
       <c r="I300" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K300" s="19" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="L300" s="28" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="M300" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N300" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O300" s="18" t="s">
-        <v>31</v>
+        <v>272</v>
+      </c>
+      <c r="O300" s="18">
+        <v>50000</v>
       </c>
       <c r="P300" s="19"/>
       <c r="Q300" s="19"/>
@@ -19003,7 +19060,7 @@
     </row>
     <row r="301" spans="1:19">
       <c r="A301" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B301" s="11" t="s">
         <v>20</v>
@@ -19018,34 +19075,34 @@
         <v>23</v>
       </c>
       <c r="F301" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G301" s="19" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="H301" s="20">
         <v>1</v>
       </c>
       <c r="I301" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K301" s="19" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="L301" s="28" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="M301" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N301" s="7" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="O301" s="18">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="P301" s="19"/>
       <c r="Q301" s="19"/>
@@ -19056,22 +19113,22 @@
     </row>
     <row r="302" spans="1:19">
       <c r="A302" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F302" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D302" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E302" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F302" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="G302" s="19" t="s">
         <v>360</v>
@@ -19086,10 +19143,10 @@
         <v>27</v>
       </c>
       <c r="K302" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L302" s="28" t="s">
-        <v>92</v>
+        <v>337</v>
+      </c>
+      <c r="L302" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M302" s="19" t="s">
         <v>34</v>
@@ -19097,8 +19154,8 @@
       <c r="N302" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O302" s="18">
-        <v>0</v>
+      <c r="O302" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P302" s="19"/>
       <c r="Q302" s="19"/>
@@ -19124,7 +19181,7 @@
         <v>23</v>
       </c>
       <c r="F303" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G303" s="19" t="s">
         <v>360</v>
@@ -19139,19 +19196,19 @@
         <v>27</v>
       </c>
       <c r="K303" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="L303" s="19" t="s">
-        <v>48</v>
+        <v>337</v>
+      </c>
+      <c r="L303" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="M303" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N303" s="7" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="O303" s="18" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="P303" s="19"/>
       <c r="Q303" s="19"/>
@@ -19177,7 +19234,7 @@
         <v>23</v>
       </c>
       <c r="F304" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G304" s="19" t="s">
         <v>360</v>
@@ -19192,19 +19249,19 @@
         <v>27</v>
       </c>
       <c r="K304" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L304" s="19" t="s">
-        <v>92</v>
+        <v>249</v>
+      </c>
+      <c r="L304" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="M304" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N304" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O304" s="18" t="s">
-        <v>31</v>
+        <v>272</v>
+      </c>
+      <c r="O304" s="18">
+        <v>50000</v>
       </c>
       <c r="P304" s="19"/>
       <c r="Q304" s="19"/>
@@ -19215,7 +19272,7 @@
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B305" s="11" t="s">
         <v>20</v>
@@ -19230,7 +19287,7 @@
         <v>23</v>
       </c>
       <c r="F305" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G305" s="19" t="s">
         <v>360</v>
@@ -19247,7 +19304,7 @@
       <c r="K305" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="L305" s="19" t="s">
+      <c r="L305" s="28" t="s">
         <v>92</v>
       </c>
       <c r="M305" s="19" t="s">
@@ -19256,8 +19313,8 @@
       <c r="N305" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O305" s="18" t="s">
-        <v>31</v>
+      <c r="O305" s="18">
+        <v>0</v>
       </c>
       <c r="P305" s="19"/>
       <c r="Q305" s="19"/>
@@ -19268,7 +19325,7 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B306" s="11" t="s">
         <v>20</v>
@@ -19283,7 +19340,7 @@
         <v>23</v>
       </c>
       <c r="F306" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G306" s="19" t="s">
         <v>360</v>
@@ -19298,19 +19355,19 @@
         <v>27</v>
       </c>
       <c r="K306" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L306" s="28" t="s">
-        <v>159</v>
+        <v>276</v>
+      </c>
+      <c r="L306" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="M306" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N306" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O306" s="18">
-        <v>50000</v>
+        <v>247</v>
+      </c>
+      <c r="O306" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="P306" s="19"/>
       <c r="Q306" s="19"/>
@@ -19321,7 +19378,7 @@
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B307" s="11" t="s">
         <v>20</v>
@@ -19336,7 +19393,7 @@
         <v>23</v>
       </c>
       <c r="F307" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G307" s="19" t="s">
         <v>360</v>
@@ -19351,10 +19408,10 @@
         <v>27</v>
       </c>
       <c r="K307" s="19" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="L307" s="19" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="M307" s="19" t="s">
         <v>34</v>
@@ -19363,7 +19420,7 @@
         <v>35</v>
       </c>
       <c r="O307" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P307" s="19"/>
       <c r="Q307" s="19"/>
@@ -19374,7 +19431,7 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="18" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>20</v>
@@ -19389,7 +19446,7 @@
         <v>23</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G308" s="19" t="s">
         <v>360</v>
@@ -19398,16 +19455,16 @@
         <v>1</v>
       </c>
       <c r="I308" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K308" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L308" s="28" t="s">
-        <v>33</v>
+        <v>362</v>
+      </c>
+      <c r="L308" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="M308" s="19" t="s">
         <v>34</v>
@@ -19427,7 +19484,7 @@
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B309" s="11" t="s">
         <v>20</v>
@@ -19442,7 +19499,7 @@
         <v>23</v>
       </c>
       <c r="F309" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G309" s="19" t="s">
         <v>360</v>
@@ -19457,7 +19514,7 @@
         <v>27</v>
       </c>
       <c r="K309" s="19" t="s">
-        <v>505</v>
+        <v>249</v>
       </c>
       <c r="L309" s="28" t="s">
         <v>159</v>
@@ -19480,22 +19537,22 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F310" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D310" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E310" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F310" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="G310" s="19" t="s">
         <v>360</v>
@@ -19510,10 +19567,10 @@
         <v>27</v>
       </c>
       <c r="K310" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L310" s="28" t="s">
-        <v>92</v>
+        <v>337</v>
+      </c>
+      <c r="L310" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M310" s="19" t="s">
         <v>34</v>
@@ -19521,8 +19578,8 @@
       <c r="N310" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O310" s="18">
-        <v>0</v>
+      <c r="O310" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P310" s="19"/>
       <c r="Q310" s="19"/>
@@ -19533,7 +19590,7 @@
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>20</v>
@@ -19548,7 +19605,7 @@
         <v>23</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G311" s="19" t="s">
         <v>360</v>
@@ -19563,19 +19620,19 @@
         <v>27</v>
       </c>
       <c r="K311" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="L311" s="19" t="s">
-        <v>48</v>
+        <v>337</v>
+      </c>
+      <c r="L311" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="M311" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N311" s="7" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="O311" s="18" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="P311" s="19"/>
       <c r="Q311" s="19"/>
@@ -19586,7 +19643,7 @@
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B312" s="11" t="s">
         <v>20</v>
@@ -19601,7 +19658,7 @@
         <v>23</v>
       </c>
       <c r="F312" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G312" s="19" t="s">
         <v>360</v>
@@ -19616,19 +19673,19 @@
         <v>27</v>
       </c>
       <c r="K312" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L312" s="19" t="s">
-        <v>92</v>
+        <v>506</v>
+      </c>
+      <c r="L312" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="M312" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N312" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O312" s="18" t="s">
-        <v>31</v>
+        <v>272</v>
+      </c>
+      <c r="O312" s="18">
+        <v>50000</v>
       </c>
       <c r="P312" s="19"/>
       <c r="Q312" s="19"/>
@@ -19639,7 +19696,7 @@
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B313" s="11" t="s">
         <v>20</v>
@@ -19654,7 +19711,7 @@
         <v>23</v>
       </c>
       <c r="F313" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G313" s="19" t="s">
         <v>360</v>
@@ -19671,7 +19728,7 @@
       <c r="K313" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="L313" s="19" t="s">
+      <c r="L313" s="28" t="s">
         <v>92</v>
       </c>
       <c r="M313" s="19" t="s">
@@ -19680,8 +19737,8 @@
       <c r="N313" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O313" s="18" t="s">
-        <v>31</v>
+      <c r="O313" s="18">
+        <v>0</v>
       </c>
       <c r="P313" s="19"/>
       <c r="Q313" s="19"/>
@@ -19692,7 +19749,7 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B314" s="11" t="s">
         <v>20</v>
@@ -19707,7 +19764,7 @@
         <v>23</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G314" s="19" t="s">
         <v>360</v>
@@ -19722,19 +19779,19 @@
         <v>27</v>
       </c>
       <c r="K314" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="L314" s="28" t="s">
-        <v>159</v>
+        <v>276</v>
+      </c>
+      <c r="L314" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="M314" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N314" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O314" s="18">
-        <v>50000</v>
+        <v>247</v>
+      </c>
+      <c r="O314" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="P314" s="19"/>
       <c r="Q314" s="19"/>
@@ -19745,7 +19802,7 @@
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B315" s="11" t="s">
         <v>20</v>
@@ -19760,10 +19817,10 @@
         <v>23</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G315" s="19" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="H315" s="20">
         <v>1</v>
@@ -19775,16 +19832,16 @@
         <v>27</v>
       </c>
       <c r="K315" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L315" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="L315" s="19" t="s">
         <v>92</v>
       </c>
       <c r="M315" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N315" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="O315" s="18" t="s">
         <v>31</v>
@@ -19798,7 +19855,7 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B316" s="11" t="s">
         <v>20</v>
@@ -19813,34 +19870,34 @@
         <v>23</v>
       </c>
       <c r="F316" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G316" s="19" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="H316" s="20">
         <v>1</v>
       </c>
       <c r="I316" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K316" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L316" s="28" t="s">
-        <v>159</v>
+        <v>362</v>
+      </c>
+      <c r="L316" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="M316" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N316" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O316" s="18" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="P316" s="19"/>
       <c r="Q316" s="19"/>
@@ -19851,7 +19908,7 @@
     </row>
     <row r="317" spans="1:19">
       <c r="A317" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B317" s="11" t="s">
         <v>20</v>
@@ -19866,10 +19923,10 @@
         <v>23</v>
       </c>
       <c r="F317" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G317" s="19" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="H317" s="20">
         <v>1</v>
@@ -19881,7 +19938,7 @@
         <v>27</v>
       </c>
       <c r="K317" s="19" t="s">
-        <v>249</v>
+        <v>506</v>
       </c>
       <c r="L317" s="28" t="s">
         <v>159</v>
@@ -19890,10 +19947,10 @@
         <v>34</v>
       </c>
       <c r="N317" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O317" s="18" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="O317" s="18">
+        <v>50000</v>
       </c>
       <c r="P317" s="19"/>
       <c r="Q317" s="19"/>
@@ -19904,7 +19961,7 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>20</v>
@@ -19919,10 +19976,10 @@
         <v>23</v>
       </c>
       <c r="F318" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G318" s="19" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="H318" s="20">
         <v>1</v>
@@ -19934,19 +19991,19 @@
         <v>27</v>
       </c>
       <c r="K318" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L318" s="19" t="s">
-        <v>33</v>
+        <v>191</v>
+      </c>
+      <c r="L318" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="M318" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N318" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="O318" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P318" s="19"/>
       <c r="Q318" s="19"/>
@@ -19957,7 +20014,7 @@
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>20</v>
@@ -19972,10 +20029,10 @@
         <v>23</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G319" s="19" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="H319" s="20">
         <v>1</v>
@@ -19987,19 +20044,19 @@
         <v>27</v>
       </c>
       <c r="K319" s="19" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="L319" s="28" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="M319" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N319" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O319" s="18" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="P319" s="19"/>
       <c r="Q319" s="19"/>
@@ -20010,7 +20067,7 @@
     </row>
     <row r="320" spans="1:19">
       <c r="A320" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B320" s="11" t="s">
         <v>20</v>
@@ -20025,10 +20082,10 @@
         <v>23</v>
       </c>
       <c r="F320" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G320" s="19" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="H320" s="20">
         <v>1</v>
@@ -20049,10 +20106,10 @@
         <v>34</v>
       </c>
       <c r="N320" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O320" s="18">
-        <v>50000</v>
+        <v>41</v>
+      </c>
+      <c r="O320" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="P320" s="19"/>
       <c r="Q320" s="19"/>
@@ -20063,22 +20120,22 @@
     </row>
     <row r="321" spans="1:19">
       <c r="A321" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F321" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C321" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D321" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E321" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F321" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="G321" s="19" t="s">
         <v>360</v>
@@ -20093,10 +20150,10 @@
         <v>27</v>
       </c>
       <c r="K321" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L321" s="28" t="s">
-        <v>92</v>
+        <v>337</v>
+      </c>
+      <c r="L321" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M321" s="19" t="s">
         <v>34</v>
@@ -20104,8 +20161,8 @@
       <c r="N321" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O321" s="18">
-        <v>0</v>
+      <c r="O321" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P321" s="19"/>
       <c r="Q321" s="19"/>
@@ -20131,7 +20188,7 @@
         <v>23</v>
       </c>
       <c r="F322" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G322" s="19" t="s">
         <v>360</v>
@@ -20140,25 +20197,25 @@
         <v>1</v>
       </c>
       <c r="I322" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K322" s="19" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="L322" s="28" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M322" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N322" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O322" s="18">
-        <v>50000</v>
+        <v>35</v>
+      </c>
+      <c r="O322" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="P322" s="19"/>
       <c r="Q322" s="19"/>
@@ -20169,7 +20226,7 @@
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>20</v>
@@ -20184,34 +20241,34 @@
         <v>23</v>
       </c>
       <c r="F323" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="H323" s="20">
         <v>1</v>
       </c>
       <c r="I323" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K323" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="L323" s="19" t="s">
-        <v>33</v>
+        <v>249</v>
+      </c>
+      <c r="L323" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="M323" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N323" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O323" s="18" t="s">
-        <v>26</v>
+        <v>272</v>
+      </c>
+      <c r="O323" s="18">
+        <v>50000</v>
       </c>
       <c r="P323" s="19"/>
       <c r="Q323" s="19"/>
@@ -20222,7 +20279,7 @@
     </row>
     <row r="324" spans="1:19">
       <c r="A324" s="18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>20</v>
@@ -20237,25 +20294,25 @@
         <v>23</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="H324" s="20">
         <v>1</v>
       </c>
       <c r="I324" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K324" s="19" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="L324" s="28" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="M324" s="19" t="s">
         <v>34</v>
@@ -20263,8 +20320,8 @@
       <c r="N324" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O324" s="18" t="s">
-        <v>31</v>
+      <c r="O324" s="18">
+        <v>0</v>
       </c>
       <c r="P324" s="19"/>
       <c r="Q324" s="19"/>
@@ -20275,7 +20332,7 @@
     </row>
     <row r="325" spans="1:19">
       <c r="A325" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>20</v>
@@ -20290,10 +20347,10 @@
         <v>23</v>
       </c>
       <c r="F325" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="H325" s="20">
         <v>1</v>
@@ -20328,22 +20385,22 @@
     </row>
     <row r="326" spans="1:19">
       <c r="A326" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E326" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F326" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C326" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D326" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E326" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F326" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="G326" s="19" t="s">
         <v>414</v>
@@ -20358,10 +20415,10 @@
         <v>27</v>
       </c>
       <c r="K326" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L326" s="28" t="s">
-        <v>92</v>
+        <v>415</v>
+      </c>
+      <c r="L326" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M326" s="19" t="s">
         <v>34</v>
@@ -20369,8 +20426,8 @@
       <c r="N326" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O326" s="18">
-        <v>0</v>
+      <c r="O326" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P326" s="19"/>
       <c r="Q326" s="19"/>
@@ -20396,7 +20453,7 @@
         <v>23</v>
       </c>
       <c r="F327" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G327" s="19" t="s">
         <v>414</v>
@@ -20405,25 +20462,25 @@
         <v>1</v>
       </c>
       <c r="I327" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K327" s="19" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="L327" s="28" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M327" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N327" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O327" s="18">
-        <v>50000</v>
+        <v>35</v>
+      </c>
+      <c r="O327" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="P327" s="19"/>
       <c r="Q327" s="19"/>
@@ -20434,7 +20491,7 @@
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B328" s="11" t="s">
         <v>20</v>
@@ -20449,34 +20506,34 @@
         <v>23</v>
       </c>
       <c r="F328" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G328" s="19" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="H328" s="20">
         <v>1</v>
       </c>
       <c r="I328" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K328" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="L328" s="19" t="s">
-        <v>33</v>
+        <v>249</v>
+      </c>
+      <c r="L328" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="M328" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N328" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O328" s="18" t="s">
-        <v>26</v>
+        <v>272</v>
+      </c>
+      <c r="O328" s="18">
+        <v>50000</v>
       </c>
       <c r="P328" s="19"/>
       <c r="Q328" s="19"/>
@@ -20487,7 +20544,7 @@
     </row>
     <row r="329" spans="1:19">
       <c r="A329" s="18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>20</v>
@@ -20502,25 +20559,25 @@
         <v>23</v>
       </c>
       <c r="F329" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G329" s="19" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="H329" s="20">
         <v>1</v>
       </c>
       <c r="I329" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K329" s="19" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="L329" s="28" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="M329" s="19" t="s">
         <v>34</v>
@@ -20528,8 +20585,8 @@
       <c r="N329" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O329" s="18" t="s">
-        <v>31</v>
+      <c r="O329" s="18">
+        <v>0</v>
       </c>
       <c r="P329" s="19"/>
       <c r="Q329" s="19"/>
@@ -20540,7 +20597,7 @@
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B330" s="11" t="s">
         <v>20</v>
@@ -20555,10 +20612,10 @@
         <v>23</v>
       </c>
       <c r="F330" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G330" s="19" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="H330" s="20">
         <v>1</v>
@@ -20570,7 +20627,7 @@
         <v>27</v>
       </c>
       <c r="K330" s="19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L330" s="28" t="s">
         <v>159</v>
@@ -20593,22 +20650,22 @@
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F331" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C331" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D331" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E331" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F331" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="G331" s="19" t="s">
         <v>237</v>
@@ -20623,10 +20680,10 @@
         <v>27</v>
       </c>
       <c r="K331" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L331" s="28" t="s">
-        <v>92</v>
+        <v>238</v>
+      </c>
+      <c r="L331" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M331" s="19" t="s">
         <v>34</v>
@@ -20634,8 +20691,8 @@
       <c r="N331" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O331" s="18">
-        <v>0</v>
+      <c r="O331" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P331" s="19"/>
       <c r="Q331" s="19"/>
@@ -20661,7 +20718,7 @@
         <v>23</v>
       </c>
       <c r="F332" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G332" s="19" t="s">
         <v>237</v>
@@ -20670,25 +20727,25 @@
         <v>1</v>
       </c>
       <c r="I332" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K332" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L332" s="28" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M332" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N332" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O332" s="18">
-        <v>50000</v>
+        <v>35</v>
+      </c>
+      <c r="O332" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="P332" s="19"/>
       <c r="Q332" s="19"/>
@@ -20699,7 +20756,7 @@
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>20</v>
@@ -20714,34 +20771,34 @@
         <v>23</v>
       </c>
       <c r="F333" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G333" s="19" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H333" s="20">
         <v>1</v>
       </c>
       <c r="I333" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K333" s="19" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="L333" s="28" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="M333" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N333" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O333" s="18" t="s">
-        <v>31</v>
+        <v>272</v>
+      </c>
+      <c r="O333" s="18">
+        <v>50000</v>
       </c>
       <c r="P333" s="19"/>
       <c r="Q333" s="19"/>
@@ -20752,7 +20809,7 @@
     </row>
     <row r="334" spans="1:19">
       <c r="A334" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B334" s="11" t="s">
         <v>20</v>
@@ -20767,34 +20824,34 @@
         <v>23</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G334" s="19" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H334" s="20">
         <v>1</v>
       </c>
       <c r="I334" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K334" s="19" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L334" s="28" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="M334" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N334" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O334" s="18" t="s">
-        <v>280</v>
+        <v>35</v>
+      </c>
+      <c r="O334" s="18">
+        <v>0</v>
       </c>
       <c r="P334" s="19"/>
       <c r="Q334" s="19"/>
@@ -20805,7 +20862,7 @@
     </row>
     <row r="335" spans="1:19">
       <c r="A335" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B335" s="11" t="s">
         <v>20</v>
@@ -20820,10 +20877,10 @@
         <v>23</v>
       </c>
       <c r="F335" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G335" s="19" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H335" s="20">
         <v>1</v>
@@ -20835,7 +20892,7 @@
         <v>27</v>
       </c>
       <c r="K335" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L335" s="28" t="s">
         <v>159</v>
@@ -20844,10 +20901,10 @@
         <v>34</v>
       </c>
       <c r="N335" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O335" s="18" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="O335" s="18">
+        <v>50000</v>
       </c>
       <c r="P335" s="19"/>
       <c r="Q335" s="19"/>
@@ -20856,9 +20913,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" ht="13" customHeight="1" spans="1:19">
       <c r="A336" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B336" s="11" t="s">
         <v>20</v>
@@ -20873,10 +20930,10 @@
         <v>23</v>
       </c>
       <c r="F336" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G336" s="19" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="H336" s="20">
         <v>1</v>
@@ -20888,19 +20945,19 @@
         <v>27</v>
       </c>
       <c r="K336" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L336" s="19" t="s">
-        <v>33</v>
+        <v>191</v>
+      </c>
+      <c r="L336" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="M336" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N336" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="O336" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P336" s="19"/>
       <c r="Q336" s="19"/>
@@ -20911,7 +20968,7 @@
     </row>
     <row r="337" spans="1:19">
       <c r="A337" s="18" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B337" s="11" t="s">
         <v>20</v>
@@ -20926,10 +20983,10 @@
         <v>23</v>
       </c>
       <c r="F337" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G337" s="19" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="H337" s="20">
         <v>1</v>
@@ -20941,19 +20998,19 @@
         <v>27</v>
       </c>
       <c r="K337" s="19" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="L337" s="28" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="M337" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N337" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O337" s="18" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="P337" s="19"/>
       <c r="Q337" s="19"/>
@@ -20964,7 +21021,7 @@
     </row>
     <row r="338" spans="1:19">
       <c r="A338" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B338" s="11" t="s">
         <v>20</v>
@@ -20979,10 +21036,10 @@
         <v>23</v>
       </c>
       <c r="F338" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="H338" s="20">
         <v>1</v>
@@ -21003,10 +21060,10 @@
         <v>34</v>
       </c>
       <c r="N338" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O338" s="18">
-        <v>50000</v>
+        <v>41</v>
+      </c>
+      <c r="O338" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="P338" s="19"/>
       <c r="Q338" s="19"/>
@@ -21017,22 +21074,22 @@
     </row>
     <row r="339" spans="1:19">
       <c r="A339" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F339" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="B339" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C339" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D339" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E339" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F339" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>360</v>
@@ -21047,10 +21104,10 @@
         <v>27</v>
       </c>
       <c r="K339" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L339" s="28" t="s">
-        <v>92</v>
+        <v>337</v>
+      </c>
+      <c r="L339" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M339" s="19" t="s">
         <v>34</v>
@@ -21058,8 +21115,8 @@
       <c r="N339" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O339" s="18">
-        <v>0</v>
+      <c r="O339" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P339" s="19"/>
       <c r="Q339" s="19"/>
@@ -21085,7 +21142,7 @@
         <v>23</v>
       </c>
       <c r="F340" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G340" s="19" t="s">
         <v>360</v>
@@ -21100,19 +21157,19 @@
         <v>27</v>
       </c>
       <c r="K340" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="L340" s="19" t="s">
-        <v>48</v>
+        <v>337</v>
+      </c>
+      <c r="L340" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="M340" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N340" s="7" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="O340" s="18" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="P340" s="19"/>
       <c r="Q340" s="19"/>
@@ -21138,7 +21195,7 @@
         <v>23</v>
       </c>
       <c r="F341" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G341" s="19" t="s">
         <v>360</v>
@@ -21153,19 +21210,19 @@
         <v>27</v>
       </c>
       <c r="K341" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L341" s="19" t="s">
-        <v>92</v>
+        <v>249</v>
+      </c>
+      <c r="L341" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="M341" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N341" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O341" s="18" t="s">
-        <v>31</v>
+        <v>272</v>
+      </c>
+      <c r="O341" s="18">
+        <v>50000</v>
       </c>
       <c r="P341" s="19"/>
       <c r="Q341" s="19"/>
@@ -21176,7 +21233,7 @@
     </row>
     <row r="342" spans="1:19">
       <c r="A342" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>20</v>
@@ -21191,7 +21248,7 @@
         <v>23</v>
       </c>
       <c r="F342" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G342" s="19" t="s">
         <v>360</v>
@@ -21208,7 +21265,7 @@
       <c r="K342" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="L342" s="19" t="s">
+      <c r="L342" s="28" t="s">
         <v>92</v>
       </c>
       <c r="M342" s="19" t="s">
@@ -21217,8 +21274,8 @@
       <c r="N342" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O342" s="18" t="s">
-        <v>31</v>
+      <c r="O342" s="18">
+        <v>0</v>
       </c>
       <c r="P342" s="19"/>
       <c r="Q342" s="19"/>
@@ -21229,7 +21286,7 @@
     </row>
     <row r="343" spans="1:19">
       <c r="A343" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B343" s="11" t="s">
         <v>20</v>
@@ -21244,7 +21301,7 @@
         <v>23</v>
       </c>
       <c r="F343" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G343" s="19" t="s">
         <v>360</v>
@@ -21259,19 +21316,19 @@
         <v>27</v>
       </c>
       <c r="K343" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L343" s="28" t="s">
-        <v>159</v>
+        <v>276</v>
+      </c>
+      <c r="L343" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="M343" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N343" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O343" s="18">
-        <v>50000</v>
+        <v>247</v>
+      </c>
+      <c r="O343" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="P343" s="19"/>
       <c r="Q343" s="19"/>
@@ -21282,7 +21339,7 @@
     </row>
     <row r="344" spans="1:19">
       <c r="A344" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B344" s="11" t="s">
         <v>20</v>
@@ -21297,7 +21354,7 @@
         <v>23</v>
       </c>
       <c r="F344" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G344" s="19" t="s">
         <v>360</v>
@@ -21312,10 +21369,10 @@
         <v>27</v>
       </c>
       <c r="K344" s="19" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="L344" s="19" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="M344" s="19" t="s">
         <v>34</v>
@@ -21324,7 +21381,7 @@
         <v>35</v>
       </c>
       <c r="O344" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P344" s="19"/>
       <c r="Q344" s="19"/>
@@ -21335,7 +21392,7 @@
     </row>
     <row r="345" spans="1:19">
       <c r="A345" s="18" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>20</v>
@@ -21350,7 +21407,7 @@
         <v>23</v>
       </c>
       <c r="F345" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G345" s="19" t="s">
         <v>360</v>
@@ -21359,16 +21416,16 @@
         <v>1</v>
       </c>
       <c r="I345" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K345" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L345" s="28" t="s">
-        <v>33</v>
+        <v>362</v>
+      </c>
+      <c r="L345" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="M345" s="19" t="s">
         <v>34</v>
@@ -21388,7 +21445,7 @@
     </row>
     <row r="346" spans="1:19">
       <c r="A346" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B346" s="11" t="s">
         <v>20</v>
@@ -21403,7 +21460,7 @@
         <v>23</v>
       </c>
       <c r="F346" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G346" s="19" t="s">
         <v>360</v>
@@ -21441,22 +21498,22 @@
     </row>
     <row r="347" spans="1:19">
       <c r="A347" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E347" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F347" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="B347" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D347" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E347" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F347" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="G347" s="19" t="s">
         <v>360</v>
@@ -21471,10 +21528,10 @@
         <v>27</v>
       </c>
       <c r="K347" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="L347" s="28" t="s">
-        <v>92</v>
+        <v>337</v>
+      </c>
+      <c r="L347" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M347" s="19" t="s">
         <v>34</v>
@@ -21482,8 +21539,8 @@
       <c r="N347" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O347" s="18">
-        <v>0</v>
+      <c r="O347" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="P347" s="19"/>
       <c r="Q347" s="19"/>
@@ -21493,7 +21550,7 @@
       </c>
     </row>
     <row r="348" spans="1:19">
-      <c r="A348" s="21" t="s">
+      <c r="A348" s="18" t="s">
         <v>536</v>
       </c>
       <c r="B348" s="11" t="s">
@@ -21509,7 +21566,7 @@
         <v>23</v>
       </c>
       <c r="F348" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G348" s="19" t="s">
         <v>360</v>
@@ -21518,22 +21575,22 @@
         <v>1</v>
       </c>
       <c r="I348" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K348" s="19" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="L348" s="28" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="M348" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N348" s="7" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="O348" s="18" t="s">
         <v>31</v>
@@ -21546,7 +21603,7 @@
       </c>
     </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="21" t="s">
+      <c r="A349" s="18" t="s">
         <v>536</v>
       </c>
       <c r="B349" s="11" t="s">
@@ -21562,7 +21619,7 @@
         <v>23</v>
       </c>
       <c r="F349" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G349" s="19" t="s">
         <v>360</v>
@@ -21571,7 +21628,7 @@
         <v>1</v>
       </c>
       <c r="I349" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" s="11" t="s">
         <v>27</v>
@@ -21586,10 +21643,10 @@
         <v>34</v>
       </c>
       <c r="N349" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O349" s="18" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="O349" s="18">
+        <v>50000</v>
       </c>
       <c r="P349" s="19"/>
       <c r="Q349" s="19"/>
@@ -21600,7 +21657,7 @@
     </row>
     <row r="350" spans="1:19">
       <c r="A350" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B350" s="11" t="s">
         <v>20</v>
@@ -21615,7 +21672,7 @@
         <v>23</v>
       </c>
       <c r="F350" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G350" s="19" t="s">
         <v>360</v>
@@ -21624,25 +21681,25 @@
         <v>1</v>
       </c>
       <c r="I350" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K350" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="L350" s="19" t="s">
-        <v>48</v>
+        <v>362</v>
+      </c>
+      <c r="L350" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="M350" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N350" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="O350" s="18" t="s">
-        <v>262</v>
+        <v>35</v>
+      </c>
+      <c r="O350" s="18">
+        <v>0</v>
       </c>
       <c r="P350" s="19"/>
       <c r="Q350" s="19"/>
@@ -21652,7 +21709,7 @@
       </c>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="18" t="s">
+      <c r="A351" s="21" t="s">
         <v>537</v>
       </c>
       <c r="B351" s="11" t="s">
@@ -21668,7 +21725,7 @@
         <v>23</v>
       </c>
       <c r="F351" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G351" s="19" t="s">
         <v>360</v>
@@ -21685,14 +21742,14 @@
       <c r="K351" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="L351" s="19" t="s">
+      <c r="L351" s="28" t="s">
         <v>92</v>
       </c>
       <c r="M351" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N351" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="O351" s="18" t="s">
         <v>31</v>
@@ -21705,8 +21762,8 @@
       </c>
     </row>
     <row r="352" spans="1:19">
-      <c r="A352" s="18" t="s">
-        <v>538</v>
+      <c r="A352" s="21" t="s">
+        <v>537</v>
       </c>
       <c r="B352" s="11" t="s">
         <v>20</v>
@@ -21721,7 +21778,7 @@
         <v>23</v>
       </c>
       <c r="F352" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G352" s="19" t="s">
         <v>360</v>
@@ -21745,10 +21802,10 @@
         <v>34</v>
       </c>
       <c r="N352" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O352" s="18">
-        <v>50000</v>
+        <v>41</v>
+      </c>
+      <c r="O352" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="P352" s="19"/>
       <c r="Q352" s="19"/>
@@ -21759,7 +21816,7 @@
     </row>
     <row r="353" spans="1:19">
       <c r="A353" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B353" s="11" t="s">
         <v>20</v>
@@ -21774,43 +21831,45 @@
         <v>23</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G353" s="22" t="s">
-        <v>541</v>
+        <v>535</v>
+      </c>
+      <c r="G353" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="H353" s="20">
         <v>1</v>
       </c>
       <c r="I353" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K353" s="22" t="s">
-        <v>158</v>
+      <c r="K353" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="L353" s="19" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="M353" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N353" s="7" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="O353" s="18" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="P353" s="19"/>
       <c r="Q353" s="19"/>
       <c r="R353" s="30"/>
-      <c r="S353" s="19"/>
+      <c r="S353" s="19" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="354" spans="1:19">
       <c r="A354" s="18" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>20</v>
@@ -21825,10 +21884,10 @@
         <v>23</v>
       </c>
       <c r="F354" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G354" s="22" t="s">
-        <v>541</v>
+        <v>535</v>
+      </c>
+      <c r="G354" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="H354" s="20">
         <v>1</v>
@@ -21839,8 +21898,8 @@
       <c r="J354" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K354" s="22" t="s">
-        <v>191</v>
+      <c r="K354" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="L354" s="19" t="s">
         <v>92</v>
@@ -21857,11 +21916,13 @@
       <c r="P354" s="19"/>
       <c r="Q354" s="19"/>
       <c r="R354" s="30"/>
-      <c r="S354" s="19"/>
+      <c r="S354" s="19" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="355" spans="1:19">
       <c r="A355" s="18" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B355" s="11" t="s">
         <v>20</v>
@@ -21876,10 +21937,10 @@
         <v>23</v>
       </c>
       <c r="F355" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G355" s="22" t="s">
-        <v>541</v>
+        <v>535</v>
+      </c>
+      <c r="G355" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="H355" s="20">
         <v>1</v>
@@ -21890,29 +21951,31 @@
       <c r="J355" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K355" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="L355" s="19" t="s">
-        <v>48</v>
+      <c r="K355" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="L355" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="M355" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N355" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="O355" s="18" t="s">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c r="O355" s="18">
+        <v>50000</v>
       </c>
       <c r="P355" s="19"/>
       <c r="Q355" s="19"/>
       <c r="R355" s="30"/>
-      <c r="S355" s="19"/>
+      <c r="S355" s="19" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="356" spans="1:19">
       <c r="A356" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B356" s="11" t="s">
         <v>20</v>
@@ -21927,16 +21990,16 @@
         <v>23</v>
       </c>
       <c r="F356" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G356" s="22" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H356" s="20">
         <v>1</v>
       </c>
       <c r="I356" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" s="11" t="s">
         <v>27</v>
@@ -21978,10 +22041,10 @@
         <v>23</v>
       </c>
       <c r="F357" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G357" s="22" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H357" s="20">
         <v>1</v>
@@ -22014,7 +22077,7 @@
     </row>
     <row r="358" spans="1:19">
       <c r="A358" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>20</v>
@@ -22028,11 +22091,11 @@
       <c r="E358" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F358" s="18" t="s">
-        <v>544</v>
+      <c r="F358" s="7" t="s">
+        <v>541</v>
       </c>
       <c r="G358" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H358" s="20">
         <v>1</v>
@@ -22044,19 +22107,19 @@
         <v>27</v>
       </c>
       <c r="K358" s="22" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="L358" s="19" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="M358" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N358" s="7" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="O358" s="18" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="P358" s="19"/>
       <c r="Q358" s="19"/>
@@ -22079,11 +22142,11 @@
       <c r="E359" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F359" s="18" t="s">
+      <c r="F359" s="7" t="s">
         <v>544</v>
       </c>
       <c r="G359" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H359" s="20">
         <v>1</v>
@@ -22095,19 +22158,19 @@
         <v>27</v>
       </c>
       <c r="K359" s="22" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="L359" s="19" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="M359" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N359" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O359" s="18" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P359" s="19"/>
       <c r="Q359" s="19"/>
@@ -22130,11 +22193,11 @@
       <c r="E360" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F360" s="18" t="s">
+      <c r="F360" s="7" t="s">
         <v>544</v>
       </c>
       <c r="G360" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H360" s="20">
         <v>1</v>
@@ -22146,19 +22209,19 @@
         <v>27</v>
       </c>
       <c r="K360" s="22" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L360" s="19" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="M360" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N360" s="7" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="O360" s="18" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="P360" s="19"/>
       <c r="Q360" s="19"/>
@@ -22167,7 +22230,7 @@
     </row>
     <row r="361" spans="1:19">
       <c r="A361" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B361" s="11" t="s">
         <v>20</v>
@@ -22232,11 +22295,11 @@
       <c r="E362" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F362" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G362" s="19" t="s">
-        <v>360</v>
+      <c r="F362" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G362" s="22" t="s">
+        <v>547</v>
       </c>
       <c r="H362" s="20">
         <v>1</v>
@@ -22247,31 +22310,29 @@
       <c r="J362" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K362" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L362" s="28" t="s">
-        <v>159</v>
+      <c r="K362" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L362" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="M362" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N362" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O362" s="18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P362" s="19"/>
       <c r="Q362" s="19"/>
       <c r="R362" s="30"/>
-      <c r="S362" s="19" t="s">
-        <v>355</v>
-      </c>
+      <c r="S362" s="19"/>
     </row>
     <row r="363" spans="1:19">
       <c r="A363" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B363" s="11" t="s">
         <v>20</v>
@@ -22285,11 +22346,11 @@
       <c r="E363" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F363" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G363" s="19" t="s">
-        <v>360</v>
+      <c r="F363" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G363" s="22" t="s">
+        <v>547</v>
       </c>
       <c r="H363" s="20">
         <v>1</v>
@@ -22300,50 +22361,48 @@
       <c r="J363" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K363" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L363" s="28" t="s">
-        <v>159</v>
+      <c r="K363" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L363" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="M363" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N363" s="7" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="O363" s="18" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="P363" s="19"/>
       <c r="Q363" s="19"/>
       <c r="R363" s="30"/>
-      <c r="S363" s="19" t="s">
-        <v>355</v>
-      </c>
+      <c r="S363" s="19"/>
     </row>
     <row r="364" spans="1:19">
       <c r="A364" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E364" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F364" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="G364" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="B364" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D364" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E364" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F364" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G364" s="32" t="s">
-        <v>237</v>
-      </c>
       <c r="H364" s="20">
         <v>1</v>
       </c>
@@ -22353,10 +22412,10 @@
       <c r="J364" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K364" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L364" s="28" t="s">
+      <c r="K364" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L364" s="19" t="s">
         <v>159</v>
       </c>
       <c r="M364" s="19" t="s">
@@ -22371,9 +22430,7 @@
       <c r="P364" s="19"/>
       <c r="Q364" s="19"/>
       <c r="R364" s="30"/>
-      <c r="S364" s="19" t="s">
-        <v>355</v>
-      </c>
+      <c r="S364" s="19"/>
     </row>
     <row r="365" spans="1:19">
       <c r="A365" s="18" t="s">
@@ -22392,10 +22449,10 @@
         <v>23</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G365" s="19" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="H365" s="20">
         <v>1</v>
@@ -22407,7 +22464,7 @@
         <v>27</v>
       </c>
       <c r="K365" s="19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L365" s="28" t="s">
         <v>159</v>
@@ -22445,10 +22502,10 @@
         <v>23</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G366" s="19" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="H366" s="20">
         <v>1</v>
@@ -22497,11 +22554,11 @@
       <c r="E367" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F367" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="G367" s="22" t="s">
-        <v>554</v>
+      <c r="F367" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G367" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="H367" s="20">
         <v>1</v>
@@ -22512,31 +22569,31 @@
       <c r="J367" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K367" s="22" t="s">
-        <v>415</v>
+      <c r="K367" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="L367" s="28" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="M367" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N367" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O367" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="O367" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="P367" s="19"/>
       <c r="Q367" s="19"/>
       <c r="R367" s="30"/>
-      <c r="S367" s="22" t="s">
-        <v>555</v>
+      <c r="S367" s="19" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="368" spans="1:19">
-      <c r="A368" s="21" t="s">
-        <v>556</v>
+      <c r="A368" s="18" t="s">
+        <v>554</v>
       </c>
       <c r="B368" s="11" t="s">
         <v>20</v>
@@ -22550,11 +22607,11 @@
       <c r="E368" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F368" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="G368" s="22" t="s">
-        <v>554</v>
+      <c r="F368" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G368" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="H368" s="20">
         <v>1</v>
@@ -22565,32 +22622,32 @@
       <c r="J368" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K368" s="22" t="s">
-        <v>415</v>
+      <c r="K368" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="L368" s="28" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="M368" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N368" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O368" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="O368" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="P368" s="19"/>
       <c r="Q368" s="19"/>
       <c r="R368" s="30"/>
-      <c r="S368" s="22" t="s">
+      <c r="S368" s="19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19">
+      <c r="A369" s="18" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="369" spans="1:19">
-      <c r="A369" s="21" t="s">
-        <v>557</v>
-      </c>
       <c r="B369" s="11" t="s">
         <v>20</v>
       </c>
@@ -22603,46 +22660,46 @@
       <c r="E369" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F369" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="G369" s="22" t="s">
-        <v>559</v>
+      <c r="F369" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G369" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="H369" s="20">
         <v>1</v>
       </c>
       <c r="I369" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J369" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K369" s="22" t="s">
-        <v>415</v>
+      <c r="K369" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="L369" s="28" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="M369" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N369" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O369" s="21" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="O369" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="P369" s="19"/>
       <c r="Q369" s="19"/>
       <c r="R369" s="30"/>
-      <c r="S369" s="22" t="s">
-        <v>560</v>
+      <c r="S369" s="19" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="1:19">
-      <c r="A370" s="21" t="s">
-        <v>561</v>
+      <c r="A370" s="18" t="s">
+        <v>556</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>20</v>
@@ -22656,11 +22713,11 @@
       <c r="E370" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F370" s="25" t="s">
-        <v>558</v>
+      <c r="F370" s="18" t="s">
+        <v>556</v>
       </c>
       <c r="G370" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H370" s="20">
         <v>1</v>
@@ -22690,12 +22747,12 @@
       <c r="Q370" s="19"/>
       <c r="R370" s="30"/>
       <c r="S370" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="371" spans="1:19">
       <c r="A371" s="21" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>20</v>
@@ -22704,16 +22761,16 @@
         <v>21</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>563</v>
+        <v>22</v>
       </c>
       <c r="E371" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F371" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G371" s="19" t="s">
-        <v>565</v>
+      <c r="F371" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="G371" s="22" t="s">
+        <v>557</v>
       </c>
       <c r="H371" s="20">
         <v>1</v>
@@ -22724,47 +22781,64 @@
       <c r="J371" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K371" s="19"/>
-      <c r="L371" s="19"/>
-      <c r="M371" s="19"/>
-      <c r="O371" s="18"/>
+      <c r="K371" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="L371" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M371" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N371" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O371" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="P371" s="19"/>
       <c r="Q371" s="19"/>
       <c r="R371" s="30"/>
-      <c r="S371" s="19" t="s">
-        <v>566</v>
+      <c r="S371" s="22" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="372" spans="1:19">
-      <c r="A372" s="18"/>
-      <c r="B372" s="19"/>
-      <c r="C372" s="19"/>
+      <c r="A372" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="D372" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E372" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F372" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G372" s="19" t="s">
-        <v>71</v>
+      <c r="F372" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="G372" s="22" t="s">
+        <v>562</v>
       </c>
       <c r="H372" s="20">
         <v>1</v>
       </c>
       <c r="I372" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K372" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="L372" s="19" t="s">
-        <v>569</v>
+        <v>415</v>
+      </c>
+      <c r="L372" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="M372" s="19" t="s">
         <v>34</v>
@@ -22772,72 +22846,72 @@
       <c r="N372" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O372" s="18" t="s">
+      <c r="O372" s="21" t="s">
         <v>31</v>
       </c>
       <c r="P372" s="19"/>
       <c r="Q372" s="19"/>
       <c r="R372" s="30"/>
-      <c r="S372" s="19" t="s">
-        <v>570</v>
+      <c r="S372" s="22" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="373" spans="1:19">
-      <c r="A373" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="B373" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C373" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D373" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E373" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F373" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="G373" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="H373" s="52">
-        <v>1</v>
-      </c>
-      <c r="I373" s="52">
-        <v>0</v>
-      </c>
-      <c r="J373" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K373" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="L373" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="M373" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="N373" s="56" t="s">
+      <c r="A373" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F373" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="G373" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="H373" s="20">
+        <v>1</v>
+      </c>
+      <c r="I373" s="20">
+        <v>0</v>
+      </c>
+      <c r="J373" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K373" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="L373" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M373" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N373" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O373" s="48" t="s">
-        <v>31</v>
+      <c r="O373" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="P373" s="19"/>
       <c r="Q373" s="19"/>
       <c r="R373" s="30"/>
       <c r="S373" s="22" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="374" spans="1:19">
       <c r="A374" s="21" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>20</v>
@@ -22846,16 +22920,16 @@
         <v>21</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>22</v>
+        <v>566</v>
       </c>
       <c r="E374" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="G374" s="19" t="s">
-        <v>288</v>
+        <v>568</v>
       </c>
       <c r="H374" s="20">
         <v>1</v>
@@ -22866,38 +22940,21 @@
       <c r="J374" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K374" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="L374" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="M374" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N374" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O374" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="K374" s="19"/>
+      <c r="L374" s="19"/>
+      <c r="M374" s="19"/>
+      <c r="O374" s="18"/>
       <c r="P374" s="19"/>
       <c r="Q374" s="19"/>
-      <c r="R374" s="19"/>
+      <c r="R374" s="30"/>
       <c r="S374" s="19" t="s">
-        <v>290</v>
+        <v>569</v>
       </c>
     </row>
     <row r="375" spans="1:19">
-      <c r="A375" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="B375" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C375" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A375" s="18"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="19"/>
       <c r="D375" s="12" t="s">
         <v>22</v>
       </c>
@@ -22905,10 +22962,10 @@
         <v>23</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>287</v>
+        <v>570</v>
       </c>
       <c r="G375" s="19" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="H375" s="20">
         <v>1</v>
@@ -22919,73 +22976,84 @@
       <c r="J375" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K375" s="19" t="s">
-        <v>292</v>
+      <c r="K375" s="22" t="s">
+        <v>571</v>
       </c>
       <c r="L375" s="19" t="s">
-        <v>159</v>
+        <v>572</v>
       </c>
       <c r="M375" s="19" t="s">
         <v>34</v>
       </c>
       <c r="N375" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O375" s="21" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="O375" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="P375" s="19"/>
       <c r="Q375" s="19"/>
-      <c r="R375" s="19"/>
+      <c r="R375" s="30"/>
       <c r="S375" s="19" t="s">
-        <v>290</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:19">
-      <c r="A376" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="B376" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D376" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E376" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F376" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="G376" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="H376" s="20">
-        <v>1</v>
-      </c>
-      <c r="I376" s="20">
-        <v>0</v>
-      </c>
-      <c r="J376" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K376" s="19"/>
-      <c r="L376" s="19"/>
-      <c r="M376" s="19"/>
-      <c r="O376" s="18"/>
+      <c r="A376" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="B376" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C376" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E376" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F376" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="G376" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="H376" s="52">
+        <v>1</v>
+      </c>
+      <c r="I376" s="52">
+        <v>0</v>
+      </c>
+      <c r="J376" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K376" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="L376" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="M376" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="N376" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="O376" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="P376" s="19"/>
       <c r="Q376" s="19"/>
       <c r="R376" s="30"/>
-      <c r="S376" s="19" t="s">
-        <v>570</v>
+      <c r="S376" s="22" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="377" spans="1:19">
-      <c r="A377" s="18" t="s">
-        <v>580</v>
+      <c r="A377" s="21" t="s">
+        <v>578</v>
       </c>
       <c r="B377" s="11" t="s">
         <v>20</v>
@@ -23000,34 +23068,45 @@
         <v>23</v>
       </c>
       <c r="F377" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G377" s="53" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="G377" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="H377" s="20">
         <v>1</v>
       </c>
       <c r="I377" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K377" s="19"/>
-      <c r="L377" s="19"/>
-      <c r="M377" s="19"/>
-      <c r="O377" s="18"/>
+      <c r="K377" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="L377" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="M377" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N377" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O377" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="P377" s="19"/>
       <c r="Q377" s="19"/>
-      <c r="R377" s="30"/>
+      <c r="R377" s="19"/>
       <c r="S377" s="19" t="s">
-        <v>582</v>
+        <v>290</v>
       </c>
     </row>
     <row r="378" spans="1:19">
-      <c r="A378" s="18" t="s">
-        <v>583</v>
+      <c r="A378" s="21" t="s">
+        <v>578</v>
       </c>
       <c r="B378" s="11" t="s">
         <v>20</v>
@@ -23042,58 +23121,69 @@
         <v>23</v>
       </c>
       <c r="F378" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="G378" s="54" t="s">
-        <v>584</v>
+        <v>287</v>
+      </c>
+      <c r="G378" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="H378" s="20">
         <v>1</v>
       </c>
       <c r="I378" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K378" s="19"/>
-      <c r="L378" s="19"/>
-      <c r="M378" s="19"/>
-      <c r="O378" s="18"/>
+      <c r="K378" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="L378" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M378" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N378" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O378" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="P378" s="19"/>
       <c r="Q378" s="19"/>
-      <c r="R378" s="30"/>
+      <c r="R378" s="19"/>
       <c r="S378" s="19" t="s">
-        <v>585</v>
+        <v>290</v>
       </c>
     </row>
     <row r="379" spans="1:19">
       <c r="A379" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="B379" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C379" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D379" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E379" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F379" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F379" s="18" t="s">
+        <v>581</v>
       </c>
       <c r="G379" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H379" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I379" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" s="11" t="s">
         <v>27</v>
@@ -23106,20 +23196,40 @@
       <c r="Q379" s="19"/>
       <c r="R379" s="30"/>
       <c r="S379" s="19" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:19">
-      <c r="A380" s="18"/>
-      <c r="B380" s="19"/>
-      <c r="C380" s="19"/>
-      <c r="D380" s="19"/>
-      <c r="E380" s="19"/>
-      <c r="F380" s="7"/>
-      <c r="G380" s="19"/>
-      <c r="H380" s="20"/>
-      <c r="I380" s="20"/>
-      <c r="J380" s="19"/>
+      <c r="A380" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G380" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="H380" s="20">
+        <v>1</v>
+      </c>
+      <c r="I380" s="20">
+        <v>1</v>
+      </c>
+      <c r="J380" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K380" s="19"/>
       <c r="L380" s="19"/>
       <c r="M380" s="19"/>
@@ -23127,19 +23237,41 @@
       <c r="P380" s="19"/>
       <c r="Q380" s="19"/>
       <c r="R380" s="30"/>
-      <c r="S380" s="19"/>
+      <c r="S380" s="19" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="381" spans="1:19">
-      <c r="A381" s="18"/>
-      <c r="B381" s="19"/>
-      <c r="C381" s="19"/>
-      <c r="D381" s="19"/>
-      <c r="E381" s="19"/>
-      <c r="F381" s="7"/>
-      <c r="G381" s="19"/>
-      <c r="H381" s="20"/>
-      <c r="I381" s="20"/>
-      <c r="J381" s="19"/>
+      <c r="A381" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G381" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="H381" s="20">
+        <v>1</v>
+      </c>
+      <c r="I381" s="20">
+        <v>1</v>
+      </c>
+      <c r="J381" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K381" s="19"/>
       <c r="L381" s="19"/>
       <c r="M381" s="19"/>
@@ -23147,19 +23279,41 @@
       <c r="P381" s="19"/>
       <c r="Q381" s="19"/>
       <c r="R381" s="30"/>
-      <c r="S381" s="19"/>
+      <c r="S381" s="19" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="382" spans="1:19">
-      <c r="A382" s="18"/>
-      <c r="B382" s="19"/>
-      <c r="C382" s="19"/>
-      <c r="D382" s="19"/>
-      <c r="E382" s="19"/>
-      <c r="F382" s="7"/>
-      <c r="G382" s="19"/>
-      <c r="H382" s="20"/>
-      <c r="I382" s="20"/>
-      <c r="J382" s="19"/>
+      <c r="A382" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B382" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C382" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E382" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F382" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G382" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="H382" s="20">
+        <v>0</v>
+      </c>
+      <c r="I382" s="20">
+        <v>1</v>
+      </c>
+      <c r="J382" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K382" s="19"/>
       <c r="L382" s="19"/>
       <c r="M382" s="19"/>
@@ -23167,19 +23321,41 @@
       <c r="P382" s="19"/>
       <c r="Q382" s="19"/>
       <c r="R382" s="30"/>
-      <c r="S382" s="19"/>
+      <c r="S382" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="383" spans="1:19">
-      <c r="A383" s="18"/>
-      <c r="B383" s="19"/>
-      <c r="C383" s="19"/>
-      <c r="D383" s="19"/>
-      <c r="E383" s="19"/>
-      <c r="F383" s="7"/>
-      <c r="G383" s="19"/>
-      <c r="H383" s="20"/>
-      <c r="I383" s="20"/>
-      <c r="J383" s="19"/>
+      <c r="A383" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B383" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C383" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D383" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E383" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F383" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G383" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="H383" s="20">
+        <v>0</v>
+      </c>
+      <c r="I383" s="20">
+        <v>1</v>
+      </c>
+      <c r="J383" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K383" s="19"/>
       <c r="L383" s="19"/>
       <c r="M383" s="19"/>
@@ -23187,19 +23363,41 @@
       <c r="P383" s="19"/>
       <c r="Q383" s="19"/>
       <c r="R383" s="30"/>
-      <c r="S383" s="19"/>
+      <c r="S383" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="384" spans="1:19">
-      <c r="A384" s="18"/>
-      <c r="B384" s="19"/>
-      <c r="C384" s="19"/>
-      <c r="D384" s="19"/>
-      <c r="E384" s="19"/>
-      <c r="F384" s="7"/>
-      <c r="G384" s="19"/>
-      <c r="H384" s="20"/>
-      <c r="I384" s="20"/>
-      <c r="J384" s="19"/>
+      <c r="A384" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B384" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C384" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D384" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E384" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F384" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G384" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="H384" s="20">
+        <v>0</v>
+      </c>
+      <c r="I384" s="20">
+        <v>1</v>
+      </c>
+      <c r="J384" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K384" s="19"/>
       <c r="L384" s="19"/>
       <c r="M384" s="19"/>
@@ -23207,19 +23405,41 @@
       <c r="P384" s="19"/>
       <c r="Q384" s="19"/>
       <c r="R384" s="30"/>
-      <c r="S384" s="19"/>
+      <c r="S384" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="385" spans="1:19">
-      <c r="A385" s="18"/>
-      <c r="B385" s="19"/>
-      <c r="C385" s="19"/>
-      <c r="D385" s="19"/>
-      <c r="E385" s="19"/>
-      <c r="F385" s="7"/>
-      <c r="G385" s="19"/>
-      <c r="H385" s="20"/>
-      <c r="I385" s="20"/>
-      <c r="J385" s="19"/>
+      <c r="A385" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="B385" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C385" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D385" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E385" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F385" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G385" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="H385" s="20">
+        <v>0</v>
+      </c>
+      <c r="I385" s="20">
+        <v>1</v>
+      </c>
+      <c r="J385" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K385" s="19"/>
       <c r="L385" s="19"/>
       <c r="M385" s="19"/>
@@ -23227,19 +23447,41 @@
       <c r="P385" s="19"/>
       <c r="Q385" s="19"/>
       <c r="R385" s="30"/>
-      <c r="S385" s="19"/>
+      <c r="S385" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="386" spans="1:19">
-      <c r="A386" s="18"/>
-      <c r="B386" s="19"/>
-      <c r="C386" s="19"/>
-      <c r="D386" s="19"/>
-      <c r="E386" s="19"/>
-      <c r="F386" s="7"/>
-      <c r="G386" s="19"/>
-      <c r="H386" s="20"/>
-      <c r="I386" s="20"/>
-      <c r="J386" s="19"/>
+      <c r="A386" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="B386" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C386" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D386" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E386" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F386" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G386" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H386" s="20">
+        <v>0</v>
+      </c>
+      <c r="I386" s="20">
+        <v>1</v>
+      </c>
+      <c r="J386" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K386" s="19"/>
       <c r="L386" s="19"/>
       <c r="M386" s="19"/>
@@ -23247,19 +23489,41 @@
       <c r="P386" s="19"/>
       <c r="Q386" s="19"/>
       <c r="R386" s="30"/>
-      <c r="S386" s="19"/>
+      <c r="S386" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="387" spans="1:19">
-      <c r="A387" s="18"/>
-      <c r="B387" s="19"/>
-      <c r="C387" s="19"/>
-      <c r="D387" s="19"/>
-      <c r="E387" s="19"/>
-      <c r="F387" s="7"/>
-      <c r="G387" s="19"/>
-      <c r="H387" s="20"/>
-      <c r="I387" s="20"/>
-      <c r="J387" s="19"/>
+      <c r="A387" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B387" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C387" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D387" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E387" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F387" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G387" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="H387" s="20">
+        <v>0</v>
+      </c>
+      <c r="I387" s="20">
+        <v>1</v>
+      </c>
+      <c r="J387" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K387" s="19"/>
       <c r="L387" s="19"/>
       <c r="M387" s="19"/>
@@ -23267,19 +23531,41 @@
       <c r="P387" s="19"/>
       <c r="Q387" s="19"/>
       <c r="R387" s="30"/>
-      <c r="S387" s="19"/>
+      <c r="S387" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="388" spans="1:19">
-      <c r="A388" s="18"/>
-      <c r="B388" s="19"/>
-      <c r="C388" s="19"/>
-      <c r="D388" s="19"/>
-      <c r="E388" s="19"/>
-      <c r="F388" s="7"/>
-      <c r="G388" s="19"/>
-      <c r="H388" s="20"/>
-      <c r="I388" s="20"/>
-      <c r="J388" s="19"/>
+      <c r="A388" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="B388" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C388" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D388" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E388" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G388" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="H388" s="20">
+        <v>0</v>
+      </c>
+      <c r="I388" s="20">
+        <v>1</v>
+      </c>
+      <c r="J388" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K388" s="19"/>
       <c r="L388" s="19"/>
       <c r="M388" s="19"/>
@@ -23287,7 +23573,9 @@
       <c r="P388" s="19"/>
       <c r="Q388" s="19"/>
       <c r="R388" s="30"/>
-      <c r="S388" s="19"/>
+      <c r="S388" s="19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="389" spans="1:19">
       <c r="A389" s="18"/>
@@ -26109,16 +26397,76 @@
       <c r="R529" s="30"/>
       <c r="S529" s="19"/>
     </row>
+    <row r="530" spans="1:19">
+      <c r="A530" s="18"/>
+      <c r="B530" s="19"/>
+      <c r="C530" s="19"/>
+      <c r="D530" s="19"/>
+      <c r="E530" s="19"/>
+      <c r="F530" s="7"/>
+      <c r="G530" s="19"/>
+      <c r="H530" s="20"/>
+      <c r="I530" s="20"/>
+      <c r="J530" s="19"/>
+      <c r="K530" s="19"/>
+      <c r="L530" s="19"/>
+      <c r="M530" s="19"/>
+      <c r="O530" s="18"/>
+      <c r="P530" s="19"/>
+      <c r="Q530" s="19"/>
+      <c r="R530" s="30"/>
+      <c r="S530" s="19"/>
+    </row>
+    <row r="531" spans="1:19">
+      <c r="A531" s="18"/>
+      <c r="B531" s="19"/>
+      <c r="C531" s="19"/>
+      <c r="D531" s="19"/>
+      <c r="E531" s="19"/>
+      <c r="F531" s="7"/>
+      <c r="G531" s="19"/>
+      <c r="H531" s="20"/>
+      <c r="I531" s="20"/>
+      <c r="J531" s="19"/>
+      <c r="K531" s="19"/>
+      <c r="L531" s="19"/>
+      <c r="M531" s="19"/>
+      <c r="O531" s="18"/>
+      <c r="P531" s="19"/>
+      <c r="Q531" s="19"/>
+      <c r="R531" s="30"/>
+      <c r="S531" s="19"/>
+    </row>
+    <row r="532" spans="1:19">
+      <c r="A532" s="18"/>
+      <c r="B532" s="19"/>
+      <c r="C532" s="19"/>
+      <c r="D532" s="19"/>
+      <c r="E532" s="19"/>
+      <c r="F532" s="7"/>
+      <c r="G532" s="19"/>
+      <c r="H532" s="20"/>
+      <c r="I532" s="20"/>
+      <c r="J532" s="19"/>
+      <c r="K532" s="19"/>
+      <c r="L532" s="19"/>
+      <c r="M532" s="19"/>
+      <c r="O532" s="18"/>
+      <c r="P532" s="19"/>
+      <c r="Q532" s="19"/>
+      <c r="R532" s="30"/>
+      <c r="S532" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S379">
+  <autoFilter ref="A1:S388">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
-      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26145,7 +26493,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="22425" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$416</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$415</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5556" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="639">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -2692,6 +2692,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2700,7 +2747,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2722,13 +2799,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2737,23 +2807,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2768,64 +2823,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2868,7 +2868,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2880,13 +2928,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,25 +3006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,55 +3018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2988,67 +3042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3073,6 +3073,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3107,26 +3155,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3141,49 +3174,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3192,133 +3192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3788,32 +3788,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S558"/>
+  <dimension ref="A1:S557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H425" sqref="H425"/>
+      <selection pane="bottomLeft" activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="7.88333333333333" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" customWidth="1"/>
+    <col min="3" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.2166666666667" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
     <col min="8" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="12.775" customWidth="1"/>
-    <col min="11" max="11" width="21.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="30.3333333333333" style="4" customWidth="1"/>
-    <col min="18" max="18" width="15.775" style="8" customWidth="1"/>
+    <col min="15" max="15" width="30.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:19">
+    <row r="1" ht="81" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="R14" s="32"/>
       <c r="S14" s="20"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" ht="14.25" spans="1:19">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="R15" s="32"/>
       <c r="S15" s="20"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" ht="14.25" spans="1:19">
       <c r="A16" s="15" t="s">
         <v>68</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="R16" s="32"/>
       <c r="S16" s="20"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" ht="14.25" spans="1:19">
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="R17" s="32"/>
       <c r="S17" s="20"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" ht="14.25" spans="1:19">
       <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="R18" s="32"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" ht="14.25" spans="1:19">
       <c r="A19" s="15" t="s">
         <v>74</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="R19" s="32"/>
       <c r="S19" s="20"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" ht="14.25" spans="1:19">
       <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="R70" s="32"/>
       <c r="S70" s="20"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" ht="14.25" spans="1:19">
       <c r="A71" s="19" t="s">
         <v>175</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="R72" s="32"/>
       <c r="S72" s="20"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" ht="14.25" spans="1:19">
       <c r="A73" s="19" t="s">
         <v>180</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="R75" s="32"/>
       <c r="S75" s="20"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" ht="14.25" spans="1:19">
       <c r="A76" s="19" t="s">
         <v>189</v>
       </c>
@@ -7421,7 +7421,7 @@
       <c r="R77" s="32"/>
       <c r="S77" s="20"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" ht="14.25" spans="1:19">
       <c r="A78" s="19" t="s">
         <v>194</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" ht="28.5" spans="1:19">
+    <row r="97" ht="27" spans="1:19">
       <c r="A97" s="19" t="s">
         <v>255</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" ht="28.5" spans="1:19">
+    <row r="98" ht="27" spans="1:19">
       <c r="A98" s="19" t="s">
         <v>255</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" ht="28.5" spans="1:19">
+    <row r="99" ht="27" spans="1:19">
       <c r="A99" s="19" t="s">
         <v>255</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" ht="28.5" spans="1:19">
+    <row r="101" ht="27" spans="1:19">
       <c r="A101" s="19" t="s">
         <v>261</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" ht="28.5" spans="1:19">
+    <row r="102" ht="27" spans="1:19">
       <c r="A102" s="19" t="s">
         <v>261</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" ht="28.5" spans="1:19">
+    <row r="103" ht="27" spans="1:19">
       <c r="A103" s="19" t="s">
         <v>265</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" ht="28.5" spans="1:19">
+    <row r="104" ht="27" spans="1:19">
       <c r="A104" s="19" t="s">
         <v>265</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" ht="28.5" spans="1:19">
+    <row r="105" ht="27" spans="1:19">
       <c r="A105" s="19" t="s">
         <v>267</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" ht="28.5" spans="1:19">
+    <row r="106" ht="27" spans="1:19">
       <c r="A106" s="19" t="s">
         <v>267</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" ht="28.5" spans="1:19">
+    <row r="108" ht="27" spans="1:19">
       <c r="A108" s="19" t="s">
         <v>272</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" ht="28.5" spans="1:19">
+    <row r="109" ht="27" spans="1:19">
       <c r="A109" s="19" t="s">
         <v>272</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" ht="28.5" spans="1:19">
+    <row r="110" ht="27" spans="1:19">
       <c r="A110" s="19" t="s">
         <v>272</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" ht="13.95" customHeight="1" spans="1:19">
+    <row r="113" ht="13.9" customHeight="1" spans="1:19">
       <c r="A113" s="29" t="s">
         <v>277</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" ht="13.95" customHeight="1" spans="1:19">
+    <row r="114" ht="13.9" customHeight="1" spans="1:19">
       <c r="A114" s="29" t="s">
         <v>277</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" ht="28.5" spans="1:19">
+    <row r="115" ht="27" spans="1:19">
       <c r="A115" s="29" t="s">
         <v>277</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" ht="28.5" spans="1:19">
+    <row r="116" ht="27" spans="1:19">
       <c r="A116" s="29" t="s">
         <v>277</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" ht="28.5" spans="1:19">
+    <row r="117" ht="27" spans="1:19">
       <c r="A117" s="29" t="s">
         <v>279</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" ht="28.5" spans="1:19">
+    <row r="118" ht="27" spans="1:19">
       <c r="A118" s="29" t="s">
         <v>279</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" ht="28.5" spans="1:19">
+    <row r="119" ht="27" spans="1:19">
       <c r="A119" s="29" t="s">
         <v>279</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" ht="28.5" spans="1:19">
+    <row r="120" ht="27" spans="1:19">
       <c r="A120" s="22" t="s">
         <v>280</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" ht="28.5" spans="1:19">
+    <row r="121" ht="27" spans="1:19">
       <c r="A121" s="22" t="s">
         <v>280</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" ht="28.5" spans="1:19">
+    <row r="123" ht="27" spans="1:19">
       <c r="A123" s="22" t="s">
         <v>284</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" ht="28.5" spans="1:19">
+    <row r="124" ht="27" spans="1:19">
       <c r="A124" s="22" t="s">
         <v>284</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" ht="28.5" spans="1:19">
+    <row r="125" ht="27" spans="1:19">
       <c r="A125" s="22" t="s">
         <v>287</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" ht="28.5" spans="1:19">
+    <row r="126" ht="27" spans="1:19">
       <c r="A126" s="22" t="s">
         <v>287</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" ht="28.5" spans="1:19">
+    <row r="127" ht="27" spans="1:19">
       <c r="A127" s="22" t="s">
         <v>287</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" ht="28.5" spans="1:19">
+    <row r="131" ht="27" spans="1:19">
       <c r="A131" s="22" t="s">
         <v>293</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" ht="28.5" spans="1:19">
+    <row r="132" ht="27" spans="1:19">
       <c r="A132" s="22" t="s">
         <v>293</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" ht="28.5" spans="1:19">
+    <row r="133" ht="27" spans="1:19">
       <c r="A133" s="19" t="s">
         <v>295</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" ht="28.5" spans="1:19">
+    <row r="134" ht="27" spans="1:19">
       <c r="A134" s="19" t="s">
         <v>295</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="135" ht="28.5" spans="1:19">
+    <row r="135" ht="27" spans="1:19">
       <c r="A135" s="19" t="s">
         <v>295</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" ht="28.5" spans="1:19">
+    <row r="136" ht="27" spans="1:19">
       <c r="A136" s="19" t="s">
         <v>296</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="137" ht="28.5" spans="1:19">
+    <row r="137" ht="27" spans="1:19">
       <c r="A137" s="19" t="s">
         <v>296</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" ht="28.5" spans="1:19">
+    <row r="140" ht="27" spans="1:19">
       <c r="A140" s="19" t="s">
         <v>301</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" ht="28.5" spans="1:19">
+    <row r="141" ht="27" spans="1:19">
       <c r="A141" s="19" t="s">
         <v>301</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="143" ht="28.5" spans="1:19">
+    <row r="143" ht="27" spans="1:19">
       <c r="A143" s="22" t="s">
         <v>307</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="144" ht="28.5" spans="1:19">
+    <row r="144" ht="27" spans="1:19">
       <c r="A144" s="22" t="s">
         <v>307</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" ht="28.5" spans="1:19">
+    <row r="145" ht="27" spans="1:19">
       <c r="A145" s="19" t="s">
         <v>308</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="146" ht="28.5" spans="1:19">
+    <row r="146" ht="27" spans="1:19">
       <c r="A146" s="19" t="s">
         <v>308</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" ht="28.5" spans="1:19">
+    <row r="147" ht="27" spans="1:19">
       <c r="A147" s="19" t="s">
         <v>308</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" ht="28.5" spans="1:19">
+    <row r="148" ht="27" spans="1:19">
       <c r="A148" s="19" t="s">
         <v>309</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149" ht="28.5" spans="1:19">
+    <row r="149" ht="27" spans="1:19">
       <c r="A149" s="19" t="s">
         <v>309</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" ht="14.4" customHeight="1" spans="1:19">
+    <row r="151" ht="14.45" customHeight="1" spans="1:19">
       <c r="A151" s="19" t="s">
         <v>315</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" ht="28.5" spans="1:19">
+    <row r="155" ht="27" spans="1:19">
       <c r="A155" s="19" t="s">
         <v>319</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" ht="28.5" spans="1:19">
+    <row r="156" ht="27" spans="1:19">
       <c r="A156" s="19" t="s">
         <v>319</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="157" ht="28.5" spans="1:19">
+    <row r="157" ht="27" spans="1:19">
       <c r="A157" s="19" t="s">
         <v>319</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="158" ht="28.5" spans="1:19">
+    <row r="158" ht="27" spans="1:19">
       <c r="A158" s="19" t="s">
         <v>319</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" ht="28.5" spans="1:19">
+    <row r="159" ht="27" spans="1:19">
       <c r="A159" s="19" t="s">
         <v>321</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="160" ht="28.5" spans="1:19">
+    <row r="160" ht="27" spans="1:19">
       <c r="A160" s="22" t="s">
         <v>322</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="161" ht="28.5" spans="1:19">
+    <row r="161" ht="27" spans="1:19">
       <c r="A161" s="22" t="s">
         <v>322</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="363" ht="13.2" customHeight="1" spans="1:19">
+    <row r="363" ht="13.15" customHeight="1" spans="1:19">
       <c r="A363" s="19" t="s">
         <v>552</v>
       </c>
@@ -23847,7 +23847,7 @@
     </row>
     <row r="387" spans="1:19">
       <c r="A387" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B387" s="11" t="s">
         <v>20</v>
@@ -23861,11 +23861,11 @@
       <c r="E387" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F387" s="7" t="s">
-        <v>571</v>
+      <c r="F387" s="19" t="s">
+        <v>573</v>
       </c>
       <c r="G387" s="23" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H387" s="21">
         <v>1</v>
@@ -23877,19 +23877,19 @@
         <v>27</v>
       </c>
       <c r="K387" s="23" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="L387" s="20" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M387" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N387" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P387" s="20"/>
       <c r="Q387" s="20"/>
@@ -23898,7 +23898,7 @@
     </row>
     <row r="388" spans="1:19">
       <c r="A388" s="19" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B388" s="11" t="s">
         <v>20</v>
@@ -23928,19 +23928,19 @@
         <v>27</v>
       </c>
       <c r="K388" s="23" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="L388" s="20" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="M388" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N388" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P388" s="20"/>
       <c r="Q388" s="20"/>
@@ -23979,19 +23979,19 @@
         <v>27</v>
       </c>
       <c r="K389" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L389" s="20" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M389" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N389" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="P389" s="20"/>
       <c r="Q389" s="20"/>
@@ -24000,7 +24000,7 @@
     </row>
     <row r="390" spans="1:19">
       <c r="A390" s="19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B390" s="11" t="s">
         <v>20</v>
@@ -24015,10 +24015,10 @@
         <v>23</v>
       </c>
       <c r="F390" s="19" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G390" s="23" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H390" s="21">
         <v>1</v>
@@ -24030,19 +24030,19 @@
         <v>27</v>
       </c>
       <c r="K390" s="23" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L390" s="20" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="M390" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N390" s="7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O390" s="19" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="P390" s="20"/>
       <c r="Q390" s="20"/>
@@ -24051,7 +24051,7 @@
     </row>
     <row r="391" spans="1:19">
       <c r="A391" s="19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B391" s="11" t="s">
         <v>20</v>
@@ -24065,11 +24065,11 @@
       <c r="E391" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F391" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="G391" s="23" t="s">
-        <v>577</v>
+      <c r="F391" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G391" s="20" t="s">
+        <v>384</v>
       </c>
       <c r="H391" s="21">
         <v>1</v>
@@ -24080,10 +24080,10 @@
       <c r="J391" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K391" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L391" s="20" t="s">
+      <c r="K391" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L391" s="30" t="s">
         <v>160</v>
       </c>
       <c r="M391" s="20" t="s">
@@ -24098,11 +24098,13 @@
       <c r="P391" s="20"/>
       <c r="Q391" s="20"/>
       <c r="R391" s="32"/>
-      <c r="S391" s="20"/>
+      <c r="S391" s="20" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="392" spans="1:19">
       <c r="A392" s="19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B392" s="11" t="s">
         <v>20</v>
@@ -24117,7 +24119,7 @@
         <v>23</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="G392" s="20" t="s">
         <v>384</v>
@@ -24155,7 +24157,7 @@
     </row>
     <row r="393" spans="1:19">
       <c r="A393" s="19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B393" s="11" t="s">
         <v>20</v>
@@ -24170,10 +24172,10 @@
         <v>23</v>
       </c>
       <c r="F393" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G393" s="20" t="s">
-        <v>384</v>
+        <v>378</v>
+      </c>
+      <c r="G393" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="H393" s="21">
         <v>1</v>
@@ -24208,7 +24210,7 @@
     </row>
     <row r="394" spans="1:19">
       <c r="A394" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B394" s="11" t="s">
         <v>20</v>
@@ -24223,10 +24225,10 @@
         <v>23</v>
       </c>
       <c r="F394" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G394" s="36" t="s">
-        <v>252</v>
+        <v>395</v>
+      </c>
+      <c r="G394" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="H394" s="21">
         <v>1</v>
@@ -24238,7 +24240,7 @@
         <v>27</v>
       </c>
       <c r="K394" s="20" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="L394" s="30" t="s">
         <v>160</v>
@@ -24261,7 +24263,7 @@
     </row>
     <row r="395" spans="1:19">
       <c r="A395" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B395" s="11" t="s">
         <v>20</v>
@@ -24276,10 +24278,10 @@
         <v>23</v>
       </c>
       <c r="F395" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G395" s="20" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="H395" s="21">
         <v>1</v>
@@ -24291,7 +24293,7 @@
         <v>27</v>
       </c>
       <c r="K395" s="20" t="s">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="L395" s="30" t="s">
         <v>160</v>
@@ -24314,7 +24316,7 @@
     </row>
     <row r="396" spans="1:19">
       <c r="A396" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B396" s="11" t="s">
         <v>20</v>
@@ -24328,11 +24330,11 @@
       <c r="E396" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F396" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G396" s="20" t="s">
-        <v>398</v>
+      <c r="F396" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="G396" s="23" t="s">
+        <v>584</v>
       </c>
       <c r="H396" s="21">
         <v>1</v>
@@ -24343,31 +24345,31 @@
       <c r="J396" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K396" s="20" t="s">
-        <v>159</v>
+      <c r="K396" s="23" t="s">
+        <v>442</v>
       </c>
       <c r="L396" s="30" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="M396" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N396" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O396" s="19" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="O396" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="P396" s="20"/>
       <c r="Q396" s="20"/>
       <c r="R396" s="32"/>
-      <c r="S396" s="20" t="s">
-        <v>379</v>
+      <c r="S396" s="23" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="397" spans="1:19">
-      <c r="A397" s="19" t="s">
-        <v>583</v>
+      <c r="A397" s="22" t="s">
+        <v>586</v>
       </c>
       <c r="B397" s="11" t="s">
         <v>20</v>
@@ -24381,8 +24383,8 @@
       <c r="E397" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F397" s="19" t="s">
-        <v>583</v>
+      <c r="F397" s="22" t="s">
+        <v>586</v>
       </c>
       <c r="G397" s="23" t="s">
         <v>584</v>
@@ -24420,7 +24422,7 @@
     </row>
     <row r="398" spans="1:19">
       <c r="A398" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B398" s="11" t="s">
         <v>20</v>
@@ -24434,17 +24436,17 @@
       <c r="E398" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F398" s="22" t="s">
-        <v>586</v>
+      <c r="F398" s="26" t="s">
+        <v>588</v>
       </c>
       <c r="G398" s="23" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H398" s="21">
         <v>1</v>
       </c>
       <c r="I398" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" s="11" t="s">
         <v>27</v>
@@ -24462,18 +24464,18 @@
         <v>35</v>
       </c>
       <c r="O398" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P398" s="20"/>
       <c r="Q398" s="20"/>
       <c r="R398" s="32"/>
       <c r="S398" s="23" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="399" spans="1:19">
       <c r="A399" s="22" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B399" s="11" t="s">
         <v>20</v>
@@ -24497,7 +24499,7 @@
         <v>1</v>
       </c>
       <c r="I399" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J399" s="11" t="s">
         <v>27</v>
@@ -24515,7 +24517,7 @@
         <v>35</v>
       </c>
       <c r="O399" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P399" s="20"/>
       <c r="Q399" s="20"/>
@@ -24526,7 +24528,7 @@
     </row>
     <row r="400" spans="1:19">
       <c r="A400" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B400" s="11" t="s">
         <v>20</v>
@@ -24535,16 +24537,16 @@
         <v>21</v>
       </c>
       <c r="D400" s="12" t="s">
-        <v>22</v>
+        <v>593</v>
       </c>
       <c r="E400" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F400" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="G400" s="23" t="s">
-        <v>589</v>
+      <c r="F400" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G400" s="20" t="s">
+        <v>595</v>
       </c>
       <c r="H400" s="21">
         <v>1</v>
@@ -24555,49 +24557,32 @@
       <c r="J400" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K400" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="L400" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M400" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N400" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O400" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="K400" s="20"/>
+      <c r="L400" s="20"/>
+      <c r="M400" s="20"/>
+      <c r="O400" s="19"/>
       <c r="P400" s="20"/>
       <c r="Q400" s="20"/>
       <c r="R400" s="32"/>
-      <c r="S400" s="23" t="s">
-        <v>590</v>
+      <c r="S400" s="20" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="401" spans="1:19">
-      <c r="A401" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B401" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C401" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A401" s="19"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
       <c r="D401" s="12" t="s">
-        <v>593</v>
+        <v>22</v>
       </c>
       <c r="E401" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G401" s="20" t="s">
-        <v>595</v>
+        <v>84</v>
       </c>
       <c r="H401" s="21">
         <v>1</v>
@@ -24608,115 +24593,132 @@
       <c r="J401" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K401" s="20"/>
-      <c r="L401" s="20"/>
-      <c r="M401" s="20"/>
-      <c r="O401" s="19"/>
+      <c r="K401" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="L401" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="M401" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N401" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O401" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="P401" s="20"/>
       <c r="Q401" s="20"/>
       <c r="R401" s="32"/>
       <c r="S401" s="20" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="402" spans="1:19">
-      <c r="A402" s="19"/>
-      <c r="B402" s="20"/>
-      <c r="C402" s="20"/>
-      <c r="D402" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E402" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F402" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G402" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H402" s="21">
-        <v>1</v>
-      </c>
-      <c r="I402" s="21">
-        <v>0</v>
-      </c>
-      <c r="J402" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K402" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="L402" s="20" t="s">
+      <c r="A402" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="B402" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C402" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D402" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E402" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F402" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="G402" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="H402" s="56">
+        <v>1</v>
+      </c>
+      <c r="I402" s="56">
+        <v>0</v>
+      </c>
+      <c r="J402" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K402" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="L402" s="55" t="s">
         <v>599</v>
       </c>
-      <c r="M402" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N402" s="7" t="s">
+      <c r="M402" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="N402" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="O402" s="19" t="s">
+      <c r="O402" s="52" t="s">
         <v>31</v>
       </c>
       <c r="P402" s="20"/>
       <c r="Q402" s="20"/>
       <c r="R402" s="32"/>
-      <c r="S402" s="20" t="s">
-        <v>600</v>
+      <c r="S402" s="23" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="403" spans="1:19">
-      <c r="A403" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="B403" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C403" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D403" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E403" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F403" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="G403" s="55" t="s">
-        <v>602</v>
-      </c>
-      <c r="H403" s="56">
-        <v>1</v>
-      </c>
-      <c r="I403" s="56">
-        <v>0</v>
-      </c>
-      <c r="J403" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="K403" s="53" t="s">
-        <v>603</v>
-      </c>
-      <c r="L403" s="55" t="s">
-        <v>599</v>
-      </c>
-      <c r="M403" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="N403" s="60" t="s">
+      <c r="A403" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G403" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H403" s="21">
+        <v>1</v>
+      </c>
+      <c r="I403" s="21">
+        <v>0</v>
+      </c>
+      <c r="J403" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K403" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="L403" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="M403" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N403" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O403" s="52" t="s">
+      <c r="O403" s="22" t="s">
         <v>31</v>
       </c>
       <c r="P403" s="20"/>
       <c r="Q403" s="20"/>
-      <c r="R403" s="32"/>
-      <c r="S403" s="23" t="s">
-        <v>604</v>
+      <c r="R403" s="20"/>
+      <c r="S403" s="20" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="404" spans="1:19">
@@ -24750,20 +24752,20 @@
       <c r="J404" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K404" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="L404" s="23" t="s">
-        <v>459</v>
+      <c r="K404" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="L404" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="M404" s="20" t="s">
         <v>34</v>
       </c>
       <c r="N404" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O404" s="22" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P404" s="20"/>
       <c r="Q404" s="20"/>
@@ -24773,8 +24775,8 @@
       </c>
     </row>
     <row r="405" spans="1:19">
-      <c r="A405" s="22" t="s">
-        <v>605</v>
+      <c r="A405" s="19" t="s">
+        <v>607</v>
       </c>
       <c r="B405" s="11" t="s">
         <v>20</v>
@@ -24788,11 +24790,11 @@
       <c r="E405" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F405" s="7" t="s">
-        <v>311</v>
+      <c r="F405" s="19" t="s">
+        <v>608</v>
       </c>
       <c r="G405" s="20" t="s">
-        <v>312</v>
+        <v>609</v>
       </c>
       <c r="H405" s="21">
         <v>1</v>
@@ -24803,31 +24805,20 @@
       <c r="J405" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K405" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="L405" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="M405" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N405" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O405" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="K405" s="20"/>
+      <c r="L405" s="20"/>
+      <c r="M405" s="20"/>
+      <c r="O405" s="19"/>
       <c r="P405" s="20"/>
       <c r="Q405" s="20"/>
-      <c r="R405" s="20"/>
+      <c r="R405" s="32"/>
       <c r="S405" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="406" spans="1:19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="406" ht="14.25" spans="1:19">
       <c r="A406" s="19" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B406" s="11" t="s">
         <v>20</v>
@@ -24841,11 +24832,11 @@
       <c r="E406" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F406" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="G406" s="20" t="s">
-        <v>609</v>
+      <c r="F406" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G406" s="57" t="s">
+        <v>325</v>
       </c>
       <c r="H406" s="21">
         <v>1</v>
@@ -24864,12 +24855,12 @@
       <c r="Q406" s="20"/>
       <c r="R406" s="32"/>
       <c r="S406" s="20" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="407" spans="1:19">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="407" ht="14.25" spans="1:19">
       <c r="A407" s="19" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B407" s="11" t="s">
         <v>20</v>
@@ -24884,16 +24875,16 @@
         <v>23</v>
       </c>
       <c r="F407" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G407" s="57" t="s">
-        <v>325</v>
+        <v>613</v>
+      </c>
+      <c r="G407" s="58" t="s">
+        <v>614</v>
       </c>
       <c r="H407" s="21">
         <v>1</v>
       </c>
       <c r="I407" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" s="11" t="s">
         <v>27</v>
@@ -24906,29 +24897,29 @@
       <c r="Q407" s="20"/>
       <c r="R407" s="32"/>
       <c r="S407" s="20" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="408" spans="1:19">
       <c r="A408" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="B408" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C408" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D408" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E408" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B408" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C408" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D408" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E408" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F408" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G408" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="G408" s="20" t="s">
         <v>614</v>
       </c>
       <c r="H408" s="21">
@@ -24948,12 +24939,12 @@
       <c r="Q408" s="20"/>
       <c r="R408" s="32"/>
       <c r="S408" s="20" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="409" spans="1:19">
       <c r="A409" s="19" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B409" s="20" t="s">
         <v>20</v>
@@ -24968,13 +24959,13 @@
         <v>23</v>
       </c>
       <c r="F409" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="H409" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" s="21">
         <v>1</v>
@@ -24995,7 +24986,7 @@
     </row>
     <row r="410" spans="1:19">
       <c r="A410" s="19" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B410" s="20" t="s">
         <v>20</v>
@@ -25010,13 +25001,13 @@
         <v>23</v>
       </c>
       <c r="F410" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G410" s="20" t="s">
-        <v>621</v>
+        <v>325</v>
       </c>
       <c r="H410" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" s="21">
         <v>1</v>
@@ -25037,7 +25028,7 @@
     </row>
     <row r="411" spans="1:19">
       <c r="A411" s="19" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B411" s="20" t="s">
         <v>20</v>
@@ -25052,13 +25043,13 @@
         <v>23</v>
       </c>
       <c r="F411" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>325</v>
+        <v>626</v>
       </c>
       <c r="H411" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" s="21">
         <v>1</v>
@@ -25079,7 +25070,7 @@
     </row>
     <row r="412" spans="1:19">
       <c r="A412" s="19" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B412" s="20" t="s">
         <v>20</v>
@@ -25094,13 +25085,13 @@
         <v>23</v>
       </c>
       <c r="F412" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G412" s="20" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H412" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412" s="21">
         <v>1</v>
@@ -25121,7 +25112,7 @@
     </row>
     <row r="413" spans="1:19">
       <c r="A413" s="19" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B413" s="20" t="s">
         <v>20</v>
@@ -25136,13 +25127,13 @@
         <v>23</v>
       </c>
       <c r="F413" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="H413" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413" s="21">
         <v>1</v>
@@ -25163,7 +25154,7 @@
     </row>
     <row r="414" spans="1:19">
       <c r="A414" s="19" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B414" s="20" t="s">
         <v>20</v>
@@ -25178,13 +25169,13 @@
         <v>23</v>
       </c>
       <c r="F414" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>632</v>
+        <v>205</v>
       </c>
       <c r="H414" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414" s="21">
         <v>1</v>
@@ -25205,7 +25196,7 @@
     </row>
     <row r="415" spans="1:19">
       <c r="A415" s="19" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B415" s="20" t="s">
         <v>20</v>
@@ -25220,16 +25211,16 @@
         <v>23</v>
       </c>
       <c r="F415" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>205</v>
+        <v>637</v>
       </c>
       <c r="H415" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I415" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" s="11" t="s">
         <v>27</v>
@@ -25246,36 +25237,16 @@
       </c>
     </row>
     <row r="416" spans="1:19">
-      <c r="A416" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="B416" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C416" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D416" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E416" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F416" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="G416" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="H416" s="21">
-        <v>1</v>
-      </c>
-      <c r="I416" s="21">
-        <v>0</v>
-      </c>
-      <c r="J416" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A416" s="19"/>
+      <c r="B416" s="20"/>
+      <c r="C416" s="20"/>
+      <c r="D416" s="20"/>
+      <c r="E416" s="20"/>
+      <c r="F416" s="7"/>
+      <c r="G416" s="20"/>
+      <c r="H416" s="21"/>
+      <c r="I416" s="21"/>
+      <c r="J416" s="20"/>
       <c r="K416" s="20"/>
       <c r="L416" s="20"/>
       <c r="M416" s="20"/>
@@ -25283,9 +25254,7 @@
       <c r="P416" s="20"/>
       <c r="Q416" s="20"/>
       <c r="R416" s="32"/>
-      <c r="S416" s="20" t="s">
-        <v>618</v>
-      </c>
+      <c r="S416" s="20"/>
     </row>
     <row r="417" spans="1:19">
       <c r="A417" s="19"/>
@@ -28107,28 +28076,8 @@
       <c r="R557" s="32"/>
       <c r="S557" s="20"/>
     </row>
-    <row r="558" spans="1:19">
-      <c r="A558" s="19"/>
-      <c r="B558" s="20"/>
-      <c r="C558" s="20"/>
-      <c r="D558" s="20"/>
-      <c r="E558" s="20"/>
-      <c r="F558" s="7"/>
-      <c r="G558" s="20"/>
-      <c r="H558" s="21"/>
-      <c r="I558" s="21"/>
-      <c r="J558" s="20"/>
-      <c r="K558" s="20"/>
-      <c r="L558" s="20"/>
-      <c r="M558" s="20"/>
-      <c r="O558" s="19"/>
-      <c r="P558" s="20"/>
-      <c r="Q558" s="20"/>
-      <c r="R558" s="32"/>
-      <c r="S558" s="20"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S416">
+  <autoFilter ref="A1:S415">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
@@ -28154,9 +28103,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="60.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作资料\四川农信\SVN文档\02工程活动\04设计与实现\交易数据统计\交易规则统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5834E812-1D81-47BA-8974-4F5FDD5B38FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="20496" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="641">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -295,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,6 +305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,6 +546,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00503012</t>
@@ -554,6 +556,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>_1</t>
@@ -565,6 +568,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -574,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0503012_1</t>
@@ -837,6 +842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00302022</t>
@@ -846,6 +852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -869,6 +876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00302022</t>
@@ -878,6 +886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>02</t>
@@ -904,6 +913,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00302002</t>
@@ -913,6 +923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -930,6 +941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -939,6 +951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,2</t>
@@ -950,6 +963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00302004</t>
@@ -959,6 +973,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -973,6 +988,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00301005</t>
@@ -982,6 +998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -996,6 +1013,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00305006</t>
@@ -1005,6 +1023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -1022,6 +1041,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00305006</t>
@@ -1031,6 +1051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>02</t>
@@ -1045,6 +1066,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00305006</t>
@@ -1054,6 +1076,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>03</t>
@@ -1077,6 +1100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1087,6 +1111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1102,6 +1127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1112,6 +1138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1136,6 +1163,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1146,6 +1174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1158,6 +1187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,6 +1198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1180,6 +1211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00303007</t>
@@ -1189,6 +1221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>03</t>
@@ -1209,6 +1242,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1219,6 +1253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1231,6 +1266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>&gt;</t>
@@ -1240,6 +1276,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1257,6 +1294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -1266,6 +1304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -1283,6 +1322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1292,6 +1332,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -1309,6 +1350,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -1318,6 +1360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0000</t>
@@ -1338,6 +1381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1348,6 +1392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,6 +1447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1412,6 +1458,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1439,6 +1486,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1448,6 +1496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,3</t>
@@ -1468,6 +1517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1,</t>
@@ -1477,6 +1527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1773,6 +1824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00201016</t>
@@ -1782,6 +1834,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>01</t>
@@ -1808,6 +1861,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00201016</t>
@@ -1817,6 +1871,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>02</t>
@@ -1828,6 +1883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00201016</t>
@@ -1837,6 +1893,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>03</t>
@@ -1851,6 +1908,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00201016</t>
@@ -1860,6 +1918,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>04</t>
@@ -1877,6 +1936,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00201016</t>
@@ -1886,6 +1946,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>05</t>
@@ -1897,6 +1958,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>custom-input-accNo</t>
@@ -1906,6 +1968,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1920,6 +1983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1929,6 +1993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,2</t>
@@ -1940,6 +2005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00201016</t>
@@ -1949,6 +2015,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>06</t>
@@ -1996,6 +2063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -2005,6 +2073,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0000</t>
@@ -2328,6 +2397,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>003010150</t>
@@ -2337,6 +2407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -2414,6 +2485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2423,6 +2495,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>010100101</t>
@@ -2434,6 +2507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2443,6 +2517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0101001_1</t>
@@ -2460,6 +2535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0010100102</t>
@@ -2510,6 +2586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2520,6 +2597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2639,11 +2717,15 @@
     <t>0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>custom-input_OldCardNumber</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2656,6 +2738,7 @@
       <b/>
       <sz val="16"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2663,6 +2746,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2674,6 +2758,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2681,6 +2766,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2699,6 +2785,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2776,7 +2863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2926,6 +3013,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3200,32 +3288,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K251" activeCellId="2" sqref="K241:O241 K243:O243 K251:O251"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="7.875" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="3" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="31.21875" customWidth="1"/>
     <col min="8" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="30.375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="8" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="81.599999999999994" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -3324,7 +3412,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="20"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
@@ -3377,7 +3465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -3430,7 +3518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -3536,7 +3624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
@@ -3589,7 +3677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -3642,7 +3730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -3695,7 +3783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3748,7 +3836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>53</v>
       </c>
@@ -3801,7 +3889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>53</v>
       </c>
@@ -3854,7 +3942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>57</v>
       </c>
@@ -3907,7 +3995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +4035,7 @@
       <c r="R14" s="30"/>
       <c r="S14" s="20"/>
     </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3998,7 +4086,7 @@
       <c r="R15" s="30"/>
       <c r="S15" s="20"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>68</v>
       </c>
@@ -4049,7 +4137,7 @@
       <c r="R16" s="30"/>
       <c r="S16" s="20"/>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
@@ -4100,7 +4188,7 @@
       <c r="R17" s="30"/>
       <c r="S17" s="20"/>
     </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
@@ -4151,7 +4239,7 @@
       <c r="R18" s="30"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>74</v>
       </c>
@@ -4202,7 +4290,7 @@
       <c r="R19" s="30"/>
       <c r="S19" s="20"/>
     </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
@@ -4253,7 +4341,7 @@
       <c r="R20" s="30"/>
       <c r="S20" s="20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
@@ -4306,7 +4394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>81</v>
       </c>
@@ -4359,7 +4447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>82</v>
       </c>
@@ -4410,7 +4498,7 @@
       <c r="R23" s="30"/>
       <c r="S23" s="20"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>87</v>
       </c>
@@ -4461,7 +4549,7 @@
       <c r="R24" s="30"/>
       <c r="S24" s="20"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>88</v>
       </c>
@@ -4512,7 +4600,7 @@
       <c r="R25" s="30"/>
       <c r="S25" s="20"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>93</v>
       </c>
@@ -4563,7 +4651,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="20"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>95</v>
       </c>
@@ -4614,7 +4702,7 @@
       <c r="R27" s="30"/>
       <c r="S27" s="20"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>97</v>
       </c>
@@ -4654,7 +4742,7 @@
       <c r="R28" s="30"/>
       <c r="S28" s="20"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>98</v>
       </c>
@@ -4694,7 +4782,7 @@
       <c r="R29" s="30"/>
       <c r="S29" s="20"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>100</v>
       </c>
@@ -4745,7 +4833,7 @@
       <c r="R30" s="30"/>
       <c r="S30" s="20"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>103</v>
       </c>
@@ -4796,7 +4884,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="20"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>104</v>
       </c>
@@ -4847,7 +4935,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="20"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>108</v>
       </c>
@@ -4898,7 +4986,7 @@
       <c r="R33" s="30"/>
       <c r="S33" s="20"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>109</v>
       </c>
@@ -4949,7 +5037,7 @@
       <c r="R34" s="30"/>
       <c r="S34" s="20"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>110</v>
       </c>
@@ -4989,7 +5077,7 @@
       <c r="R35" s="30"/>
       <c r="S35" s="20"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>113</v>
       </c>
@@ -5040,7 +5128,7 @@
       <c r="R36" s="30"/>
       <c r="S36" s="20"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>113</v>
       </c>
@@ -5091,7 +5179,7 @@
       <c r="R37" s="30"/>
       <c r="S37" s="20"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>120</v>
       </c>
@@ -5131,7 +5219,7 @@
       <c r="R38" s="30"/>
       <c r="S38" s="20"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>122</v>
       </c>
@@ -5171,7 +5259,7 @@
       <c r="R39" s="30"/>
       <c r="S39" s="20"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>123</v>
       </c>
@@ -5211,7 +5299,7 @@
       <c r="R40" s="30"/>
       <c r="S40" s="20"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>124</v>
       </c>
@@ -5251,7 +5339,7 @@
       <c r="R41" s="30"/>
       <c r="S41" s="20"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>126</v>
       </c>
@@ -5291,7 +5379,7 @@
       <c r="R42" s="30"/>
       <c r="S42" s="20"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>127</v>
       </c>
@@ -5331,7 +5419,7 @@
       <c r="R43" s="30"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
         <v>128</v>
       </c>
@@ -5371,7 +5459,7 @@
       <c r="R44" s="30"/>
       <c r="S44" s="20"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
         <v>129</v>
       </c>
@@ -5411,7 +5499,7 @@
       <c r="R45" s="30"/>
       <c r="S45" s="20"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
         <v>130</v>
       </c>
@@ -5451,7 +5539,7 @@
       <c r="R46" s="30"/>
       <c r="S46" s="20"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
         <v>131</v>
       </c>
@@ -5491,7 +5579,7 @@
       <c r="R47" s="30"/>
       <c r="S47" s="20"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
         <v>133</v>
       </c>
@@ -5531,7 +5619,7 @@
       <c r="R48" s="30"/>
       <c r="S48" s="20"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
         <v>135</v>
       </c>
@@ -5571,7 +5659,7 @@
       <c r="R49" s="30"/>
       <c r="S49" s="20"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="65" t="s">
         <v>137</v>
       </c>
@@ -5611,7 +5699,7 @@
       <c r="R50" s="30"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
         <v>139</v>
       </c>
@@ -5651,7 +5739,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="20"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
         <v>141</v>
       </c>
@@ -5691,7 +5779,7 @@
       <c r="R52" s="30"/>
       <c r="S52" s="20"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="s">
         <v>142</v>
       </c>
@@ -5731,7 +5819,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="20"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>143</v>
       </c>
@@ -5771,7 +5859,7 @@
       <c r="R54" s="30"/>
       <c r="S54" s="20"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
         <v>144</v>
       </c>
@@ -5811,7 +5899,7 @@
       <c r="R55" s="30"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
         <v>145</v>
       </c>
@@ -5851,7 +5939,7 @@
       <c r="R56" s="30"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
         <v>147</v>
       </c>
@@ -5891,7 +5979,7 @@
       <c r="R57" s="30"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="65" t="s">
         <v>148</v>
       </c>
@@ -5931,7 +6019,7 @@
       <c r="R58" s="30"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="65" t="s">
         <v>149</v>
       </c>
@@ -5971,7 +6059,7 @@
       <c r="R59" s="30"/>
       <c r="S59" s="20"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="65" t="s">
         <v>150</v>
       </c>
@@ -6011,7 +6099,7 @@
       <c r="R60" s="30"/>
       <c r="S60" s="20"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="65" t="s">
         <v>151</v>
       </c>
@@ -6051,7 +6139,7 @@
       <c r="R61" s="30"/>
       <c r="S61" s="20"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="65" t="s">
         <v>152</v>
       </c>
@@ -6091,7 +6179,7 @@
       <c r="R62" s="30"/>
       <c r="S62" s="20"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>153</v>
       </c>
@@ -6131,7 +6219,7 @@
       <c r="R63" s="30"/>
       <c r="S63" s="20"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>155</v>
       </c>
@@ -6184,7 +6272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>155</v>
       </c>
@@ -6237,7 +6325,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>161</v>
       </c>
@@ -6290,7 +6378,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>162</v>
       </c>
@@ -6331,7 +6419,7 @@
       <c r="R67" s="30"/>
       <c r="S67" s="20"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>164</v>
       </c>
@@ -6372,7 +6460,7 @@
       <c r="R68" s="30"/>
       <c r="S68" s="20"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>167</v>
       </c>
@@ -6425,7 +6513,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>172</v>
       </c>
@@ -6476,7 +6564,7 @@
       <c r="R70" s="30"/>
       <c r="S70" s="20"/>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>175</v>
       </c>
@@ -6527,7 +6615,7 @@
       <c r="R71" s="30"/>
       <c r="S71" s="20"/>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>175</v>
       </c>
@@ -6578,7 +6666,7 @@
       <c r="R72" s="30"/>
       <c r="S72" s="20"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>178</v>
       </c>
@@ -6629,7 +6717,7 @@
       <c r="R73" s="30"/>
       <c r="S73" s="20"/>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>182</v>
       </c>
@@ -6680,7 +6768,7 @@
       <c r="R74" s="30"/>
       <c r="S74" s="20"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>186</v>
       </c>
@@ -6731,7 +6819,7 @@
       <c r="R75" s="30"/>
       <c r="S75" s="20"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>189</v>
       </c>
@@ -6782,7 +6870,7 @@
       <c r="R76" s="30"/>
       <c r="S76" s="20"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>191</v>
       </c>
@@ -6833,7 +6921,7 @@
       <c r="R77" s="30"/>
       <c r="S77" s="20"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>191</v>
       </c>
@@ -6884,7 +6972,7 @@
       <c r="R78" s="30"/>
       <c r="S78" s="20"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>192</v>
       </c>
@@ -6935,7 +7023,7 @@
       <c r="R79" s="30"/>
       <c r="S79" s="20"/>
     </row>
-    <row r="80" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>196</v>
       </c>
@@ -6986,7 +7074,7 @@
       <c r="R80" s="46"/>
       <c r="S80" s="34"/>
     </row>
-    <row r="81" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>200</v>
       </c>
@@ -7037,7 +7125,7 @@
       <c r="R81" s="46"/>
       <c r="S81" s="34"/>
     </row>
-    <row r="82" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>203</v>
       </c>
@@ -7088,7 +7176,7 @@
       <c r="R82" s="46"/>
       <c r="S82" s="34"/>
     </row>
-    <row r="83" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>207</v>
       </c>
@@ -7139,7 +7227,7 @@
       <c r="R83" s="46"/>
       <c r="S83" s="34"/>
     </row>
-    <row r="84" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>208</v>
       </c>
@@ -7190,7 +7278,7 @@
       <c r="R84" s="46"/>
       <c r="S84" s="34"/>
     </row>
-    <row r="85" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="67" t="s">
         <v>209</v>
       </c>
@@ -7243,7 +7331,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="67" t="s">
         <v>214</v>
       </c>
@@ -7296,7 +7384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="67" t="s">
         <v>215</v>
       </c>
@@ -7349,7 +7437,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="67" t="s">
         <v>217</v>
       </c>
@@ -7402,7 +7490,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="67" t="s">
         <v>218</v>
       </c>
@@ -7455,7 +7543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="67" t="s">
         <v>223</v>
       </c>
@@ -7508,7 +7596,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="67" t="s">
         <v>227</v>
       </c>
@@ -7561,7 +7649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="67" t="s">
         <v>232</v>
       </c>
@@ -7614,7 +7702,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>234</v>
       </c>
@@ -7667,7 +7755,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="68" t="s">
         <v>241</v>
       </c>
@@ -7709,7 +7797,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="68" t="s">
         <v>245</v>
       </c>
@@ -7728,8 +7816,8 @@
       <c r="F95" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="G95" s="20" t="s">
-        <v>163</v>
+      <c r="G95" s="71" t="s">
+        <v>640</v>
       </c>
       <c r="H95" s="21">
         <v>1</v>
@@ -7751,7 +7839,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="68" t="s">
         <v>247</v>
       </c>
@@ -7793,7 +7881,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>250</v>
       </c>
@@ -7846,7 +7934,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>255</v>
       </c>
@@ -7901,7 +7989,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>255</v>
       </c>
@@ -7956,7 +8044,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>255</v>
       </c>
@@ -8011,7 +8099,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
         <v>259</v>
       </c>
@@ -8066,7 +8154,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>261</v>
       </c>
@@ -8121,7 +8209,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>261</v>
       </c>
@@ -8176,7 +8264,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>265</v>
       </c>
@@ -8231,7 +8319,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>265</v>
       </c>
@@ -8286,7 +8374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>267</v>
       </c>
@@ -8341,7 +8429,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>267</v>
       </c>
@@ -8396,7 +8484,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>269</v>
       </c>
@@ -8449,7 +8537,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>272</v>
       </c>
@@ -8504,7 +8592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>272</v>
       </c>
@@ -8559,7 +8647,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>272</v>
       </c>
@@ -8614,7 +8702,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>274</v>
       </c>
@@ -8667,7 +8755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>274</v>
       </c>
@@ -8720,7 +8808,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>276</v>
       </c>
@@ -8775,7 +8863,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>276</v>
       </c>
@@ -8830,7 +8918,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>276</v>
       </c>
@@ -8885,7 +8973,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>276</v>
       </c>
@@ -8940,7 +9028,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>278</v>
       </c>
@@ -8995,7 +9083,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>278</v>
       </c>
@@ -9050,7 +9138,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>278</v>
       </c>
@@ -9105,7 +9193,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>279</v>
       </c>
@@ -9160,7 +9248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>279</v>
       </c>
@@ -9215,7 +9303,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>281</v>
       </c>
@@ -9268,7 +9356,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>283</v>
       </c>
@@ -9323,7 +9411,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>283</v>
       </c>
@@ -9378,7 +9466,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>286</v>
       </c>
@@ -9433,7 +9521,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>286</v>
       </c>
@@ -9488,7 +9576,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>286</v>
       </c>
@@ -9543,7 +9631,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>287</v>
       </c>
@@ -9596,7 +9684,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>288</v>
       </c>
@@ -9649,7 +9737,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>289</v>
       </c>
@@ -9702,7 +9790,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>292</v>
       </c>
@@ -9757,7 +9845,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>292</v>
       </c>
@@ -9812,7 +9900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>294</v>
       </c>
@@ -9867,7 +9955,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>294</v>
       </c>
@@ -9922,7 +10010,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>294</v>
       </c>
@@ -9977,7 +10065,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>295</v>
       </c>
@@ -10032,7 +10120,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>295</v>
       </c>
@@ -10087,7 +10175,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>297</v>
       </c>
@@ -10140,7 +10228,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>297</v>
       </c>
@@ -10193,7 +10281,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>300</v>
       </c>
@@ -10248,7 +10336,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>300</v>
       </c>
@@ -10303,7 +10391,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>303</v>
       </c>
@@ -10356,7 +10444,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>306</v>
       </c>
@@ -10411,7 +10499,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>306</v>
       </c>
@@ -10466,7 +10554,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>307</v>
       </c>
@@ -10521,7 +10609,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>307</v>
       </c>
@@ -10576,7 +10664,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>307</v>
       </c>
@@ -10631,7 +10719,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>308</v>
       </c>
@@ -10686,7 +10774,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>308</v>
       </c>
@@ -10741,7 +10829,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>309</v>
       </c>
@@ -10794,7 +10882,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>314</v>
       </c>
@@ -10847,7 +10935,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>314</v>
       </c>
@@ -10900,7 +10988,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>314</v>
       </c>
@@ -10953,7 +11041,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>317</v>
       </c>
@@ -11006,7 +11094,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>318</v>
       </c>
@@ -11061,7 +11149,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>318</v>
       </c>
@@ -11116,7 +11204,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>318</v>
       </c>
@@ -11171,7 +11259,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
         <v>318</v>
       </c>
@@ -11226,7 +11314,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>320</v>
       </c>
@@ -11281,7 +11369,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>321</v>
       </c>
@@ -11336,7 +11424,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
         <v>321</v>
       </c>
@@ -11391,7 +11479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>322</v>
       </c>
@@ -11444,7 +11532,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>322</v>
       </c>
@@ -11497,7 +11585,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>328</v>
       </c>
@@ -11550,7 +11638,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>332</v>
       </c>
@@ -11603,7 +11691,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>333</v>
       </c>
@@ -11656,7 +11744,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>333</v>
       </c>
@@ -11709,7 +11797,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>334</v>
       </c>
@@ -11762,7 +11850,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>337</v>
       </c>
@@ -11815,7 +11903,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>340</v>
       </c>
@@ -11868,7 +11956,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>341</v>
       </c>
@@ -11921,7 +12009,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>346</v>
       </c>
@@ -11974,7 +12062,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>348</v>
       </c>
@@ -12027,7 +12115,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>348</v>
       </c>
@@ -12080,7 +12168,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>350</v>
       </c>
@@ -12133,7 +12221,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>350</v>
       </c>
@@ -12186,7 +12274,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>351</v>
       </c>
@@ -12239,7 +12327,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>357</v>
       </c>
@@ -12292,7 +12380,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>361</v>
       </c>
@@ -12345,7 +12433,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>361</v>
       </c>
@@ -12398,7 +12486,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>361</v>
       </c>
@@ -12451,7 +12539,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>363</v>
       </c>
@@ -12504,7 +12592,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>363</v>
       </c>
@@ -12557,7 +12645,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>366</v>
       </c>
@@ -12610,7 +12698,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>366</v>
       </c>
@@ -12663,7 +12751,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>366</v>
       </c>
@@ -12716,7 +12804,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>366</v>
       </c>
@@ -12769,7 +12857,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
         <v>370</v>
       </c>
@@ -12822,7 +12910,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>370</v>
       </c>
@@ -12875,7 +12963,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>370</v>
       </c>
@@ -12928,7 +13016,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>372</v>
       </c>
@@ -12981,7 +13069,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
         <v>376</v>
       </c>
@@ -13034,7 +13122,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>379</v>
       </c>
@@ -13087,7 +13175,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
         <v>379</v>
       </c>
@@ -13140,7 +13228,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>379</v>
       </c>
@@ -13193,7 +13281,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>380</v>
       </c>
@@ -13246,7 +13334,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
         <v>380</v>
       </c>
@@ -13299,7 +13387,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
         <v>381</v>
       </c>
@@ -13352,7 +13440,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>384</v>
       </c>
@@ -13405,7 +13493,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
         <v>384</v>
       </c>
@@ -13458,7 +13546,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
         <v>384</v>
       </c>
@@ -13511,7 +13599,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
         <v>386</v>
       </c>
@@ -13564,7 +13652,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
         <v>386</v>
       </c>
@@ -13617,7 +13705,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
         <v>388</v>
       </c>
@@ -13670,7 +13758,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
         <v>388</v>
       </c>
@@ -13723,7 +13811,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
         <v>389</v>
       </c>
@@ -13776,7 +13864,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
         <v>390</v>
       </c>
@@ -13829,7 +13917,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="19" t="s">
         <v>392</v>
       </c>
@@ -13882,7 +13970,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="19" t="s">
         <v>392</v>
       </c>
@@ -13935,7 +14023,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
         <v>392</v>
       </c>
@@ -13988,7 +14076,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
         <v>393</v>
       </c>
@@ -14041,7 +14129,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="19" t="s">
         <v>393</v>
       </c>
@@ -14094,7 +14182,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
         <v>395</v>
       </c>
@@ -14147,7 +14235,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>398</v>
       </c>
@@ -14200,7 +14288,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>398</v>
       </c>
@@ -14253,7 +14341,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
         <v>398</v>
       </c>
@@ -14306,7 +14394,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
         <v>400</v>
       </c>
@@ -14359,7 +14447,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
         <v>400</v>
       </c>
@@ -14412,7 +14500,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
         <v>401</v>
       </c>
@@ -14465,7 +14553,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>401</v>
       </c>
@@ -14518,7 +14606,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>403</v>
       </c>
@@ -14571,7 +14659,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
         <v>405</v>
       </c>
@@ -14624,7 +14712,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
         <v>405</v>
       </c>
@@ -14677,7 +14765,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
         <v>405</v>
       </c>
@@ -14730,7 +14818,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
         <v>406</v>
       </c>
@@ -14783,7 +14871,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
         <v>406</v>
       </c>
@@ -14836,7 +14924,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>407</v>
       </c>
@@ -14889,7 +14977,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>407</v>
       </c>
@@ -14942,7 +15030,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
         <v>408</v>
       </c>
@@ -14995,7 +15083,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="19" t="s">
         <v>409</v>
       </c>
@@ -15048,7 +15136,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
         <v>411</v>
       </c>
@@ -15101,7 +15189,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
         <v>411</v>
       </c>
@@ -15154,7 +15242,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="19" t="s">
         <v>411</v>
       </c>
@@ -15207,7 +15295,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A235" s="19" t="s">
         <v>412</v>
       </c>
@@ -15260,7 +15348,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="19" t="s">
         <v>412</v>
       </c>
@@ -15313,7 +15401,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="19" t="s">
         <v>413</v>
       </c>
@@ -15366,7 +15454,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="19" t="s">
         <v>414</v>
       </c>
@@ -15419,7 +15507,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>418</v>
       </c>
@@ -15472,7 +15560,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>418</v>
       </c>
@@ -15525,7 +15613,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>418</v>
       </c>
@@ -15578,7 +15666,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>422</v>
       </c>
@@ -15631,7 +15719,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="32" t="s">
         <v>422</v>
       </c>
@@ -15684,7 +15772,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="32" t="s">
         <v>423</v>
       </c>
@@ -15737,7 +15825,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
         <v>423</v>
       </c>
@@ -15790,7 +15878,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
         <v>424</v>
       </c>
@@ -15843,7 +15931,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
         <v>425</v>
       </c>
@@ -15896,7 +15984,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>425</v>
       </c>
@@ -15949,7 +16037,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
         <v>426</v>
       </c>
@@ -16002,7 +16090,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
         <v>426</v>
       </c>
@@ -16055,7 +16143,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="19" t="s">
         <v>426</v>
       </c>
@@ -16108,7 +16196,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A252" s="19" t="s">
         <v>427</v>
       </c>
@@ -16161,7 +16249,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
         <v>427</v>
       </c>
@@ -16214,7 +16302,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A254" s="19" t="s">
         <v>433</v>
       </c>
@@ -16267,7 +16355,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A255" s="19" t="s">
         <v>433</v>
       </c>
@@ -16320,7 +16408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A256" s="19" t="s">
         <v>434</v>
       </c>
@@ -16373,7 +16461,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A257" s="19" t="s">
         <v>436</v>
       </c>
@@ -16426,7 +16514,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A258" s="19" t="s">
         <v>439</v>
       </c>
@@ -16479,7 +16567,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A259" s="19" t="s">
         <v>443</v>
       </c>
@@ -16532,7 +16620,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="19" t="s">
         <v>445</v>
       </c>
@@ -16585,7 +16673,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
         <v>446</v>
       </c>
@@ -16638,7 +16726,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="19" t="s">
         <v>448</v>
       </c>
@@ -16691,7 +16779,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="19" t="s">
         <v>448</v>
       </c>
@@ -16744,7 +16832,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="19" t="s">
         <v>451</v>
       </c>
@@ -16797,7 +16885,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="19" t="s">
         <v>451</v>
       </c>
@@ -16850,7 +16938,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="19" t="s">
         <v>452</v>
       </c>
@@ -16903,7 +16991,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="19" t="s">
         <v>452</v>
       </c>
@@ -16956,7 +17044,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A268" s="19" t="s">
         <v>452</v>
       </c>
@@ -17009,7 +17097,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="19" t="s">
         <v>457</v>
       </c>
@@ -17062,7 +17150,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="19" t="s">
         <v>460</v>
       </c>
@@ -17115,7 +17203,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="19" t="s">
         <v>462</v>
       </c>
@@ -17168,7 +17256,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="19" t="s">
         <v>463</v>
       </c>
@@ -17221,7 +17309,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="19" t="s">
         <v>465</v>
       </c>
@@ -17274,7 +17362,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="19" t="s">
         <v>466</v>
       </c>
@@ -17327,7 +17415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="19" t="s">
         <v>469</v>
       </c>
@@ -17380,7 +17468,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="19" t="s">
         <v>470</v>
       </c>
@@ -17433,7 +17521,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
         <v>470</v>
       </c>
@@ -17486,7 +17574,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
         <v>470</v>
       </c>
@@ -17539,7 +17627,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
         <v>479</v>
       </c>
@@ -17592,7 +17680,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
         <v>479</v>
       </c>
@@ -17645,7 +17733,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="19" t="s">
         <v>481</v>
       </c>
@@ -17698,7 +17786,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>481</v>
       </c>
@@ -17751,7 +17839,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>482</v>
       </c>
@@ -17804,7 +17892,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
         <v>482</v>
       </c>
@@ -17857,7 +17945,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
         <v>482</v>
       </c>
@@ -17910,7 +17998,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
         <v>486</v>
       </c>
@@ -17963,7 +18051,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A287" s="19" t="s">
         <v>486</v>
       </c>
@@ -18016,7 +18104,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A288" s="19" t="s">
         <v>487</v>
       </c>
@@ -18069,7 +18157,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
         <v>488</v>
       </c>
@@ -18122,7 +18210,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
         <v>488</v>
       </c>
@@ -18175,7 +18263,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
         <v>488</v>
       </c>
@@ -18228,7 +18316,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
         <v>490</v>
       </c>
@@ -18281,7 +18369,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
         <v>490</v>
       </c>
@@ -18334,7 +18422,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A294" s="19" t="s">
         <v>491</v>
       </c>
@@ -18387,7 +18475,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="19" t="s">
         <v>492</v>
       </c>
@@ -18440,7 +18528,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="19" t="s">
         <v>492</v>
       </c>
@@ -18493,7 +18581,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="19" t="s">
         <v>492</v>
       </c>
@@ -18546,7 +18634,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
         <v>495</v>
       </c>
@@ -18599,7 +18687,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A299" s="19" t="s">
         <v>495</v>
       </c>
@@ -18652,7 +18740,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A300" s="19" t="s">
         <v>496</v>
       </c>
@@ -18705,7 +18793,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="19" t="s">
         <v>497</v>
       </c>
@@ -18758,7 +18846,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="19" t="s">
         <v>497</v>
       </c>
@@ -18811,7 +18899,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="19" t="s">
         <v>497</v>
       </c>
@@ -18864,7 +18952,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="19" t="s">
         <v>499</v>
       </c>
@@ -18917,7 +19005,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A305" s="19" t="s">
         <v>499</v>
       </c>
@@ -18970,7 +19058,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A306" s="19" t="s">
         <v>500</v>
       </c>
@@ -19023,7 +19111,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="19" t="s">
         <v>501</v>
       </c>
@@ -19076,7 +19164,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A308" s="19" t="s">
         <v>501</v>
       </c>
@@ -19129,7 +19217,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A309" s="19" t="s">
         <v>504</v>
       </c>
@@ -19182,7 +19270,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="19" t="s">
         <v>505</v>
       </c>
@@ -19235,7 +19323,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A311" s="19" t="s">
         <v>505</v>
       </c>
@@ -19288,7 +19376,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="19" t="s">
         <v>508</v>
       </c>
@@ -19341,7 +19429,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A313" s="19" t="s">
         <v>508</v>
       </c>
@@ -19394,7 +19482,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="19" t="s">
         <v>509</v>
       </c>
@@ -19447,7 +19535,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="19" t="s">
         <v>511</v>
       </c>
@@ -19500,7 +19588,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A316" s="19" t="s">
         <v>511</v>
       </c>
@@ -19553,7 +19641,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
         <v>511</v>
       </c>
@@ -19606,7 +19694,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="19" t="s">
         <v>512</v>
       </c>
@@ -19659,7 +19747,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="19" t="s">
         <v>512</v>
       </c>
@@ -19712,7 +19800,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
         <v>513</v>
       </c>
@@ -19765,7 +19853,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>514</v>
       </c>
@@ -19818,7 +19906,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
         <v>516</v>
       </c>
@@ -19871,7 +19959,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>516</v>
       </c>
@@ -19924,7 +20012,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>517</v>
       </c>
@@ -19977,7 +20065,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="19" t="s">
         <v>517</v>
       </c>
@@ -20030,7 +20118,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
         <v>518</v>
       </c>
@@ -20083,7 +20171,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
         <v>519</v>
       </c>
@@ -20136,7 +20224,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>519</v>
       </c>
@@ -20189,7 +20277,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="19" t="s">
         <v>519</v>
       </c>
@@ -20242,7 +20330,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="19" t="s">
         <v>520</v>
       </c>
@@ -20295,7 +20383,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="19" t="s">
         <v>522</v>
       </c>
@@ -20348,7 +20436,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
         <v>522</v>
       </c>
@@ -20401,7 +20489,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="19" t="s">
         <v>522</v>
       </c>
@@ -20454,7 +20542,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="19" t="s">
         <v>523</v>
       </c>
@@ -20507,7 +20595,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="19" t="s">
         <v>523</v>
       </c>
@@ -20560,7 +20648,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="19" t="s">
         <v>524</v>
       </c>
@@ -20613,7 +20701,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A337" s="19" t="s">
         <v>525</v>
       </c>
@@ -20666,7 +20754,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="19" t="s">
         <v>526</v>
       </c>
@@ -20719,7 +20807,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="19" t="s">
         <v>528</v>
       </c>
@@ -20772,7 +20860,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A340" s="19" t="s">
         <v>528</v>
       </c>
@@ -20825,7 +20913,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="19" t="s">
         <v>528</v>
       </c>
@@ -20878,7 +20966,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="19" t="s">
         <v>530</v>
       </c>
@@ -20931,7 +21019,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="19" t="s">
         <v>530</v>
       </c>
@@ -20984,7 +21072,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="19" t="s">
         <v>531</v>
       </c>
@@ -21037,7 +21125,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A345" s="19" t="s">
         <v>532</v>
       </c>
@@ -21090,7 +21178,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="19" t="s">
         <v>533</v>
       </c>
@@ -21143,7 +21231,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A347" s="19" t="s">
         <v>533</v>
       </c>
@@ -21196,7 +21284,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A348" s="19" t="s">
         <v>535</v>
       </c>
@@ -21249,7 +21337,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="19" t="s">
         <v>536</v>
       </c>
@@ -21302,7 +21390,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="19" t="s">
         <v>538</v>
       </c>
@@ -21355,7 +21443,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A351" s="19" t="s">
         <v>538</v>
       </c>
@@ -21408,7 +21496,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="19" t="s">
         <v>538</v>
       </c>
@@ -21461,7 +21549,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A353" s="19" t="s">
         <v>539</v>
       </c>
@@ -21514,7 +21602,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="19" t="s">
         <v>540</v>
       </c>
@@ -21567,7 +21655,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>542</v>
       </c>
@@ -21620,7 +21708,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A356" s="19" t="s">
         <v>542</v>
       </c>
@@ -21673,7 +21761,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="19" t="s">
         <v>542</v>
       </c>
@@ -21726,7 +21814,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A358" s="19" t="s">
         <v>543</v>
       </c>
@@ -21779,7 +21867,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="19" t="s">
         <v>544</v>
       </c>
@@ -21832,7 +21920,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="s">
         <v>546</v>
       </c>
@@ -21885,7 +21973,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A361" s="19" t="s">
         <v>546</v>
       </c>
@@ -21938,7 +22026,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="19" t="s">
         <v>546</v>
       </c>
@@ -21991,7 +22079,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="s">
         <v>547</v>
       </c>
@@ -22044,7 +22132,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="19" t="s">
         <v>548</v>
       </c>
@@ -22097,7 +22185,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>549</v>
       </c>
@@ -22150,7 +22238,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A366" s="19" t="s">
         <v>549</v>
       </c>
@@ -22203,7 +22291,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="s">
         <v>551</v>
       </c>
@@ -22256,7 +22344,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="19" t="s">
         <v>552</v>
       </c>
@@ -22309,7 +22397,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="19" t="s">
         <v>554</v>
       </c>
@@ -22362,7 +22450,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A370" s="19" t="s">
         <v>554</v>
       </c>
@@ -22415,7 +22503,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="19" t="s">
         <v>554</v>
       </c>
@@ -22468,7 +22556,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="19" t="s">
         <v>555</v>
       </c>
@@ -22521,7 +22609,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="19" t="s">
         <v>555</v>
       </c>
@@ -22574,7 +22662,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="19" t="s">
         <v>556</v>
       </c>
@@ -22627,7 +22715,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A375" s="19" t="s">
         <v>557</v>
       </c>
@@ -22680,7 +22768,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="19" t="s">
         <v>558</v>
       </c>
@@ -22733,7 +22821,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="19" t="s">
         <v>560</v>
       </c>
@@ -22786,7 +22874,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A378" s="19" t="s">
         <v>560</v>
       </c>
@@ -22839,7 +22927,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="19" t="s">
         <v>560</v>
       </c>
@@ -22892,7 +22980,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A380" s="22" t="s">
         <v>561</v>
       </c>
@@ -22945,7 +23033,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A381" s="22" t="s">
         <v>561</v>
       </c>
@@ -22998,7 +23086,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="22" t="s">
         <v>562</v>
       </c>
@@ -23051,7 +23139,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="19" t="s">
         <v>562</v>
       </c>
@@ -23104,7 +23192,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A384" s="19" t="s">
         <v>563</v>
       </c>
@@ -23157,7 +23245,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="19" t="s">
         <v>564</v>
       </c>
@@ -23208,7 +23296,7 @@
       <c r="R385" s="30"/>
       <c r="S385" s="20"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="19" t="s">
         <v>567</v>
       </c>
@@ -23259,7 +23347,7 @@
       <c r="R386" s="30"/>
       <c r="S386" s="20"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="19" t="s">
         <v>567</v>
       </c>
@@ -23310,7 +23398,7 @@
       <c r="R387" s="30"/>
       <c r="S387" s="20"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="19" t="s">
         <v>568</v>
       </c>
@@ -23361,7 +23449,7 @@
       <c r="R388" s="30"/>
       <c r="S388" s="20"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="19" t="s">
         <v>569</v>
       </c>
@@ -23412,7 +23500,7 @@
       <c r="R389" s="30"/>
       <c r="S389" s="20"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="19" t="s">
         <v>572</v>
       </c>
@@ -23463,7 +23551,7 @@
       <c r="R390" s="30"/>
       <c r="S390" s="20"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="19" t="s">
         <v>572</v>
       </c>
@@ -23514,7 +23602,7 @@
       <c r="R391" s="30"/>
       <c r="S391" s="20"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="19" t="s">
         <v>573</v>
       </c>
@@ -23565,7 +23653,7 @@
       <c r="R392" s="30"/>
       <c r="S392" s="20"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="19" t="s">
         <v>575</v>
       </c>
@@ -23618,7 +23706,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="19" t="s">
         <v>576</v>
       </c>
@@ -23671,7 +23759,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="19" t="s">
         <v>577</v>
       </c>
@@ -23724,7 +23812,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="19" t="s">
         <v>578</v>
       </c>
@@ -23777,7 +23865,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="19" t="s">
         <v>579</v>
       </c>
@@ -23830,7 +23918,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="19" t="s">
         <v>580</v>
       </c>
@@ -23883,7 +23971,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="22" t="s">
         <v>583</v>
       </c>
@@ -23936,7 +24024,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A400" s="22" t="s">
         <v>584</v>
       </c>
@@ -23989,7 +24077,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A401" s="22" t="s">
         <v>588</v>
       </c>
@@ -24042,7 +24130,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="22" t="s">
         <v>589</v>
       </c>
@@ -24084,7 +24172,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="19"/>
       <c r="B403" s="20"/>
       <c r="C403" s="20"/>
@@ -24131,7 +24219,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="51" t="s">
         <v>598</v>
       </c>
@@ -24184,7 +24272,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="22" t="s">
         <v>602</v>
       </c>
@@ -24237,7 +24325,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="22" t="s">
         <v>602</v>
       </c>
@@ -24290,7 +24378,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="19" t="s">
         <v>604</v>
       </c>
@@ -24332,7 +24420,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A408" s="19" t="s">
         <v>607</v>
       </c>
@@ -24374,7 +24462,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A409" s="19" t="s">
         <v>610</v>
       </c>
@@ -24416,7 +24504,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="19" t="s">
         <v>613</v>
       </c>
@@ -24458,7 +24546,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="19" t="s">
         <v>616</v>
       </c>
@@ -24500,7 +24588,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="19" t="s">
         <v>619</v>
       </c>
@@ -24542,7 +24630,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="19" t="s">
         <v>621</v>
       </c>
@@ -24584,7 +24672,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="19" t="s">
         <v>624</v>
       </c>
@@ -24626,7 +24714,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="19" t="s">
         <v>627</v>
       </c>
@@ -24668,7 +24756,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="19" t="s">
         <v>630</v>
       </c>
@@ -24710,7 +24798,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="19" t="s">
         <v>632</v>
       </c>
@@ -24752,7 +24840,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="19"/>
       <c r="B418" s="20"/>
       <c r="C418" s="20"/>
@@ -24772,7 +24860,7 @@
       <c r="R418" s="30"/>
       <c r="S418" s="20"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="19"/>
       <c r="B419" s="20"/>
       <c r="C419" s="20"/>
@@ -24792,7 +24880,7 @@
       <c r="R419" s="30"/>
       <c r="S419" s="20"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="19"/>
       <c r="B420" s="20"/>
       <c r="C420" s="20"/>
@@ -24812,7 +24900,7 @@
       <c r="R420" s="30"/>
       <c r="S420" s="20"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="19"/>
       <c r="B421" s="20"/>
       <c r="C421" s="20"/>
@@ -24832,7 +24920,7 @@
       <c r="R421" s="30"/>
       <c r="S421" s="20"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="19"/>
       <c r="B422" s="20"/>
       <c r="C422" s="20"/>
@@ -24852,7 +24940,7 @@
       <c r="R422" s="30"/>
       <c r="S422" s="20"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="19"/>
       <c r="B423" s="20"/>
       <c r="C423" s="20"/>
@@ -24872,7 +24960,7 @@
       <c r="R423" s="30"/>
       <c r="S423" s="20"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="19"/>
       <c r="B424" s="20"/>
       <c r="C424" s="20"/>
@@ -24892,7 +24980,7 @@
       <c r="R424" s="30"/>
       <c r="S424" s="20"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="19"/>
       <c r="B425" s="20"/>
       <c r="C425" s="20"/>
@@ -24912,7 +25000,7 @@
       <c r="R425" s="30"/>
       <c r="S425" s="20"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="19"/>
       <c r="B426" s="20"/>
       <c r="C426" s="20"/>
@@ -24932,7 +25020,7 @@
       <c r="R426" s="30"/>
       <c r="S426" s="20"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="19"/>
       <c r="B427" s="20"/>
       <c r="C427" s="20"/>
@@ -24952,7 +25040,7 @@
       <c r="R427" s="30"/>
       <c r="S427" s="20"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="19"/>
       <c r="B428" s="20"/>
       <c r="C428" s="20"/>
@@ -24972,7 +25060,7 @@
       <c r="R428" s="30"/>
       <c r="S428" s="20"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="19"/>
       <c r="B429" s="20"/>
       <c r="C429" s="20"/>
@@ -24992,7 +25080,7 @@
       <c r="R429" s="30"/>
       <c r="S429" s="20"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="19"/>
       <c r="B430" s="20"/>
       <c r="C430" s="20"/>
@@ -25012,7 +25100,7 @@
       <c r="R430" s="30"/>
       <c r="S430" s="20"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="19"/>
       <c r="B431" s="20"/>
       <c r="C431" s="20"/>
@@ -25032,7 +25120,7 @@
       <c r="R431" s="30"/>
       <c r="S431" s="20"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="19"/>
       <c r="B432" s="20"/>
       <c r="C432" s="20"/>
@@ -25052,7 +25140,7 @@
       <c r="R432" s="30"/>
       <c r="S432" s="20"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="19"/>
       <c r="B433" s="20"/>
       <c r="C433" s="20"/>
@@ -25072,7 +25160,7 @@
       <c r="R433" s="30"/>
       <c r="S433" s="20"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="19"/>
       <c r="B434" s="20"/>
       <c r="C434" s="20"/>
@@ -25092,7 +25180,7 @@
       <c r="R434" s="30"/>
       <c r="S434" s="20"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="19"/>
       <c r="B435" s="20"/>
       <c r="C435" s="20"/>
@@ -25112,7 +25200,7 @@
       <c r="R435" s="30"/>
       <c r="S435" s="20"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="19"/>
       <c r="B436" s="20"/>
       <c r="C436" s="20"/>
@@ -25132,7 +25220,7 @@
       <c r="R436" s="30"/>
       <c r="S436" s="20"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="19"/>
       <c r="B437" s="20"/>
       <c r="C437" s="20"/>
@@ -25152,7 +25240,7 @@
       <c r="R437" s="30"/>
       <c r="S437" s="20"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="19"/>
       <c r="B438" s="20"/>
       <c r="C438" s="20"/>
@@ -25172,7 +25260,7 @@
       <c r="R438" s="30"/>
       <c r="S438" s="20"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="19"/>
       <c r="B439" s="20"/>
       <c r="C439" s="20"/>
@@ -25192,7 +25280,7 @@
       <c r="R439" s="30"/>
       <c r="S439" s="20"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="19"/>
       <c r="B440" s="20"/>
       <c r="C440" s="20"/>
@@ -25212,7 +25300,7 @@
       <c r="R440" s="30"/>
       <c r="S440" s="20"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="19"/>
       <c r="B441" s="20"/>
       <c r="C441" s="20"/>
@@ -25232,7 +25320,7 @@
       <c r="R441" s="30"/>
       <c r="S441" s="20"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="19"/>
       <c r="B442" s="20"/>
       <c r="C442" s="20"/>
@@ -25252,7 +25340,7 @@
       <c r="R442" s="30"/>
       <c r="S442" s="20"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="19"/>
       <c r="B443" s="20"/>
       <c r="C443" s="20"/>
@@ -25272,7 +25360,7 @@
       <c r="R443" s="30"/>
       <c r="S443" s="20"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="19"/>
       <c r="B444" s="20"/>
       <c r="C444" s="20"/>
@@ -25292,7 +25380,7 @@
       <c r="R444" s="30"/>
       <c r="S444" s="20"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="19"/>
       <c r="B445" s="20"/>
       <c r="C445" s="20"/>
@@ -25312,7 +25400,7 @@
       <c r="R445" s="30"/>
       <c r="S445" s="20"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="19"/>
       <c r="B446" s="20"/>
       <c r="C446" s="20"/>
@@ -25332,7 +25420,7 @@
       <c r="R446" s="30"/>
       <c r="S446" s="20"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="19"/>
       <c r="B447" s="20"/>
       <c r="C447" s="20"/>
@@ -25352,7 +25440,7 @@
       <c r="R447" s="30"/>
       <c r="S447" s="20"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="19"/>
       <c r="B448" s="20"/>
       <c r="C448" s="20"/>
@@ -25372,7 +25460,7 @@
       <c r="R448" s="30"/>
       <c r="S448" s="20"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="19"/>
       <c r="B449" s="20"/>
       <c r="C449" s="20"/>
@@ -25392,7 +25480,7 @@
       <c r="R449" s="30"/>
       <c r="S449" s="20"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="19"/>
       <c r="B450" s="20"/>
       <c r="C450" s="20"/>
@@ -25412,7 +25500,7 @@
       <c r="R450" s="30"/>
       <c r="S450" s="20"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="19"/>
       <c r="B451" s="20"/>
       <c r="C451" s="20"/>
@@ -25432,7 +25520,7 @@
       <c r="R451" s="30"/>
       <c r="S451" s="20"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="19"/>
       <c r="B452" s="20"/>
       <c r="C452" s="20"/>
@@ -25452,7 +25540,7 @@
       <c r="R452" s="30"/>
       <c r="S452" s="20"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="19"/>
       <c r="B453" s="20"/>
       <c r="C453" s="20"/>
@@ -25472,7 +25560,7 @@
       <c r="R453" s="30"/>
       <c r="S453" s="20"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="19"/>
       <c r="B454" s="20"/>
       <c r="C454" s="20"/>
@@ -25492,7 +25580,7 @@
       <c r="R454" s="30"/>
       <c r="S454" s="20"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="19"/>
       <c r="B455" s="20"/>
       <c r="C455" s="20"/>
@@ -25512,7 +25600,7 @@
       <c r="R455" s="30"/>
       <c r="S455" s="20"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="19"/>
       <c r="B456" s="20"/>
       <c r="C456" s="20"/>
@@ -25532,7 +25620,7 @@
       <c r="R456" s="30"/>
       <c r="S456" s="20"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="19"/>
       <c r="B457" s="20"/>
       <c r="C457" s="20"/>
@@ -25552,7 +25640,7 @@
       <c r="R457" s="30"/>
       <c r="S457" s="20"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="19"/>
       <c r="B458" s="20"/>
       <c r="C458" s="20"/>
@@ -25572,7 +25660,7 @@
       <c r="R458" s="30"/>
       <c r="S458" s="20"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="19"/>
       <c r="B459" s="20"/>
       <c r="C459" s="20"/>
@@ -25592,7 +25680,7 @@
       <c r="R459" s="30"/>
       <c r="S459" s="20"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="19"/>
       <c r="B460" s="20"/>
       <c r="C460" s="20"/>
@@ -25612,7 +25700,7 @@
       <c r="R460" s="30"/>
       <c r="S460" s="20"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="19"/>
       <c r="B461" s="20"/>
       <c r="C461" s="20"/>
@@ -25632,7 +25720,7 @@
       <c r="R461" s="30"/>
       <c r="S461" s="20"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="19"/>
       <c r="B462" s="20"/>
       <c r="C462" s="20"/>
@@ -25652,7 +25740,7 @@
       <c r="R462" s="30"/>
       <c r="S462" s="20"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="19"/>
       <c r="B463" s="20"/>
       <c r="C463" s="20"/>
@@ -25672,7 +25760,7 @@
       <c r="R463" s="30"/>
       <c r="S463" s="20"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="19"/>
       <c r="B464" s="20"/>
       <c r="C464" s="20"/>
@@ -25692,7 +25780,7 @@
       <c r="R464" s="30"/>
       <c r="S464" s="20"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="19"/>
       <c r="B465" s="20"/>
       <c r="C465" s="20"/>
@@ -25712,7 +25800,7 @@
       <c r="R465" s="30"/>
       <c r="S465" s="20"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="19"/>
       <c r="B466" s="20"/>
       <c r="C466" s="20"/>
@@ -25732,7 +25820,7 @@
       <c r="R466" s="30"/>
       <c r="S466" s="20"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="19"/>
       <c r="B467" s="20"/>
       <c r="C467" s="20"/>
@@ -25752,7 +25840,7 @@
       <c r="R467" s="30"/>
       <c r="S467" s="20"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="19"/>
       <c r="B468" s="20"/>
       <c r="C468" s="20"/>
@@ -25772,7 +25860,7 @@
       <c r="R468" s="30"/>
       <c r="S468" s="20"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="19"/>
       <c r="B469" s="20"/>
       <c r="C469" s="20"/>
@@ -25792,7 +25880,7 @@
       <c r="R469" s="30"/>
       <c r="S469" s="20"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="19"/>
       <c r="B470" s="20"/>
       <c r="C470" s="20"/>
@@ -25812,7 +25900,7 @@
       <c r="R470" s="30"/>
       <c r="S470" s="20"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="19"/>
       <c r="B471" s="20"/>
       <c r="C471" s="20"/>
@@ -25832,7 +25920,7 @@
       <c r="R471" s="30"/>
       <c r="S471" s="20"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="19"/>
       <c r="B472" s="20"/>
       <c r="C472" s="20"/>
@@ -25852,7 +25940,7 @@
       <c r="R472" s="30"/>
       <c r="S472" s="20"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="19"/>
       <c r="B473" s="20"/>
       <c r="C473" s="20"/>
@@ -25872,7 +25960,7 @@
       <c r="R473" s="30"/>
       <c r="S473" s="20"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="19"/>
       <c r="B474" s="20"/>
       <c r="C474" s="20"/>
@@ -25892,7 +25980,7 @@
       <c r="R474" s="30"/>
       <c r="S474" s="20"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="19"/>
       <c r="B475" s="20"/>
       <c r="C475" s="20"/>
@@ -25912,7 +26000,7 @@
       <c r="R475" s="30"/>
       <c r="S475" s="20"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="19"/>
       <c r="B476" s="20"/>
       <c r="C476" s="20"/>
@@ -25932,7 +26020,7 @@
       <c r="R476" s="30"/>
       <c r="S476" s="20"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="19"/>
       <c r="B477" s="20"/>
       <c r="C477" s="20"/>
@@ -25952,7 +26040,7 @@
       <c r="R477" s="30"/>
       <c r="S477" s="20"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="19"/>
       <c r="B478" s="20"/>
       <c r="C478" s="20"/>
@@ -25972,7 +26060,7 @@
       <c r="R478" s="30"/>
       <c r="S478" s="20"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="19"/>
       <c r="B479" s="20"/>
       <c r="C479" s="20"/>
@@ -25992,7 +26080,7 @@
       <c r="R479" s="30"/>
       <c r="S479" s="20"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="19"/>
       <c r="B480" s="20"/>
       <c r="C480" s="20"/>
@@ -26012,7 +26100,7 @@
       <c r="R480" s="30"/>
       <c r="S480" s="20"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="19"/>
       <c r="B481" s="20"/>
       <c r="C481" s="20"/>
@@ -26032,7 +26120,7 @@
       <c r="R481" s="30"/>
       <c r="S481" s="20"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="19"/>
       <c r="B482" s="20"/>
       <c r="C482" s="20"/>
@@ -26052,7 +26140,7 @@
       <c r="R482" s="30"/>
       <c r="S482" s="20"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="19"/>
       <c r="B483" s="20"/>
       <c r="C483" s="20"/>
@@ -26072,7 +26160,7 @@
       <c r="R483" s="30"/>
       <c r="S483" s="20"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="19"/>
       <c r="B484" s="20"/>
       <c r="C484" s="20"/>
@@ -26092,7 +26180,7 @@
       <c r="R484" s="30"/>
       <c r="S484" s="20"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="19"/>
       <c r="B485" s="20"/>
       <c r="C485" s="20"/>
@@ -26112,7 +26200,7 @@
       <c r="R485" s="30"/>
       <c r="S485" s="20"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="19"/>
       <c r="B486" s="20"/>
       <c r="C486" s="20"/>
@@ -26132,7 +26220,7 @@
       <c r="R486" s="30"/>
       <c r="S486" s="20"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="19"/>
       <c r="B487" s="20"/>
       <c r="C487" s="20"/>
@@ -26152,7 +26240,7 @@
       <c r="R487" s="30"/>
       <c r="S487" s="20"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="19"/>
       <c r="B488" s="20"/>
       <c r="C488" s="20"/>
@@ -26172,7 +26260,7 @@
       <c r="R488" s="30"/>
       <c r="S488" s="20"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="19"/>
       <c r="B489" s="20"/>
       <c r="C489" s="20"/>
@@ -26192,7 +26280,7 @@
       <c r="R489" s="30"/>
       <c r="S489" s="20"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="19"/>
       <c r="B490" s="20"/>
       <c r="C490" s="20"/>
@@ -26212,7 +26300,7 @@
       <c r="R490" s="30"/>
       <c r="S490" s="20"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="19"/>
       <c r="B491" s="20"/>
       <c r="C491" s="20"/>
@@ -26232,7 +26320,7 @@
       <c r="R491" s="30"/>
       <c r="S491" s="20"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="19"/>
       <c r="B492" s="20"/>
       <c r="C492" s="20"/>
@@ -26252,7 +26340,7 @@
       <c r="R492" s="30"/>
       <c r="S492" s="20"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="19"/>
       <c r="B493" s="20"/>
       <c r="C493" s="20"/>
@@ -26272,7 +26360,7 @@
       <c r="R493" s="30"/>
       <c r="S493" s="20"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="19"/>
       <c r="B494" s="20"/>
       <c r="C494" s="20"/>
@@ -26292,7 +26380,7 @@
       <c r="R494" s="30"/>
       <c r="S494" s="20"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="19"/>
       <c r="B495" s="20"/>
       <c r="C495" s="20"/>
@@ -26312,7 +26400,7 @@
       <c r="R495" s="30"/>
       <c r="S495" s="20"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="19"/>
       <c r="B496" s="20"/>
       <c r="C496" s="20"/>
@@ -26332,7 +26420,7 @@
       <c r="R496" s="30"/>
       <c r="S496" s="20"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="19"/>
       <c r="B497" s="20"/>
       <c r="C497" s="20"/>
@@ -26352,7 +26440,7 @@
       <c r="R497" s="30"/>
       <c r="S497" s="20"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="19"/>
       <c r="B498" s="20"/>
       <c r="C498" s="20"/>
@@ -26372,7 +26460,7 @@
       <c r="R498" s="30"/>
       <c r="S498" s="20"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="19"/>
       <c r="B499" s="20"/>
       <c r="C499" s="20"/>
@@ -26392,7 +26480,7 @@
       <c r="R499" s="30"/>
       <c r="S499" s="20"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="19"/>
       <c r="B500" s="20"/>
       <c r="C500" s="20"/>
@@ -26412,7 +26500,7 @@
       <c r="R500" s="30"/>
       <c r="S500" s="20"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="19"/>
       <c r="B501" s="20"/>
       <c r="C501" s="20"/>
@@ -26432,7 +26520,7 @@
       <c r="R501" s="30"/>
       <c r="S501" s="20"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="19"/>
       <c r="B502" s="20"/>
       <c r="C502" s="20"/>
@@ -26452,7 +26540,7 @@
       <c r="R502" s="30"/>
       <c r="S502" s="20"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="19"/>
       <c r="B503" s="20"/>
       <c r="C503" s="20"/>
@@ -26472,7 +26560,7 @@
       <c r="R503" s="30"/>
       <c r="S503" s="20"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="19"/>
       <c r="B504" s="20"/>
       <c r="C504" s="20"/>
@@ -26492,7 +26580,7 @@
       <c r="R504" s="30"/>
       <c r="S504" s="20"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="19"/>
       <c r="B505" s="20"/>
       <c r="C505" s="20"/>
@@ -26512,7 +26600,7 @@
       <c r="R505" s="30"/>
       <c r="S505" s="20"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="19"/>
       <c r="B506" s="20"/>
       <c r="C506" s="20"/>
@@ -26532,7 +26620,7 @@
       <c r="R506" s="30"/>
       <c r="S506" s="20"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="19"/>
       <c r="B507" s="20"/>
       <c r="C507" s="20"/>
@@ -26552,7 +26640,7 @@
       <c r="R507" s="30"/>
       <c r="S507" s="20"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="19"/>
       <c r="B508" s="20"/>
       <c r="C508" s="20"/>
@@ -26572,7 +26660,7 @@
       <c r="R508" s="30"/>
       <c r="S508" s="20"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="19"/>
       <c r="B509" s="20"/>
       <c r="C509" s="20"/>
@@ -26592,7 +26680,7 @@
       <c r="R509" s="30"/>
       <c r="S509" s="20"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="19"/>
       <c r="B510" s="20"/>
       <c r="C510" s="20"/>
@@ -26612,7 +26700,7 @@
       <c r="R510" s="30"/>
       <c r="S510" s="20"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="19"/>
       <c r="B511" s="20"/>
       <c r="C511" s="20"/>
@@ -26632,7 +26720,7 @@
       <c r="R511" s="30"/>
       <c r="S511" s="20"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="19"/>
       <c r="B512" s="20"/>
       <c r="C512" s="20"/>
@@ -26652,7 +26740,7 @@
       <c r="R512" s="30"/>
       <c r="S512" s="20"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="19"/>
       <c r="B513" s="20"/>
       <c r="C513" s="20"/>
@@ -26672,7 +26760,7 @@
       <c r="R513" s="30"/>
       <c r="S513" s="20"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="19"/>
       <c r="B514" s="20"/>
       <c r="C514" s="20"/>
@@ -26692,7 +26780,7 @@
       <c r="R514" s="30"/>
       <c r="S514" s="20"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="19"/>
       <c r="B515" s="20"/>
       <c r="C515" s="20"/>
@@ -26712,7 +26800,7 @@
       <c r="R515" s="30"/>
       <c r="S515" s="20"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="19"/>
       <c r="B516" s="20"/>
       <c r="C516" s="20"/>
@@ -26732,7 +26820,7 @@
       <c r="R516" s="30"/>
       <c r="S516" s="20"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="19"/>
       <c r="B517" s="20"/>
       <c r="C517" s="20"/>
@@ -26752,7 +26840,7 @@
       <c r="R517" s="30"/>
       <c r="S517" s="20"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="19"/>
       <c r="B518" s="20"/>
       <c r="C518" s="20"/>
@@ -26772,7 +26860,7 @@
       <c r="R518" s="30"/>
       <c r="S518" s="20"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="19"/>
       <c r="B519" s="20"/>
       <c r="C519" s="20"/>
@@ -26792,7 +26880,7 @@
       <c r="R519" s="30"/>
       <c r="S519" s="20"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="19"/>
       <c r="B520" s="20"/>
       <c r="C520" s="20"/>
@@ -26812,7 +26900,7 @@
       <c r="R520" s="30"/>
       <c r="S520" s="20"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="19"/>
       <c r="B521" s="20"/>
       <c r="C521" s="20"/>
@@ -26832,7 +26920,7 @@
       <c r="R521" s="30"/>
       <c r="S521" s="20"/>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="19"/>
       <c r="B522" s="20"/>
       <c r="C522" s="20"/>
@@ -26852,7 +26940,7 @@
       <c r="R522" s="30"/>
       <c r="S522" s="20"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="19"/>
       <c r="B523" s="20"/>
       <c r="C523" s="20"/>
@@ -26872,7 +26960,7 @@
       <c r="R523" s="30"/>
       <c r="S523" s="20"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="19"/>
       <c r="B524" s="20"/>
       <c r="C524" s="20"/>
@@ -26892,7 +26980,7 @@
       <c r="R524" s="30"/>
       <c r="S524" s="20"/>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="19"/>
       <c r="B525" s="20"/>
       <c r="C525" s="20"/>
@@ -26912,7 +27000,7 @@
       <c r="R525" s="30"/>
       <c r="S525" s="20"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="19"/>
       <c r="B526" s="20"/>
       <c r="C526" s="20"/>
@@ -26932,7 +27020,7 @@
       <c r="R526" s="30"/>
       <c r="S526" s="20"/>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="19"/>
       <c r="B527" s="20"/>
       <c r="C527" s="20"/>
@@ -26952,7 +27040,7 @@
       <c r="R527" s="30"/>
       <c r="S527" s="20"/>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="19"/>
       <c r="B528" s="20"/>
       <c r="C528" s="20"/>
@@ -26972,7 +27060,7 @@
       <c r="R528" s="30"/>
       <c r="S528" s="20"/>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" s="19"/>
       <c r="B529" s="20"/>
       <c r="C529" s="20"/>
@@ -26992,7 +27080,7 @@
       <c r="R529" s="30"/>
       <c r="S529" s="20"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" s="19"/>
       <c r="B530" s="20"/>
       <c r="C530" s="20"/>
@@ -27012,7 +27100,7 @@
       <c r="R530" s="30"/>
       <c r="S530" s="20"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" s="19"/>
       <c r="B531" s="20"/>
       <c r="C531" s="20"/>
@@ -27032,7 +27120,7 @@
       <c r="R531" s="30"/>
       <c r="S531" s="20"/>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" s="19"/>
       <c r="B532" s="20"/>
       <c r="C532" s="20"/>
@@ -27052,7 +27140,7 @@
       <c r="R532" s="30"/>
       <c r="S532" s="20"/>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" s="19"/>
       <c r="B533" s="20"/>
       <c r="C533" s="20"/>
@@ -27072,7 +27160,7 @@
       <c r="R533" s="30"/>
       <c r="S533" s="20"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" s="19"/>
       <c r="B534" s="20"/>
       <c r="C534" s="20"/>
@@ -27092,7 +27180,7 @@
       <c r="R534" s="30"/>
       <c r="S534" s="20"/>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" s="19"/>
       <c r="B535" s="20"/>
       <c r="C535" s="20"/>
@@ -27112,7 +27200,7 @@
       <c r="R535" s="30"/>
       <c r="S535" s="20"/>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" s="19"/>
       <c r="B536" s="20"/>
       <c r="C536" s="20"/>
@@ -27132,7 +27220,7 @@
       <c r="R536" s="30"/>
       <c r="S536" s="20"/>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" s="19"/>
       <c r="B537" s="20"/>
       <c r="C537" s="20"/>
@@ -27152,7 +27240,7 @@
       <c r="R537" s="30"/>
       <c r="S537" s="20"/>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" s="19"/>
       <c r="B538" s="20"/>
       <c r="C538" s="20"/>
@@ -27172,7 +27260,7 @@
       <c r="R538" s="30"/>
       <c r="S538" s="20"/>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" s="19"/>
       <c r="B539" s="20"/>
       <c r="C539" s="20"/>
@@ -27192,7 +27280,7 @@
       <c r="R539" s="30"/>
       <c r="S539" s="20"/>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" s="19"/>
       <c r="B540" s="20"/>
       <c r="C540" s="20"/>
@@ -27212,7 +27300,7 @@
       <c r="R540" s="30"/>
       <c r="S540" s="20"/>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" s="19"/>
       <c r="B541" s="20"/>
       <c r="C541" s="20"/>
@@ -27232,7 +27320,7 @@
       <c r="R541" s="30"/>
       <c r="S541" s="20"/>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" s="19"/>
       <c r="B542" s="20"/>
       <c r="C542" s="20"/>
@@ -27252,7 +27340,7 @@
       <c r="R542" s="30"/>
       <c r="S542" s="20"/>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" s="19"/>
       <c r="B543" s="20"/>
       <c r="C543" s="20"/>
@@ -27272,7 +27360,7 @@
       <c r="R543" s="30"/>
       <c r="S543" s="20"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" s="19"/>
       <c r="B544" s="20"/>
       <c r="C544" s="20"/>
@@ -27292,7 +27380,7 @@
       <c r="R544" s="30"/>
       <c r="S544" s="20"/>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" s="19"/>
       <c r="B545" s="20"/>
       <c r="C545" s="20"/>
@@ -27312,7 +27400,7 @@
       <c r="R545" s="30"/>
       <c r="S545" s="20"/>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" s="19"/>
       <c r="B546" s="20"/>
       <c r="C546" s="20"/>
@@ -27332,7 +27420,7 @@
       <c r="R546" s="30"/>
       <c r="S546" s="20"/>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" s="19"/>
       <c r="B547" s="20"/>
       <c r="C547" s="20"/>
@@ -27352,7 +27440,7 @@
       <c r="R547" s="30"/>
       <c r="S547" s="20"/>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" s="19"/>
       <c r="B548" s="20"/>
       <c r="C548" s="20"/>
@@ -27372,7 +27460,7 @@
       <c r="R548" s="30"/>
       <c r="S548" s="20"/>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" s="19"/>
       <c r="B549" s="20"/>
       <c r="C549" s="20"/>
@@ -27392,7 +27480,7 @@
       <c r="R549" s="30"/>
       <c r="S549" s="20"/>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" s="19"/>
       <c r="B550" s="20"/>
       <c r="C550" s="20"/>
@@ -27412,7 +27500,7 @@
       <c r="R550" s="30"/>
       <c r="S550" s="20"/>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" s="19"/>
       <c r="B551" s="20"/>
       <c r="C551" s="20"/>
@@ -27432,7 +27520,7 @@
       <c r="R551" s="30"/>
       <c r="S551" s="20"/>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" s="19"/>
       <c r="B552" s="20"/>
       <c r="C552" s="20"/>
@@ -27452,7 +27540,7 @@
       <c r="R552" s="30"/>
       <c r="S552" s="20"/>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" s="19"/>
       <c r="B553" s="20"/>
       <c r="C553" s="20"/>
@@ -27472,7 +27560,7 @@
       <c r="R553" s="30"/>
       <c r="S553" s="20"/>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" s="19"/>
       <c r="B554" s="20"/>
       <c r="C554" s="20"/>
@@ -27492,7 +27580,7 @@
       <c r="R554" s="30"/>
       <c r="S554" s="20"/>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" s="19"/>
       <c r="B555" s="20"/>
       <c r="C555" s="20"/>
@@ -27512,7 +27600,7 @@
       <c r="R555" s="30"/>
       <c r="S555" s="20"/>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" s="19"/>
       <c r="B556" s="20"/>
       <c r="C556" s="20"/>
@@ -27532,7 +27620,7 @@
       <c r="R556" s="30"/>
       <c r="S556" s="20"/>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" s="19"/>
       <c r="B557" s="20"/>
       <c r="C557" s="20"/>
@@ -27552,7 +27640,7 @@
       <c r="R557" s="30"/>
       <c r="S557" s="20"/>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" s="19"/>
       <c r="B558" s="20"/>
       <c r="C558" s="20"/>
@@ -27572,7 +27660,7 @@
       <c r="R558" s="30"/>
       <c r="S558" s="20"/>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" s="19"/>
       <c r="B559" s="20"/>
       <c r="C559" s="20"/>
@@ -27593,13 +27681,13 @@
       <c r="S559" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S417" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S417"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
@@ -27609,21 +27697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>635</v>
       </c>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -80,6 +80,48 @@
     <t>规则统计人</t>
   </si>
   <si>
+    <t>0030101201</t>
+  </si>
+  <si>
+    <t>N-不考虑</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>*,</t>
+  </si>
+  <si>
+    <t>00301012</t>
+  </si>
+  <si>
+    <t>custom-input_pasbNum</t>
+  </si>
+  <si>
+    <t>批量导入</t>
+  </si>
+  <si>
+    <t>txAmt</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>夏磊</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -102,34 +144,16 @@
     </r>
   </si>
   <si>
-    <t>N-不考虑</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>*,</t>
-  </si>
-  <si>
     <t>00303007</t>
   </si>
   <si>
     <t>custom-selector_6</t>
   </si>
   <si>
-    <t>批量导入</t>
+    <t>Isadvance</t>
   </si>
   <si>
-    <t>subAccIsTD</t>
-  </si>
-  <si>
-    <t>子账户类型是否定期</t>
-  </si>
-  <si>
-    <t>是</t>
+    <t>是否提前支取</t>
   </si>
   <si>
     <t>==</t>
@@ -141,12 +165,6 @@
     <t>李腊</t>
   </si>
   <si>
-    <t>Isadvance</t>
-  </si>
-  <si>
-    <t>是否提前支取</t>
-  </si>
-  <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
   </si>
 </sst>
@@ -155,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -192,13 +203,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,23 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +244,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +264,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -318,9 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,8 +305,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,25 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +426,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,127 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,15 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -589,6 +585,54 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,55 +666,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,11 +833,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,8 +850,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1183,7 +1188,7 @@
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1317,7 +1322,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>20</v>
@@ -1332,10 +1337,10 @@
         <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
@@ -1347,25 +1352,25 @@
         <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="19"/>
       <c r="S3" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4153,11 +4158,11 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
-      <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4184,7 +4189,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zt\svn\04设计与实现\交易数据统计\交易规则统计\二阶段\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -179,12 +174,72 @@
     <t>0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>0050801203</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>00201091</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0020109101</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0020109102</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCT_NO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_TYP_CD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯强</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +309,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -308,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -417,6 +478,20 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -698,31 +773,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T588"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="3" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
     <col min="8" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="9" style="6"/>
-    <col min="15" max="15" width="30.33203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.77734375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="30.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="81.599999999999994" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="81">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -781,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="2" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -833,7 +909,7 @@
       <c r="S2" s="10"/>
       <c r="T2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="2" customFormat="1">
       <c r="A3" s="48" t="s">
         <v>36</v>
       </c>
@@ -885,9 +961,9 @@
       <c r="S3" s="10"/>
       <c r="T3" s="35"/>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="2" customFormat="1">
       <c r="A4" s="12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>38</v>
@@ -926,70 +1002,124 @@
       <c r="R4" s="36"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="55" customFormat="1">
+      <c r="A5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="55" customFormat="1">
+      <c r="A6" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="55" customFormat="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="51"/>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1010,7 +1140,7 @@
       <c r="R8" s="36"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="2" customFormat="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1031,7 +1161,7 @@
       <c r="R9" s="36"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="2" customFormat="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1052,7 +1182,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="2" customFormat="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1073,7 +1203,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1094,7 +1224,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A13" s="15"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1115,7 +1245,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1136,7 +1266,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1157,7 +1287,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="15">
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1178,7 +1308,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1199,7 +1329,7 @@
       <c r="R17" s="37"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1220,7 +1350,7 @@
       <c r="R18" s="37"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1">
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1241,7 +1371,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1">
       <c r="A20" s="15"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1262,7 +1392,7 @@
       <c r="R20" s="37"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -1283,7 +1413,7 @@
       <c r="R21" s="37"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="2" customFormat="1">
       <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1304,7 +1434,7 @@
       <c r="R22" s="37"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -1325,7 +1455,7 @@
       <c r="R23" s="37"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1346,7 +1476,7 @@
       <c r="R24" s="37"/>
       <c r="S24" s="21"/>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1367,7 +1497,7 @@
       <c r="R25" s="37"/>
       <c r="S25" s="21"/>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1388,7 +1518,7 @@
       <c r="R26" s="37"/>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1409,7 +1539,7 @@
       <c r="R27" s="37"/>
       <c r="S27" s="21"/>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1430,7 +1560,7 @@
       <c r="R28" s="37"/>
       <c r="S28" s="21"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1451,7 +1581,7 @@
       <c r="R29" s="37"/>
       <c r="S29" s="21"/>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1472,7 +1602,7 @@
       <c r="R30" s="37"/>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1493,7 +1623,7 @@
       <c r="R31" s="37"/>
       <c r="S31" s="21"/>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1514,7 +1644,7 @@
       <c r="R32" s="37"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1535,7 +1665,7 @@
       <c r="R33" s="37"/>
       <c r="S33" s="21"/>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1556,7 +1686,7 @@
       <c r="R34" s="37"/>
       <c r="S34" s="21"/>
     </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1577,7 +1707,7 @@
       <c r="R35" s="37"/>
       <c r="S35" s="21"/>
     </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="2" customFormat="1">
       <c r="A36" s="19"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1598,7 +1728,7 @@
       <c r="R36" s="37"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="2" customFormat="1">
       <c r="A37" s="19"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1619,7 +1749,7 @@
       <c r="R37" s="37"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="2" customFormat="1">
       <c r="A38" s="19"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -1640,7 +1770,7 @@
       <c r="R38" s="37"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="2" customFormat="1">
       <c r="A39" s="24"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -1661,7 +1791,7 @@
       <c r="R39" s="37"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="2" customFormat="1">
       <c r="A40" s="24"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -1682,7 +1812,7 @@
       <c r="R40" s="37"/>
       <c r="S40" s="21"/>
     </row>
-    <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="2" customFormat="1">
       <c r="A41" s="24"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1703,7 +1833,7 @@
       <c r="R41" s="37"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="2" customFormat="1">
       <c r="A42" s="24"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -1724,7 +1854,7 @@
       <c r="R42" s="37"/>
       <c r="S42" s="21"/>
     </row>
-    <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="2" customFormat="1">
       <c r="A43" s="24"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -1745,7 +1875,7 @@
       <c r="R43" s="37"/>
       <c r="S43" s="21"/>
     </row>
-    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="2" customFormat="1">
       <c r="A44" s="24"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -1766,7 +1896,7 @@
       <c r="R44" s="37"/>
       <c r="S44" s="21"/>
     </row>
-    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="2" customFormat="1">
       <c r="A45" s="24"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -1787,7 +1917,7 @@
       <c r="R45" s="37"/>
       <c r="S45" s="21"/>
     </row>
-    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="2" customFormat="1">
       <c r="A46" s="24"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1808,7 +1938,7 @@
       <c r="R46" s="37"/>
       <c r="S46" s="21"/>
     </row>
-    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="2" customFormat="1">
       <c r="A47" s="24"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1829,7 +1959,7 @@
       <c r="R47" s="37"/>
       <c r="S47" s="21"/>
     </row>
-    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="2" customFormat="1">
       <c r="A48" s="24"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1850,7 +1980,7 @@
       <c r="R48" s="37"/>
       <c r="S48" s="21"/>
     </row>
-    <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="2" customFormat="1">
       <c r="A49" s="24"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1871,7 +2001,7 @@
       <c r="R49" s="37"/>
       <c r="S49" s="21"/>
     </row>
-    <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="2" customFormat="1">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1892,7 +2022,7 @@
       <c r="R50" s="37"/>
       <c r="S50" s="21"/>
     </row>
-    <row r="51" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="2" customFormat="1">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1913,7 +2043,7 @@
       <c r="R51" s="37"/>
       <c r="S51" s="21"/>
     </row>
-    <row r="52" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="2" customFormat="1">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1934,7 +2064,7 @@
       <c r="R52" s="37"/>
       <c r="S52" s="21"/>
     </row>
-    <row r="53" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="2" customFormat="1">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1955,7 +2085,7 @@
       <c r="R53" s="37"/>
       <c r="S53" s="21"/>
     </row>
-    <row r="54" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="2" customFormat="1">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -1976,7 +2106,7 @@
       <c r="R54" s="37"/>
       <c r="S54" s="21"/>
     </row>
-    <row r="55" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="2" customFormat="1">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -1997,7 +2127,7 @@
       <c r="R55" s="37"/>
       <c r="S55" s="21"/>
     </row>
-    <row r="56" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="2" customFormat="1">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2018,7 +2148,7 @@
       <c r="R56" s="37"/>
       <c r="S56" s="21"/>
     </row>
-    <row r="57" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="2" customFormat="1">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2039,7 +2169,7 @@
       <c r="R57" s="37"/>
       <c r="S57" s="21"/>
     </row>
-    <row r="58" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="2" customFormat="1">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2060,7 +2190,7 @@
       <c r="R58" s="37"/>
       <c r="S58" s="21"/>
     </row>
-    <row r="59" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="2" customFormat="1">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2081,7 +2211,7 @@
       <c r="R59" s="37"/>
       <c r="S59" s="21"/>
     </row>
-    <row r="60" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="2" customFormat="1">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2102,7 +2232,7 @@
       <c r="R60" s="37"/>
       <c r="S60" s="21"/>
     </row>
-    <row r="61" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="2" customFormat="1">
       <c r="A61" s="19"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2123,7 +2253,7 @@
       <c r="R61" s="37"/>
       <c r="S61" s="21"/>
     </row>
-    <row r="62" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="2" customFormat="1">
       <c r="A62" s="15"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2144,7 +2274,7 @@
       <c r="R62" s="37"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="2" customFormat="1">
       <c r="A63" s="15"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2165,7 +2295,7 @@
       <c r="R63" s="37"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="2" customFormat="1">
       <c r="A64" s="15"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2186,7 +2316,7 @@
       <c r="R64" s="37"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="2" customFormat="1">
       <c r="A65" s="19"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2207,7 +2337,7 @@
       <c r="R65" s="37"/>
       <c r="S65" s="21"/>
     </row>
-    <row r="66" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="2" customFormat="1">
       <c r="A66" s="15"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2228,7 +2358,7 @@
       <c r="R66" s="37"/>
       <c r="S66" s="21"/>
     </row>
-    <row r="67" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="2" customFormat="1">
       <c r="A67" s="15"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2249,7 +2379,7 @@
       <c r="R67" s="37"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="2" customFormat="1">
       <c r="A68" s="19"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2270,7 +2400,7 @@
       <c r="R68" s="37"/>
       <c r="S68" s="21"/>
     </row>
-    <row r="69" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A69" s="19"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2291,7 +2421,7 @@
       <c r="R69" s="37"/>
       <c r="S69" s="21"/>
     </row>
-    <row r="70" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A70" s="19"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2312,7 +2442,7 @@
       <c r="R70" s="37"/>
       <c r="S70" s="21"/>
     </row>
-    <row r="71" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="2" customFormat="1">
       <c r="A71" s="19"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2333,7 +2463,7 @@
       <c r="R71" s="37"/>
       <c r="S71" s="21"/>
     </row>
-    <row r="72" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A72" s="19"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2354,7 +2484,7 @@
       <c r="R72" s="37"/>
       <c r="S72" s="21"/>
     </row>
-    <row r="73" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="2" customFormat="1">
       <c r="A73" s="19"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2375,7 +2505,7 @@
       <c r="R73" s="37"/>
       <c r="S73" s="21"/>
     </row>
-    <row r="74" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="2" customFormat="1">
       <c r="A74" s="19"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2396,7 +2526,7 @@
       <c r="R74" s="37"/>
       <c r="S74" s="21"/>
     </row>
-    <row r="75" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A75" s="19"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2417,7 +2547,7 @@
       <c r="R75" s="37"/>
       <c r="S75" s="21"/>
     </row>
-    <row r="76" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A76" s="19"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2438,7 +2568,7 @@
       <c r="R76" s="37"/>
       <c r="S76" s="21"/>
     </row>
-    <row r="77" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="2" customFormat="1">
       <c r="A77" s="19"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2459,7 +2589,7 @@
       <c r="R77" s="37"/>
       <c r="S77" s="21"/>
     </row>
-    <row r="78" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="2" customFormat="1">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -2480,7 +2610,7 @@
       <c r="R78" s="37"/>
       <c r="S78" s="21"/>
     </row>
-    <row r="79" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="2" customFormat="1">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -2501,7 +2631,7 @@
       <c r="R79" s="37"/>
       <c r="S79" s="21"/>
     </row>
-    <row r="80" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="2" customFormat="1">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -2522,7 +2652,7 @@
       <c r="R80" s="37"/>
       <c r="S80" s="21"/>
     </row>
-    <row r="81" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="2" customFormat="1">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -2543,7 +2673,7 @@
       <c r="R81" s="37"/>
       <c r="S81" s="21"/>
     </row>
-    <row r="82" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="2" customFormat="1">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -2564,7 +2694,7 @@
       <c r="R82" s="37"/>
       <c r="S82" s="21"/>
     </row>
-    <row r="83" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="2" customFormat="1">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -2585,7 +2715,7 @@
       <c r="R83" s="37"/>
       <c r="S83" s="21"/>
     </row>
-    <row r="84" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="2" customFormat="1">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -2606,7 +2736,7 @@
       <c r="R84" s="37"/>
       <c r="S84" s="21"/>
     </row>
-    <row r="85" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="2" customFormat="1">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2627,7 +2757,7 @@
       <c r="R85" s="37"/>
       <c r="S85" s="21"/>
     </row>
-    <row r="86" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="2" customFormat="1">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -2648,7 +2778,7 @@
       <c r="R86" s="37"/>
       <c r="S86" s="21"/>
     </row>
-    <row r="87" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="2" customFormat="1">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -2669,7 +2799,7 @@
       <c r="R87" s="37"/>
       <c r="S87" s="21"/>
     </row>
-    <row r="88" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="2" customFormat="1">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -2690,7 +2820,7 @@
       <c r="R88" s="37"/>
       <c r="S88" s="21"/>
     </row>
-    <row r="89" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="2" customFormat="1">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -2711,7 +2841,7 @@
       <c r="R89" s="37"/>
       <c r="S89" s="21"/>
     </row>
-    <row r="90" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="2" customFormat="1">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -2732,7 +2862,7 @@
       <c r="R90" s="37"/>
       <c r="S90" s="21"/>
     </row>
-    <row r="91" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="2" customFormat="1">
       <c r="A91" s="19"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2753,7 +2883,7 @@
       <c r="R91" s="37"/>
       <c r="S91" s="21"/>
     </row>
-    <row r="92" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="2" customFormat="1">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="14"/>
@@ -2772,7 +2902,7 @@
       <c r="R92" s="37"/>
       <c r="S92" s="21"/>
     </row>
-    <row r="93" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="2" customFormat="1">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="14"/>
@@ -2791,7 +2921,7 @@
       <c r="R93" s="37"/>
       <c r="S93" s="21"/>
     </row>
-    <row r="94" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="2" customFormat="1">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="14"/>
@@ -2810,7 +2940,7 @@
       <c r="R94" s="37"/>
       <c r="S94" s="21"/>
     </row>
-    <row r="95" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="2" customFormat="1">
       <c r="A95" s="19"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -2831,7 +2961,7 @@
       <c r="R95" s="37"/>
       <c r="S95" s="21"/>
     </row>
-    <row r="96" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="2" customFormat="1">
       <c r="A96" s="19"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2852,7 +2982,7 @@
       <c r="R96" s="37"/>
       <c r="S96" s="21"/>
     </row>
-    <row r="97" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="2" customFormat="1">
       <c r="A97" s="19"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2873,7 +3003,7 @@
       <c r="R97" s="41"/>
       <c r="S97" s="21"/>
     </row>
-    <row r="98" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="2" customFormat="1">
       <c r="A98" s="19"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2894,7 +3024,7 @@
       <c r="R98" s="41"/>
       <c r="S98" s="21"/>
     </row>
-    <row r="99" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="2" customFormat="1">
       <c r="A99" s="32"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2915,7 +3045,7 @@
       <c r="R99" s="41"/>
       <c r="S99" s="21"/>
     </row>
-    <row r="100" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" s="2" customFormat="1">
       <c r="A100" s="32"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2936,7 +3066,7 @@
       <c r="R100" s="41"/>
       <c r="S100" s="21"/>
     </row>
-    <row r="101" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="2" customFormat="1">
       <c r="A101" s="19"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2957,7 +3087,7 @@
       <c r="R101" s="37"/>
       <c r="S101" s="21"/>
     </row>
-    <row r="102" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="2" customFormat="1">
       <c r="A102" s="32"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2978,7 +3108,7 @@
       <c r="R102" s="37"/>
       <c r="S102" s="21"/>
     </row>
-    <row r="103" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="2" customFormat="1">
       <c r="A103" s="32"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2999,7 +3129,7 @@
       <c r="R103" s="41"/>
       <c r="S103" s="21"/>
     </row>
-    <row r="104" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="2" customFormat="1">
       <c r="A104" s="19"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -3020,7 +3150,7 @@
       <c r="R104" s="37"/>
       <c r="S104" s="21"/>
     </row>
-    <row r="105" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="2" customFormat="1">
       <c r="A105" s="19"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -3041,7 +3171,7 @@
       <c r="R105" s="37"/>
       <c r="S105" s="21"/>
     </row>
-    <row r="106" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="2" customFormat="1">
       <c r="A106" s="32"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -3062,7 +3192,7 @@
       <c r="R106" s="41"/>
       <c r="S106" s="21"/>
     </row>
-    <row r="107" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="2" customFormat="1">
       <c r="A107" s="19"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -3083,7 +3213,7 @@
       <c r="R107" s="37"/>
       <c r="S107" s="21"/>
     </row>
-    <row r="108" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="2" customFormat="1">
       <c r="A108" s="19"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -3104,7 +3234,7 @@
       <c r="R108" s="37"/>
       <c r="S108" s="21"/>
     </row>
-    <row r="109" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" s="2" customFormat="1">
       <c r="A109" s="32"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -3125,7 +3255,7 @@
       <c r="R109" s="41"/>
       <c r="S109" s="21"/>
     </row>
-    <row r="110" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="2" customFormat="1">
       <c r="A110" s="19"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -3146,7 +3276,7 @@
       <c r="R110" s="37"/>
       <c r="S110" s="21"/>
     </row>
-    <row r="111" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="2" customFormat="1">
       <c r="A111" s="19"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -3167,7 +3297,7 @@
       <c r="R111" s="37"/>
       <c r="S111" s="21"/>
     </row>
-    <row r="112" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="2" customFormat="1">
       <c r="A112" s="19"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -3188,7 +3318,7 @@
       <c r="R112" s="37"/>
       <c r="S112" s="21"/>
     </row>
-    <row r="113" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="2" customFormat="1">
       <c r="A113" s="19"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -3209,7 +3339,7 @@
       <c r="R113" s="41"/>
       <c r="S113" s="21"/>
     </row>
-    <row r="114" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="2" customFormat="1">
       <c r="A114" s="19"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -3230,7 +3360,7 @@
       <c r="R114" s="37"/>
       <c r="S114" s="21"/>
     </row>
-    <row r="115" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="2" customFormat="1">
       <c r="A115" s="19"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -3251,7 +3381,7 @@
       <c r="R115" s="37"/>
       <c r="S115" s="21"/>
     </row>
-    <row r="116" spans="1:19" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1">
       <c r="A116" s="32"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -3272,7 +3402,7 @@
       <c r="R116" s="41"/>
       <c r="S116" s="21"/>
     </row>
-    <row r="117" spans="1:19" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1">
       <c r="A117" s="32"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -3293,7 +3423,7 @@
       <c r="R117" s="41"/>
       <c r="S117" s="21"/>
     </row>
-    <row r="118" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="2" customFormat="1">
       <c r="A118" s="32"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -3314,7 +3444,7 @@
       <c r="R118" s="41"/>
       <c r="S118" s="21"/>
     </row>
-    <row r="119" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="2" customFormat="1">
       <c r="A119" s="32"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -3335,7 +3465,7 @@
       <c r="R119" s="41"/>
       <c r="S119" s="21"/>
     </row>
-    <row r="120" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="2" customFormat="1">
       <c r="A120" s="32"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -3356,7 +3486,7 @@
       <c r="R120" s="41"/>
       <c r="S120" s="21"/>
     </row>
-    <row r="121" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="2" customFormat="1">
       <c r="A121" s="32"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -3377,7 +3507,7 @@
       <c r="R121" s="41"/>
       <c r="S121" s="21"/>
     </row>
-    <row r="122" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="2" customFormat="1">
       <c r="A122" s="32"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -3398,7 +3528,7 @@
       <c r="R122" s="41"/>
       <c r="S122" s="21"/>
     </row>
-    <row r="123" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="2" customFormat="1">
       <c r="A123" s="15"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -3419,7 +3549,7 @@
       <c r="R123" s="41"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="2" customFormat="1">
       <c r="A124" s="15"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -3440,7 +3570,7 @@
       <c r="R124" s="41"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="2" customFormat="1">
       <c r="A125" s="15"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -3461,7 +3591,7 @@
       <c r="R125" s="41"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="2" customFormat="1">
       <c r="A126" s="15"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -3482,7 +3612,7 @@
       <c r="R126" s="37"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="2" customFormat="1">
       <c r="A127" s="15"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -3503,7 +3633,7 @@
       <c r="R127" s="41"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="2" customFormat="1">
       <c r="A128" s="15"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -3524,7 +3654,7 @@
       <c r="R128" s="41"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="2" customFormat="1">
       <c r="A129" s="15"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -3545,7 +3675,7 @@
       <c r="R129" s="41"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="2" customFormat="1">
       <c r="A130" s="15"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3566,7 +3696,7 @@
       <c r="R130" s="41"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="2" customFormat="1">
       <c r="A131" s="15"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3587,7 +3717,7 @@
       <c r="R131" s="41"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="2" customFormat="1">
       <c r="A132" s="15"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -3608,7 +3738,7 @@
       <c r="R132" s="37"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="2" customFormat="1">
       <c r="A133" s="19"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -3629,7 +3759,7 @@
       <c r="R133" s="37"/>
       <c r="S133" s="21"/>
     </row>
-    <row r="134" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="2" customFormat="1">
       <c r="A134" s="32"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3650,7 +3780,7 @@
       <c r="R134" s="41"/>
       <c r="S134" s="21"/>
     </row>
-    <row r="135" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="2" customFormat="1">
       <c r="A135" s="19"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3671,7 +3801,7 @@
       <c r="R135" s="37"/>
       <c r="S135" s="21"/>
     </row>
-    <row r="136" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="2" customFormat="1">
       <c r="A136" s="15"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3692,7 +3822,7 @@
       <c r="R136" s="41"/>
       <c r="S136" s="21"/>
     </row>
-    <row r="137" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="2" customFormat="1">
       <c r="A137" s="15"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3713,7 +3843,7 @@
       <c r="R137" s="37"/>
       <c r="S137" s="21"/>
     </row>
-    <row r="138" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="2" customFormat="1">
       <c r="A138" s="19"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3734,7 +3864,7 @@
       <c r="R138" s="37"/>
       <c r="S138" s="21"/>
     </row>
-    <row r="139" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="2" customFormat="1">
       <c r="A139" s="19"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3755,7 +3885,7 @@
       <c r="R139" s="37"/>
       <c r="S139" s="21"/>
     </row>
-    <row r="140" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="2" customFormat="1">
       <c r="A140" s="19"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3776,7 +3906,7 @@
       <c r="R140" s="37"/>
       <c r="S140" s="21"/>
     </row>
-    <row r="141" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="2" customFormat="1">
       <c r="A141" s="19"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3797,7 +3927,7 @@
       <c r="R141" s="37"/>
       <c r="S141" s="21"/>
     </row>
-    <row r="142" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="2" customFormat="1">
       <c r="A142" s="19"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3818,7 +3948,7 @@
       <c r="R142" s="37"/>
       <c r="S142" s="21"/>
     </row>
-    <row r="143" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="2" customFormat="1">
       <c r="A143" s="19"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3839,7 +3969,7 @@
       <c r="R143" s="37"/>
       <c r="S143" s="21"/>
     </row>
-    <row r="144" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="2" customFormat="1">
       <c r="A144" s="19"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3860,7 +3990,7 @@
       <c r="R144" s="37"/>
       <c r="S144" s="21"/>
     </row>
-    <row r="145" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="2" customFormat="1">
       <c r="A145" s="15"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3881,7 +4011,7 @@
       <c r="R145" s="41"/>
       <c r="S145" s="21"/>
     </row>
-    <row r="146" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="2" customFormat="1">
       <c r="A146" s="19"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3902,7 +4032,7 @@
       <c r="R146" s="37"/>
       <c r="S146" s="21"/>
     </row>
-    <row r="147" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="2" customFormat="1">
       <c r="A147" s="19"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3923,7 +4053,7 @@
       <c r="R147" s="37"/>
       <c r="S147" s="21"/>
     </row>
-    <row r="148" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="2" customFormat="1">
       <c r="A148" s="15"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3944,7 +4074,7 @@
       <c r="R148" s="41"/>
       <c r="S148" s="21"/>
     </row>
-    <row r="149" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="2" customFormat="1">
       <c r="A149" s="19"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3965,7 +4095,7 @@
       <c r="R149" s="37"/>
       <c r="S149" s="21"/>
     </row>
-    <row r="150" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="2" customFormat="1">
       <c r="A150" s="15"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3986,7 +4116,7 @@
       <c r="R150" s="41"/>
       <c r="S150" s="21"/>
     </row>
-    <row r="151" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="2" customFormat="1">
       <c r="A151" s="15"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -4007,7 +4137,7 @@
       <c r="R151" s="41"/>
       <c r="S151" s="21"/>
     </row>
-    <row r="152" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="2" customFormat="1">
       <c r="A152" s="19"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -4028,7 +4158,7 @@
       <c r="R152" s="37"/>
       <c r="S152" s="21"/>
     </row>
-    <row r="153" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="2" customFormat="1">
       <c r="A153" s="19"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -4049,7 +4179,7 @@
       <c r="R153" s="37"/>
       <c r="S153" s="21"/>
     </row>
-    <row r="154" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="2" customFormat="1">
       <c r="A154" s="19"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -4070,7 +4200,7 @@
       <c r="R154" s="37"/>
       <c r="S154" s="21"/>
     </row>
-    <row r="155" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="2" customFormat="1">
       <c r="A155" s="19"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -4091,7 +4221,7 @@
       <c r="R155" s="37"/>
       <c r="S155" s="21"/>
     </row>
-    <row r="156" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="2" customFormat="1">
       <c r="A156" s="19"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -4112,7 +4242,7 @@
       <c r="R156" s="37"/>
       <c r="S156" s="21"/>
     </row>
-    <row r="157" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="2" customFormat="1">
       <c r="A157" s="15"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -4133,7 +4263,7 @@
       <c r="R157" s="41"/>
       <c r="S157" s="21"/>
     </row>
-    <row r="158" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="2" customFormat="1">
       <c r="A158" s="19"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -4154,7 +4284,7 @@
       <c r="R158" s="37"/>
       <c r="S158" s="21"/>
     </row>
-    <row r="159" spans="1:19" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="2" customFormat="1" ht="14.45" customHeight="1">
       <c r="A159" s="19"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -4175,7 +4305,7 @@
       <c r="R159" s="21"/>
       <c r="S159" s="21"/>
     </row>
-    <row r="160" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="2" customFormat="1">
       <c r="A160" s="19"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -4196,7 +4326,7 @@
       <c r="R160" s="21"/>
       <c r="S160" s="21"/>
     </row>
-    <row r="161" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="2" customFormat="1">
       <c r="A161" s="19"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -4217,7 +4347,7 @@
       <c r="R161" s="21"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="2" customFormat="1">
       <c r="A162" s="19"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -4238,7 +4368,7 @@
       <c r="R162" s="21"/>
       <c r="S162" s="21"/>
     </row>
-    <row r="163" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="2" customFormat="1">
       <c r="A163" s="19"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -4259,7 +4389,7 @@
       <c r="R163" s="37"/>
       <c r="S163" s="21"/>
     </row>
-    <row r="164" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="2" customFormat="1">
       <c r="A164" s="19"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -4280,7 +4410,7 @@
       <c r="R164" s="37"/>
       <c r="S164" s="21"/>
     </row>
-    <row r="165" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="2" customFormat="1">
       <c r="A165" s="19"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -4301,7 +4431,7 @@
       <c r="R165" s="37"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="2" customFormat="1">
       <c r="A166" s="19"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -4322,7 +4452,7 @@
       <c r="R166" s="37"/>
       <c r="S166" s="21"/>
     </row>
-    <row r="167" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="2" customFormat="1">
       <c r="A167" s="19"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -4343,7 +4473,7 @@
       <c r="R167" s="37"/>
       <c r="S167" s="21"/>
     </row>
-    <row r="168" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="2" customFormat="1">
       <c r="A168" s="15"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -4364,7 +4494,7 @@
       <c r="R168" s="37"/>
       <c r="S168" s="21"/>
     </row>
-    <row r="169" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="2" customFormat="1">
       <c r="A169" s="15"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -4385,7 +4515,7 @@
       <c r="R169" s="37"/>
       <c r="S169" s="21"/>
     </row>
-    <row r="170" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="2" customFormat="1">
       <c r="A170" s="20"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -4406,7 +4536,7 @@
       <c r="R170" s="21"/>
       <c r="S170" s="21"/>
     </row>
-    <row r="171" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="2" customFormat="1">
       <c r="A171" s="20"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -4427,7 +4557,7 @@
       <c r="R171" s="21"/>
       <c r="S171" s="21"/>
     </row>
-    <row r="172" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="2" customFormat="1">
       <c r="A172" s="20"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -4448,7 +4578,7 @@
       <c r="R172" s="21"/>
       <c r="S172" s="21"/>
     </row>
-    <row r="173" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="2" customFormat="1">
       <c r="A173" s="20"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -4469,7 +4599,7 @@
       <c r="R173" s="21"/>
       <c r="S173" s="21"/>
     </row>
-    <row r="174" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="2" customFormat="1">
       <c r="A174" s="20"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -4490,7 +4620,7 @@
       <c r="R174" s="21"/>
       <c r="S174" s="21"/>
     </row>
-    <row r="175" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="2" customFormat="1">
       <c r="A175" s="20"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -4511,7 +4641,7 @@
       <c r="R175" s="21"/>
       <c r="S175" s="21"/>
     </row>
-    <row r="176" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="2" customFormat="1">
       <c r="A176" s="20"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -4532,7 +4662,7 @@
       <c r="R176" s="21"/>
       <c r="S176" s="21"/>
     </row>
-    <row r="177" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="2" customFormat="1">
       <c r="A177" s="20"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -4553,7 +4683,7 @@
       <c r="R177" s="21"/>
       <c r="S177" s="21"/>
     </row>
-    <row r="178" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" s="2" customFormat="1">
       <c r="A178" s="20"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -4574,7 +4704,7 @@
       <c r="R178" s="21"/>
       <c r="S178" s="21"/>
     </row>
-    <row r="179" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" s="2" customFormat="1">
       <c r="A179" s="20"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -4595,7 +4725,7 @@
       <c r="R179" s="21"/>
       <c r="S179" s="21"/>
     </row>
-    <row r="180" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="2" customFormat="1">
       <c r="A180" s="20"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -4616,7 +4746,7 @@
       <c r="R180" s="21"/>
       <c r="S180" s="21"/>
     </row>
-    <row r="181" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" s="2" customFormat="1">
       <c r="A181" s="20"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -4637,7 +4767,7 @@
       <c r="R181" s="21"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" s="2" customFormat="1">
       <c r="A182" s="20"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -4658,7 +4788,7 @@
       <c r="R182" s="21"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="2" customFormat="1">
       <c r="A183" s="20"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -4679,7 +4809,7 @@
       <c r="R183" s="21"/>
       <c r="S183" s="21"/>
     </row>
-    <row r="184" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" s="2" customFormat="1">
       <c r="A184" s="20"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -4700,7 +4830,7 @@
       <c r="R184" s="21"/>
       <c r="S184" s="21"/>
     </row>
-    <row r="185" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" s="2" customFormat="1">
       <c r="A185" s="19"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -4721,7 +4851,7 @@
       <c r="R185" s="37"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" s="2" customFormat="1">
       <c r="A186" s="19"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -4742,7 +4872,7 @@
       <c r="R186" s="37"/>
       <c r="S186" s="21"/>
     </row>
-    <row r="187" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="2" customFormat="1">
       <c r="A187" s="19"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -4763,7 +4893,7 @@
       <c r="R187" s="37"/>
       <c r="S187" s="21"/>
     </row>
-    <row r="188" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="2" customFormat="1">
       <c r="A188" s="19"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -4784,7 +4914,7 @@
       <c r="R188" s="37"/>
       <c r="S188" s="21"/>
     </row>
-    <row r="189" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" s="2" customFormat="1">
       <c r="A189" s="19"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -4805,7 +4935,7 @@
       <c r="R189" s="37"/>
       <c r="S189" s="21"/>
     </row>
-    <row r="190" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" s="2" customFormat="1">
       <c r="A190" s="19"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -4826,7 +4956,7 @@
       <c r="R190" s="37"/>
       <c r="S190" s="21"/>
     </row>
-    <row r="191" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="2" customFormat="1">
       <c r="A191" s="19"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -4847,7 +4977,7 @@
       <c r="R191" s="37"/>
       <c r="S191" s="21"/>
     </row>
-    <row r="192" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" s="2" customFormat="1">
       <c r="A192" s="19"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -4868,7 +4998,7 @@
       <c r="R192" s="37"/>
       <c r="S192" s="21"/>
     </row>
-    <row r="193" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" s="2" customFormat="1">
       <c r="A193" s="19"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -4889,7 +5019,7 @@
       <c r="R193" s="37"/>
       <c r="S193" s="21"/>
     </row>
-    <row r="194" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" s="2" customFormat="1">
       <c r="A194" s="19"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -4910,7 +5040,7 @@
       <c r="R194" s="37"/>
       <c r="S194" s="21"/>
     </row>
-    <row r="195" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" s="2" customFormat="1">
       <c r="A195" s="19"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -4931,7 +5061,7 @@
       <c r="R195" s="37"/>
       <c r="S195" s="21"/>
     </row>
-    <row r="196" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" s="2" customFormat="1">
       <c r="A196" s="19"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -4952,7 +5082,7 @@
       <c r="R196" s="37"/>
       <c r="S196" s="21"/>
     </row>
-    <row r="197" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" s="2" customFormat="1">
       <c r="A197" s="19"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -4973,7 +5103,7 @@
       <c r="R197" s="37"/>
       <c r="S197" s="21"/>
     </row>
-    <row r="198" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" s="2" customFormat="1">
       <c r="A198" s="19"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -4994,7 +5124,7 @@
       <c r="R198" s="37"/>
       <c r="S198" s="21"/>
     </row>
-    <row r="199" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" s="2" customFormat="1">
       <c r="A199" s="19"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -5015,7 +5145,7 @@
       <c r="R199" s="37"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" s="2" customFormat="1">
       <c r="A200" s="19"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -5036,7 +5166,7 @@
       <c r="R200" s="37"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" s="2" customFormat="1">
       <c r="A201" s="19"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -5057,7 +5187,7 @@
       <c r="R201" s="37"/>
       <c r="S201" s="21"/>
     </row>
-    <row r="202" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" s="2" customFormat="1">
       <c r="A202" s="19"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -5078,7 +5208,7 @@
       <c r="R202" s="37"/>
       <c r="S202" s="21"/>
     </row>
-    <row r="203" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" s="2" customFormat="1">
       <c r="A203" s="19"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -5099,7 +5229,7 @@
       <c r="R203" s="37"/>
       <c r="S203" s="21"/>
     </row>
-    <row r="204" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" s="2" customFormat="1">
       <c r="A204" s="19"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -5120,7 +5250,7 @@
       <c r="R204" s="37"/>
       <c r="S204" s="21"/>
     </row>
-    <row r="205" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" s="2" customFormat="1">
       <c r="A205" s="19"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -5141,7 +5271,7 @@
       <c r="R205" s="37"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" s="2" customFormat="1">
       <c r="A206" s="19"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -5162,7 +5292,7 @@
       <c r="R206" s="37"/>
       <c r="S206" s="21"/>
     </row>
-    <row r="207" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" s="2" customFormat="1">
       <c r="A207" s="15"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -5183,7 +5313,7 @@
       <c r="R207" s="41"/>
       <c r="S207" s="21"/>
     </row>
-    <row r="208" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" s="2" customFormat="1">
       <c r="A208" s="19"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -5204,7 +5334,7 @@
       <c r="R208" s="37"/>
       <c r="S208" s="21"/>
     </row>
-    <row r="209" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" s="2" customFormat="1">
       <c r="A209" s="19"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -5225,7 +5355,7 @@
       <c r="R209" s="37"/>
       <c r="S209" s="21"/>
     </row>
-    <row r="210" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" s="2" customFormat="1">
       <c r="A210" s="19"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -5246,7 +5376,7 @@
       <c r="R210" s="37"/>
       <c r="S210" s="21"/>
     </row>
-    <row r="211" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" s="2" customFormat="1">
       <c r="A211" s="19"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -5267,7 +5397,7 @@
       <c r="R211" s="37"/>
       <c r="S211" s="21"/>
     </row>
-    <row r="212" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" s="2" customFormat="1">
       <c r="A212" s="19"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -5288,7 +5418,7 @@
       <c r="R212" s="37"/>
       <c r="S212" s="21"/>
     </row>
-    <row r="213" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" s="2" customFormat="1">
       <c r="A213" s="19"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -5309,7 +5439,7 @@
       <c r="R213" s="37"/>
       <c r="S213" s="21"/>
     </row>
-    <row r="214" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" s="2" customFormat="1">
       <c r="A214" s="19"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -5330,7 +5460,7 @@
       <c r="R214" s="37"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" s="2" customFormat="1">
       <c r="A215" s="19"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -5351,7 +5481,7 @@
       <c r="R215" s="37"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" s="2" customFormat="1">
       <c r="A216" s="19"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -5372,7 +5502,7 @@
       <c r="R216" s="37"/>
       <c r="S216" s="21"/>
     </row>
-    <row r="217" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" s="2" customFormat="1">
       <c r="A217" s="15"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -5393,7 +5523,7 @@
       <c r="R217" s="41"/>
       <c r="S217" s="21"/>
     </row>
-    <row r="218" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" s="2" customFormat="1">
       <c r="A218" s="15"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -5414,7 +5544,7 @@
       <c r="R218" s="41"/>
       <c r="S218" s="21"/>
     </row>
-    <row r="219" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" s="2" customFormat="1">
       <c r="A219" s="19"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -5435,7 +5565,7 @@
       <c r="R219" s="37"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" s="2" customFormat="1">
       <c r="A220" s="19"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -5456,7 +5586,7 @@
       <c r="R220" s="37"/>
       <c r="S220" s="21"/>
     </row>
-    <row r="221" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" s="2" customFormat="1">
       <c r="A221" s="19"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -5477,7 +5607,7 @@
       <c r="R221" s="37"/>
       <c r="S221" s="21"/>
     </row>
-    <row r="222" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" s="2" customFormat="1">
       <c r="A222" s="19"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -5498,7 +5628,7 @@
       <c r="R222" s="37"/>
       <c r="S222" s="21"/>
     </row>
-    <row r="223" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" s="2" customFormat="1">
       <c r="A223" s="19"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -5519,7 +5649,7 @@
       <c r="R223" s="37"/>
       <c r="S223" s="21"/>
     </row>
-    <row r="224" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" s="2" customFormat="1">
       <c r="A224" s="15"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -5540,7 +5670,7 @@
       <c r="R224" s="41"/>
       <c r="S224" s="21"/>
     </row>
-    <row r="225" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" s="2" customFormat="1">
       <c r="A225" s="19"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -5561,7 +5691,7 @@
       <c r="R225" s="37"/>
       <c r="S225" s="21"/>
     </row>
-    <row r="226" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" s="2" customFormat="1">
       <c r="A226" s="19"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -5582,7 +5712,7 @@
       <c r="R226" s="37"/>
       <c r="S226" s="21"/>
     </row>
-    <row r="227" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" s="2" customFormat="1">
       <c r="A227" s="19"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -5603,7 +5733,7 @@
       <c r="R227" s="37"/>
       <c r="S227" s="21"/>
     </row>
-    <row r="228" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" s="2" customFormat="1">
       <c r="A228" s="15"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -5624,7 +5754,7 @@
       <c r="R228" s="41"/>
       <c r="S228" s="21"/>
     </row>
-    <row r="229" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" s="2" customFormat="1">
       <c r="A229" s="19"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -5645,7 +5775,7 @@
       <c r="R229" s="37"/>
       <c r="S229" s="21"/>
     </row>
-    <row r="230" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" s="2" customFormat="1">
       <c r="A230" s="19"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -5666,7 +5796,7 @@
       <c r="R230" s="37"/>
       <c r="S230" s="21"/>
     </row>
-    <row r="231" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" s="2" customFormat="1">
       <c r="A231" s="19"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -5687,7 +5817,7 @@
       <c r="R231" s="37"/>
       <c r="S231" s="21"/>
     </row>
-    <row r="232" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" s="2" customFormat="1">
       <c r="A232" s="19"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -5708,7 +5838,7 @@
       <c r="R232" s="37"/>
       <c r="S232" s="21"/>
     </row>
-    <row r="233" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" s="2" customFormat="1">
       <c r="A233" s="19"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -5729,7 +5859,7 @@
       <c r="R233" s="37"/>
       <c r="S233" s="21"/>
     </row>
-    <row r="234" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" s="2" customFormat="1">
       <c r="A234" s="19"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -5750,7 +5880,7 @@
       <c r="R234" s="37"/>
       <c r="S234" s="21"/>
     </row>
-    <row r="235" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" s="2" customFormat="1">
       <c r="A235" s="19"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -5771,7 +5901,7 @@
       <c r="R235" s="37"/>
       <c r="S235" s="21"/>
     </row>
-    <row r="236" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" s="2" customFormat="1">
       <c r="A236" s="19"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -5792,7 +5922,7 @@
       <c r="R236" s="37"/>
       <c r="S236" s="21"/>
     </row>
-    <row r="237" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" s="2" customFormat="1">
       <c r="A237" s="19"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -5813,7 +5943,7 @@
       <c r="R237" s="37"/>
       <c r="S237" s="21"/>
     </row>
-    <row r="238" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" s="2" customFormat="1">
       <c r="A238" s="15"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -5834,7 +5964,7 @@
       <c r="R238" s="41"/>
       <c r="S238" s="21"/>
     </row>
-    <row r="239" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" s="2" customFormat="1">
       <c r="A239" s="19"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -5855,7 +5985,7 @@
       <c r="R239" s="37"/>
       <c r="S239" s="21"/>
     </row>
-    <row r="240" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" s="2" customFormat="1">
       <c r="A240" s="19"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -5876,7 +6006,7 @@
       <c r="R240" s="37"/>
       <c r="S240" s="21"/>
     </row>
-    <row r="241" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" s="2" customFormat="1">
       <c r="A241" s="19"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -5897,7 +6027,7 @@
       <c r="R241" s="37"/>
       <c r="S241" s="21"/>
     </row>
-    <row r="242" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" s="2" customFormat="1">
       <c r="A242" s="19"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -5918,7 +6048,7 @@
       <c r="R242" s="37"/>
       <c r="S242" s="21"/>
     </row>
-    <row r="243" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" s="2" customFormat="1">
       <c r="A243" s="19"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -5939,7 +6069,7 @@
       <c r="R243" s="37"/>
       <c r="S243" s="21"/>
     </row>
-    <row r="244" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" s="2" customFormat="1">
       <c r="A244" s="19"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -5960,7 +6090,7 @@
       <c r="R244" s="37"/>
       <c r="S244" s="21"/>
     </row>
-    <row r="245" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" s="2" customFormat="1">
       <c r="A245" s="19"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -5981,7 +6111,7 @@
       <c r="R245" s="37"/>
       <c r="S245" s="21"/>
     </row>
-    <row r="246" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" s="2" customFormat="1">
       <c r="A246" s="19"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -6002,7 +6132,7 @@
       <c r="R246" s="37"/>
       <c r="S246" s="21"/>
     </row>
-    <row r="247" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" s="2" customFormat="1">
       <c r="A247" s="19"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -6023,7 +6153,7 @@
       <c r="R247" s="37"/>
       <c r="S247" s="21"/>
     </row>
-    <row r="248" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" s="2" customFormat="1">
       <c r="A248" s="15"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -6044,7 +6174,7 @@
       <c r="R248" s="41"/>
       <c r="S248" s="21"/>
     </row>
-    <row r="249" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" s="2" customFormat="1">
       <c r="A249" s="15"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -6065,7 +6195,7 @@
       <c r="R249" s="41"/>
       <c r="S249" s="21"/>
     </row>
-    <row r="250" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" s="2" customFormat="1">
       <c r="A250" s="19"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -6086,7 +6216,7 @@
       <c r="R250" s="37"/>
       <c r="S250" s="21"/>
     </row>
-    <row r="251" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" s="2" customFormat="1">
       <c r="A251" s="19"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -6107,7 +6237,7 @@
       <c r="R251" s="37"/>
       <c r="S251" s="21"/>
     </row>
-    <row r="252" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" s="2" customFormat="1">
       <c r="A252" s="19"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -6128,7 +6258,7 @@
       <c r="R252" s="37"/>
       <c r="S252" s="21"/>
     </row>
-    <row r="253" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" s="2" customFormat="1">
       <c r="A253" s="19"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -6149,7 +6279,7 @@
       <c r="R253" s="37"/>
       <c r="S253" s="21"/>
     </row>
-    <row r="254" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" s="2" customFormat="1">
       <c r="A254" s="19"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -6170,7 +6300,7 @@
       <c r="R254" s="37"/>
       <c r="S254" s="21"/>
     </row>
-    <row r="255" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" s="2" customFormat="1">
       <c r="A255" s="19"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -6191,7 +6321,7 @@
       <c r="R255" s="37"/>
       <c r="S255" s="21"/>
     </row>
-    <row r="256" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" s="2" customFormat="1">
       <c r="A256" s="19"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -6212,7 +6342,7 @@
       <c r="R256" s="37"/>
       <c r="S256" s="21"/>
     </row>
-    <row r="257" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" s="2" customFormat="1">
       <c r="A257" s="19"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -6233,7 +6363,7 @@
       <c r="R257" s="37"/>
       <c r="S257" s="21"/>
     </row>
-    <row r="258" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" s="2" customFormat="1">
       <c r="A258" s="15"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -6254,7 +6384,7 @@
       <c r="R258" s="41"/>
       <c r="S258" s="21"/>
     </row>
-    <row r="259" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" s="2" customFormat="1">
       <c r="A259" s="19"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -6275,7 +6405,7 @@
       <c r="R259" s="37"/>
       <c r="S259" s="21"/>
     </row>
-    <row r="260" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" s="2" customFormat="1">
       <c r="A260" s="19"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -6296,7 +6426,7 @@
       <c r="R260" s="37"/>
       <c r="S260" s="21"/>
     </row>
-    <row r="261" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" s="2" customFormat="1">
       <c r="A261" s="19"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -6317,7 +6447,7 @@
       <c r="R261" s="37"/>
       <c r="S261" s="21"/>
     </row>
-    <row r="262" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" s="2" customFormat="1">
       <c r="A262" s="19"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -6338,7 +6468,7 @@
       <c r="R262" s="37"/>
       <c r="S262" s="21"/>
     </row>
-    <row r="263" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" s="2" customFormat="1">
       <c r="A263" s="19"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -6359,7 +6489,7 @@
       <c r="R263" s="37"/>
       <c r="S263" s="21"/>
     </row>
-    <row r="264" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" s="2" customFormat="1">
       <c r="A264" s="19"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -6380,7 +6510,7 @@
       <c r="R264" s="37"/>
       <c r="S264" s="21"/>
     </row>
-    <row r="265" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" s="2" customFormat="1">
       <c r="A265" s="19"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -6401,7 +6531,7 @@
       <c r="R265" s="37"/>
       <c r="S265" s="21"/>
     </row>
-    <row r="266" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" s="2" customFormat="1">
       <c r="A266" s="19"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -6422,7 +6552,7 @@
       <c r="R266" s="37"/>
       <c r="S266" s="21"/>
     </row>
-    <row r="267" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" s="2" customFormat="1">
       <c r="A267" s="19"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -6443,7 +6573,7 @@
       <c r="R267" s="37"/>
       <c r="S267" s="21"/>
     </row>
-    <row r="268" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" s="2" customFormat="1">
       <c r="A268" s="19"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -6464,7 +6594,7 @@
       <c r="R268" s="37"/>
       <c r="S268" s="21"/>
     </row>
-    <row r="269" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" s="2" customFormat="1">
       <c r="A269" s="19"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -6485,7 +6615,7 @@
       <c r="R269" s="37"/>
       <c r="S269" s="21"/>
     </row>
-    <row r="270" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" s="2" customFormat="1">
       <c r="A270" s="19"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -6506,7 +6636,7 @@
       <c r="R270" s="37"/>
       <c r="S270" s="21"/>
     </row>
-    <row r="271" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" s="2" customFormat="1">
       <c r="A271" s="19"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -6527,7 +6657,7 @@
       <c r="R271" s="37"/>
       <c r="S271" s="21"/>
     </row>
-    <row r="272" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" s="2" customFormat="1">
       <c r="A272" s="19"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -6548,7 +6678,7 @@
       <c r="R272" s="37"/>
       <c r="S272" s="21"/>
     </row>
-    <row r="273" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" s="2" customFormat="1">
       <c r="A273" s="19"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -6569,7 +6699,7 @@
       <c r="R273" s="37"/>
       <c r="S273" s="21"/>
     </row>
-    <row r="274" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" s="2" customFormat="1">
       <c r="A274" s="19"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -6590,7 +6720,7 @@
       <c r="R274" s="37"/>
       <c r="S274" s="21"/>
     </row>
-    <row r="275" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" s="2" customFormat="1">
       <c r="A275" s="19"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -6611,7 +6741,7 @@
       <c r="R275" s="37"/>
       <c r="S275" s="21"/>
     </row>
-    <row r="276" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" s="2" customFormat="1">
       <c r="A276" s="19"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -6632,7 +6762,7 @@
       <c r="R276" s="37"/>
       <c r="S276" s="21"/>
     </row>
-    <row r="277" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" s="2" customFormat="1">
       <c r="A277" s="19"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -6653,7 +6783,7 @@
       <c r="R277" s="37"/>
       <c r="S277" s="21"/>
     </row>
-    <row r="278" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" s="2" customFormat="1">
       <c r="A278" s="19"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -6674,7 +6804,7 @@
       <c r="R278" s="37"/>
       <c r="S278" s="21"/>
     </row>
-    <row r="279" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" s="2" customFormat="1">
       <c r="A279" s="19"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -6695,7 +6825,7 @@
       <c r="R279" s="37"/>
       <c r="S279" s="21"/>
     </row>
-    <row r="280" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" s="2" customFormat="1">
       <c r="A280" s="19"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -6716,7 +6846,7 @@
       <c r="R280" s="37"/>
       <c r="S280" s="21"/>
     </row>
-    <row r="281" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" s="2" customFormat="1">
       <c r="A281" s="19"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -6737,7 +6867,7 @@
       <c r="R281" s="37"/>
       <c r="S281" s="21"/>
     </row>
-    <row r="282" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" s="2" customFormat="1">
       <c r="A282" s="19"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -6758,7 +6888,7 @@
       <c r="R282" s="37"/>
       <c r="S282" s="21"/>
     </row>
-    <row r="283" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" s="2" customFormat="1">
       <c r="A283" s="19"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -6779,7 +6909,7 @@
       <c r="R283" s="37"/>
       <c r="S283" s="21"/>
     </row>
-    <row r="284" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" s="2" customFormat="1">
       <c r="A284" s="19"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -6800,7 +6930,7 @@
       <c r="R284" s="37"/>
       <c r="S284" s="21"/>
     </row>
-    <row r="285" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" s="2" customFormat="1">
       <c r="A285" s="19"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -6821,7 +6951,7 @@
       <c r="R285" s="37"/>
       <c r="S285" s="21"/>
     </row>
-    <row r="286" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" s="2" customFormat="1">
       <c r="A286" s="19"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -6842,7 +6972,7 @@
       <c r="R286" s="37"/>
       <c r="S286" s="21"/>
     </row>
-    <row r="287" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" s="2" customFormat="1">
       <c r="A287" s="19"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -6863,7 +6993,7 @@
       <c r="R287" s="37"/>
       <c r="S287" s="21"/>
     </row>
-    <row r="288" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" s="2" customFormat="1">
       <c r="A288" s="19"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -6884,7 +7014,7 @@
       <c r="R288" s="37"/>
       <c r="S288" s="21"/>
     </row>
-    <row r="289" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" s="2" customFormat="1">
       <c r="A289" s="19"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -6905,7 +7035,7 @@
       <c r="R289" s="37"/>
       <c r="S289" s="21"/>
     </row>
-    <row r="290" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" s="2" customFormat="1">
       <c r="A290" s="19"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -6926,7 +7056,7 @@
       <c r="R290" s="37"/>
       <c r="S290" s="21"/>
     </row>
-    <row r="291" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" s="2" customFormat="1">
       <c r="A291" s="19"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -6947,7 +7077,7 @@
       <c r="R291" s="37"/>
       <c r="S291" s="21"/>
     </row>
-    <row r="292" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" s="2" customFormat="1">
       <c r="A292" s="19"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -6968,7 +7098,7 @@
       <c r="R292" s="37"/>
       <c r="S292" s="21"/>
     </row>
-    <row r="293" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" s="2" customFormat="1">
       <c r="A293" s="19"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -6989,7 +7119,7 @@
       <c r="R293" s="37"/>
       <c r="S293" s="21"/>
     </row>
-    <row r="294" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" s="2" customFormat="1">
       <c r="A294" s="19"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -7010,7 +7140,7 @@
       <c r="R294" s="37"/>
       <c r="S294" s="21"/>
     </row>
-    <row r="295" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" s="2" customFormat="1">
       <c r="A295" s="19"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -7031,7 +7161,7 @@
       <c r="R295" s="37"/>
       <c r="S295" s="21"/>
     </row>
-    <row r="296" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" s="2" customFormat="1">
       <c r="A296" s="19"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -7052,7 +7182,7 @@
       <c r="R296" s="37"/>
       <c r="S296" s="21"/>
     </row>
-    <row r="297" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" s="2" customFormat="1">
       <c r="A297" s="19"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -7073,7 +7203,7 @@
       <c r="R297" s="37"/>
       <c r="S297" s="21"/>
     </row>
-    <row r="298" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" s="2" customFormat="1">
       <c r="A298" s="19"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -7094,7 +7224,7 @@
       <c r="R298" s="37"/>
       <c r="S298" s="21"/>
     </row>
-    <row r="299" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" s="2" customFormat="1">
       <c r="A299" s="19"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -7115,7 +7245,7 @@
       <c r="R299" s="37"/>
       <c r="S299" s="21"/>
     </row>
-    <row r="300" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" s="2" customFormat="1">
       <c r="A300" s="19"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -7136,7 +7266,7 @@
       <c r="R300" s="37"/>
       <c r="S300" s="21"/>
     </row>
-    <row r="301" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" s="2" customFormat="1">
       <c r="A301" s="19"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -7157,7 +7287,7 @@
       <c r="R301" s="37"/>
       <c r="S301" s="21"/>
     </row>
-    <row r="302" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" s="2" customFormat="1">
       <c r="A302" s="19"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -7178,7 +7308,7 @@
       <c r="R302" s="37"/>
       <c r="S302" s="21"/>
     </row>
-    <row r="303" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" s="2" customFormat="1">
       <c r="A303" s="19"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -7199,7 +7329,7 @@
       <c r="R303" s="37"/>
       <c r="S303" s="21"/>
     </row>
-    <row r="304" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" s="2" customFormat="1">
       <c r="A304" s="19"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -7220,7 +7350,7 @@
       <c r="R304" s="37"/>
       <c r="S304" s="21"/>
     </row>
-    <row r="305" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" s="2" customFormat="1">
       <c r="A305" s="19"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -7241,7 +7371,7 @@
       <c r="R305" s="37"/>
       <c r="S305" s="21"/>
     </row>
-    <row r="306" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" s="2" customFormat="1">
       <c r="A306" s="19"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -7262,7 +7392,7 @@
       <c r="R306" s="37"/>
       <c r="S306" s="21"/>
     </row>
-    <row r="307" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" s="2" customFormat="1">
       <c r="A307" s="19"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -7283,7 +7413,7 @@
       <c r="R307" s="37"/>
       <c r="S307" s="21"/>
     </row>
-    <row r="308" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" s="2" customFormat="1">
       <c r="A308" s="19"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -7304,7 +7434,7 @@
       <c r="R308" s="37"/>
       <c r="S308" s="21"/>
     </row>
-    <row r="309" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" s="2" customFormat="1">
       <c r="A309" s="19"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -7325,7 +7455,7 @@
       <c r="R309" s="37"/>
       <c r="S309" s="21"/>
     </row>
-    <row r="310" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" s="2" customFormat="1">
       <c r="A310" s="19"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -7346,7 +7476,7 @@
       <c r="R310" s="37"/>
       <c r="S310" s="21"/>
     </row>
-    <row r="311" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" s="2" customFormat="1">
       <c r="A311" s="19"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -7367,7 +7497,7 @@
       <c r="R311" s="37"/>
       <c r="S311" s="21"/>
     </row>
-    <row r="312" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" s="2" customFormat="1">
       <c r="A312" s="19"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -7388,7 +7518,7 @@
       <c r="R312" s="37"/>
       <c r="S312" s="21"/>
     </row>
-    <row r="313" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" s="2" customFormat="1">
       <c r="A313" s="19"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -7409,7 +7539,7 @@
       <c r="R313" s="37"/>
       <c r="S313" s="21"/>
     </row>
-    <row r="314" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" s="2" customFormat="1">
       <c r="A314" s="19"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -7430,7 +7560,7 @@
       <c r="R314" s="37"/>
       <c r="S314" s="21"/>
     </row>
-    <row r="315" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" s="2" customFormat="1">
       <c r="A315" s="19"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -7451,7 +7581,7 @@
       <c r="R315" s="37"/>
       <c r="S315" s="21"/>
     </row>
-    <row r="316" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" s="2" customFormat="1">
       <c r="A316" s="19"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -7472,7 +7602,7 @@
       <c r="R316" s="37"/>
       <c r="S316" s="21"/>
     </row>
-    <row r="317" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" s="2" customFormat="1">
       <c r="A317" s="19"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -7493,7 +7623,7 @@
       <c r="R317" s="37"/>
       <c r="S317" s="21"/>
     </row>
-    <row r="318" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" s="2" customFormat="1">
       <c r="A318" s="19"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -7514,7 +7644,7 @@
       <c r="R318" s="37"/>
       <c r="S318" s="21"/>
     </row>
-    <row r="319" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" s="2" customFormat="1">
       <c r="A319" s="19"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -7535,7 +7665,7 @@
       <c r="R319" s="37"/>
       <c r="S319" s="21"/>
     </row>
-    <row r="320" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" s="2" customFormat="1">
       <c r="A320" s="19"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -7556,7 +7686,7 @@
       <c r="R320" s="37"/>
       <c r="S320" s="21"/>
     </row>
-    <row r="321" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" s="2" customFormat="1">
       <c r="A321" s="19"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -7577,7 +7707,7 @@
       <c r="R321" s="37"/>
       <c r="S321" s="21"/>
     </row>
-    <row r="322" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" s="2" customFormat="1">
       <c r="A322" s="19"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -7598,7 +7728,7 @@
       <c r="R322" s="37"/>
       <c r="S322" s="21"/>
     </row>
-    <row r="323" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" s="2" customFormat="1">
       <c r="A323" s="19"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -7619,7 +7749,7 @@
       <c r="R323" s="37"/>
       <c r="S323" s="21"/>
     </row>
-    <row r="324" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" s="2" customFormat="1">
       <c r="A324" s="19"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -7640,7 +7770,7 @@
       <c r="R324" s="37"/>
       <c r="S324" s="21"/>
     </row>
-    <row r="325" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" s="2" customFormat="1">
       <c r="A325" s="19"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -7661,7 +7791,7 @@
       <c r="R325" s="37"/>
       <c r="S325" s="21"/>
     </row>
-    <row r="326" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" s="2" customFormat="1">
       <c r="A326" s="19"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -7682,7 +7812,7 @@
       <c r="R326" s="37"/>
       <c r="S326" s="21"/>
     </row>
-    <row r="327" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" s="2" customFormat="1">
       <c r="A327" s="19"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -7703,7 +7833,7 @@
       <c r="R327" s="37"/>
       <c r="S327" s="21"/>
     </row>
-    <row r="328" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" s="2" customFormat="1">
       <c r="A328" s="19"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -7724,7 +7854,7 @@
       <c r="R328" s="37"/>
       <c r="S328" s="21"/>
     </row>
-    <row r="329" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" s="2" customFormat="1">
       <c r="A329" s="19"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -7745,7 +7875,7 @@
       <c r="R329" s="37"/>
       <c r="S329" s="21"/>
     </row>
-    <row r="330" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" s="2" customFormat="1">
       <c r="A330" s="19"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -7766,7 +7896,7 @@
       <c r="R330" s="37"/>
       <c r="S330" s="21"/>
     </row>
-    <row r="331" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" s="2" customFormat="1">
       <c r="A331" s="19"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -7787,7 +7917,7 @@
       <c r="R331" s="37"/>
       <c r="S331" s="21"/>
     </row>
-    <row r="332" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" s="2" customFormat="1">
       <c r="A332" s="19"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -7808,7 +7938,7 @@
       <c r="R332" s="37"/>
       <c r="S332" s="21"/>
     </row>
-    <row r="333" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" s="2" customFormat="1">
       <c r="A333" s="19"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -7829,7 +7959,7 @@
       <c r="R333" s="37"/>
       <c r="S333" s="21"/>
     </row>
-    <row r="334" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" s="2" customFormat="1">
       <c r="A334" s="19"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -7850,7 +7980,7 @@
       <c r="R334" s="37"/>
       <c r="S334" s="21"/>
     </row>
-    <row r="335" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" s="2" customFormat="1">
       <c r="A335" s="19"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -7871,7 +8001,7 @@
       <c r="R335" s="37"/>
       <c r="S335" s="21"/>
     </row>
-    <row r="336" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" s="2" customFormat="1">
       <c r="A336" s="19"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -7892,7 +8022,7 @@
       <c r="R336" s="37"/>
       <c r="S336" s="21"/>
     </row>
-    <row r="337" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" s="2" customFormat="1">
       <c r="A337" s="19"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -7913,7 +8043,7 @@
       <c r="R337" s="37"/>
       <c r="S337" s="21"/>
     </row>
-    <row r="338" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" s="2" customFormat="1">
       <c r="A338" s="19"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -7934,7 +8064,7 @@
       <c r="R338" s="37"/>
       <c r="S338" s="21"/>
     </row>
-    <row r="339" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" s="2" customFormat="1">
       <c r="A339" s="19"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -7955,7 +8085,7 @@
       <c r="R339" s="37"/>
       <c r="S339" s="21"/>
     </row>
-    <row r="340" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" s="2" customFormat="1">
       <c r="A340" s="19"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -7976,7 +8106,7 @@
       <c r="R340" s="37"/>
       <c r="S340" s="21"/>
     </row>
-    <row r="341" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" s="2" customFormat="1">
       <c r="A341" s="19"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -7997,7 +8127,7 @@
       <c r="R341" s="37"/>
       <c r="S341" s="21"/>
     </row>
-    <row r="342" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" s="2" customFormat="1">
       <c r="A342" s="19"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -8018,7 +8148,7 @@
       <c r="R342" s="37"/>
       <c r="S342" s="21"/>
     </row>
-    <row r="343" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" s="2" customFormat="1">
       <c r="A343" s="19"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -8039,7 +8169,7 @@
       <c r="R343" s="37"/>
       <c r="S343" s="21"/>
     </row>
-    <row r="344" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" s="2" customFormat="1">
       <c r="A344" s="19"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -8060,7 +8190,7 @@
       <c r="R344" s="37"/>
       <c r="S344" s="21"/>
     </row>
-    <row r="345" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" s="2" customFormat="1">
       <c r="A345" s="19"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -8081,7 +8211,7 @@
       <c r="R345" s="37"/>
       <c r="S345" s="21"/>
     </row>
-    <row r="346" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" s="2" customFormat="1">
       <c r="A346" s="19"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -8102,7 +8232,7 @@
       <c r="R346" s="37"/>
       <c r="S346" s="21"/>
     </row>
-    <row r="347" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" s="2" customFormat="1">
       <c r="A347" s="19"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -8123,7 +8253,7 @@
       <c r="R347" s="37"/>
       <c r="S347" s="21"/>
     </row>
-    <row r="348" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" s="2" customFormat="1">
       <c r="A348" s="19"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -8144,7 +8274,7 @@
       <c r="R348" s="37"/>
       <c r="S348" s="21"/>
     </row>
-    <row r="349" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" s="2" customFormat="1">
       <c r="A349" s="19"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -8165,7 +8295,7 @@
       <c r="R349" s="37"/>
       <c r="S349" s="21"/>
     </row>
-    <row r="350" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" s="2" customFormat="1">
       <c r="A350" s="19"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -8186,7 +8316,7 @@
       <c r="R350" s="37"/>
       <c r="S350" s="21"/>
     </row>
-    <row r="351" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" s="2" customFormat="1">
       <c r="A351" s="19"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -8207,7 +8337,7 @@
       <c r="R351" s="37"/>
       <c r="S351" s="21"/>
     </row>
-    <row r="352" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" s="2" customFormat="1">
       <c r="A352" s="19"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -8228,7 +8358,7 @@
       <c r="R352" s="37"/>
       <c r="S352" s="21"/>
     </row>
-    <row r="353" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" s="2" customFormat="1">
       <c r="A353" s="19"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -8249,7 +8379,7 @@
       <c r="R353" s="37"/>
       <c r="S353" s="21"/>
     </row>
-    <row r="354" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" s="2" customFormat="1">
       <c r="A354" s="19"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -8270,7 +8400,7 @@
       <c r="R354" s="37"/>
       <c r="S354" s="21"/>
     </row>
-    <row r="355" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" s="2" customFormat="1">
       <c r="A355" s="19"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -8291,7 +8421,7 @@
       <c r="R355" s="37"/>
       <c r="S355" s="21"/>
     </row>
-    <row r="356" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" s="2" customFormat="1">
       <c r="A356" s="19"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -8312,7 +8442,7 @@
       <c r="R356" s="37"/>
       <c r="S356" s="21"/>
     </row>
-    <row r="357" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" s="2" customFormat="1">
       <c r="A357" s="19"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -8333,7 +8463,7 @@
       <c r="R357" s="37"/>
       <c r="S357" s="21"/>
     </row>
-    <row r="358" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" s="2" customFormat="1">
       <c r="A358" s="19"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -8354,7 +8484,7 @@
       <c r="R358" s="37"/>
       <c r="S358" s="21"/>
     </row>
-    <row r="359" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" s="2" customFormat="1">
       <c r="A359" s="19"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -8375,7 +8505,7 @@
       <c r="R359" s="37"/>
       <c r="S359" s="21"/>
     </row>
-    <row r="360" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" s="2" customFormat="1">
       <c r="A360" s="19"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -8396,7 +8526,7 @@
       <c r="R360" s="37"/>
       <c r="S360" s="21"/>
     </row>
-    <row r="361" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" s="2" customFormat="1">
       <c r="A361" s="19"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -8417,7 +8547,7 @@
       <c r="R361" s="37"/>
       <c r="S361" s="21"/>
     </row>
-    <row r="362" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" s="2" customFormat="1">
       <c r="A362" s="19"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -8438,7 +8568,7 @@
       <c r="R362" s="37"/>
       <c r="S362" s="21"/>
     </row>
-    <row r="363" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" s="2" customFormat="1">
       <c r="A363" s="19"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -8459,7 +8589,7 @@
       <c r="R363" s="37"/>
       <c r="S363" s="21"/>
     </row>
-    <row r="364" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" s="2" customFormat="1">
       <c r="A364" s="19"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -8480,7 +8610,7 @@
       <c r="R364" s="37"/>
       <c r="S364" s="21"/>
     </row>
-    <row r="365" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" s="2" customFormat="1">
       <c r="A365" s="19"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -8501,7 +8631,7 @@
       <c r="R365" s="37"/>
       <c r="S365" s="21"/>
     </row>
-    <row r="366" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" s="2" customFormat="1">
       <c r="A366" s="19"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -8522,7 +8652,7 @@
       <c r="R366" s="37"/>
       <c r="S366" s="21"/>
     </row>
-    <row r="367" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" s="2" customFormat="1">
       <c r="A367" s="19"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -8543,7 +8673,7 @@
       <c r="R367" s="37"/>
       <c r="S367" s="21"/>
     </row>
-    <row r="368" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" s="2" customFormat="1">
       <c r="A368" s="19"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -8564,7 +8694,7 @@
       <c r="R368" s="37"/>
       <c r="S368" s="21"/>
     </row>
-    <row r="369" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" s="2" customFormat="1">
       <c r="A369" s="19"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -8585,7 +8715,7 @@
       <c r="R369" s="37"/>
       <c r="S369" s="21"/>
     </row>
-    <row r="370" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" s="2" customFormat="1">
       <c r="A370" s="19"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -8606,7 +8736,7 @@
       <c r="R370" s="37"/>
       <c r="S370" s="21"/>
     </row>
-    <row r="371" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" s="2" customFormat="1">
       <c r="A371" s="19"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -8627,7 +8757,7 @@
       <c r="R371" s="37"/>
       <c r="S371" s="21"/>
     </row>
-    <row r="372" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" s="2" customFormat="1">
       <c r="A372" s="19"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -8648,7 +8778,7 @@
       <c r="R372" s="37"/>
       <c r="S372" s="21"/>
     </row>
-    <row r="373" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" s="2" customFormat="1">
       <c r="A373" s="19"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -8669,7 +8799,7 @@
       <c r="R373" s="37"/>
       <c r="S373" s="21"/>
     </row>
-    <row r="374" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" s="2" customFormat="1">
       <c r="A374" s="19"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -8690,7 +8820,7 @@
       <c r="R374" s="37"/>
       <c r="S374" s="21"/>
     </row>
-    <row r="375" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" s="2" customFormat="1">
       <c r="A375" s="19"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -8711,7 +8841,7 @@
       <c r="R375" s="37"/>
       <c r="S375" s="21"/>
     </row>
-    <row r="376" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" s="2" customFormat="1">
       <c r="A376" s="19"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -8732,7 +8862,7 @@
       <c r="R376" s="37"/>
       <c r="S376" s="21"/>
     </row>
-    <row r="377" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" s="2" customFormat="1">
       <c r="A377" s="19"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -8753,7 +8883,7 @@
       <c r="R377" s="37"/>
       <c r="S377" s="21"/>
     </row>
-    <row r="378" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" s="2" customFormat="1">
       <c r="A378" s="19"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -8774,7 +8904,7 @@
       <c r="R378" s="37"/>
       <c r="S378" s="21"/>
     </row>
-    <row r="379" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" s="2" customFormat="1">
       <c r="A379" s="19"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -8795,7 +8925,7 @@
       <c r="R379" s="37"/>
       <c r="S379" s="21"/>
     </row>
-    <row r="380" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" s="2" customFormat="1">
       <c r="A380" s="19"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -8816,7 +8946,7 @@
       <c r="R380" s="37"/>
       <c r="S380" s="21"/>
     </row>
-    <row r="381" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" s="2" customFormat="1">
       <c r="A381" s="19"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -8837,7 +8967,7 @@
       <c r="R381" s="37"/>
       <c r="S381" s="21"/>
     </row>
-    <row r="382" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" s="2" customFormat="1">
       <c r="A382" s="19"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -8858,7 +8988,7 @@
       <c r="R382" s="37"/>
       <c r="S382" s="21"/>
     </row>
-    <row r="383" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" s="2" customFormat="1">
       <c r="A383" s="19"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -8879,7 +9009,7 @@
       <c r="R383" s="37"/>
       <c r="S383" s="21"/>
     </row>
-    <row r="384" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" s="2" customFormat="1">
       <c r="A384" s="19"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -8900,7 +9030,7 @@
       <c r="R384" s="37"/>
       <c r="S384" s="21"/>
     </row>
-    <row r="385" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" s="2" customFormat="1">
       <c r="A385" s="19"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -8921,7 +9051,7 @@
       <c r="R385" s="37"/>
       <c r="S385" s="21"/>
     </row>
-    <row r="386" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" s="2" customFormat="1">
       <c r="A386" s="19"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -8942,7 +9072,7 @@
       <c r="R386" s="37"/>
       <c r="S386" s="21"/>
     </row>
-    <row r="387" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" s="2" customFormat="1">
       <c r="A387" s="19"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -8963,7 +9093,7 @@
       <c r="R387" s="37"/>
       <c r="S387" s="21"/>
     </row>
-    <row r="388" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" s="2" customFormat="1">
       <c r="A388" s="19"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -8984,7 +9114,7 @@
       <c r="R388" s="37"/>
       <c r="S388" s="21"/>
     </row>
-    <row r="389" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" s="2" customFormat="1">
       <c r="A389" s="19"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -9005,7 +9135,7 @@
       <c r="R389" s="37"/>
       <c r="S389" s="21"/>
     </row>
-    <row r="390" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" s="2" customFormat="1">
       <c r="A390" s="19"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -9026,7 +9156,7 @@
       <c r="R390" s="37"/>
       <c r="S390" s="21"/>
     </row>
-    <row r="391" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" s="2" customFormat="1">
       <c r="A391" s="19"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -9047,7 +9177,7 @@
       <c r="R391" s="37"/>
       <c r="S391" s="21"/>
     </row>
-    <row r="392" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" s="2" customFormat="1">
       <c r="A392" s="19"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -9068,7 +9198,7 @@
       <c r="R392" s="37"/>
       <c r="S392" s="21"/>
     </row>
-    <row r="393" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" s="2" customFormat="1">
       <c r="A393" s="19"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -9089,7 +9219,7 @@
       <c r="R393" s="37"/>
       <c r="S393" s="21"/>
     </row>
-    <row r="394" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" s="2" customFormat="1">
       <c r="A394" s="19"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -9110,7 +9240,7 @@
       <c r="R394" s="37"/>
       <c r="S394" s="21"/>
     </row>
-    <row r="395" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" s="2" customFormat="1">
       <c r="A395" s="19"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -9131,7 +9261,7 @@
       <c r="R395" s="37"/>
       <c r="S395" s="21"/>
     </row>
-    <row r="396" spans="1:19" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" s="2" customFormat="1" ht="13.15" customHeight="1">
       <c r="A396" s="19"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -9152,7 +9282,7 @@
       <c r="R396" s="37"/>
       <c r="S396" s="21"/>
     </row>
-    <row r="397" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" s="2" customFormat="1">
       <c r="A397" s="19"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -9173,7 +9303,7 @@
       <c r="R397" s="37"/>
       <c r="S397" s="21"/>
     </row>
-    <row r="398" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" s="2" customFormat="1">
       <c r="A398" s="19"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -9194,7 +9324,7 @@
       <c r="R398" s="37"/>
       <c r="S398" s="21"/>
     </row>
-    <row r="399" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" s="2" customFormat="1">
       <c r="A399" s="19"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -9215,7 +9345,7 @@
       <c r="R399" s="37"/>
       <c r="S399" s="21"/>
     </row>
-    <row r="400" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" s="2" customFormat="1">
       <c r="A400" s="19"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -9236,7 +9366,7 @@
       <c r="R400" s="37"/>
       <c r="S400" s="21"/>
     </row>
-    <row r="401" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" s="2" customFormat="1">
       <c r="A401" s="19"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -9257,7 +9387,7 @@
       <c r="R401" s="37"/>
       <c r="S401" s="21"/>
     </row>
-    <row r="402" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" s="2" customFormat="1">
       <c r="A402" s="19"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -9278,7 +9408,7 @@
       <c r="R402" s="37"/>
       <c r="S402" s="21"/>
     </row>
-    <row r="403" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" s="2" customFormat="1">
       <c r="A403" s="19"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -9299,7 +9429,7 @@
       <c r="R403" s="37"/>
       <c r="S403" s="21"/>
     </row>
-    <row r="404" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" s="2" customFormat="1">
       <c r="A404" s="19"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -9320,7 +9450,7 @@
       <c r="R404" s="37"/>
       <c r="S404" s="21"/>
     </row>
-    <row r="405" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" s="2" customFormat="1">
       <c r="A405" s="19"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -9341,7 +9471,7 @@
       <c r="R405" s="37"/>
       <c r="S405" s="21"/>
     </row>
-    <row r="406" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" s="2" customFormat="1">
       <c r="A406" s="19"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -9362,7 +9492,7 @@
       <c r="R406" s="37"/>
       <c r="S406" s="21"/>
     </row>
-    <row r="407" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" s="2" customFormat="1">
       <c r="A407" s="19"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -9383,7 +9513,7 @@
       <c r="R407" s="37"/>
       <c r="S407" s="21"/>
     </row>
-    <row r="408" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" s="2" customFormat="1">
       <c r="A408" s="19"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -9404,7 +9534,7 @@
       <c r="R408" s="37"/>
       <c r="S408" s="21"/>
     </row>
-    <row r="409" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" s="2" customFormat="1">
       <c r="A409" s="19"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -9425,7 +9555,7 @@
       <c r="R409" s="37"/>
       <c r="S409" s="21"/>
     </row>
-    <row r="410" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" s="2" customFormat="1">
       <c r="A410" s="19"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -9446,7 +9576,7 @@
       <c r="R410" s="37"/>
       <c r="S410" s="21"/>
     </row>
-    <row r="411" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" s="2" customFormat="1">
       <c r="A411" s="19"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -9467,7 +9597,7 @@
       <c r="R411" s="37"/>
       <c r="S411" s="21"/>
     </row>
-    <row r="412" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" s="2" customFormat="1">
       <c r="A412" s="19"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -9488,7 +9618,7 @@
       <c r="R412" s="37"/>
       <c r="S412" s="21"/>
     </row>
-    <row r="413" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" s="2" customFormat="1">
       <c r="A413" s="15"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -9509,7 +9639,7 @@
       <c r="R413" s="37"/>
       <c r="S413" s="21"/>
     </row>
-    <row r="414" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" s="2" customFormat="1">
       <c r="A414" s="15"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -9530,7 +9660,7 @@
       <c r="R414" s="37"/>
       <c r="S414" s="21"/>
     </row>
-    <row r="415" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" s="2" customFormat="1">
       <c r="A415" s="15"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -9551,7 +9681,7 @@
       <c r="R415" s="37"/>
       <c r="S415" s="21"/>
     </row>
-    <row r="416" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" s="2" customFormat="1">
       <c r="A416" s="19"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -9572,7 +9702,7 @@
       <c r="R416" s="37"/>
       <c r="S416" s="21"/>
     </row>
-    <row r="417" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" s="2" customFormat="1">
       <c r="A417" s="19"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -9593,7 +9723,7 @@
       <c r="R417" s="37"/>
       <c r="S417" s="21"/>
     </row>
-    <row r="418" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" s="2" customFormat="1">
       <c r="A418" s="19"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -9614,7 +9744,7 @@
       <c r="R418" s="37"/>
       <c r="S418" s="21"/>
     </row>
-    <row r="419" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" s="2" customFormat="1">
       <c r="A419" s="19"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -9635,7 +9765,7 @@
       <c r="R419" s="37"/>
       <c r="S419" s="21"/>
     </row>
-    <row r="420" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" s="2" customFormat="1">
       <c r="A420" s="19"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -9656,7 +9786,7 @@
       <c r="R420" s="37"/>
       <c r="S420" s="21"/>
     </row>
-    <row r="421" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" s="2" customFormat="1">
       <c r="A421" s="19"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -9677,7 +9807,7 @@
       <c r="R421" s="37"/>
       <c r="S421" s="21"/>
     </row>
-    <row r="422" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" s="2" customFormat="1">
       <c r="A422" s="19"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -9698,7 +9828,7 @@
       <c r="R422" s="37"/>
       <c r="S422" s="21"/>
     </row>
-    <row r="423" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" s="2" customFormat="1">
       <c r="A423" s="19"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -9719,7 +9849,7 @@
       <c r="R423" s="37"/>
       <c r="S423" s="21"/>
     </row>
-    <row r="424" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" s="2" customFormat="1">
       <c r="A424" s="19"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -9740,7 +9870,7 @@
       <c r="R424" s="37"/>
       <c r="S424" s="21"/>
     </row>
-    <row r="425" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" s="2" customFormat="1">
       <c r="A425" s="19"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -9761,7 +9891,7 @@
       <c r="R425" s="37"/>
       <c r="S425" s="21"/>
     </row>
-    <row r="426" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" s="2" customFormat="1">
       <c r="A426" s="19"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -9782,7 +9912,7 @@
       <c r="R426" s="37"/>
       <c r="S426" s="21"/>
     </row>
-    <row r="427" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" s="2" customFormat="1">
       <c r="A427" s="19"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -9803,7 +9933,7 @@
       <c r="R427" s="37"/>
       <c r="S427" s="23"/>
     </row>
-    <row r="428" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" s="2" customFormat="1">
       <c r="A428" s="15"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -9824,7 +9954,7 @@
       <c r="R428" s="37"/>
       <c r="S428" s="23"/>
     </row>
-    <row r="429" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" s="2" customFormat="1">
       <c r="A429" s="15"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -9845,7 +9975,7 @@
       <c r="R429" s="37"/>
       <c r="S429" s="23"/>
     </row>
-    <row r="430" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" s="2" customFormat="1">
       <c r="A430" s="15"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -9866,7 +9996,7 @@
       <c r="R430" s="37"/>
       <c r="S430" s="23"/>
     </row>
-    <row r="431" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" s="2" customFormat="1">
       <c r="A431" s="15"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -9887,7 +10017,7 @@
       <c r="R431" s="37"/>
       <c r="S431" s="21"/>
     </row>
-    <row r="432" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" s="2" customFormat="1">
       <c r="A432" s="19"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
@@ -9908,7 +10038,7 @@
       <c r="R432" s="37"/>
       <c r="S432" s="21"/>
     </row>
-    <row r="433" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" s="2" customFormat="1">
       <c r="A433" s="19"/>
       <c r="B433" s="23"/>
       <c r="C433" s="23"/>
@@ -9929,7 +10059,7 @@
       <c r="R433" s="37"/>
       <c r="S433" s="23"/>
     </row>
-    <row r="434" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" s="2" customFormat="1">
       <c r="A434" s="15"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -9950,7 +10080,7 @@
       <c r="R434" s="21"/>
       <c r="S434" s="21"/>
     </row>
-    <row r="435" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" s="2" customFormat="1">
       <c r="A435" s="15"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -9971,7 +10101,7 @@
       <c r="R435" s="21"/>
       <c r="S435" s="21"/>
     </row>
-    <row r="436" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" s="2" customFormat="1">
       <c r="A436" s="19"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -9992,7 +10122,7 @@
       <c r="R436" s="37"/>
       <c r="S436" s="21"/>
     </row>
-    <row r="437" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A437" s="19"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -10013,7 +10143,7 @@
       <c r="R437" s="37"/>
       <c r="S437" s="21"/>
     </row>
-    <row r="438" spans="1:19" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" s="2" customFormat="1" ht="15">
       <c r="A438" s="19"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -10034,7 +10164,7 @@
       <c r="R438" s="37"/>
       <c r="S438" s="21"/>
     </row>
-    <row r="439" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" s="2" customFormat="1">
       <c r="A439" s="19"/>
       <c r="B439" s="21"/>
       <c r="C439" s="21"/>
@@ -10055,7 +10185,7 @@
       <c r="R439" s="37"/>
       <c r="S439" s="21"/>
     </row>
-    <row r="440" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" s="2" customFormat="1">
       <c r="A440" s="19"/>
       <c r="B440" s="21"/>
       <c r="C440" s="21"/>
@@ -10076,7 +10206,7 @@
       <c r="R440" s="37"/>
       <c r="S440" s="21"/>
     </row>
-    <row r="441" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" s="2" customFormat="1">
       <c r="A441" s="19"/>
       <c r="B441" s="21"/>
       <c r="C441" s="21"/>
@@ -10097,7 +10227,7 @@
       <c r="R441" s="37"/>
       <c r="S441" s="21"/>
     </row>
-    <row r="442" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" s="2" customFormat="1">
       <c r="A442" s="19"/>
       <c r="B442" s="21"/>
       <c r="C442" s="21"/>
@@ -10118,7 +10248,7 @@
       <c r="R442" s="37"/>
       <c r="S442" s="21"/>
     </row>
-    <row r="443" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" s="2" customFormat="1">
       <c r="A443" s="19"/>
       <c r="B443" s="21"/>
       <c r="C443" s="21"/>
@@ -10139,7 +10269,7 @@
       <c r="R443" s="37"/>
       <c r="S443" s="21"/>
     </row>
-    <row r="444" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" s="2" customFormat="1">
       <c r="A444" s="19"/>
       <c r="B444" s="21"/>
       <c r="C444" s="21"/>
@@ -10160,7 +10290,7 @@
       <c r="R444" s="37"/>
       <c r="S444" s="21"/>
     </row>
-    <row r="445" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" s="2" customFormat="1">
       <c r="A445" s="19"/>
       <c r="B445" s="21"/>
       <c r="C445" s="21"/>
@@ -10181,7 +10311,7 @@
       <c r="R445" s="37"/>
       <c r="S445" s="21"/>
     </row>
-    <row r="446" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" s="2" customFormat="1">
       <c r="A446" s="19"/>
       <c r="B446" s="21"/>
       <c r="C446" s="21"/>
@@ -10202,7 +10332,7 @@
       <c r="R446" s="37"/>
       <c r="S446" s="21"/>
     </row>
-    <row r="447" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" s="2" customFormat="1">
       <c r="A447" s="19"/>
       <c r="B447" s="21"/>
       <c r="C447" s="21"/>
@@ -10223,7 +10353,7 @@
       <c r="R447" s="37"/>
       <c r="S447" s="21"/>
     </row>
-    <row r="448" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" s="2" customFormat="1">
       <c r="A448" s="15"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -10244,7 +10374,7 @@
       <c r="R448" s="37"/>
       <c r="S448" s="21"/>
     </row>
-    <row r="449" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" s="2" customFormat="1">
       <c r="A449" s="15"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -10265,7 +10395,7 @@
       <c r="R449" s="37"/>
       <c r="S449" s="21"/>
     </row>
-    <row r="450" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" s="2" customFormat="1">
       <c r="A450" s="19"/>
       <c r="B450" s="21"/>
       <c r="C450" s="21"/>
@@ -10286,7 +10416,7 @@
       <c r="R450" s="37"/>
       <c r="S450" s="21"/>
     </row>
-    <row r="451" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" s="2" customFormat="1">
       <c r="A451" s="19"/>
       <c r="B451" s="21"/>
       <c r="C451" s="21"/>
@@ -10307,7 +10437,7 @@
       <c r="R451" s="37"/>
       <c r="S451" s="21"/>
     </row>
-    <row r="452" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" s="2" customFormat="1">
       <c r="A452" s="19"/>
       <c r="B452" s="21"/>
       <c r="C452" s="21"/>
@@ -10328,7 +10458,7 @@
       <c r="R452" s="37"/>
       <c r="S452" s="21"/>
     </row>
-    <row r="453" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" s="2" customFormat="1">
       <c r="A453" s="19"/>
       <c r="B453" s="21"/>
       <c r="C453" s="21"/>
@@ -10349,7 +10479,7 @@
       <c r="R453" s="37"/>
       <c r="S453" s="21"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19">
       <c r="A454" s="44"/>
       <c r="B454" s="45"/>
       <c r="C454" s="45"/>
@@ -10369,7 +10499,7 @@
       <c r="R454" s="47"/>
       <c r="S454" s="45"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19">
       <c r="A455" s="44"/>
       <c r="B455" s="45"/>
       <c r="C455" s="45"/>
@@ -10389,7 +10519,7 @@
       <c r="R455" s="47"/>
       <c r="S455" s="45"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19">
       <c r="A456" s="44"/>
       <c r="B456" s="45"/>
       <c r="C456" s="45"/>
@@ -10409,7 +10539,7 @@
       <c r="R456" s="47"/>
       <c r="S456" s="45"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19">
       <c r="A457" s="44"/>
       <c r="B457" s="45"/>
       <c r="C457" s="45"/>
@@ -10429,7 +10559,7 @@
       <c r="R457" s="47"/>
       <c r="S457" s="45"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19">
       <c r="A458" s="44"/>
       <c r="B458" s="45"/>
       <c r="C458" s="45"/>
@@ -10449,7 +10579,7 @@
       <c r="R458" s="47"/>
       <c r="S458" s="45"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19">
       <c r="A459" s="44"/>
       <c r="B459" s="45"/>
       <c r="C459" s="45"/>
@@ -10469,7 +10599,7 @@
       <c r="R459" s="47"/>
       <c r="S459" s="45"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19">
       <c r="A460" s="44"/>
       <c r="B460" s="45"/>
       <c r="C460" s="45"/>
@@ -10489,7 +10619,7 @@
       <c r="R460" s="47"/>
       <c r="S460" s="45"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19">
       <c r="A461" s="44"/>
       <c r="B461" s="45"/>
       <c r="C461" s="45"/>
@@ -10509,7 +10639,7 @@
       <c r="R461" s="47"/>
       <c r="S461" s="45"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19">
       <c r="A462" s="44"/>
       <c r="B462" s="45"/>
       <c r="C462" s="45"/>
@@ -10529,7 +10659,7 @@
       <c r="R462" s="47"/>
       <c r="S462" s="45"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19">
       <c r="A463" s="44"/>
       <c r="B463" s="45"/>
       <c r="C463" s="45"/>
@@ -10549,7 +10679,7 @@
       <c r="R463" s="47"/>
       <c r="S463" s="45"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19">
       <c r="A464" s="44"/>
       <c r="B464" s="45"/>
       <c r="C464" s="45"/>
@@ -10569,7 +10699,7 @@
       <c r="R464" s="47"/>
       <c r="S464" s="45"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19">
       <c r="A465" s="44"/>
       <c r="B465" s="45"/>
       <c r="C465" s="45"/>
@@ -10589,7 +10719,7 @@
       <c r="R465" s="47"/>
       <c r="S465" s="45"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19">
       <c r="A466" s="44"/>
       <c r="B466" s="45"/>
       <c r="C466" s="45"/>
@@ -10609,7 +10739,7 @@
       <c r="R466" s="47"/>
       <c r="S466" s="45"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19">
       <c r="A467" s="44"/>
       <c r="B467" s="45"/>
       <c r="C467" s="45"/>
@@ -10629,7 +10759,7 @@
       <c r="R467" s="47"/>
       <c r="S467" s="45"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19">
       <c r="A468" s="44"/>
       <c r="B468" s="45"/>
       <c r="C468" s="45"/>
@@ -10649,7 +10779,7 @@
       <c r="R468" s="47"/>
       <c r="S468" s="45"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19">
       <c r="A469" s="44"/>
       <c r="B469" s="45"/>
       <c r="C469" s="45"/>
@@ -10669,7 +10799,7 @@
       <c r="R469" s="47"/>
       <c r="S469" s="45"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19">
       <c r="A470" s="44"/>
       <c r="B470" s="45"/>
       <c r="C470" s="45"/>
@@ -10689,7 +10819,7 @@
       <c r="R470" s="47"/>
       <c r="S470" s="45"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19">
       <c r="A471" s="44"/>
       <c r="B471" s="45"/>
       <c r="C471" s="45"/>
@@ -10709,7 +10839,7 @@
       <c r="R471" s="47"/>
       <c r="S471" s="45"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19">
       <c r="A472" s="44"/>
       <c r="B472" s="45"/>
       <c r="C472" s="45"/>
@@ -10729,7 +10859,7 @@
       <c r="R472" s="47"/>
       <c r="S472" s="45"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19">
       <c r="A473" s="44"/>
       <c r="B473" s="45"/>
       <c r="C473" s="45"/>
@@ -10749,7 +10879,7 @@
       <c r="R473" s="47"/>
       <c r="S473" s="45"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19">
       <c r="A474" s="44"/>
       <c r="B474" s="45"/>
       <c r="C474" s="45"/>
@@ -10769,7 +10899,7 @@
       <c r="R474" s="47"/>
       <c r="S474" s="45"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19">
       <c r="A475" s="44"/>
       <c r="B475" s="45"/>
       <c r="C475" s="45"/>
@@ -10789,7 +10919,7 @@
       <c r="R475" s="47"/>
       <c r="S475" s="45"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19">
       <c r="A476" s="44"/>
       <c r="B476" s="45"/>
       <c r="C476" s="45"/>
@@ -10809,7 +10939,7 @@
       <c r="R476" s="47"/>
       <c r="S476" s="45"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19">
       <c r="A477" s="44"/>
       <c r="B477" s="45"/>
       <c r="C477" s="45"/>
@@ -10829,7 +10959,7 @@
       <c r="R477" s="47"/>
       <c r="S477" s="45"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19">
       <c r="A478" s="44"/>
       <c r="B478" s="45"/>
       <c r="C478" s="45"/>
@@ -10849,7 +10979,7 @@
       <c r="R478" s="47"/>
       <c r="S478" s="45"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19">
       <c r="A479" s="44"/>
       <c r="B479" s="45"/>
       <c r="C479" s="45"/>
@@ -10869,7 +10999,7 @@
       <c r="R479" s="47"/>
       <c r="S479" s="45"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19">
       <c r="A480" s="44"/>
       <c r="B480" s="45"/>
       <c r="C480" s="45"/>
@@ -10889,7 +11019,7 @@
       <c r="R480" s="47"/>
       <c r="S480" s="45"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19">
       <c r="A481" s="44"/>
       <c r="B481" s="45"/>
       <c r="C481" s="45"/>
@@ -10909,7 +11039,7 @@
       <c r="R481" s="47"/>
       <c r="S481" s="45"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19">
       <c r="A482" s="44"/>
       <c r="B482" s="45"/>
       <c r="C482" s="45"/>
@@ -10929,7 +11059,7 @@
       <c r="R482" s="47"/>
       <c r="S482" s="45"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19">
       <c r="A483" s="44"/>
       <c r="B483" s="45"/>
       <c r="C483" s="45"/>
@@ -10949,7 +11079,7 @@
       <c r="R483" s="47"/>
       <c r="S483" s="45"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19">
       <c r="A484" s="44"/>
       <c r="B484" s="45"/>
       <c r="C484" s="45"/>
@@ -10969,7 +11099,7 @@
       <c r="R484" s="47"/>
       <c r="S484" s="45"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19">
       <c r="A485" s="44"/>
       <c r="B485" s="45"/>
       <c r="C485" s="45"/>
@@ -10989,7 +11119,7 @@
       <c r="R485" s="47"/>
       <c r="S485" s="45"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19">
       <c r="A486" s="44"/>
       <c r="B486" s="45"/>
       <c r="C486" s="45"/>
@@ -11009,7 +11139,7 @@
       <c r="R486" s="47"/>
       <c r="S486" s="45"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19">
       <c r="A487" s="44"/>
       <c r="B487" s="45"/>
       <c r="C487" s="45"/>
@@ -11029,7 +11159,7 @@
       <c r="R487" s="47"/>
       <c r="S487" s="45"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19">
       <c r="A488" s="44"/>
       <c r="B488" s="45"/>
       <c r="C488" s="45"/>
@@ -11049,7 +11179,7 @@
       <c r="R488" s="47"/>
       <c r="S488" s="45"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19">
       <c r="A489" s="44"/>
       <c r="B489" s="45"/>
       <c r="C489" s="45"/>
@@ -11069,7 +11199,7 @@
       <c r="R489" s="47"/>
       <c r="S489" s="45"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19">
       <c r="A490" s="44"/>
       <c r="B490" s="45"/>
       <c r="C490" s="45"/>
@@ -11089,7 +11219,7 @@
       <c r="R490" s="47"/>
       <c r="S490" s="45"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19">
       <c r="A491" s="44"/>
       <c r="B491" s="45"/>
       <c r="C491" s="45"/>
@@ -11109,7 +11239,7 @@
       <c r="R491" s="47"/>
       <c r="S491" s="45"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19">
       <c r="A492" s="44"/>
       <c r="B492" s="45"/>
       <c r="C492" s="45"/>
@@ -11129,7 +11259,7 @@
       <c r="R492" s="47"/>
       <c r="S492" s="45"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19">
       <c r="A493" s="44"/>
       <c r="B493" s="45"/>
       <c r="C493" s="45"/>
@@ -11149,7 +11279,7 @@
       <c r="R493" s="47"/>
       <c r="S493" s="45"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19">
       <c r="A494" s="44"/>
       <c r="B494" s="45"/>
       <c r="C494" s="45"/>
@@ -11169,7 +11299,7 @@
       <c r="R494" s="47"/>
       <c r="S494" s="45"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19">
       <c r="A495" s="44"/>
       <c r="B495" s="45"/>
       <c r="C495" s="45"/>
@@ -11189,7 +11319,7 @@
       <c r="R495" s="47"/>
       <c r="S495" s="45"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19">
       <c r="A496" s="44"/>
       <c r="B496" s="45"/>
       <c r="C496" s="45"/>
@@ -11209,7 +11339,7 @@
       <c r="R496" s="47"/>
       <c r="S496" s="45"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19">
       <c r="A497" s="44"/>
       <c r="B497" s="45"/>
       <c r="C497" s="45"/>
@@ -11229,7 +11359,7 @@
       <c r="R497" s="47"/>
       <c r="S497" s="45"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19">
       <c r="A498" s="44"/>
       <c r="B498" s="45"/>
       <c r="C498" s="45"/>
@@ -11249,7 +11379,7 @@
       <c r="R498" s="47"/>
       <c r="S498" s="45"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19">
       <c r="A499" s="44"/>
       <c r="B499" s="45"/>
       <c r="C499" s="45"/>
@@ -11269,7 +11399,7 @@
       <c r="R499" s="47"/>
       <c r="S499" s="45"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19">
       <c r="A500" s="44"/>
       <c r="B500" s="45"/>
       <c r="C500" s="45"/>
@@ -11289,7 +11419,7 @@
       <c r="R500" s="47"/>
       <c r="S500" s="45"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19">
       <c r="A501" s="44"/>
       <c r="B501" s="45"/>
       <c r="C501" s="45"/>
@@ -11309,7 +11439,7 @@
       <c r="R501" s="47"/>
       <c r="S501" s="45"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19">
       <c r="A502" s="44"/>
       <c r="B502" s="45"/>
       <c r="C502" s="45"/>
@@ -11329,7 +11459,7 @@
       <c r="R502" s="47"/>
       <c r="S502" s="45"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19">
       <c r="A503" s="44"/>
       <c r="B503" s="45"/>
       <c r="C503" s="45"/>
@@ -11349,7 +11479,7 @@
       <c r="R503" s="47"/>
       <c r="S503" s="45"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19">
       <c r="A504" s="44"/>
       <c r="B504" s="45"/>
       <c r="C504" s="45"/>
@@ -11369,7 +11499,7 @@
       <c r="R504" s="47"/>
       <c r="S504" s="45"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19">
       <c r="A505" s="44"/>
       <c r="B505" s="45"/>
       <c r="C505" s="45"/>
@@ -11389,7 +11519,7 @@
       <c r="R505" s="47"/>
       <c r="S505" s="45"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19">
       <c r="A506" s="44"/>
       <c r="B506" s="45"/>
       <c r="C506" s="45"/>
@@ -11409,7 +11539,7 @@
       <c r="R506" s="47"/>
       <c r="S506" s="45"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19">
       <c r="A507" s="44"/>
       <c r="B507" s="45"/>
       <c r="C507" s="45"/>
@@ -11429,7 +11559,7 @@
       <c r="R507" s="47"/>
       <c r="S507" s="45"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19">
       <c r="A508" s="44"/>
       <c r="B508" s="45"/>
       <c r="C508" s="45"/>
@@ -11449,7 +11579,7 @@
       <c r="R508" s="47"/>
       <c r="S508" s="45"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19">
       <c r="A509" s="44"/>
       <c r="B509" s="45"/>
       <c r="C509" s="45"/>
@@ -11469,7 +11599,7 @@
       <c r="R509" s="47"/>
       <c r="S509" s="45"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19">
       <c r="A510" s="44"/>
       <c r="B510" s="45"/>
       <c r="C510" s="45"/>
@@ -11489,7 +11619,7 @@
       <c r="R510" s="47"/>
       <c r="S510" s="45"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19">
       <c r="A511" s="44"/>
       <c r="B511" s="45"/>
       <c r="C511" s="45"/>
@@ -11509,7 +11639,7 @@
       <c r="R511" s="47"/>
       <c r="S511" s="45"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19">
       <c r="A512" s="44"/>
       <c r="B512" s="45"/>
       <c r="C512" s="45"/>
@@ -11529,7 +11659,7 @@
       <c r="R512" s="47"/>
       <c r="S512" s="45"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19">
       <c r="A513" s="44"/>
       <c r="B513" s="45"/>
       <c r="C513" s="45"/>
@@ -11549,7 +11679,7 @@
       <c r="R513" s="47"/>
       <c r="S513" s="45"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19">
       <c r="A514" s="44"/>
       <c r="B514" s="45"/>
       <c r="C514" s="45"/>
@@ -11569,7 +11699,7 @@
       <c r="R514" s="47"/>
       <c r="S514" s="45"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19">
       <c r="A515" s="44"/>
       <c r="B515" s="45"/>
       <c r="C515" s="45"/>
@@ -11589,7 +11719,7 @@
       <c r="R515" s="47"/>
       <c r="S515" s="45"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19">
       <c r="A516" s="44"/>
       <c r="B516" s="45"/>
       <c r="C516" s="45"/>
@@ -11609,7 +11739,7 @@
       <c r="R516" s="47"/>
       <c r="S516" s="45"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19">
       <c r="A517" s="44"/>
       <c r="B517" s="45"/>
       <c r="C517" s="45"/>
@@ -11629,7 +11759,7 @@
       <c r="R517" s="47"/>
       <c r="S517" s="45"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19">
       <c r="A518" s="44"/>
       <c r="B518" s="45"/>
       <c r="C518" s="45"/>
@@ -11649,7 +11779,7 @@
       <c r="R518" s="47"/>
       <c r="S518" s="45"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19">
       <c r="A519" s="44"/>
       <c r="B519" s="45"/>
       <c r="C519" s="45"/>
@@ -11669,7 +11799,7 @@
       <c r="R519" s="47"/>
       <c r="S519" s="45"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19">
       <c r="A520" s="44"/>
       <c r="B520" s="45"/>
       <c r="C520" s="45"/>
@@ -11689,7 +11819,7 @@
       <c r="R520" s="47"/>
       <c r="S520" s="45"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19">
       <c r="A521" s="44"/>
       <c r="B521" s="45"/>
       <c r="C521" s="45"/>
@@ -11709,7 +11839,7 @@
       <c r="R521" s="47"/>
       <c r="S521" s="45"/>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19">
       <c r="A522" s="44"/>
       <c r="B522" s="45"/>
       <c r="C522" s="45"/>
@@ -11729,7 +11859,7 @@
       <c r="R522" s="47"/>
       <c r="S522" s="45"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19">
       <c r="A523" s="44"/>
       <c r="B523" s="45"/>
       <c r="C523" s="45"/>
@@ -11749,7 +11879,7 @@
       <c r="R523" s="47"/>
       <c r="S523" s="45"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19">
       <c r="A524" s="44"/>
       <c r="B524" s="45"/>
       <c r="C524" s="45"/>
@@ -11769,7 +11899,7 @@
       <c r="R524" s="47"/>
       <c r="S524" s="45"/>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19">
       <c r="A525" s="44"/>
       <c r="B525" s="45"/>
       <c r="C525" s="45"/>
@@ -11789,7 +11919,7 @@
       <c r="R525" s="47"/>
       <c r="S525" s="45"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19">
       <c r="A526" s="44"/>
       <c r="B526" s="45"/>
       <c r="C526" s="45"/>
@@ -11809,7 +11939,7 @@
       <c r="R526" s="47"/>
       <c r="S526" s="45"/>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19">
       <c r="A527" s="44"/>
       <c r="B527" s="45"/>
       <c r="C527" s="45"/>
@@ -11829,7 +11959,7 @@
       <c r="R527" s="47"/>
       <c r="S527" s="45"/>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19">
       <c r="A528" s="44"/>
       <c r="B528" s="45"/>
       <c r="C528" s="45"/>
@@ -11849,7 +11979,7 @@
       <c r="R528" s="47"/>
       <c r="S528" s="45"/>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19">
       <c r="A529" s="44"/>
       <c r="B529" s="45"/>
       <c r="C529" s="45"/>
@@ -11869,7 +11999,7 @@
       <c r="R529" s="47"/>
       <c r="S529" s="45"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19">
       <c r="A530" s="44"/>
       <c r="B530" s="45"/>
       <c r="C530" s="45"/>
@@ -11889,7 +12019,7 @@
       <c r="R530" s="47"/>
       <c r="S530" s="45"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19">
       <c r="A531" s="44"/>
       <c r="B531" s="45"/>
       <c r="C531" s="45"/>
@@ -11909,7 +12039,7 @@
       <c r="R531" s="47"/>
       <c r="S531" s="45"/>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19">
       <c r="A532" s="44"/>
       <c r="B532" s="45"/>
       <c r="C532" s="45"/>
@@ -11929,7 +12059,7 @@
       <c r="R532" s="47"/>
       <c r="S532" s="45"/>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19">
       <c r="A533" s="44"/>
       <c r="B533" s="45"/>
       <c r="C533" s="45"/>
@@ -11949,7 +12079,7 @@
       <c r="R533" s="47"/>
       <c r="S533" s="45"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19">
       <c r="A534" s="44"/>
       <c r="B534" s="45"/>
       <c r="C534" s="45"/>
@@ -11969,7 +12099,7 @@
       <c r="R534" s="47"/>
       <c r="S534" s="45"/>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19">
       <c r="A535" s="44"/>
       <c r="B535" s="45"/>
       <c r="C535" s="45"/>
@@ -11989,7 +12119,7 @@
       <c r="R535" s="47"/>
       <c r="S535" s="45"/>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19">
       <c r="A536" s="44"/>
       <c r="B536" s="45"/>
       <c r="C536" s="45"/>
@@ -12009,7 +12139,7 @@
       <c r="R536" s="47"/>
       <c r="S536" s="45"/>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19">
       <c r="A537" s="44"/>
       <c r="B537" s="45"/>
       <c r="C537" s="45"/>
@@ -12029,7 +12159,7 @@
       <c r="R537" s="47"/>
       <c r="S537" s="45"/>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19">
       <c r="A538" s="44"/>
       <c r="B538" s="45"/>
       <c r="C538" s="45"/>
@@ -12049,7 +12179,7 @@
       <c r="R538" s="47"/>
       <c r="S538" s="45"/>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19">
       <c r="A539" s="44"/>
       <c r="B539" s="45"/>
       <c r="C539" s="45"/>
@@ -12069,7 +12199,7 @@
       <c r="R539" s="47"/>
       <c r="S539" s="45"/>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19">
       <c r="A540" s="44"/>
       <c r="B540" s="45"/>
       <c r="C540" s="45"/>
@@ -12089,7 +12219,7 @@
       <c r="R540" s="47"/>
       <c r="S540" s="45"/>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19">
       <c r="A541" s="44"/>
       <c r="B541" s="45"/>
       <c r="C541" s="45"/>
@@ -12109,7 +12239,7 @@
       <c r="R541" s="47"/>
       <c r="S541" s="45"/>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19">
       <c r="A542" s="44"/>
       <c r="B542" s="45"/>
       <c r="C542" s="45"/>
@@ -12129,7 +12259,7 @@
       <c r="R542" s="47"/>
       <c r="S542" s="45"/>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19">
       <c r="A543" s="44"/>
       <c r="B543" s="45"/>
       <c r="C543" s="45"/>
@@ -12149,7 +12279,7 @@
       <c r="R543" s="47"/>
       <c r="S543" s="45"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19">
       <c r="A544" s="44"/>
       <c r="B544" s="45"/>
       <c r="C544" s="45"/>
@@ -12169,7 +12299,7 @@
       <c r="R544" s="47"/>
       <c r="S544" s="45"/>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19">
       <c r="A545" s="44"/>
       <c r="B545" s="45"/>
       <c r="C545" s="45"/>
@@ -12189,7 +12319,7 @@
       <c r="R545" s="47"/>
       <c r="S545" s="45"/>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19">
       <c r="A546" s="44"/>
       <c r="B546" s="45"/>
       <c r="C546" s="45"/>
@@ -12209,7 +12339,7 @@
       <c r="R546" s="47"/>
       <c r="S546" s="45"/>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19">
       <c r="A547" s="44"/>
       <c r="B547" s="45"/>
       <c r="C547" s="45"/>
@@ -12229,7 +12359,7 @@
       <c r="R547" s="47"/>
       <c r="S547" s="45"/>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19">
       <c r="A548" s="44"/>
       <c r="B548" s="45"/>
       <c r="C548" s="45"/>
@@ -12249,7 +12379,7 @@
       <c r="R548" s="47"/>
       <c r="S548" s="45"/>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19">
       <c r="A549" s="44"/>
       <c r="B549" s="45"/>
       <c r="C549" s="45"/>
@@ -12269,7 +12399,7 @@
       <c r="R549" s="47"/>
       <c r="S549" s="45"/>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19">
       <c r="A550" s="44"/>
       <c r="B550" s="45"/>
       <c r="C550" s="45"/>
@@ -12289,7 +12419,7 @@
       <c r="R550" s="47"/>
       <c r="S550" s="45"/>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19">
       <c r="A551" s="44"/>
       <c r="B551" s="45"/>
       <c r="C551" s="45"/>
@@ -12309,7 +12439,7 @@
       <c r="R551" s="47"/>
       <c r="S551" s="45"/>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19">
       <c r="A552" s="44"/>
       <c r="B552" s="45"/>
       <c r="C552" s="45"/>
@@ -12329,7 +12459,7 @@
       <c r="R552" s="47"/>
       <c r="S552" s="45"/>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19">
       <c r="A553" s="44"/>
       <c r="B553" s="45"/>
       <c r="C553" s="45"/>
@@ -12349,7 +12479,7 @@
       <c r="R553" s="47"/>
       <c r="S553" s="45"/>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19">
       <c r="A554" s="44"/>
       <c r="B554" s="45"/>
       <c r="C554" s="45"/>
@@ -12369,7 +12499,7 @@
       <c r="R554" s="47"/>
       <c r="S554" s="45"/>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19">
       <c r="A555" s="44"/>
       <c r="B555" s="45"/>
       <c r="C555" s="45"/>
@@ -12389,7 +12519,7 @@
       <c r="R555" s="47"/>
       <c r="S555" s="45"/>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19">
       <c r="A556" s="44"/>
       <c r="B556" s="45"/>
       <c r="C556" s="45"/>
@@ -12409,7 +12539,7 @@
       <c r="R556" s="47"/>
       <c r="S556" s="45"/>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19">
       <c r="A557" s="44"/>
       <c r="B557" s="45"/>
       <c r="C557" s="45"/>
@@ -12429,7 +12559,7 @@
       <c r="R557" s="47"/>
       <c r="S557" s="45"/>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19">
       <c r="A558" s="44"/>
       <c r="B558" s="45"/>
       <c r="C558" s="45"/>
@@ -12449,7 +12579,7 @@
       <c r="R558" s="47"/>
       <c r="S558" s="45"/>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19">
       <c r="A559" s="44"/>
       <c r="B559" s="45"/>
       <c r="C559" s="45"/>
@@ -12469,7 +12599,7 @@
       <c r="R559" s="47"/>
       <c r="S559" s="45"/>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19">
       <c r="A560" s="44"/>
       <c r="B560" s="45"/>
       <c r="C560" s="45"/>
@@ -12489,7 +12619,7 @@
       <c r="R560" s="47"/>
       <c r="S560" s="45"/>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19">
       <c r="A561" s="44"/>
       <c r="B561" s="45"/>
       <c r="C561" s="45"/>
@@ -12509,7 +12639,7 @@
       <c r="R561" s="47"/>
       <c r="S561" s="45"/>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19">
       <c r="A562" s="44"/>
       <c r="B562" s="45"/>
       <c r="C562" s="45"/>
@@ -12529,7 +12659,7 @@
       <c r="R562" s="47"/>
       <c r="S562" s="45"/>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19">
       <c r="A563" s="44"/>
       <c r="B563" s="45"/>
       <c r="C563" s="45"/>
@@ -12549,7 +12679,7 @@
       <c r="R563" s="47"/>
       <c r="S563" s="45"/>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19">
       <c r="A564" s="44"/>
       <c r="B564" s="45"/>
       <c r="C564" s="45"/>
@@ -12569,7 +12699,7 @@
       <c r="R564" s="47"/>
       <c r="S564" s="45"/>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19">
       <c r="A565" s="44"/>
       <c r="B565" s="45"/>
       <c r="C565" s="45"/>
@@ -12589,7 +12719,7 @@
       <c r="R565" s="47"/>
       <c r="S565" s="45"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19">
       <c r="A566" s="44"/>
       <c r="B566" s="45"/>
       <c r="C566" s="45"/>
@@ -12609,7 +12739,7 @@
       <c r="R566" s="47"/>
       <c r="S566" s="45"/>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19">
       <c r="A567" s="44"/>
       <c r="B567" s="45"/>
       <c r="C567" s="45"/>
@@ -12629,7 +12759,7 @@
       <c r="R567" s="47"/>
       <c r="S567" s="45"/>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19">
       <c r="A568" s="44"/>
       <c r="B568" s="45"/>
       <c r="C568" s="45"/>
@@ -12649,7 +12779,7 @@
       <c r="R568" s="47"/>
       <c r="S568" s="45"/>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19">
       <c r="A569" s="44"/>
       <c r="B569" s="45"/>
       <c r="C569" s="45"/>
@@ -12669,7 +12799,7 @@
       <c r="R569" s="47"/>
       <c r="S569" s="45"/>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19">
       <c r="A570" s="44"/>
       <c r="B570" s="45"/>
       <c r="C570" s="45"/>
@@ -12689,7 +12819,7 @@
       <c r="R570" s="47"/>
       <c r="S570" s="45"/>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19">
       <c r="A571" s="44"/>
       <c r="B571" s="45"/>
       <c r="C571" s="45"/>
@@ -12709,7 +12839,7 @@
       <c r="R571" s="47"/>
       <c r="S571" s="45"/>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19">
       <c r="A572" s="44"/>
       <c r="B572" s="45"/>
       <c r="C572" s="45"/>
@@ -12729,7 +12859,7 @@
       <c r="R572" s="47"/>
       <c r="S572" s="45"/>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19">
       <c r="A573" s="44"/>
       <c r="B573" s="45"/>
       <c r="C573" s="45"/>
@@ -12749,7 +12879,7 @@
       <c r="R573" s="47"/>
       <c r="S573" s="45"/>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19">
       <c r="A574" s="44"/>
       <c r="B574" s="45"/>
       <c r="C574" s="45"/>
@@ -12769,7 +12899,7 @@
       <c r="R574" s="47"/>
       <c r="S574" s="45"/>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19">
       <c r="A575" s="44"/>
       <c r="B575" s="45"/>
       <c r="C575" s="45"/>
@@ -12789,7 +12919,7 @@
       <c r="R575" s="47"/>
       <c r="S575" s="45"/>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19">
       <c r="A576" s="44"/>
       <c r="B576" s="45"/>
       <c r="C576" s="45"/>
@@ -12809,7 +12939,7 @@
       <c r="R576" s="47"/>
       <c r="S576" s="45"/>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19">
       <c r="A577" s="44"/>
       <c r="B577" s="45"/>
       <c r="C577" s="45"/>
@@ -12829,7 +12959,7 @@
       <c r="R577" s="47"/>
       <c r="S577" s="45"/>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19">
       <c r="A578" s="44"/>
       <c r="B578" s="45"/>
       <c r="C578" s="45"/>
@@ -12849,7 +12979,7 @@
       <c r="R578" s="47"/>
       <c r="S578" s="45"/>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19">
       <c r="A579" s="44"/>
       <c r="B579" s="45"/>
       <c r="C579" s="45"/>
@@ -12869,7 +12999,7 @@
       <c r="R579" s="47"/>
       <c r="S579" s="45"/>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19">
       <c r="A580" s="44"/>
       <c r="B580" s="45"/>
       <c r="C580" s="45"/>
@@ -12889,7 +13019,7 @@
       <c r="R580" s="47"/>
       <c r="S580" s="45"/>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19">
       <c r="A581" s="44"/>
       <c r="B581" s="45"/>
       <c r="C581" s="45"/>
@@ -12909,7 +13039,7 @@
       <c r="R581" s="47"/>
       <c r="S581" s="45"/>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19">
       <c r="A582" s="44"/>
       <c r="B582" s="45"/>
       <c r="C582" s="45"/>
@@ -12929,7 +13059,7 @@
       <c r="R582" s="47"/>
       <c r="S582" s="45"/>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19">
       <c r="A583" s="44"/>
       <c r="B583" s="45"/>
       <c r="C583" s="45"/>
@@ -12949,7 +13079,7 @@
       <c r="R583" s="47"/>
       <c r="S583" s="45"/>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19">
       <c r="A584" s="44"/>
       <c r="B584" s="45"/>
       <c r="C584" s="45"/>
@@ -12969,7 +13099,7 @@
       <c r="R584" s="47"/>
       <c r="S584" s="45"/>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19">
       <c r="A585" s="44"/>
       <c r="B585" s="45"/>
       <c r="C585" s="45"/>
@@ -12989,7 +13119,7 @@
       <c r="R585" s="47"/>
       <c r="S585" s="45"/>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19">
       <c r="A586" s="44"/>
       <c r="B586" s="45"/>
       <c r="C586" s="45"/>
@@ -13009,7 +13139,7 @@
       <c r="R586" s="47"/>
       <c r="S586" s="45"/>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19">
       <c r="A587" s="44"/>
       <c r="B587" s="45"/>
       <c r="C587" s="45"/>
@@ -13029,7 +13159,7 @@
       <c r="R587" s="47"/>
       <c r="S587" s="45"/>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19">
       <c r="A588" s="44"/>
       <c r="B588" s="45"/>
       <c r="C588" s="45"/>
@@ -13067,20 +13197,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="61.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="60.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>35</v>
       </c>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$473</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户信息录入!$A$1:$S$470</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="204">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -433,7 +433,7 @@
     <t>00301039_0101</t>
   </si>
   <si>
-    <t>00301039_01</t>
+    <t>00301039_1</t>
   </si>
   <si>
     <t>aui-button_7</t>
@@ -448,7 +448,7 @@
     <t>00301039_0201</t>
   </si>
   <si>
-    <t>00301039_02</t>
+    <t>00301039_2</t>
   </si>
   <si>
     <t>00301039_0202</t>
@@ -617,6 +617,57 @@
   </si>
   <si>
     <t>TradeData.BIND_DEBT_ACCT</t>
+  </si>
+  <si>
+    <t>0050901201</t>
+  </si>
+  <si>
+    <t>00509012</t>
+  </si>
+  <si>
+    <t>杨帅</t>
+  </si>
+  <si>
+    <t>TradeData.DRAW_MANR1</t>
+  </si>
+  <si>
+    <t>TradeData.PAY_FEE_AMT</t>
+  </si>
+  <si>
+    <t>0060100101</t>
+  </si>
+  <si>
+    <t>00601001</t>
+  </si>
+  <si>
+    <t>custType</t>
+  </si>
+  <si>
+    <t>0020109602</t>
+  </si>
+  <si>
+    <t>0020109701</t>
+  </si>
+  <si>
+    <t>00201097</t>
+  </si>
+  <si>
+    <t>AGENT_CRTF_TYP</t>
+  </si>
+  <si>
+    <t>TradeData.AGENT_CRTF_TYP</t>
+  </si>
+  <si>
+    <t>代理人证件类型</t>
+  </si>
+  <si>
+    <t>TradeData.CUST_ATTR</t>
+  </si>
+  <si>
+    <t>客户属性</t>
+  </si>
+  <si>
+    <t>0020109802</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -628,8 +679,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -692,6 +743,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -699,16 +772,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,15 +804,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,14 +819,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,7 +834,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -768,7 +842,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -776,7 +850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,24 +864,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,13 +874,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +906,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +960,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,31 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,61 +1062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,31 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,24 +1087,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1116,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1075,6 +1141,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,8 +1195,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1111,66 +1212,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,31 +1230,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,100 +1269,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,6 +1488,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1762,12 +1816,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T612"/>
+  <dimension ref="A1:T609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1775,7 +1829,7 @@
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.8166666666667" customWidth="1"/>
     <col min="3" max="4" width="7.88333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.65" customWidth="1"/>
     <col min="8" max="9" width="9" style="6"/>
@@ -5066,193 +5120,477 @@
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:19">
-      <c r="A67" s="49"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="27"/>
+      <c r="A67" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="30">
+        <v>1</v>
+      </c>
+      <c r="I67" s="30">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="R67" s="48"/>
-      <c r="S67" s="29"/>
+      <c r="S67" s="29" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:19">
-      <c r="A68" s="49"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="27"/>
+      <c r="A68" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="30">
+        <v>1</v>
+      </c>
+      <c r="I68" s="30">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
       <c r="R68" s="48"/>
-      <c r="S68" s="29"/>
+      <c r="S68" s="29" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:19">
-      <c r="A69" s="49"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="27"/>
+      <c r="A69" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="30">
+        <v>1</v>
+      </c>
+      <c r="I69" s="30">
+        <v>1</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="R69" s="48"/>
-      <c r="S69" s="29"/>
+      <c r="S69" s="29" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:19">
-      <c r="A70" s="49"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="27"/>
+      <c r="A70" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="30">
+        <v>1</v>
+      </c>
+      <c r="I70" s="30">
+        <v>0</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="P70" s="29"/>
       <c r="Q70" s="29"/>
       <c r="R70" s="48"/>
       <c r="S70" s="29"/>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:19">
-      <c r="A71" s="49"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="29"/>
-    </row>
-    <row r="72" s="2" customFormat="1" spans="1:19">
-      <c r="A72" s="49"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="48"/>
-      <c r="S72" s="29"/>
+    <row r="71" s="3" customFormat="1" spans="1:19">
+      <c r="A71" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="O71" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:19">
+      <c r="A72" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:19">
-      <c r="A73" s="49"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="27"/>
+      <c r="A73" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="30">
+        <v>1</v>
+      </c>
+      <c r="I73" s="30">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="R73" s="48"/>
       <c r="S73" s="29"/>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:19">
-      <c r="A74" s="49"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="48"/>
-      <c r="S74" s="29"/>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="1:19">
-      <c r="A75" s="49"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="48"/>
-      <c r="S75" s="29"/>
+    <row r="74" s="3" customFormat="1" spans="1:19">
+      <c r="A74" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L74" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:19">
+      <c r="A75" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M75" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:19">
       <c r="A76" s="49"/>
@@ -5381,19 +5719,19 @@
       <c r="S81" s="29"/>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:19">
-      <c r="A82" s="49"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="29"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
       <c r="J82" s="16"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
+      <c r="M82" s="32"/>
       <c r="N82" s="28"/>
       <c r="O82" s="27"/>
       <c r="P82" s="29"/>
@@ -5402,49 +5740,49 @@
       <c r="S82" s="29"/>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:19">
-      <c r="A83" s="49"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="17"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="50"/>
+      <c r="F83" s="34"/>
       <c r="G83" s="29"/>
       <c r="H83" s="30"/>
       <c r="I83" s="30"/>
       <c r="J83" s="16"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="28"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="34"/>
       <c r="O83" s="27"/>
       <c r="P83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="48"/>
-      <c r="S83" s="29"/>
+      <c r="S83" s="32"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:19">
-      <c r="A84" s="49"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="29"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="30"/>
       <c r="I84" s="30"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="27"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="33"/>
       <c r="P84" s="29"/>
       <c r="Q84" s="29"/>
       <c r="R84" s="48"/>
-      <c r="S84" s="29"/>
+      <c r="S84" s="32"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:19">
-      <c r="A85" s="27"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17"/>
@@ -5455,35 +5793,35 @@
       <c r="I85" s="30"/>
       <c r="J85" s="16"/>
       <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
+      <c r="L85" s="53"/>
       <c r="M85" s="32"/>
-      <c r="N85" s="28"/>
+      <c r="N85" s="34"/>
       <c r="O85" s="27"/>
       <c r="P85" s="29"/>
       <c r="Q85" s="29"/>
       <c r="R85" s="48"/>
-      <c r="S85" s="29"/>
+      <c r="S85" s="32"/>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:19">
-      <c r="A86" s="33"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="29"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="51"/>
       <c r="H86" s="30"/>
       <c r="I86" s="30"/>
       <c r="J86" s="16"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="53"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
       <c r="M86" s="32"/>
       <c r="N86" s="34"/>
-      <c r="O86" s="27"/>
+      <c r="O86" s="33"/>
       <c r="P86" s="29"/>
       <c r="Q86" s="29"/>
       <c r="R86" s="48"/>
-      <c r="S86" s="32"/>
+      <c r="S86" s="29"/>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:19">
       <c r="A87" s="33"/>
@@ -5504,7 +5842,7 @@
       <c r="P87" s="29"/>
       <c r="Q87" s="29"/>
       <c r="R87" s="48"/>
-      <c r="S87" s="32"/>
+      <c r="S87" s="29"/>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:19">
       <c r="A88" s="33"/>
@@ -5517,11 +5855,11 @@
       <c r="H88" s="30"/>
       <c r="I88" s="30"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="29"/>
+      <c r="K88" s="32"/>
       <c r="L88" s="53"/>
       <c r="M88" s="32"/>
       <c r="N88" s="34"/>
-      <c r="O88" s="27"/>
+      <c r="O88" s="33"/>
       <c r="P88" s="29"/>
       <c r="Q88" s="29"/>
       <c r="R88" s="48"/>
@@ -5533,62 +5871,62 @@
       <c r="C89" s="16"/>
       <c r="D89" s="17"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="51"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="29"/>
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
       <c r="J89" s="16"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="53"/>
       <c r="M89" s="32"/>
       <c r="N89" s="34"/>
-      <c r="O89" s="33"/>
+      <c r="O89" s="27"/>
       <c r="P89" s="29"/>
       <c r="Q89" s="29"/>
       <c r="R89" s="48"/>
       <c r="S89" s="29"/>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:19">
-      <c r="A90" s="33"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="17"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="32"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="29"/>
       <c r="H90" s="30"/>
       <c r="I90" s="30"/>
       <c r="J90" s="16"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="53"/>
       <c r="M90" s="32"/>
       <c r="N90" s="34"/>
-      <c r="O90" s="33"/>
+      <c r="O90" s="27"/>
       <c r="P90" s="29"/>
       <c r="Q90" s="29"/>
       <c r="R90" s="48"/>
       <c r="S90" s="29"/>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:19">
-      <c r="A91" s="33"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="32"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="29"/>
       <c r="H91" s="30"/>
       <c r="I91" s="30"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="33"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="27"/>
       <c r="P91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="R91" s="48"/>
-      <c r="S91" s="32"/>
+      <c r="S91" s="29"/>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:19">
       <c r="A92" s="27"/>
@@ -5643,10 +5981,10 @@
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="28"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="34"/>
       <c r="O94" s="27"/>
       <c r="P94" s="29"/>
       <c r="Q94" s="29"/>
@@ -5659,7 +5997,7 @@
       <c r="C95" s="16"/>
       <c r="D95" s="17"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="27"/>
+      <c r="F95" s="28"/>
       <c r="G95" s="29"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
@@ -5680,15 +6018,15 @@
       <c r="C96" s="16"/>
       <c r="D96" s="17"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="27"/>
+      <c r="F96" s="28"/>
       <c r="G96" s="29"/>
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="34"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="28"/>
       <c r="O96" s="27"/>
       <c r="P96" s="29"/>
       <c r="Q96" s="29"/>
@@ -5701,12 +6039,12 @@
       <c r="C97" s="16"/>
       <c r="D97" s="17"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="27"/>
+      <c r="F97" s="28"/>
       <c r="G97" s="29"/>
       <c r="H97" s="30"/>
       <c r="I97" s="30"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="29"/>
+      <c r="K97" s="54"/>
       <c r="L97" s="53"/>
       <c r="M97" s="32"/>
       <c r="N97" s="34"/>
@@ -5738,17 +6076,17 @@
       <c r="S98" s="29"/>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:19">
-      <c r="A99" s="27"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="16"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
       <c r="H99" s="30"/>
       <c r="I99" s="30"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="55"/>
+      <c r="K99" s="29"/>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
       <c r="N99" s="28"/>
@@ -5759,19 +6097,19 @@
       <c r="S99" s="29"/>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:19">
-      <c r="A100" s="27"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="16"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
       <c r="H100" s="30"/>
       <c r="I100" s="30"/>
       <c r="J100" s="16"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="32"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
       <c r="N100" s="34"/>
       <c r="O100" s="27"/>
       <c r="P100" s="29"/>
@@ -5780,20 +6118,20 @@
       <c r="S100" s="29"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:19">
-      <c r="A101" s="27"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="16"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
       <c r="H101" s="30"/>
       <c r="I101" s="30"/>
       <c r="J101" s="16"/>
       <c r="K101" s="29"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="34"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="28"/>
       <c r="O101" s="27"/>
       <c r="P101" s="29"/>
       <c r="Q101" s="29"/>
@@ -5835,7 +6173,7 @@
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
-      <c r="N103" s="34"/>
+      <c r="N103" s="28"/>
       <c r="O103" s="27"/>
       <c r="P103" s="29"/>
       <c r="Q103" s="29"/>
@@ -5843,12 +6181,12 @@
       <c r="S103" s="29"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:19">
-      <c r="A104" s="28"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
-      <c r="F104" s="28"/>
+      <c r="F104" s="29"/>
       <c r="G104" s="29"/>
       <c r="H104" s="30"/>
       <c r="I104" s="30"/>
@@ -5856,7 +6194,7 @@
       <c r="K104" s="29"/>
       <c r="L104" s="29"/>
       <c r="M104" s="29"/>
-      <c r="N104" s="28"/>
+      <c r="N104" s="34"/>
       <c r="O104" s="27"/>
       <c r="P104" s="29"/>
       <c r="Q104" s="29"/>
@@ -5864,12 +6202,12 @@
       <c r="S104" s="29"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:19">
-      <c r="A105" s="28"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
-      <c r="F105" s="28"/>
+      <c r="F105" s="29"/>
       <c r="G105" s="29"/>
       <c r="H105" s="30"/>
       <c r="I105" s="30"/>
@@ -5885,12 +6223,12 @@
       <c r="S105" s="29"/>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:19">
-      <c r="A106" s="28"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
-      <c r="F106" s="28"/>
+      <c r="F106" s="29"/>
       <c r="G106" s="29"/>
       <c r="H106" s="30"/>
       <c r="I106" s="30"/>
@@ -5898,7 +6236,7 @@
       <c r="K106" s="29"/>
       <c r="L106" s="29"/>
       <c r="M106" s="29"/>
-      <c r="N106" s="28"/>
+      <c r="N106" s="34"/>
       <c r="O106" s="27"/>
       <c r="P106" s="29"/>
       <c r="Q106" s="29"/>
@@ -5919,7 +6257,7 @@
       <c r="K107" s="29"/>
       <c r="L107" s="29"/>
       <c r="M107" s="29"/>
-      <c r="N107" s="34"/>
+      <c r="N107" s="28"/>
       <c r="O107" s="27"/>
       <c r="P107" s="29"/>
       <c r="Q107" s="29"/>
@@ -5940,7 +6278,7 @@
       <c r="K108" s="29"/>
       <c r="L108" s="29"/>
       <c r="M108" s="29"/>
-      <c r="N108" s="28"/>
+      <c r="N108" s="34"/>
       <c r="O108" s="27"/>
       <c r="P108" s="29"/>
       <c r="Q108" s="29"/>
@@ -5982,7 +6320,7 @@
       <c r="K110" s="29"/>
       <c r="L110" s="29"/>
       <c r="M110" s="29"/>
-      <c r="N110" s="28"/>
+      <c r="N110" s="34"/>
       <c r="O110" s="27"/>
       <c r="P110" s="29"/>
       <c r="Q110" s="29"/>
@@ -6011,12 +6349,12 @@
       <c r="S111" s="29"/>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:19">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="28"/>
       <c r="G112" s="29"/>
       <c r="H112" s="30"/>
       <c r="I112" s="30"/>
@@ -6024,20 +6362,18 @@
       <c r="K112" s="29"/>
       <c r="L112" s="29"/>
       <c r="M112" s="29"/>
-      <c r="N112" s="34"/>
+      <c r="N112" s="28"/>
       <c r="O112" s="27"/>
       <c r="P112" s="29"/>
       <c r="Q112" s="29"/>
       <c r="R112" s="48"/>
       <c r="S112" s="29"/>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:19">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
+    <row r="113" s="2" customFormat="1" spans="2:19">
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="16"/>
       <c r="G113" s="29"/>
       <c r="H113" s="30"/>
       <c r="I113" s="30"/>
@@ -6045,41 +6381,37 @@
       <c r="K113" s="29"/>
       <c r="L113" s="29"/>
       <c r="M113" s="29"/>
-      <c r="N113" s="34"/>
+      <c r="N113" s="28"/>
       <c r="O113" s="27"/>
       <c r="P113" s="29"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="48"/>
       <c r="S113" s="29"/>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:19">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
+    <row r="114" s="2" customFormat="1" spans="2:19">
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="16"/>
+      <c r="G114" s="32"/>
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
       <c r="J114" s="16"/>
       <c r="K114" s="29"/>
       <c r="L114" s="29"/>
       <c r="M114" s="29"/>
-      <c r="N114" s="34"/>
+      <c r="N114" s="28"/>
       <c r="O114" s="27"/>
       <c r="P114" s="29"/>
       <c r="Q114" s="29"/>
       <c r="R114" s="48"/>
       <c r="S114" s="29"/>
     </row>
-    <row r="115" s="2" customFormat="1" spans="1:19">
-      <c r="A115" s="27"/>
+    <row r="115" s="2" customFormat="1" spans="2:19">
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="17"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="28"/>
       <c r="G115" s="29"/>
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
@@ -6094,11 +6426,13 @@
       <c r="R115" s="48"/>
       <c r="S115" s="29"/>
     </row>
-    <row r="116" s="2" customFormat="1" spans="2:19">
+    <row r="116" s="2" customFormat="1" spans="1:19">
+      <c r="A116" s="27"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="17"/>
       <c r="E116" s="16"/>
+      <c r="F116" s="28"/>
       <c r="G116" s="29"/>
       <c r="H116" s="30"/>
       <c r="I116" s="30"/>
@@ -6113,12 +6447,14 @@
       <c r="R116" s="48"/>
       <c r="S116" s="29"/>
     </row>
-    <row r="117" s="2" customFormat="1" spans="2:19">
+    <row r="117" s="2" customFormat="1" spans="1:19">
+      <c r="A117" s="27"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="17"/>
       <c r="E117" s="16"/>
-      <c r="G117" s="32"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
       <c r="J117" s="16"/>
@@ -6132,11 +6468,13 @@
       <c r="R117" s="48"/>
       <c r="S117" s="29"/>
     </row>
-    <row r="118" s="2" customFormat="1" spans="2:19">
+    <row r="118" s="2" customFormat="1" spans="1:19">
+      <c r="A118" s="27"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="17"/>
       <c r="E118" s="16"/>
+      <c r="F118" s="28"/>
       <c r="G118" s="29"/>
       <c r="H118" s="30"/>
       <c r="I118" s="30"/>
@@ -6148,7 +6486,7 @@
       <c r="O118" s="27"/>
       <c r="P118" s="29"/>
       <c r="Q118" s="29"/>
-      <c r="R118" s="48"/>
+      <c r="R118" s="56"/>
       <c r="S118" s="29"/>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:19">
@@ -6169,11 +6507,11 @@
       <c r="O119" s="27"/>
       <c r="P119" s="29"/>
       <c r="Q119" s="29"/>
-      <c r="R119" s="48"/>
+      <c r="R119" s="56"/>
       <c r="S119" s="29"/>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:19">
-      <c r="A120" s="27"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="17"/>
@@ -6190,11 +6528,11 @@
       <c r="O120" s="27"/>
       <c r="P120" s="29"/>
       <c r="Q120" s="29"/>
-      <c r="R120" s="48"/>
+      <c r="R120" s="56"/>
       <c r="S120" s="29"/>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:19">
-      <c r="A121" s="27"/>
+      <c r="A121" s="52"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="17"/>
@@ -6204,11 +6542,11 @@
       <c r="H121" s="30"/>
       <c r="I121" s="30"/>
       <c r="J121" s="16"/>
-      <c r="K121" s="29"/>
+      <c r="K121" s="32"/>
       <c r="L121" s="29"/>
       <c r="M121" s="29"/>
-      <c r="N121" s="28"/>
-      <c r="O121" s="27"/>
+      <c r="N121" s="34"/>
+      <c r="O121" s="33"/>
       <c r="P121" s="29"/>
       <c r="Q121" s="29"/>
       <c r="R121" s="56"/>
@@ -6232,7 +6570,7 @@
       <c r="O122" s="27"/>
       <c r="P122" s="29"/>
       <c r="Q122" s="29"/>
-      <c r="R122" s="56"/>
+      <c r="R122" s="48"/>
       <c r="S122" s="29"/>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:19">
@@ -6253,7 +6591,7 @@
       <c r="O123" s="27"/>
       <c r="P123" s="29"/>
       <c r="Q123" s="29"/>
-      <c r="R123" s="56"/>
+      <c r="R123" s="48"/>
       <c r="S123" s="29"/>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:19">
@@ -6288,7 +6626,7 @@
       <c r="H125" s="30"/>
       <c r="I125" s="30"/>
       <c r="J125" s="16"/>
-      <c r="K125" s="29"/>
+      <c r="K125" s="32"/>
       <c r="L125" s="29"/>
       <c r="M125" s="29"/>
       <c r="N125" s="28"/>
@@ -6299,7 +6637,7 @@
       <c r="S125" s="29"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:19">
-      <c r="A126" s="52"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
       <c r="D126" s="17"/>
@@ -6351,7 +6689,7 @@
       <c r="H128" s="30"/>
       <c r="I128" s="30"/>
       <c r="J128" s="16"/>
-      <c r="K128" s="32"/>
+      <c r="K128" s="29"/>
       <c r="L128" s="29"/>
       <c r="M128" s="29"/>
       <c r="N128" s="28"/>
@@ -6395,7 +6733,7 @@
       <c r="J130" s="16"/>
       <c r="K130" s="32"/>
       <c r="L130" s="29"/>
-      <c r="M130" s="29"/>
+      <c r="M130" s="32"/>
       <c r="N130" s="34"/>
       <c r="O130" s="33"/>
       <c r="P130" s="29"/>
@@ -6446,7 +6784,7 @@
       <c r="S132" s="29"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:19">
-      <c r="A133" s="52"/>
+      <c r="A133" s="27"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
       <c r="D133" s="17"/>
@@ -6456,14 +6794,14 @@
       <c r="H133" s="30"/>
       <c r="I133" s="30"/>
       <c r="J133" s="16"/>
-      <c r="K133" s="32"/>
+      <c r="K133" s="29"/>
       <c r="L133" s="29"/>
-      <c r="M133" s="32"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="33"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="28"/>
+      <c r="O133" s="27"/>
       <c r="P133" s="29"/>
       <c r="Q133" s="29"/>
-      <c r="R133" s="56"/>
+      <c r="R133" s="48"/>
       <c r="S133" s="29"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:19">
@@ -6484,7 +6822,7 @@
       <c r="O134" s="27"/>
       <c r="P134" s="29"/>
       <c r="Q134" s="29"/>
-      <c r="R134" s="48"/>
+      <c r="R134" s="56"/>
       <c r="S134" s="29"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:19">
@@ -6529,8 +6867,8 @@
       <c r="R136" s="48"/>
       <c r="S136" s="29"/>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:19">
-      <c r="A137" s="27"/>
+    <row r="137" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:19">
+      <c r="A137" s="52"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
       <c r="D137" s="17"/>
@@ -6550,8 +6888,8 @@
       <c r="R137" s="56"/>
       <c r="S137" s="29"/>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:19">
-      <c r="A138" s="27"/>
+    <row r="138" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:19">
+      <c r="A138" s="52"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="D138" s="17"/>
@@ -6568,11 +6906,11 @@
       <c r="O138" s="27"/>
       <c r="P138" s="29"/>
       <c r="Q138" s="29"/>
-      <c r="R138" s="48"/>
+      <c r="R138" s="56"/>
       <c r="S138" s="29"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:19">
-      <c r="A139" s="27"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
       <c r="D139" s="17"/>
@@ -6589,10 +6927,10 @@
       <c r="O139" s="27"/>
       <c r="P139" s="29"/>
       <c r="Q139" s="29"/>
-      <c r="R139" s="48"/>
+      <c r="R139" s="56"/>
       <c r="S139" s="29"/>
     </row>
-    <row r="140" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:19">
+    <row r="140" s="2" customFormat="1" spans="1:19">
       <c r="A140" s="52"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -6613,7 +6951,7 @@
       <c r="R140" s="56"/>
       <c r="S140" s="29"/>
     </row>
-    <row r="141" s="2" customFormat="1" ht="13.9" customHeight="1" spans="1:19">
+    <row r="141" s="2" customFormat="1" spans="1:19">
       <c r="A141" s="52"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -6677,7 +7015,7 @@
       <c r="S143" s="29"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:19">
-      <c r="A144" s="52"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
       <c r="D144" s="17"/>
@@ -6687,7 +7025,7 @@
       <c r="H144" s="30"/>
       <c r="I144" s="30"/>
       <c r="J144" s="16"/>
-      <c r="K144" s="29"/>
+      <c r="K144" s="32"/>
       <c r="L144" s="29"/>
       <c r="M144" s="29"/>
       <c r="N144" s="28"/>
@@ -6695,10 +7033,10 @@
       <c r="P144" s="29"/>
       <c r="Q144" s="29"/>
       <c r="R144" s="56"/>
-      <c r="S144" s="29"/>
+      <c r="S144" s="32"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:19">
-      <c r="A145" s="52"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
       <c r="D145" s="17"/>
@@ -6716,10 +7054,10 @@
       <c r="P145" s="29"/>
       <c r="Q145" s="29"/>
       <c r="R145" s="56"/>
-      <c r="S145" s="29"/>
+      <c r="S145" s="32"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:19">
-      <c r="A146" s="52"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
       <c r="D146" s="17"/>
@@ -6729,15 +7067,15 @@
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
       <c r="J146" s="16"/>
-      <c r="K146" s="29"/>
+      <c r="K146" s="32"/>
       <c r="L146" s="29"/>
       <c r="M146" s="29"/>
-      <c r="N146" s="28"/>
-      <c r="O146" s="27"/>
+      <c r="N146" s="34"/>
+      <c r="O146" s="33"/>
       <c r="P146" s="29"/>
       <c r="Q146" s="29"/>
       <c r="R146" s="56"/>
-      <c r="S146" s="29"/>
+      <c r="S146" s="32"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:19">
       <c r="A147" s="33"/>
@@ -6750,14 +7088,14 @@
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
       <c r="J147" s="16"/>
-      <c r="K147" s="32"/>
+      <c r="K147" s="29"/>
       <c r="L147" s="29"/>
       <c r="M147" s="29"/>
       <c r="N147" s="28"/>
       <c r="O147" s="27"/>
       <c r="P147" s="29"/>
       <c r="Q147" s="29"/>
-      <c r="R147" s="56"/>
+      <c r="R147" s="48"/>
       <c r="S147" s="32"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:19">
@@ -6793,10 +7131,10 @@
       <c r="I149" s="30"/>
       <c r="J149" s="16"/>
       <c r="K149" s="32"/>
-      <c r="L149" s="29"/>
+      <c r="L149" s="32"/>
       <c r="M149" s="29"/>
-      <c r="N149" s="34"/>
-      <c r="O149" s="33"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="27"/>
       <c r="P149" s="29"/>
       <c r="Q149" s="29"/>
       <c r="R149" s="56"/>
@@ -6813,14 +7151,14 @@
       <c r="H150" s="30"/>
       <c r="I150" s="30"/>
       <c r="J150" s="16"/>
-      <c r="K150" s="29"/>
+      <c r="K150" s="32"/>
       <c r="L150" s="29"/>
       <c r="M150" s="29"/>
       <c r="N150" s="28"/>
       <c r="O150" s="27"/>
       <c r="P150" s="29"/>
       <c r="Q150" s="29"/>
-      <c r="R150" s="48"/>
+      <c r="R150" s="56"/>
       <c r="S150" s="32"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:19">
@@ -6834,8 +7172,8 @@
       <c r="H151" s="30"/>
       <c r="I151" s="30"/>
       <c r="J151" s="16"/>
-      <c r="K151" s="29"/>
-      <c r="L151" s="29"/>
+      <c r="K151" s="32"/>
+      <c r="L151" s="32"/>
       <c r="M151" s="29"/>
       <c r="N151" s="28"/>
       <c r="O151" s="27"/>
@@ -6856,7 +7194,7 @@
       <c r="I152" s="30"/>
       <c r="J152" s="16"/>
       <c r="K152" s="32"/>
-      <c r="L152" s="32"/>
+      <c r="L152" s="29"/>
       <c r="M152" s="29"/>
       <c r="N152" s="28"/>
       <c r="O152" s="27"/>
@@ -6880,14 +7218,14 @@
       <c r="L153" s="29"/>
       <c r="M153" s="29"/>
       <c r="N153" s="28"/>
-      <c r="O153" s="27"/>
+      <c r="O153" s="33"/>
       <c r="P153" s="29"/>
       <c r="Q153" s="29"/>
-      <c r="R153" s="56"/>
+      <c r="R153" s="48"/>
       <c r="S153" s="32"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:19">
-      <c r="A154" s="33"/>
+      <c r="A154" s="27"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
       <c r="D154" s="17"/>
@@ -6897,18 +7235,18 @@
       <c r="H154" s="30"/>
       <c r="I154" s="30"/>
       <c r="J154" s="16"/>
-      <c r="K154" s="32"/>
-      <c r="L154" s="32"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
       <c r="M154" s="29"/>
-      <c r="N154" s="28"/>
+      <c r="N154" s="34"/>
       <c r="O154" s="27"/>
       <c r="P154" s="29"/>
       <c r="Q154" s="29"/>
-      <c r="R154" s="56"/>
-      <c r="S154" s="32"/>
+      <c r="R154" s="48"/>
+      <c r="S154" s="29"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:19">
-      <c r="A155" s="33"/>
+      <c r="A155" s="52"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
       <c r="D155" s="17"/>
@@ -6921,15 +7259,15 @@
       <c r="K155" s="32"/>
       <c r="L155" s="29"/>
       <c r="M155" s="29"/>
-      <c r="N155" s="28"/>
-      <c r="O155" s="27"/>
+      <c r="N155" s="34"/>
+      <c r="O155" s="33"/>
       <c r="P155" s="29"/>
       <c r="Q155" s="29"/>
       <c r="R155" s="56"/>
-      <c r="S155" s="32"/>
+      <c r="S155" s="29"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:19">
-      <c r="A156" s="33"/>
+      <c r="A156" s="27"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
       <c r="D156" s="17"/>
@@ -6939,18 +7277,18 @@
       <c r="H156" s="30"/>
       <c r="I156" s="30"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="32"/>
+      <c r="K156" s="29"/>
       <c r="L156" s="29"/>
       <c r="M156" s="29"/>
       <c r="N156" s="28"/>
-      <c r="O156" s="33"/>
+      <c r="O156" s="27"/>
       <c r="P156" s="29"/>
       <c r="Q156" s="29"/>
       <c r="R156" s="48"/>
-      <c r="S156" s="32"/>
+      <c r="S156" s="29"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:19">
-      <c r="A157" s="27"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
       <c r="D157" s="17"/>
@@ -6963,15 +7301,15 @@
       <c r="K157" s="29"/>
       <c r="L157" s="29"/>
       <c r="M157" s="29"/>
-      <c r="N157" s="34"/>
+      <c r="N157" s="28"/>
       <c r="O157" s="27"/>
       <c r="P157" s="29"/>
       <c r="Q157" s="29"/>
-      <c r="R157" s="48"/>
+      <c r="R157" s="56"/>
       <c r="S157" s="29"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:19">
-      <c r="A158" s="52"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="D158" s="17"/>
@@ -6981,14 +7319,14 @@
       <c r="H158" s="30"/>
       <c r="I158" s="30"/>
       <c r="J158" s="16"/>
-      <c r="K158" s="32"/>
-      <c r="L158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="57"/>
       <c r="M158" s="29"/>
-      <c r="N158" s="34"/>
-      <c r="O158" s="33"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="27"/>
       <c r="P158" s="29"/>
       <c r="Q158" s="29"/>
-      <c r="R158" s="56"/>
+      <c r="R158" s="48"/>
       <c r="S158" s="29"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:19">
@@ -7003,7 +7341,7 @@
       <c r="I159" s="30"/>
       <c r="J159" s="16"/>
       <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
+      <c r="L159" s="57"/>
       <c r="M159" s="29"/>
       <c r="N159" s="28"/>
       <c r="O159" s="27"/>
@@ -7013,7 +7351,7 @@
       <c r="S159" s="29"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:19">
-      <c r="A160" s="33"/>
+      <c r="A160" s="27"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
       <c r="D160" s="17"/>
@@ -7024,17 +7362,17 @@
       <c r="I160" s="30"/>
       <c r="J160" s="16"/>
       <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
+      <c r="L160" s="57"/>
       <c r="M160" s="29"/>
       <c r="N160" s="28"/>
       <c r="O160" s="27"/>
       <c r="P160" s="29"/>
       <c r="Q160" s="29"/>
-      <c r="R160" s="56"/>
+      <c r="R160" s="48"/>
       <c r="S160" s="29"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:19">
-      <c r="A161" s="33"/>
+      <c r="A161" s="27"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
       <c r="D161" s="17"/>
@@ -7139,7 +7477,7 @@
       <c r="S165" s="29"/>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:19">
-      <c r="A166" s="27"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
       <c r="D166" s="17"/>
@@ -7149,14 +7487,14 @@
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
       <c r="J166" s="16"/>
-      <c r="K166" s="29"/>
-      <c r="L166" s="57"/>
-      <c r="M166" s="29"/>
-      <c r="N166" s="28"/>
-      <c r="O166" s="27"/>
+      <c r="K166" s="32"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="32"/>
+      <c r="N166" s="34"/>
+      <c r="O166" s="33"/>
       <c r="P166" s="29"/>
       <c r="Q166" s="29"/>
-      <c r="R166" s="48"/>
+      <c r="R166" s="56"/>
       <c r="S166" s="29"/>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:19">
@@ -7214,7 +7552,7 @@
       <c r="J169" s="16"/>
       <c r="K169" s="32"/>
       <c r="L169" s="29"/>
-      <c r="M169" s="32"/>
+      <c r="M169" s="29"/>
       <c r="N169" s="34"/>
       <c r="O169" s="33"/>
       <c r="P169" s="29"/>
@@ -7234,7 +7572,7 @@
       <c r="I170" s="30"/>
       <c r="J170" s="16"/>
       <c r="K170" s="29"/>
-      <c r="L170" s="57"/>
+      <c r="L170" s="29"/>
       <c r="M170" s="29"/>
       <c r="N170" s="28"/>
       <c r="O170" s="27"/>
@@ -7244,7 +7582,7 @@
       <c r="S170" s="29"/>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:19">
-      <c r="A171" s="27"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
       <c r="D171" s="17"/>
@@ -7255,13 +7593,13 @@
       <c r="I171" s="30"/>
       <c r="J171" s="16"/>
       <c r="K171" s="29"/>
-      <c r="L171" s="57"/>
+      <c r="L171" s="29"/>
       <c r="M171" s="29"/>
       <c r="N171" s="28"/>
       <c r="O171" s="27"/>
       <c r="P171" s="29"/>
       <c r="Q171" s="29"/>
-      <c r="R171" s="48"/>
+      <c r="R171" s="56"/>
       <c r="S171" s="29"/>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:19">
@@ -7275,11 +7613,11 @@
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
       <c r="J172" s="16"/>
-      <c r="K172" s="32"/>
-      <c r="L172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="57"/>
       <c r="M172" s="29"/>
-      <c r="N172" s="34"/>
-      <c r="O172" s="33"/>
+      <c r="N172" s="28"/>
+      <c r="O172" s="27"/>
       <c r="P172" s="29"/>
       <c r="Q172" s="29"/>
       <c r="R172" s="56"/>
@@ -7297,7 +7635,7 @@
       <c r="I173" s="30"/>
       <c r="J173" s="16"/>
       <c r="K173" s="29"/>
-      <c r="L173" s="29"/>
+      <c r="L173" s="57"/>
       <c r="M173" s="29"/>
       <c r="N173" s="28"/>
       <c r="O173" s="27"/>
@@ -7307,7 +7645,7 @@
       <c r="S173" s="29"/>
     </row>
     <row r="174" s="2" customFormat="1" spans="1:19">
-      <c r="A174" s="33"/>
+      <c r="A174" s="27"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
       <c r="D174" s="17"/>
@@ -7318,17 +7656,17 @@
       <c r="I174" s="30"/>
       <c r="J174" s="16"/>
       <c r="K174" s="29"/>
-      <c r="L174" s="29"/>
+      <c r="L174" s="57"/>
       <c r="M174" s="29"/>
       <c r="N174" s="28"/>
       <c r="O174" s="27"/>
       <c r="P174" s="29"/>
       <c r="Q174" s="29"/>
-      <c r="R174" s="56"/>
+      <c r="R174" s="48"/>
       <c r="S174" s="29"/>
     </row>
     <row r="175" s="2" customFormat="1" spans="1:19">
-      <c r="A175" s="33"/>
+      <c r="A175" s="27"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
       <c r="D175" s="17"/>
@@ -7345,7 +7683,7 @@
       <c r="O175" s="27"/>
       <c r="P175" s="29"/>
       <c r="Q175" s="29"/>
-      <c r="R175" s="56"/>
+      <c r="R175" s="48"/>
       <c r="S175" s="29"/>
     </row>
     <row r="176" s="2" customFormat="1" spans="1:19">
@@ -7391,7 +7729,7 @@
       <c r="S177" s="29"/>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:19">
-      <c r="A178" s="27"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
       <c r="D178" s="17"/>
@@ -7401,14 +7739,14 @@
       <c r="H178" s="30"/>
       <c r="I178" s="30"/>
       <c r="J178" s="16"/>
-      <c r="K178" s="29"/>
-      <c r="L178" s="57"/>
+      <c r="K178" s="32"/>
+      <c r="L178" s="29"/>
       <c r="M178" s="29"/>
-      <c r="N178" s="28"/>
-      <c r="O178" s="27"/>
+      <c r="N178" s="34"/>
+      <c r="O178" s="33"/>
       <c r="P178" s="29"/>
       <c r="Q178" s="29"/>
-      <c r="R178" s="48"/>
+      <c r="R178" s="56"/>
       <c r="S178" s="29"/>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:19">
@@ -7423,7 +7761,7 @@
       <c r="I179" s="30"/>
       <c r="J179" s="16"/>
       <c r="K179" s="29"/>
-      <c r="L179" s="57"/>
+      <c r="L179" s="29"/>
       <c r="M179" s="29"/>
       <c r="N179" s="28"/>
       <c r="O179" s="27"/>
@@ -7432,7 +7770,7 @@
       <c r="R179" s="48"/>
       <c r="S179" s="29"/>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:19">
+    <row r="180" s="2" customFormat="1" ht="14.45" customHeight="1" spans="1:19">
       <c r="A180" s="27"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
@@ -7444,17 +7782,17 @@
       <c r="I180" s="30"/>
       <c r="J180" s="16"/>
       <c r="K180" s="29"/>
-      <c r="L180" s="57"/>
+      <c r="L180" s="29"/>
       <c r="M180" s="29"/>
       <c r="N180" s="28"/>
       <c r="O180" s="27"/>
       <c r="P180" s="29"/>
       <c r="Q180" s="29"/>
-      <c r="R180" s="48"/>
+      <c r="R180" s="29"/>
       <c r="S180" s="29"/>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:19">
-      <c r="A181" s="33"/>
+      <c r="A181" s="27"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
       <c r="D181" s="17"/>
@@ -7464,14 +7802,14 @@
       <c r="H181" s="30"/>
       <c r="I181" s="30"/>
       <c r="J181" s="16"/>
-      <c r="K181" s="32"/>
+      <c r="K181" s="29"/>
       <c r="L181" s="29"/>
       <c r="M181" s="29"/>
-      <c r="N181" s="34"/>
-      <c r="O181" s="33"/>
+      <c r="N181" s="28"/>
+      <c r="O181" s="27"/>
       <c r="P181" s="29"/>
       <c r="Q181" s="29"/>
-      <c r="R181" s="56"/>
+      <c r="R181" s="29"/>
       <c r="S181" s="29"/>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:19">
@@ -7485,17 +7823,17 @@
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
       <c r="J182" s="16"/>
-      <c r="K182" s="29"/>
+      <c r="K182" s="32"/>
       <c r="L182" s="29"/>
       <c r="M182" s="29"/>
       <c r="N182" s="28"/>
       <c r="O182" s="27"/>
       <c r="P182" s="29"/>
       <c r="Q182" s="29"/>
-      <c r="R182" s="48"/>
+      <c r="R182" s="29"/>
       <c r="S182" s="29"/>
     </row>
-    <row r="183" s="2" customFormat="1" ht="14.45" customHeight="1" spans="1:19">
+    <row r="183" s="2" customFormat="1" spans="1:19">
       <c r="A183" s="27"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -7522,7 +7860,7 @@
       <c r="C184" s="16"/>
       <c r="D184" s="17"/>
       <c r="E184" s="16"/>
-      <c r="F184" s="28"/>
+      <c r="F184" s="34"/>
       <c r="G184" s="29"/>
       <c r="H184" s="30"/>
       <c r="I184" s="30"/>
@@ -7534,7 +7872,7 @@
       <c r="O184" s="27"/>
       <c r="P184" s="29"/>
       <c r="Q184" s="29"/>
-      <c r="R184" s="29"/>
+      <c r="R184" s="48"/>
       <c r="S184" s="29"/>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:19">
@@ -7548,14 +7886,14 @@
       <c r="H185" s="30"/>
       <c r="I185" s="30"/>
       <c r="J185" s="16"/>
-      <c r="K185" s="32"/>
+      <c r="K185" s="29"/>
       <c r="L185" s="29"/>
       <c r="M185" s="29"/>
       <c r="N185" s="28"/>
       <c r="O185" s="27"/>
       <c r="P185" s="29"/>
       <c r="Q185" s="29"/>
-      <c r="R185" s="29"/>
+      <c r="R185" s="48"/>
       <c r="S185" s="29"/>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:19">
@@ -7576,7 +7914,7 @@
       <c r="O186" s="27"/>
       <c r="P186" s="29"/>
       <c r="Q186" s="29"/>
-      <c r="R186" s="29"/>
+      <c r="R186" s="48"/>
       <c r="S186" s="29"/>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:19">
@@ -7585,7 +7923,7 @@
       <c r="C187" s="16"/>
       <c r="D187" s="17"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="34"/>
+      <c r="F187" s="28"/>
       <c r="G187" s="29"/>
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
@@ -7622,7 +7960,7 @@
       <c r="S188" s="29"/>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:19">
-      <c r="A189" s="27"/>
+      <c r="A189" s="33"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
       <c r="D189" s="17"/>
@@ -7643,7 +7981,7 @@
       <c r="S189" s="29"/>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:19">
-      <c r="A190" s="27"/>
+      <c r="A190" s="33"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
       <c r="D190" s="17"/>
@@ -7664,7 +8002,7 @@
       <c r="S190" s="29"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:19">
-      <c r="A191" s="27"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
       <c r="D191" s="17"/>
@@ -7681,11 +8019,11 @@
       <c r="O191" s="27"/>
       <c r="P191" s="29"/>
       <c r="Q191" s="29"/>
-      <c r="R191" s="48"/>
+      <c r="R191" s="29"/>
       <c r="S191" s="29"/>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:19">
-      <c r="A192" s="33"/>
+      <c r="A192" s="28"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
       <c r="D192" s="17"/>
@@ -7696,17 +8034,17 @@
       <c r="I192" s="30"/>
       <c r="J192" s="16"/>
       <c r="K192" s="29"/>
-      <c r="L192" s="29"/>
-      <c r="M192" s="29"/>
+      <c r="L192" s="32"/>
+      <c r="M192" s="32"/>
       <c r="N192" s="28"/>
       <c r="O192" s="27"/>
       <c r="P192" s="29"/>
       <c r="Q192" s="29"/>
-      <c r="R192" s="48"/>
+      <c r="R192" s="29"/>
       <c r="S192" s="29"/>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:19">
-      <c r="A193" s="33"/>
+      <c r="A193" s="28"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
       <c r="D193" s="17"/>
@@ -7723,7 +8061,7 @@
       <c r="O193" s="27"/>
       <c r="P193" s="29"/>
       <c r="Q193" s="29"/>
-      <c r="R193" s="48"/>
+      <c r="R193" s="29"/>
       <c r="S193" s="29"/>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:19">
@@ -7759,8 +8097,8 @@
       <c r="I195" s="30"/>
       <c r="J195" s="16"/>
       <c r="K195" s="29"/>
-      <c r="L195" s="32"/>
-      <c r="M195" s="32"/>
+      <c r="L195" s="29"/>
+      <c r="M195" s="29"/>
       <c r="N195" s="28"/>
       <c r="O195" s="27"/>
       <c r="P195" s="29"/>
@@ -7800,11 +8138,11 @@
       <c r="H197" s="30"/>
       <c r="I197" s="30"/>
       <c r="J197" s="16"/>
-      <c r="K197" s="29"/>
+      <c r="K197" s="32"/>
       <c r="L197" s="29"/>
       <c r="M197" s="29"/>
-      <c r="N197" s="28"/>
-      <c r="O197" s="27"/>
+      <c r="N197" s="34"/>
+      <c r="O197" s="33"/>
       <c r="P197" s="29"/>
       <c r="Q197" s="29"/>
       <c r="R197" s="29"/>
@@ -7821,7 +8159,7 @@
       <c r="H198" s="30"/>
       <c r="I198" s="30"/>
       <c r="J198" s="16"/>
-      <c r="K198" s="29"/>
+      <c r="K198" s="32"/>
       <c r="L198" s="29"/>
       <c r="M198" s="29"/>
       <c r="N198" s="28"/>
@@ -7863,10 +8201,10 @@
       <c r="H200" s="30"/>
       <c r="I200" s="30"/>
       <c r="J200" s="16"/>
-      <c r="K200" s="32"/>
+      <c r="K200" s="29"/>
       <c r="L200" s="29"/>
       <c r="M200" s="29"/>
-      <c r="N200" s="34"/>
+      <c r="N200" s="28"/>
       <c r="O200" s="33"/>
       <c r="P200" s="29"/>
       <c r="Q200" s="29"/>
@@ -7884,11 +8222,11 @@
       <c r="H201" s="30"/>
       <c r="I201" s="30"/>
       <c r="J201" s="16"/>
-      <c r="K201" s="32"/>
+      <c r="K201" s="29"/>
       <c r="L201" s="29"/>
       <c r="M201" s="29"/>
       <c r="N201" s="28"/>
-      <c r="O201" s="27"/>
+      <c r="O201" s="33"/>
       <c r="P201" s="29"/>
       <c r="Q201" s="29"/>
       <c r="R201" s="29"/>
@@ -7909,7 +8247,7 @@
       <c r="L202" s="29"/>
       <c r="M202" s="29"/>
       <c r="N202" s="28"/>
-      <c r="O202" s="27"/>
+      <c r="O202" s="33"/>
       <c r="P202" s="29"/>
       <c r="Q202" s="29"/>
       <c r="R202" s="29"/>
@@ -7926,11 +8264,11 @@
       <c r="H203" s="30"/>
       <c r="I203" s="30"/>
       <c r="J203" s="16"/>
-      <c r="K203" s="29"/>
+      <c r="K203" s="32"/>
       <c r="L203" s="29"/>
       <c r="M203" s="29"/>
       <c r="N203" s="28"/>
-      <c r="O203" s="33"/>
+      <c r="O203" s="27"/>
       <c r="P203" s="29"/>
       <c r="Q203" s="29"/>
       <c r="R203" s="29"/>
@@ -7972,14 +8310,14 @@
       <c r="L205" s="29"/>
       <c r="M205" s="29"/>
       <c r="N205" s="28"/>
-      <c r="O205" s="33"/>
+      <c r="O205" s="27"/>
       <c r="P205" s="29"/>
       <c r="Q205" s="29"/>
       <c r="R205" s="29"/>
       <c r="S205" s="29"/>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:19">
-      <c r="A206" s="28"/>
+      <c r="A206" s="27"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
       <c r="D206" s="17"/>
@@ -7989,18 +8327,18 @@
       <c r="H206" s="30"/>
       <c r="I206" s="30"/>
       <c r="J206" s="16"/>
-      <c r="K206" s="32"/>
+      <c r="K206" s="29"/>
       <c r="L206" s="29"/>
       <c r="M206" s="29"/>
       <c r="N206" s="28"/>
       <c r="O206" s="27"/>
       <c r="P206" s="29"/>
       <c r="Q206" s="29"/>
-      <c r="R206" s="29"/>
+      <c r="R206" s="48"/>
       <c r="S206" s="29"/>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:19">
-      <c r="A207" s="28"/>
+      <c r="A207" s="27"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
       <c r="D207" s="17"/>
@@ -8014,14 +8352,14 @@
       <c r="L207" s="29"/>
       <c r="M207" s="29"/>
       <c r="N207" s="28"/>
-      <c r="O207" s="33"/>
+      <c r="O207" s="27"/>
       <c r="P207" s="29"/>
       <c r="Q207" s="29"/>
-      <c r="R207" s="29"/>
+      <c r="R207" s="48"/>
       <c r="S207" s="29"/>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:19">
-      <c r="A208" s="28"/>
+      <c r="A208" s="27"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
       <c r="D208" s="17"/>
@@ -8038,7 +8376,7 @@
       <c r="O208" s="27"/>
       <c r="P208" s="29"/>
       <c r="Q208" s="29"/>
-      <c r="R208" s="29"/>
+      <c r="R208" s="48"/>
       <c r="S208" s="29"/>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:19">
@@ -8305,7 +8643,7 @@
       <c r="I221" s="30"/>
       <c r="J221" s="16"/>
       <c r="K221" s="29"/>
-      <c r="L221" s="29"/>
+      <c r="L221" s="53"/>
       <c r="M221" s="29"/>
       <c r="N221" s="28"/>
       <c r="O221" s="27"/>
@@ -8326,7 +8664,7 @@
       <c r="I222" s="30"/>
       <c r="J222" s="16"/>
       <c r="K222" s="29"/>
-      <c r="L222" s="29"/>
+      <c r="L222" s="53"/>
       <c r="M222" s="29"/>
       <c r="N222" s="28"/>
       <c r="O222" s="27"/>
@@ -8347,7 +8685,7 @@
       <c r="I223" s="30"/>
       <c r="J223" s="16"/>
       <c r="K223" s="29"/>
-      <c r="L223" s="29"/>
+      <c r="L223" s="53"/>
       <c r="M223" s="29"/>
       <c r="N223" s="28"/>
       <c r="O223" s="27"/>
@@ -8441,7 +8779,7 @@
       <c r="S227" s="29"/>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:19">
-      <c r="A228" s="27"/>
+      <c r="A228" s="33"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
       <c r="D228" s="17"/>
@@ -8451,14 +8789,14 @@
       <c r="H228" s="30"/>
       <c r="I228" s="30"/>
       <c r="J228" s="16"/>
-      <c r="K228" s="29"/>
-      <c r="L228" s="53"/>
+      <c r="K228" s="32"/>
+      <c r="L228" s="29"/>
       <c r="M228" s="29"/>
-      <c r="N228" s="28"/>
-      <c r="O228" s="27"/>
+      <c r="N228" s="34"/>
+      <c r="O228" s="33"/>
       <c r="P228" s="29"/>
       <c r="Q228" s="29"/>
-      <c r="R228" s="48"/>
+      <c r="R228" s="56"/>
       <c r="S228" s="29"/>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:19">
@@ -8504,7 +8842,7 @@
       <c r="S230" s="29"/>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:19">
-      <c r="A231" s="33"/>
+      <c r="A231" s="27"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
       <c r="D231" s="17"/>
@@ -8514,14 +8852,14 @@
       <c r="H231" s="30"/>
       <c r="I231" s="30"/>
       <c r="J231" s="16"/>
-      <c r="K231" s="32"/>
-      <c r="L231" s="29"/>
+      <c r="K231" s="29"/>
+      <c r="L231" s="53"/>
       <c r="M231" s="29"/>
-      <c r="N231" s="34"/>
-      <c r="O231" s="33"/>
+      <c r="N231" s="28"/>
+      <c r="O231" s="27"/>
       <c r="P231" s="29"/>
       <c r="Q231" s="29"/>
-      <c r="R231" s="56"/>
+      <c r="R231" s="48"/>
       <c r="S231" s="29"/>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:19">
@@ -8651,7 +8989,7 @@
       <c r="S237" s="29"/>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:19">
-      <c r="A238" s="27"/>
+      <c r="A238" s="33"/>
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
       <c r="D238" s="17"/>
@@ -8661,18 +8999,18 @@
       <c r="H238" s="30"/>
       <c r="I238" s="30"/>
       <c r="J238" s="16"/>
-      <c r="K238" s="29"/>
-      <c r="L238" s="53"/>
+      <c r="K238" s="32"/>
+      <c r="L238" s="29"/>
       <c r="M238" s="29"/>
-      <c r="N238" s="28"/>
-      <c r="O238" s="27"/>
+      <c r="N238" s="34"/>
+      <c r="O238" s="33"/>
       <c r="P238" s="29"/>
       <c r="Q238" s="29"/>
-      <c r="R238" s="48"/>
+      <c r="R238" s="56"/>
       <c r="S238" s="29"/>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:19">
-      <c r="A239" s="27"/>
+      <c r="A239" s="33"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
       <c r="D239" s="17"/>
@@ -8682,14 +9020,14 @@
       <c r="H239" s="30"/>
       <c r="I239" s="30"/>
       <c r="J239" s="16"/>
-      <c r="K239" s="29"/>
-      <c r="L239" s="53"/>
+      <c r="K239" s="32"/>
+      <c r="L239" s="29"/>
       <c r="M239" s="29"/>
       <c r="N239" s="28"/>
       <c r="O239" s="27"/>
       <c r="P239" s="29"/>
       <c r="Q239" s="29"/>
-      <c r="R239" s="48"/>
+      <c r="R239" s="56"/>
       <c r="S239" s="29"/>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:19">
@@ -8714,7 +9052,7 @@
       <c r="S240" s="29"/>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:19">
-      <c r="A241" s="33"/>
+      <c r="A241" s="27"/>
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
       <c r="D241" s="17"/>
@@ -8724,18 +9062,18 @@
       <c r="H241" s="30"/>
       <c r="I241" s="30"/>
       <c r="J241" s="16"/>
-      <c r="K241" s="32"/>
-      <c r="L241" s="29"/>
+      <c r="K241" s="29"/>
+      <c r="L241" s="53"/>
       <c r="M241" s="29"/>
-      <c r="N241" s="34"/>
-      <c r="O241" s="33"/>
+      <c r="N241" s="28"/>
+      <c r="O241" s="27"/>
       <c r="P241" s="29"/>
       <c r="Q241" s="29"/>
-      <c r="R241" s="56"/>
+      <c r="R241" s="48"/>
       <c r="S241" s="29"/>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:19">
-      <c r="A242" s="33"/>
+      <c r="A242" s="27"/>
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
       <c r="D242" s="17"/>
@@ -8745,14 +9083,14 @@
       <c r="H242" s="30"/>
       <c r="I242" s="30"/>
       <c r="J242" s="16"/>
-      <c r="K242" s="32"/>
-      <c r="L242" s="29"/>
+      <c r="K242" s="29"/>
+      <c r="L242" s="53"/>
       <c r="M242" s="29"/>
       <c r="N242" s="28"/>
       <c r="O242" s="27"/>
       <c r="P242" s="29"/>
       <c r="Q242" s="29"/>
-      <c r="R242" s="56"/>
+      <c r="R242" s="48"/>
       <c r="S242" s="29"/>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:19">
@@ -8798,7 +9136,7 @@
       <c r="S244" s="29"/>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:19">
-      <c r="A245" s="27"/>
+      <c r="A245" s="33"/>
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
       <c r="D245" s="17"/>
@@ -8808,14 +9146,14 @@
       <c r="H245" s="30"/>
       <c r="I245" s="30"/>
       <c r="J245" s="16"/>
-      <c r="K245" s="29"/>
-      <c r="L245" s="53"/>
+      <c r="K245" s="32"/>
+      <c r="L245" s="29"/>
       <c r="M245" s="29"/>
-      <c r="N245" s="28"/>
-      <c r="O245" s="27"/>
+      <c r="N245" s="34"/>
+      <c r="O245" s="33"/>
       <c r="P245" s="29"/>
       <c r="Q245" s="29"/>
-      <c r="R245" s="48"/>
+      <c r="R245" s="56"/>
       <c r="S245" s="29"/>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:19">
@@ -8861,7 +9199,7 @@
       <c r="S247" s="29"/>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:19">
-      <c r="A248" s="33"/>
+      <c r="A248" s="27"/>
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
       <c r="D248" s="17"/>
@@ -8871,18 +9209,18 @@
       <c r="H248" s="30"/>
       <c r="I248" s="30"/>
       <c r="J248" s="16"/>
-      <c r="K248" s="32"/>
-      <c r="L248" s="29"/>
+      <c r="K248" s="29"/>
+      <c r="L248" s="53"/>
       <c r="M248" s="29"/>
-      <c r="N248" s="34"/>
-      <c r="O248" s="33"/>
+      <c r="N248" s="28"/>
+      <c r="O248" s="27"/>
       <c r="P248" s="29"/>
       <c r="Q248" s="29"/>
-      <c r="R248" s="56"/>
+      <c r="R248" s="48"/>
       <c r="S248" s="29"/>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:19">
-      <c r="A249" s="27"/>
+      <c r="A249" s="33"/>
       <c r="B249" s="16"/>
       <c r="C249" s="16"/>
       <c r="D249" s="17"/>
@@ -8892,14 +9230,14 @@
       <c r="H249" s="30"/>
       <c r="I249" s="30"/>
       <c r="J249" s="16"/>
-      <c r="K249" s="29"/>
-      <c r="L249" s="53"/>
+      <c r="K249" s="32"/>
+      <c r="L249" s="29"/>
       <c r="M249" s="29"/>
-      <c r="N249" s="28"/>
-      <c r="O249" s="27"/>
+      <c r="N249" s="34"/>
+      <c r="O249" s="33"/>
       <c r="P249" s="29"/>
       <c r="Q249" s="29"/>
-      <c r="R249" s="48"/>
+      <c r="R249" s="56"/>
       <c r="S249" s="29"/>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:19">
@@ -8935,7 +9273,7 @@
       <c r="I251" s="30"/>
       <c r="J251" s="16"/>
       <c r="K251" s="29"/>
-      <c r="L251" s="53"/>
+      <c r="L251" s="29"/>
       <c r="M251" s="29"/>
       <c r="N251" s="28"/>
       <c r="O251" s="27"/>
@@ -8945,7 +9283,7 @@
       <c r="S251" s="29"/>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:19">
-      <c r="A252" s="33"/>
+      <c r="A252" s="27"/>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
       <c r="D252" s="17"/>
@@ -8955,14 +9293,14 @@
       <c r="H252" s="30"/>
       <c r="I252" s="30"/>
       <c r="J252" s="16"/>
-      <c r="K252" s="32"/>
-      <c r="L252" s="29"/>
+      <c r="K252" s="29"/>
+      <c r="L252" s="53"/>
       <c r="M252" s="29"/>
-      <c r="N252" s="34"/>
-      <c r="O252" s="33"/>
+      <c r="N252" s="28"/>
+      <c r="O252" s="27"/>
       <c r="P252" s="29"/>
       <c r="Q252" s="29"/>
-      <c r="R252" s="56"/>
+      <c r="R252" s="48"/>
       <c r="S252" s="29"/>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:19">
@@ -8998,7 +9336,7 @@
       <c r="I254" s="30"/>
       <c r="J254" s="16"/>
       <c r="K254" s="29"/>
-      <c r="L254" s="29"/>
+      <c r="L254" s="53"/>
       <c r="M254" s="29"/>
       <c r="N254" s="28"/>
       <c r="O254" s="27"/>
@@ -9092,7 +9430,7 @@
       <c r="S258" s="29"/>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:19">
-      <c r="A259" s="27"/>
+      <c r="A259" s="33"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
       <c r="D259" s="17"/>
@@ -9102,14 +9440,14 @@
       <c r="H259" s="30"/>
       <c r="I259" s="30"/>
       <c r="J259" s="16"/>
-      <c r="K259" s="29"/>
-      <c r="L259" s="53"/>
+      <c r="K259" s="32"/>
+      <c r="L259" s="29"/>
       <c r="M259" s="29"/>
-      <c r="N259" s="28"/>
-      <c r="O259" s="27"/>
+      <c r="N259" s="34"/>
+      <c r="O259" s="33"/>
       <c r="P259" s="29"/>
       <c r="Q259" s="29"/>
-      <c r="R259" s="48"/>
+      <c r="R259" s="56"/>
       <c r="S259" s="29"/>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:19">
@@ -9155,7 +9493,7 @@
       <c r="S261" s="29"/>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:19">
-      <c r="A262" s="33"/>
+      <c r="A262" s="27"/>
       <c r="B262" s="16"/>
       <c r="C262" s="16"/>
       <c r="D262" s="17"/>
@@ -9165,14 +9503,14 @@
       <c r="H262" s="30"/>
       <c r="I262" s="30"/>
       <c r="J262" s="16"/>
-      <c r="K262" s="32"/>
-      <c r="L262" s="29"/>
+      <c r="K262" s="29"/>
+      <c r="L262" s="53"/>
       <c r="M262" s="29"/>
-      <c r="N262" s="34"/>
-      <c r="O262" s="33"/>
+      <c r="N262" s="28"/>
+      <c r="O262" s="27"/>
       <c r="P262" s="29"/>
       <c r="Q262" s="29"/>
-      <c r="R262" s="56"/>
+      <c r="R262" s="48"/>
       <c r="S262" s="29"/>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:19">
@@ -9302,7 +9640,7 @@
       <c r="S268" s="29"/>
     </row>
     <row r="269" s="2" customFormat="1" spans="1:19">
-      <c r="A269" s="27"/>
+      <c r="A269" s="33"/>
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
       <c r="D269" s="17"/>
@@ -9312,18 +9650,18 @@
       <c r="H269" s="30"/>
       <c r="I269" s="30"/>
       <c r="J269" s="16"/>
-      <c r="K269" s="29"/>
-      <c r="L269" s="53"/>
+      <c r="K269" s="32"/>
+      <c r="L269" s="29"/>
       <c r="M269" s="29"/>
-      <c r="N269" s="28"/>
-      <c r="O269" s="27"/>
+      <c r="N269" s="34"/>
+      <c r="O269" s="33"/>
       <c r="P269" s="29"/>
       <c r="Q269" s="29"/>
-      <c r="R269" s="48"/>
+      <c r="R269" s="56"/>
       <c r="S269" s="29"/>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:19">
-      <c r="A270" s="27"/>
+      <c r="A270" s="33"/>
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
       <c r="D270" s="17"/>
@@ -9333,14 +9671,14 @@
       <c r="H270" s="30"/>
       <c r="I270" s="30"/>
       <c r="J270" s="16"/>
-      <c r="K270" s="29"/>
-      <c r="L270" s="53"/>
+      <c r="K270" s="32"/>
+      <c r="L270" s="29"/>
       <c r="M270" s="29"/>
-      <c r="N270" s="28"/>
-      <c r="O270" s="27"/>
+      <c r="N270" s="34"/>
+      <c r="O270" s="33"/>
       <c r="P270" s="29"/>
       <c r="Q270" s="29"/>
-      <c r="R270" s="48"/>
+      <c r="R270" s="56"/>
       <c r="S270" s="29"/>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:19">
@@ -9365,7 +9703,7 @@
       <c r="S271" s="29"/>
     </row>
     <row r="272" s="2" customFormat="1" spans="1:19">
-      <c r="A272" s="33"/>
+      <c r="A272" s="27"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
       <c r="D272" s="17"/>
@@ -9375,18 +9713,18 @@
       <c r="H272" s="30"/>
       <c r="I272" s="30"/>
       <c r="J272" s="16"/>
-      <c r="K272" s="32"/>
-      <c r="L272" s="29"/>
+      <c r="K272" s="29"/>
+      <c r="L272" s="53"/>
       <c r="M272" s="29"/>
-      <c r="N272" s="34"/>
-      <c r="O272" s="33"/>
+      <c r="N272" s="28"/>
+      <c r="O272" s="27"/>
       <c r="P272" s="29"/>
       <c r="Q272" s="29"/>
-      <c r="R272" s="56"/>
+      <c r="R272" s="48"/>
       <c r="S272" s="29"/>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:19">
-      <c r="A273" s="33"/>
+      <c r="A273" s="27"/>
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
       <c r="D273" s="17"/>
@@ -9396,14 +9734,14 @@
       <c r="H273" s="30"/>
       <c r="I273" s="30"/>
       <c r="J273" s="16"/>
-      <c r="K273" s="32"/>
-      <c r="L273" s="29"/>
+      <c r="K273" s="29"/>
+      <c r="L273" s="53"/>
       <c r="M273" s="29"/>
-      <c r="N273" s="34"/>
-      <c r="O273" s="33"/>
+      <c r="N273" s="28"/>
+      <c r="O273" s="27"/>
       <c r="P273" s="29"/>
       <c r="Q273" s="29"/>
-      <c r="R273" s="56"/>
+      <c r="R273" s="48"/>
       <c r="S273" s="29"/>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:19">
@@ -9512,7 +9850,7 @@
       <c r="S278" s="29"/>
     </row>
     <row r="279" s="2" customFormat="1" spans="1:19">
-      <c r="A279" s="27"/>
+      <c r="A279" s="33"/>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
       <c r="D279" s="17"/>
@@ -9522,14 +9860,14 @@
       <c r="H279" s="30"/>
       <c r="I279" s="30"/>
       <c r="J279" s="16"/>
-      <c r="K279" s="29"/>
-      <c r="L279" s="53"/>
+      <c r="K279" s="32"/>
+      <c r="L279" s="29"/>
       <c r="M279" s="29"/>
-      <c r="N279" s="28"/>
-      <c r="O279" s="27"/>
+      <c r="N279" s="34"/>
+      <c r="O279" s="33"/>
       <c r="P279" s="29"/>
       <c r="Q279" s="29"/>
-      <c r="R279" s="48"/>
+      <c r="R279" s="56"/>
       <c r="S279" s="29"/>
     </row>
     <row r="280" s="2" customFormat="1" spans="1:19">
@@ -9544,7 +9882,7 @@
       <c r="I280" s="30"/>
       <c r="J280" s="16"/>
       <c r="K280" s="29"/>
-      <c r="L280" s="53"/>
+      <c r="L280" s="29"/>
       <c r="M280" s="29"/>
       <c r="N280" s="28"/>
       <c r="O280" s="27"/>
@@ -9565,7 +9903,7 @@
       <c r="I281" s="30"/>
       <c r="J281" s="16"/>
       <c r="K281" s="29"/>
-      <c r="L281" s="53"/>
+      <c r="L281" s="29"/>
       <c r="M281" s="29"/>
       <c r="N281" s="28"/>
       <c r="O281" s="27"/>
@@ -9575,7 +9913,7 @@
       <c r="S281" s="29"/>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:19">
-      <c r="A282" s="33"/>
+      <c r="A282" s="27"/>
       <c r="B282" s="16"/>
       <c r="C282" s="16"/>
       <c r="D282" s="17"/>
@@ -9585,14 +9923,14 @@
       <c r="H282" s="30"/>
       <c r="I282" s="30"/>
       <c r="J282" s="16"/>
-      <c r="K282" s="32"/>
+      <c r="K282" s="29"/>
       <c r="L282" s="29"/>
       <c r="M282" s="29"/>
-      <c r="N282" s="34"/>
-      <c r="O282" s="33"/>
+      <c r="N282" s="28"/>
+      <c r="O282" s="27"/>
       <c r="P282" s="29"/>
       <c r="Q282" s="29"/>
-      <c r="R282" s="56"/>
+      <c r="R282" s="48"/>
       <c r="S282" s="29"/>
     </row>
     <row r="283" s="2" customFormat="1" spans="1:19">
@@ -9610,7 +9948,7 @@
       <c r="L283" s="29"/>
       <c r="M283" s="29"/>
       <c r="N283" s="28"/>
-      <c r="O283" s="27"/>
+      <c r="O283" s="33"/>
       <c r="P283" s="29"/>
       <c r="Q283" s="29"/>
       <c r="R283" s="48"/>
@@ -9652,7 +9990,7 @@
       <c r="L285" s="29"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28"/>
-      <c r="O285" s="27"/>
+      <c r="O285" s="33"/>
       <c r="P285" s="29"/>
       <c r="Q285" s="29"/>
       <c r="R285" s="48"/>
@@ -9673,7 +10011,7 @@
       <c r="L286" s="29"/>
       <c r="M286" s="29"/>
       <c r="N286" s="28"/>
-      <c r="O286" s="33"/>
+      <c r="O286" s="27"/>
       <c r="P286" s="29"/>
       <c r="Q286" s="29"/>
       <c r="R286" s="48"/>
@@ -9715,7 +10053,7 @@
       <c r="L288" s="29"/>
       <c r="M288" s="29"/>
       <c r="N288" s="28"/>
-      <c r="O288" s="33"/>
+      <c r="O288" s="27"/>
       <c r="P288" s="29"/>
       <c r="Q288" s="29"/>
       <c r="R288" s="48"/>
@@ -9820,7 +10158,7 @@
       <c r="L293" s="29"/>
       <c r="M293" s="29"/>
       <c r="N293" s="28"/>
-      <c r="O293" s="27"/>
+      <c r="O293" s="33"/>
       <c r="P293" s="29"/>
       <c r="Q293" s="29"/>
       <c r="R293" s="48"/>
@@ -9841,7 +10179,7 @@
       <c r="L294" s="29"/>
       <c r="M294" s="29"/>
       <c r="N294" s="28"/>
-      <c r="O294" s="27"/>
+      <c r="O294" s="33"/>
       <c r="P294" s="29"/>
       <c r="Q294" s="29"/>
       <c r="R294" s="48"/>
@@ -9904,7 +10242,7 @@
       <c r="L297" s="29"/>
       <c r="M297" s="29"/>
       <c r="N297" s="28"/>
-      <c r="O297" s="33"/>
+      <c r="O297" s="27"/>
       <c r="P297" s="29"/>
       <c r="Q297" s="29"/>
       <c r="R297" s="48"/>
@@ -9938,7 +10276,7 @@
       <c r="D299" s="17"/>
       <c r="E299" s="16"/>
       <c r="F299" s="28"/>
-      <c r="G299" s="29"/>
+      <c r="G299" s="32"/>
       <c r="H299" s="30"/>
       <c r="I299" s="30"/>
       <c r="J299" s="16"/>
@@ -9946,7 +10284,7 @@
       <c r="L299" s="29"/>
       <c r="M299" s="29"/>
       <c r="N299" s="28"/>
-      <c r="O299" s="33"/>
+      <c r="O299" s="27"/>
       <c r="P299" s="29"/>
       <c r="Q299" s="29"/>
       <c r="R299" s="48"/>
@@ -9959,15 +10297,15 @@
       <c r="D300" s="17"/>
       <c r="E300" s="16"/>
       <c r="F300" s="28"/>
-      <c r="G300" s="29"/>
+      <c r="G300" s="32"/>
       <c r="H300" s="30"/>
       <c r="I300" s="30"/>
       <c r="J300" s="16"/>
       <c r="K300" s="29"/>
       <c r="L300" s="29"/>
       <c r="M300" s="29"/>
-      <c r="N300" s="28"/>
-      <c r="O300" s="27"/>
+      <c r="N300" s="34"/>
+      <c r="O300" s="33"/>
       <c r="P300" s="29"/>
       <c r="Q300" s="29"/>
       <c r="R300" s="48"/>
@@ -10001,7 +10339,7 @@
       <c r="D302" s="17"/>
       <c r="E302" s="16"/>
       <c r="F302" s="28"/>
-      <c r="G302" s="32"/>
+      <c r="G302" s="29"/>
       <c r="H302" s="30"/>
       <c r="I302" s="30"/>
       <c r="J302" s="16"/>
@@ -10009,7 +10347,7 @@
       <c r="L302" s="29"/>
       <c r="M302" s="29"/>
       <c r="N302" s="28"/>
-      <c r="O302" s="27"/>
+      <c r="O302" s="33"/>
       <c r="P302" s="29"/>
       <c r="Q302" s="29"/>
       <c r="R302" s="48"/>
@@ -10022,15 +10360,15 @@
       <c r="D303" s="17"/>
       <c r="E303" s="16"/>
       <c r="F303" s="28"/>
-      <c r="G303" s="32"/>
+      <c r="G303" s="29"/>
       <c r="H303" s="30"/>
       <c r="I303" s="30"/>
       <c r="J303" s="16"/>
       <c r="K303" s="29"/>
       <c r="L303" s="29"/>
       <c r="M303" s="29"/>
-      <c r="N303" s="34"/>
-      <c r="O303" s="33"/>
+      <c r="N303" s="28"/>
+      <c r="O303" s="27"/>
       <c r="P303" s="29"/>
       <c r="Q303" s="29"/>
       <c r="R303" s="48"/>
@@ -10072,7 +10410,7 @@
       <c r="L305" s="29"/>
       <c r="M305" s="29"/>
       <c r="N305" s="28"/>
-      <c r="O305" s="33"/>
+      <c r="O305" s="27"/>
       <c r="P305" s="29"/>
       <c r="Q305" s="29"/>
       <c r="R305" s="48"/>
@@ -10185,10 +10523,10 @@
     </row>
     <row r="311" s="2" customFormat="1" spans="1:19">
       <c r="A311" s="27"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
-      <c r="D311" s="17"/>
-      <c r="E311" s="16"/>
+      <c r="B311" s="29"/>
+      <c r="C311" s="29"/>
+      <c r="D311" s="29"/>
+      <c r="E311" s="29"/>
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
       <c r="H311" s="30"/>
@@ -10206,10 +10544,10 @@
     </row>
     <row r="312" s="2" customFormat="1" spans="1:19">
       <c r="A312" s="27"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="16"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="16"/>
+      <c r="B312" s="29"/>
+      <c r="C312" s="29"/>
+      <c r="D312" s="29"/>
+      <c r="E312" s="29"/>
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
       <c r="H312" s="30"/>
@@ -10227,10 +10565,10 @@
     </row>
     <row r="313" s="2" customFormat="1" spans="1:19">
       <c r="A313" s="27"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
-      <c r="D313" s="17"/>
-      <c r="E313" s="16"/>
+      <c r="B313" s="29"/>
+      <c r="C313" s="29"/>
+      <c r="D313" s="29"/>
+      <c r="E313" s="29"/>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
       <c r="H313" s="30"/>
@@ -10290,10 +10628,10 @@
     </row>
     <row r="316" s="2" customFormat="1" spans="1:19">
       <c r="A316" s="27"/>
-      <c r="B316" s="29"/>
-      <c r="C316" s="29"/>
-      <c r="D316" s="29"/>
-      <c r="E316" s="29"/>
+      <c r="B316" s="16"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="16"/>
       <c r="F316" s="28"/>
       <c r="G316" s="29"/>
       <c r="H316" s="30"/>
@@ -10311,10 +10649,10 @@
     </row>
     <row r="317" s="2" customFormat="1" spans="1:19">
       <c r="A317" s="27"/>
-      <c r="B317" s="29"/>
-      <c r="C317" s="29"/>
-      <c r="D317" s="29"/>
-      <c r="E317" s="29"/>
+      <c r="B317" s="16"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="17"/>
+      <c r="E317" s="16"/>
       <c r="F317" s="28"/>
       <c r="G317" s="29"/>
       <c r="H317" s="30"/>
@@ -10332,17 +10670,17 @@
     </row>
     <row r="318" s="2" customFormat="1" spans="1:19">
       <c r="A318" s="27"/>
-      <c r="B318" s="29"/>
-      <c r="C318" s="29"/>
-      <c r="D318" s="29"/>
-      <c r="E318" s="29"/>
+      <c r="B318" s="16"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="17"/>
+      <c r="E318" s="16"/>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
       <c r="H318" s="30"/>
       <c r="I318" s="30"/>
       <c r="J318" s="16"/>
       <c r="K318" s="29"/>
-      <c r="L318" s="29"/>
+      <c r="L318" s="53"/>
       <c r="M318" s="29"/>
       <c r="N318" s="28"/>
       <c r="O318" s="27"/>
@@ -10363,7 +10701,7 @@
       <c r="I319" s="30"/>
       <c r="J319" s="16"/>
       <c r="K319" s="29"/>
-      <c r="L319" s="29"/>
+      <c r="L319" s="53"/>
       <c r="M319" s="29"/>
       <c r="N319" s="28"/>
       <c r="O319" s="27"/>
@@ -10384,7 +10722,7 @@
       <c r="I320" s="30"/>
       <c r="J320" s="16"/>
       <c r="K320" s="29"/>
-      <c r="L320" s="29"/>
+      <c r="L320" s="53"/>
       <c r="M320" s="29"/>
       <c r="N320" s="28"/>
       <c r="O320" s="27"/>
@@ -10471,7 +10809,7 @@
       <c r="L324" s="53"/>
       <c r="M324" s="29"/>
       <c r="N324" s="28"/>
-      <c r="O324" s="27"/>
+      <c r="O324" s="52"/>
       <c r="P324" s="29"/>
       <c r="Q324" s="29"/>
       <c r="R324" s="48"/>
@@ -10534,7 +10872,7 @@
       <c r="L327" s="53"/>
       <c r="M327" s="29"/>
       <c r="N327" s="28"/>
-      <c r="O327" s="52"/>
+      <c r="O327" s="27"/>
       <c r="P327" s="29"/>
       <c r="Q327" s="29"/>
       <c r="R327" s="48"/>
@@ -10597,7 +10935,7 @@
       <c r="L330" s="53"/>
       <c r="M330" s="29"/>
       <c r="N330" s="28"/>
-      <c r="O330" s="27"/>
+      <c r="O330" s="52"/>
       <c r="P330" s="29"/>
       <c r="Q330" s="29"/>
       <c r="R330" s="48"/>
@@ -10660,7 +10998,7 @@
       <c r="L333" s="53"/>
       <c r="M333" s="29"/>
       <c r="N333" s="28"/>
-      <c r="O333" s="52"/>
+      <c r="O333" s="27"/>
       <c r="P333" s="29"/>
       <c r="Q333" s="29"/>
       <c r="R333" s="48"/>
@@ -10723,7 +11061,7 @@
       <c r="L336" s="53"/>
       <c r="M336" s="29"/>
       <c r="N336" s="28"/>
-      <c r="O336" s="27"/>
+      <c r="O336" s="52"/>
       <c r="P336" s="29"/>
       <c r="Q336" s="29"/>
       <c r="R336" s="48"/>
@@ -10786,7 +11124,7 @@
       <c r="L339" s="53"/>
       <c r="M339" s="29"/>
       <c r="N339" s="28"/>
-      <c r="O339" s="52"/>
+      <c r="O339" s="27"/>
       <c r="P339" s="29"/>
       <c r="Q339" s="29"/>
       <c r="R339" s="48"/>
@@ -10849,7 +11187,7 @@
       <c r="L342" s="53"/>
       <c r="M342" s="29"/>
       <c r="N342" s="28"/>
-      <c r="O342" s="27"/>
+      <c r="O342" s="52"/>
       <c r="P342" s="29"/>
       <c r="Q342" s="29"/>
       <c r="R342" s="48"/>
@@ -10912,7 +11250,7 @@
       <c r="L345" s="53"/>
       <c r="M345" s="29"/>
       <c r="N345" s="28"/>
-      <c r="O345" s="52"/>
+      <c r="O345" s="27"/>
       <c r="P345" s="29"/>
       <c r="Q345" s="29"/>
       <c r="R345" s="48"/>
@@ -10975,7 +11313,7 @@
       <c r="L348" s="53"/>
       <c r="M348" s="29"/>
       <c r="N348" s="28"/>
-      <c r="O348" s="27"/>
+      <c r="O348" s="52"/>
       <c r="P348" s="29"/>
       <c r="Q348" s="29"/>
       <c r="R348" s="48"/>
@@ -11038,7 +11376,7 @@
       <c r="L351" s="53"/>
       <c r="M351" s="29"/>
       <c r="N351" s="28"/>
-      <c r="O351" s="52"/>
+      <c r="O351" s="27"/>
       <c r="P351" s="29"/>
       <c r="Q351" s="29"/>
       <c r="R351" s="48"/>
@@ -11059,7 +11397,7 @@
       <c r="L352" s="53"/>
       <c r="M352" s="29"/>
       <c r="N352" s="28"/>
-      <c r="O352" s="27"/>
+      <c r="O352" s="52"/>
       <c r="P352" s="29"/>
       <c r="Q352" s="29"/>
       <c r="R352" s="48"/>
@@ -11122,7 +11460,7 @@
       <c r="L355" s="53"/>
       <c r="M355" s="29"/>
       <c r="N355" s="28"/>
-      <c r="O355" s="52"/>
+      <c r="O355" s="27"/>
       <c r="P355" s="29"/>
       <c r="Q355" s="29"/>
       <c r="R355" s="48"/>
@@ -11164,7 +11502,7 @@
       <c r="L357" s="53"/>
       <c r="M357" s="29"/>
       <c r="N357" s="28"/>
-      <c r="O357" s="27"/>
+      <c r="O357" s="52"/>
       <c r="P357" s="29"/>
       <c r="Q357" s="29"/>
       <c r="R357" s="48"/>
@@ -11182,7 +11520,7 @@
       <c r="I358" s="30"/>
       <c r="J358" s="16"/>
       <c r="K358" s="29"/>
-      <c r="L358" s="53"/>
+      <c r="L358" s="29"/>
       <c r="M358" s="29"/>
       <c r="N358" s="28"/>
       <c r="O358" s="27"/>
@@ -11227,7 +11565,7 @@
       <c r="L360" s="53"/>
       <c r="M360" s="29"/>
       <c r="N360" s="28"/>
-      <c r="O360" s="52"/>
+      <c r="O360" s="27"/>
       <c r="P360" s="29"/>
       <c r="Q360" s="29"/>
       <c r="R360" s="48"/>
@@ -11245,7 +11583,7 @@
       <c r="I361" s="30"/>
       <c r="J361" s="16"/>
       <c r="K361" s="29"/>
-      <c r="L361" s="29"/>
+      <c r="L361" s="53"/>
       <c r="M361" s="29"/>
       <c r="N361" s="28"/>
       <c r="O361" s="27"/>
@@ -11266,7 +11604,7 @@
       <c r="I362" s="30"/>
       <c r="J362" s="16"/>
       <c r="K362" s="29"/>
-      <c r="L362" s="53"/>
+      <c r="L362" s="29"/>
       <c r="M362" s="29"/>
       <c r="N362" s="28"/>
       <c r="O362" s="27"/>
@@ -11287,7 +11625,7 @@
       <c r="I363" s="30"/>
       <c r="J363" s="16"/>
       <c r="K363" s="29"/>
-      <c r="L363" s="53"/>
+      <c r="L363" s="29"/>
       <c r="M363" s="29"/>
       <c r="N363" s="28"/>
       <c r="O363" s="27"/>
@@ -11329,10 +11667,10 @@
       <c r="I365" s="30"/>
       <c r="J365" s="16"/>
       <c r="K365" s="29"/>
-      <c r="L365" s="29"/>
+      <c r="L365" s="53"/>
       <c r="M365" s="29"/>
       <c r="N365" s="28"/>
-      <c r="O365" s="27"/>
+      <c r="O365" s="52"/>
       <c r="P365" s="29"/>
       <c r="Q365" s="29"/>
       <c r="R365" s="48"/>
@@ -11395,7 +11733,7 @@
       <c r="L368" s="53"/>
       <c r="M368" s="29"/>
       <c r="N368" s="28"/>
-      <c r="O368" s="52"/>
+      <c r="O368" s="27"/>
       <c r="P368" s="29"/>
       <c r="Q368" s="29"/>
       <c r="R368" s="48"/>
@@ -11434,7 +11772,7 @@
       <c r="I370" s="30"/>
       <c r="J370" s="16"/>
       <c r="K370" s="29"/>
-      <c r="L370" s="53"/>
+      <c r="L370" s="29"/>
       <c r="M370" s="29"/>
       <c r="N370" s="28"/>
       <c r="O370" s="27"/>
@@ -11476,7 +11814,7 @@
       <c r="I372" s="30"/>
       <c r="J372" s="16"/>
       <c r="K372" s="29"/>
-      <c r="L372" s="29"/>
+      <c r="L372" s="53"/>
       <c r="M372" s="29"/>
       <c r="N372" s="28"/>
       <c r="O372" s="27"/>
@@ -11497,7 +11835,7 @@
       <c r="I373" s="30"/>
       <c r="J373" s="16"/>
       <c r="K373" s="29"/>
-      <c r="L373" s="29"/>
+      <c r="L373" s="53"/>
       <c r="M373" s="29"/>
       <c r="N373" s="28"/>
       <c r="O373" s="27"/>
@@ -11542,7 +11880,7 @@
       <c r="L375" s="53"/>
       <c r="M375" s="29"/>
       <c r="N375" s="28"/>
-      <c r="O375" s="27"/>
+      <c r="O375" s="52"/>
       <c r="P375" s="29"/>
       <c r="Q375" s="29"/>
       <c r="R375" s="48"/>
@@ -11560,7 +11898,7 @@
       <c r="I376" s="30"/>
       <c r="J376" s="16"/>
       <c r="K376" s="29"/>
-      <c r="L376" s="53"/>
+      <c r="L376" s="29"/>
       <c r="M376" s="29"/>
       <c r="N376" s="28"/>
       <c r="O376" s="27"/>
@@ -11605,7 +11943,7 @@
       <c r="L378" s="53"/>
       <c r="M378" s="29"/>
       <c r="N378" s="28"/>
-      <c r="O378" s="52"/>
+      <c r="O378" s="27"/>
       <c r="P378" s="29"/>
       <c r="Q378" s="29"/>
       <c r="R378" s="48"/>
@@ -11623,7 +11961,7 @@
       <c r="I379" s="30"/>
       <c r="J379" s="16"/>
       <c r="K379" s="29"/>
-      <c r="L379" s="29"/>
+      <c r="L379" s="53"/>
       <c r="M379" s="29"/>
       <c r="N379" s="28"/>
       <c r="O379" s="27"/>
@@ -11644,7 +11982,7 @@
       <c r="I380" s="30"/>
       <c r="J380" s="16"/>
       <c r="K380" s="29"/>
-      <c r="L380" s="53"/>
+      <c r="L380" s="29"/>
       <c r="M380" s="29"/>
       <c r="N380" s="28"/>
       <c r="O380" s="27"/>
@@ -11665,7 +12003,7 @@
       <c r="I381" s="30"/>
       <c r="J381" s="16"/>
       <c r="K381" s="29"/>
-      <c r="L381" s="53"/>
+      <c r="L381" s="29"/>
       <c r="M381" s="29"/>
       <c r="N381" s="28"/>
       <c r="O381" s="27"/>
@@ -11686,7 +12024,7 @@
       <c r="I382" s="30"/>
       <c r="J382" s="16"/>
       <c r="K382" s="29"/>
-      <c r="L382" s="53"/>
+      <c r="L382" s="29"/>
       <c r="M382" s="29"/>
       <c r="N382" s="28"/>
       <c r="O382" s="27"/>
@@ -11707,7 +12045,7 @@
       <c r="I383" s="30"/>
       <c r="J383" s="16"/>
       <c r="K383" s="29"/>
-      <c r="L383" s="29"/>
+      <c r="L383" s="53"/>
       <c r="M383" s="29"/>
       <c r="N383" s="28"/>
       <c r="O383" s="27"/>
@@ -11728,10 +12066,10 @@
       <c r="I384" s="30"/>
       <c r="J384" s="16"/>
       <c r="K384" s="29"/>
-      <c r="L384" s="29"/>
+      <c r="L384" s="53"/>
       <c r="M384" s="29"/>
       <c r="N384" s="28"/>
-      <c r="O384" s="27"/>
+      <c r="O384" s="52"/>
       <c r="P384" s="29"/>
       <c r="Q384" s="29"/>
       <c r="R384" s="48"/>
@@ -11794,7 +12132,7 @@
       <c r="L387" s="53"/>
       <c r="M387" s="29"/>
       <c r="N387" s="28"/>
-      <c r="O387" s="52"/>
+      <c r="O387" s="27"/>
       <c r="P387" s="29"/>
       <c r="Q387" s="29"/>
       <c r="R387" s="48"/>
@@ -11812,7 +12150,7 @@
       <c r="I388" s="30"/>
       <c r="J388" s="16"/>
       <c r="K388" s="29"/>
-      <c r="L388" s="29"/>
+      <c r="L388" s="53"/>
       <c r="M388" s="29"/>
       <c r="N388" s="28"/>
       <c r="O388" s="27"/>
@@ -11833,7 +12171,7 @@
       <c r="I389" s="30"/>
       <c r="J389" s="16"/>
       <c r="K389" s="29"/>
-      <c r="L389" s="53"/>
+      <c r="L389" s="29"/>
       <c r="M389" s="29"/>
       <c r="N389" s="28"/>
       <c r="O389" s="27"/>
@@ -11854,7 +12192,7 @@
       <c r="I390" s="30"/>
       <c r="J390" s="16"/>
       <c r="K390" s="29"/>
-      <c r="L390" s="53"/>
+      <c r="L390" s="29"/>
       <c r="M390" s="29"/>
       <c r="N390" s="28"/>
       <c r="O390" s="27"/>
@@ -11875,7 +12213,7 @@
       <c r="I391" s="30"/>
       <c r="J391" s="16"/>
       <c r="K391" s="29"/>
-      <c r="L391" s="53"/>
+      <c r="L391" s="29"/>
       <c r="M391" s="29"/>
       <c r="N391" s="28"/>
       <c r="O391" s="27"/>
@@ -11896,7 +12234,7 @@
       <c r="I392" s="30"/>
       <c r="J392" s="16"/>
       <c r="K392" s="29"/>
-      <c r="L392" s="29"/>
+      <c r="L392" s="53"/>
       <c r="M392" s="29"/>
       <c r="N392" s="28"/>
       <c r="O392" s="27"/>
@@ -11917,10 +12255,10 @@
       <c r="I393" s="30"/>
       <c r="J393" s="16"/>
       <c r="K393" s="29"/>
-      <c r="L393" s="29"/>
+      <c r="L393" s="53"/>
       <c r="M393" s="29"/>
       <c r="N393" s="28"/>
-      <c r="O393" s="27"/>
+      <c r="O393" s="52"/>
       <c r="P393" s="29"/>
       <c r="Q393" s="29"/>
       <c r="R393" s="48"/>
@@ -11938,7 +12276,7 @@
       <c r="I394" s="30"/>
       <c r="J394" s="16"/>
       <c r="K394" s="29"/>
-      <c r="L394" s="29"/>
+      <c r="L394" s="53"/>
       <c r="M394" s="29"/>
       <c r="N394" s="28"/>
       <c r="O394" s="27"/>
@@ -11983,7 +12321,7 @@
       <c r="L396" s="53"/>
       <c r="M396" s="29"/>
       <c r="N396" s="28"/>
-      <c r="O396" s="52"/>
+      <c r="O396" s="27"/>
       <c r="P396" s="29"/>
       <c r="Q396" s="29"/>
       <c r="R396" s="48"/>
@@ -12004,7 +12342,7 @@
       <c r="L397" s="53"/>
       <c r="M397" s="29"/>
       <c r="N397" s="28"/>
-      <c r="O397" s="27"/>
+      <c r="O397" s="52"/>
       <c r="P397" s="29"/>
       <c r="Q397" s="29"/>
       <c r="R397" s="48"/>
@@ -12022,7 +12360,7 @@
       <c r="I398" s="30"/>
       <c r="J398" s="16"/>
       <c r="K398" s="29"/>
-      <c r="L398" s="53"/>
+      <c r="L398" s="29"/>
       <c r="M398" s="29"/>
       <c r="N398" s="28"/>
       <c r="O398" s="27"/>
@@ -12067,7 +12405,7 @@
       <c r="L400" s="53"/>
       <c r="M400" s="29"/>
       <c r="N400" s="28"/>
-      <c r="O400" s="52"/>
+      <c r="O400" s="27"/>
       <c r="P400" s="29"/>
       <c r="Q400" s="29"/>
       <c r="R400" s="48"/>
@@ -12085,7 +12423,7 @@
       <c r="I401" s="30"/>
       <c r="J401" s="16"/>
       <c r="K401" s="29"/>
-      <c r="L401" s="29"/>
+      <c r="L401" s="53"/>
       <c r="M401" s="29"/>
       <c r="N401" s="28"/>
       <c r="O401" s="27"/>
@@ -12130,7 +12468,7 @@
       <c r="L403" s="53"/>
       <c r="M403" s="29"/>
       <c r="N403" s="28"/>
-      <c r="O403" s="27"/>
+      <c r="O403" s="52"/>
       <c r="P403" s="29"/>
       <c r="Q403" s="29"/>
       <c r="R403" s="48"/>
@@ -12148,7 +12486,7 @@
       <c r="I404" s="30"/>
       <c r="J404" s="16"/>
       <c r="K404" s="29"/>
-      <c r="L404" s="53"/>
+      <c r="L404" s="29"/>
       <c r="M404" s="29"/>
       <c r="N404" s="28"/>
       <c r="O404" s="27"/>
@@ -12193,7 +12531,7 @@
       <c r="L406" s="53"/>
       <c r="M406" s="29"/>
       <c r="N406" s="28"/>
-      <c r="O406" s="52"/>
+      <c r="O406" s="27"/>
       <c r="P406" s="29"/>
       <c r="Q406" s="29"/>
       <c r="R406" s="48"/>
@@ -12211,7 +12549,7 @@
       <c r="I407" s="30"/>
       <c r="J407" s="16"/>
       <c r="K407" s="29"/>
-      <c r="L407" s="29"/>
+      <c r="L407" s="53"/>
       <c r="M407" s="29"/>
       <c r="N407" s="28"/>
       <c r="O407" s="27"/>
@@ -12256,7 +12594,7 @@
       <c r="L409" s="53"/>
       <c r="M409" s="29"/>
       <c r="N409" s="28"/>
-      <c r="O409" s="27"/>
+      <c r="O409" s="52"/>
       <c r="P409" s="29"/>
       <c r="Q409" s="29"/>
       <c r="R409" s="48"/>
@@ -12274,7 +12612,7 @@
       <c r="I410" s="30"/>
       <c r="J410" s="16"/>
       <c r="K410" s="29"/>
-      <c r="L410" s="53"/>
+      <c r="L410" s="29"/>
       <c r="M410" s="29"/>
       <c r="N410" s="28"/>
       <c r="O410" s="27"/>
@@ -12319,7 +12657,7 @@
       <c r="L412" s="53"/>
       <c r="M412" s="29"/>
       <c r="N412" s="28"/>
-      <c r="O412" s="52"/>
+      <c r="O412" s="27"/>
       <c r="P412" s="29"/>
       <c r="Q412" s="29"/>
       <c r="R412" s="48"/>
@@ -12337,7 +12675,7 @@
       <c r="I413" s="30"/>
       <c r="J413" s="16"/>
       <c r="K413" s="29"/>
-      <c r="L413" s="29"/>
+      <c r="L413" s="53"/>
       <c r="M413" s="29"/>
       <c r="N413" s="28"/>
       <c r="O413" s="27"/>
@@ -12403,13 +12741,13 @@
       <c r="L416" s="53"/>
       <c r="M416" s="29"/>
       <c r="N416" s="28"/>
-      <c r="O416" s="27"/>
+      <c r="O416" s="52"/>
       <c r="P416" s="29"/>
       <c r="Q416" s="29"/>
       <c r="R416" s="48"/>
       <c r="S416" s="29"/>
     </row>
-    <row r="417" s="2" customFormat="1" spans="1:19">
+    <row r="417" s="2" customFormat="1" ht="13.15" customHeight="1" spans="1:19">
       <c r="A417" s="27"/>
       <c r="B417" s="16"/>
       <c r="C417" s="16"/>
@@ -12466,13 +12804,13 @@
       <c r="L419" s="53"/>
       <c r="M419" s="29"/>
       <c r="N419" s="28"/>
-      <c r="O419" s="52"/>
+      <c r="O419" s="27"/>
       <c r="P419" s="29"/>
       <c r="Q419" s="29"/>
       <c r="R419" s="48"/>
       <c r="S419" s="29"/>
     </row>
-    <row r="420" s="2" customFormat="1" ht="13.15" customHeight="1" spans="1:19">
+    <row r="420" s="2" customFormat="1" spans="1:19">
       <c r="A420" s="27"/>
       <c r="B420" s="16"/>
       <c r="C420" s="16"/>
@@ -12487,7 +12825,7 @@
       <c r="L420" s="53"/>
       <c r="M420" s="29"/>
       <c r="N420" s="28"/>
-      <c r="O420" s="27"/>
+      <c r="O420" s="52"/>
       <c r="P420" s="29"/>
       <c r="Q420" s="29"/>
       <c r="R420" s="48"/>
@@ -12505,7 +12843,7 @@
       <c r="I421" s="30"/>
       <c r="J421" s="16"/>
       <c r="K421" s="29"/>
-      <c r="L421" s="53"/>
+      <c r="L421" s="29"/>
       <c r="M421" s="29"/>
       <c r="N421" s="28"/>
       <c r="O421" s="27"/>
@@ -12550,7 +12888,7 @@
       <c r="L423" s="53"/>
       <c r="M423" s="29"/>
       <c r="N423" s="28"/>
-      <c r="O423" s="52"/>
+      <c r="O423" s="27"/>
       <c r="P423" s="29"/>
       <c r="Q423" s="29"/>
       <c r="R423" s="48"/>
@@ -12568,7 +12906,7 @@
       <c r="I424" s="30"/>
       <c r="J424" s="16"/>
       <c r="K424" s="29"/>
-      <c r="L424" s="29"/>
+      <c r="L424" s="53"/>
       <c r="M424" s="29"/>
       <c r="N424" s="28"/>
       <c r="O424" s="27"/>
@@ -12589,7 +12927,7 @@
       <c r="I425" s="30"/>
       <c r="J425" s="16"/>
       <c r="K425" s="29"/>
-      <c r="L425" s="53"/>
+      <c r="L425" s="29"/>
       <c r="M425" s="29"/>
       <c r="N425" s="28"/>
       <c r="O425" s="27"/>
@@ -12610,7 +12948,7 @@
       <c r="I426" s="30"/>
       <c r="J426" s="16"/>
       <c r="K426" s="29"/>
-      <c r="L426" s="53"/>
+      <c r="L426" s="29"/>
       <c r="M426" s="29"/>
       <c r="N426" s="28"/>
       <c r="O426" s="27"/>
@@ -12631,7 +12969,7 @@
       <c r="I427" s="30"/>
       <c r="J427" s="16"/>
       <c r="K427" s="29"/>
-      <c r="L427" s="53"/>
+      <c r="L427" s="29"/>
       <c r="M427" s="29"/>
       <c r="N427" s="28"/>
       <c r="O427" s="27"/>
@@ -12652,7 +12990,7 @@
       <c r="I428" s="30"/>
       <c r="J428" s="16"/>
       <c r="K428" s="29"/>
-      <c r="L428" s="29"/>
+      <c r="L428" s="53"/>
       <c r="M428" s="29"/>
       <c r="N428" s="28"/>
       <c r="O428" s="27"/>
@@ -12673,10 +13011,10 @@
       <c r="I429" s="30"/>
       <c r="J429" s="16"/>
       <c r="K429" s="29"/>
-      <c r="L429" s="29"/>
+      <c r="L429" s="53"/>
       <c r="M429" s="29"/>
       <c r="N429" s="28"/>
-      <c r="O429" s="27"/>
+      <c r="O429" s="52"/>
       <c r="P429" s="29"/>
       <c r="Q429" s="29"/>
       <c r="R429" s="48"/>
@@ -12739,7 +13077,7 @@
       <c r="L432" s="53"/>
       <c r="M432" s="29"/>
       <c r="N432" s="28"/>
-      <c r="O432" s="52"/>
+      <c r="O432" s="27"/>
       <c r="P432" s="29"/>
       <c r="Q432" s="29"/>
       <c r="R432" s="48"/>
@@ -12757,7 +13095,7 @@
       <c r="I433" s="30"/>
       <c r="J433" s="16"/>
       <c r="K433" s="29"/>
-      <c r="L433" s="29"/>
+      <c r="L433" s="53"/>
       <c r="M433" s="29"/>
       <c r="N433" s="28"/>
       <c r="O433" s="27"/>
@@ -12767,7 +13105,7 @@
       <c r="S433" s="29"/>
     </row>
     <row r="434" s="2" customFormat="1" spans="1:19">
-      <c r="A434" s="27"/>
+      <c r="A434" s="33"/>
       <c r="B434" s="16"/>
       <c r="C434" s="16"/>
       <c r="D434" s="17"/>
@@ -12788,7 +13126,7 @@
       <c r="S434" s="29"/>
     </row>
     <row r="435" s="2" customFormat="1" spans="1:19">
-      <c r="A435" s="27"/>
+      <c r="A435" s="33"/>
       <c r="B435" s="16"/>
       <c r="C435" s="16"/>
       <c r="D435" s="17"/>
@@ -12809,7 +13147,7 @@
       <c r="S435" s="29"/>
     </row>
     <row r="436" s="2" customFormat="1" spans="1:19">
-      <c r="A436" s="27"/>
+      <c r="A436" s="33"/>
       <c r="B436" s="16"/>
       <c r="C436" s="16"/>
       <c r="D436" s="17"/>
@@ -12820,7 +13158,7 @@
       <c r="I436" s="30"/>
       <c r="J436" s="16"/>
       <c r="K436" s="29"/>
-      <c r="L436" s="53"/>
+      <c r="L436" s="29"/>
       <c r="M436" s="29"/>
       <c r="N436" s="28"/>
       <c r="O436" s="27"/>
@@ -12830,7 +13168,7 @@
       <c r="S436" s="29"/>
     </row>
     <row r="437" s="2" customFormat="1" spans="1:19">
-      <c r="A437" s="33"/>
+      <c r="A437" s="27"/>
       <c r="B437" s="16"/>
       <c r="C437" s="16"/>
       <c r="D437" s="17"/>
@@ -12841,7 +13179,7 @@
       <c r="I437" s="30"/>
       <c r="J437" s="16"/>
       <c r="K437" s="29"/>
-      <c r="L437" s="53"/>
+      <c r="L437" s="29"/>
       <c r="M437" s="29"/>
       <c r="N437" s="28"/>
       <c r="O437" s="27"/>
@@ -12851,7 +13189,7 @@
       <c r="S437" s="29"/>
     </row>
     <row r="438" s="2" customFormat="1" spans="1:19">
-      <c r="A438" s="33"/>
+      <c r="A438" s="27"/>
       <c r="B438" s="16"/>
       <c r="C438" s="16"/>
       <c r="D438" s="17"/>
@@ -12872,7 +13210,7 @@
       <c r="S438" s="29"/>
     </row>
     <row r="439" s="2" customFormat="1" spans="1:19">
-      <c r="A439" s="33"/>
+      <c r="A439" s="27"/>
       <c r="B439" s="16"/>
       <c r="C439" s="16"/>
       <c r="D439" s="17"/>
@@ -12883,10 +13221,10 @@
       <c r="I439" s="30"/>
       <c r="J439" s="16"/>
       <c r="K439" s="29"/>
-      <c r="L439" s="29"/>
+      <c r="L439" s="53"/>
       <c r="M439" s="29"/>
       <c r="N439" s="28"/>
-      <c r="O439" s="27"/>
+      <c r="O439" s="52"/>
       <c r="P439" s="29"/>
       <c r="Q439" s="29"/>
       <c r="R439" s="48"/>
@@ -12899,11 +13237,11 @@
       <c r="D440" s="17"/>
       <c r="E440" s="16"/>
       <c r="F440" s="28"/>
-      <c r="G440" s="29"/>
+      <c r="G440" s="32"/>
       <c r="H440" s="30"/>
       <c r="I440" s="30"/>
       <c r="J440" s="16"/>
-      <c r="K440" s="29"/>
+      <c r="K440" s="32"/>
       <c r="L440" s="29"/>
       <c r="M440" s="29"/>
       <c r="N440" s="28"/>
@@ -12920,12 +13258,12 @@
       <c r="D441" s="17"/>
       <c r="E441" s="16"/>
       <c r="F441" s="28"/>
-      <c r="G441" s="29"/>
+      <c r="G441" s="32"/>
       <c r="H441" s="30"/>
       <c r="I441" s="30"/>
       <c r="J441" s="16"/>
-      <c r="K441" s="29"/>
-      <c r="L441" s="53"/>
+      <c r="K441" s="32"/>
+      <c r="L441" s="29"/>
       <c r="M441" s="29"/>
       <c r="N441" s="28"/>
       <c r="O441" s="27"/>
@@ -12941,15 +13279,15 @@
       <c r="D442" s="17"/>
       <c r="E442" s="16"/>
       <c r="F442" s="28"/>
-      <c r="G442" s="29"/>
+      <c r="G442" s="32"/>
       <c r="H442" s="30"/>
       <c r="I442" s="30"/>
       <c r="J442" s="16"/>
-      <c r="K442" s="29"/>
-      <c r="L442" s="53"/>
+      <c r="K442" s="32"/>
+      <c r="L442" s="29"/>
       <c r="M442" s="29"/>
       <c r="N442" s="28"/>
-      <c r="O442" s="52"/>
+      <c r="O442" s="27"/>
       <c r="P442" s="29"/>
       <c r="Q442" s="29"/>
       <c r="R442" s="48"/>
@@ -12982,7 +13320,7 @@
       <c r="C444" s="16"/>
       <c r="D444" s="17"/>
       <c r="E444" s="16"/>
-      <c r="F444" s="28"/>
+      <c r="F444" s="27"/>
       <c r="G444" s="32"/>
       <c r="H444" s="30"/>
       <c r="I444" s="30"/>
@@ -13003,7 +13341,7 @@
       <c r="C445" s="16"/>
       <c r="D445" s="17"/>
       <c r="E445" s="16"/>
-      <c r="F445" s="28"/>
+      <c r="F445" s="27"/>
       <c r="G445" s="32"/>
       <c r="H445" s="30"/>
       <c r="I445" s="30"/>
@@ -13024,7 +13362,7 @@
       <c r="C446" s="16"/>
       <c r="D446" s="17"/>
       <c r="E446" s="16"/>
-      <c r="F446" s="28"/>
+      <c r="F446" s="27"/>
       <c r="G446" s="32"/>
       <c r="H446" s="30"/>
       <c r="I446" s="30"/>
@@ -13072,64 +13410,64 @@
       <c r="I448" s="30"/>
       <c r="J448" s="16"/>
       <c r="K448" s="32"/>
-      <c r="L448" s="29"/>
+      <c r="L448" s="53"/>
       <c r="M448" s="29"/>
       <c r="N448" s="28"/>
-      <c r="O448" s="27"/>
+      <c r="O448" s="33"/>
       <c r="P448" s="29"/>
       <c r="Q448" s="29"/>
       <c r="R448" s="48"/>
-      <c r="S448" s="29"/>
+      <c r="S448" s="32"/>
     </row>
     <row r="449" s="2" customFormat="1" spans="1:19">
-      <c r="A449" s="27"/>
+      <c r="A449" s="33"/>
       <c r="B449" s="16"/>
       <c r="C449" s="16"/>
       <c r="D449" s="17"/>
       <c r="E449" s="16"/>
-      <c r="F449" s="27"/>
+      <c r="F449" s="33"/>
       <c r="G449" s="32"/>
       <c r="H449" s="30"/>
       <c r="I449" s="30"/>
       <c r="J449" s="16"/>
       <c r="K449" s="32"/>
-      <c r="L449" s="29"/>
+      <c r="L449" s="53"/>
       <c r="M449" s="29"/>
       <c r="N449" s="28"/>
-      <c r="O449" s="27"/>
+      <c r="O449" s="33"/>
       <c r="P449" s="29"/>
       <c r="Q449" s="29"/>
       <c r="R449" s="48"/>
-      <c r="S449" s="29"/>
+      <c r="S449" s="32"/>
     </row>
     <row r="450" s="2" customFormat="1" spans="1:19">
-      <c r="A450" s="27"/>
+      <c r="A450" s="33"/>
       <c r="B450" s="16"/>
       <c r="C450" s="16"/>
       <c r="D450" s="17"/>
       <c r="E450" s="16"/>
-      <c r="F450" s="27"/>
+      <c r="F450" s="34"/>
       <c r="G450" s="32"/>
       <c r="H450" s="30"/>
       <c r="I450" s="30"/>
       <c r="J450" s="16"/>
       <c r="K450" s="32"/>
-      <c r="L450" s="29"/>
+      <c r="L450" s="53"/>
       <c r="M450" s="29"/>
       <c r="N450" s="28"/>
-      <c r="O450" s="27"/>
+      <c r="O450" s="33"/>
       <c r="P450" s="29"/>
       <c r="Q450" s="29"/>
       <c r="R450" s="48"/>
-      <c r="S450" s="29"/>
+      <c r="S450" s="32"/>
     </row>
     <row r="451" s="2" customFormat="1" spans="1:19">
-      <c r="A451" s="27"/>
+      <c r="A451" s="33"/>
       <c r="B451" s="16"/>
       <c r="C451" s="16"/>
       <c r="D451" s="17"/>
       <c r="E451" s="16"/>
-      <c r="F451" s="27"/>
+      <c r="F451" s="34"/>
       <c r="G451" s="32"/>
       <c r="H451" s="30"/>
       <c r="I451" s="30"/>
@@ -13150,58 +13488,58 @@
       <c r="C452" s="16"/>
       <c r="D452" s="17"/>
       <c r="E452" s="16"/>
-      <c r="F452" s="33"/>
-      <c r="G452" s="32"/>
+      <c r="F452" s="28"/>
+      <c r="G452" s="29"/>
       <c r="H452" s="30"/>
       <c r="I452" s="30"/>
       <c r="J452" s="16"/>
-      <c r="K452" s="32"/>
-      <c r="L452" s="53"/>
+      <c r="K452" s="29"/>
+      <c r="L452" s="29"/>
       <c r="M452" s="29"/>
       <c r="N452" s="28"/>
-      <c r="O452" s="33"/>
+      <c r="O452" s="27"/>
       <c r="P452" s="29"/>
       <c r="Q452" s="29"/>
       <c r="R452" s="48"/>
-      <c r="S452" s="32"/>
+      <c r="S452" s="29"/>
     </row>
     <row r="453" s="2" customFormat="1" spans="1:19">
-      <c r="A453" s="33"/>
-      <c r="B453" s="16"/>
-      <c r="C453" s="16"/>
+      <c r="A453" s="27"/>
+      <c r="B453" s="29"/>
+      <c r="C453" s="29"/>
       <c r="D453" s="17"/>
       <c r="E453" s="16"/>
-      <c r="F453" s="34"/>
-      <c r="G453" s="32"/>
+      <c r="F453" s="28"/>
+      <c r="G453" s="29"/>
       <c r="H453" s="30"/>
       <c r="I453" s="30"/>
       <c r="J453" s="16"/>
       <c r="K453" s="32"/>
-      <c r="L453" s="53"/>
+      <c r="L453" s="29"/>
       <c r="M453" s="29"/>
       <c r="N453" s="28"/>
-      <c r="O453" s="33"/>
+      <c r="O453" s="27"/>
       <c r="P453" s="29"/>
       <c r="Q453" s="29"/>
       <c r="R453" s="48"/>
-      <c r="S453" s="32"/>
+      <c r="S453" s="29"/>
     </row>
     <row r="454" s="2" customFormat="1" spans="1:19">
-      <c r="A454" s="33"/>
-      <c r="B454" s="16"/>
-      <c r="C454" s="16"/>
-      <c r="D454" s="17"/>
-      <c r="E454" s="16"/>
-      <c r="F454" s="34"/>
-      <c r="G454" s="32"/>
+      <c r="A454" s="27"/>
+      <c r="B454" s="32"/>
+      <c r="C454" s="32"/>
+      <c r="D454" s="34"/>
+      <c r="E454" s="32"/>
+      <c r="F454" s="27"/>
+      <c r="G454" s="29"/>
       <c r="H454" s="30"/>
       <c r="I454" s="30"/>
       <c r="J454" s="16"/>
       <c r="K454" s="32"/>
-      <c r="L454" s="53"/>
+      <c r="L454" s="29"/>
       <c r="M454" s="29"/>
       <c r="N454" s="28"/>
-      <c r="O454" s="33"/>
+      <c r="O454" s="27"/>
       <c r="P454" s="29"/>
       <c r="Q454" s="29"/>
       <c r="R454" s="48"/>
@@ -13218,20 +13556,20 @@
       <c r="H455" s="30"/>
       <c r="I455" s="30"/>
       <c r="J455" s="16"/>
-      <c r="K455" s="29"/>
-      <c r="L455" s="29"/>
+      <c r="K455" s="32"/>
+      <c r="L455" s="32"/>
       <c r="M455" s="29"/>
       <c r="N455" s="28"/>
-      <c r="O455" s="27"/>
+      <c r="O455" s="33"/>
       <c r="P455" s="29"/>
       <c r="Q455" s="29"/>
-      <c r="R455" s="48"/>
+      <c r="R455" s="29"/>
       <c r="S455" s="29"/>
     </row>
     <row r="456" s="2" customFormat="1" spans="1:19">
-      <c r="A456" s="27"/>
-      <c r="B456" s="29"/>
-      <c r="C456" s="29"/>
+      <c r="A456" s="33"/>
+      <c r="B456" s="16"/>
+      <c r="C456" s="16"/>
       <c r="D456" s="17"/>
       <c r="E456" s="16"/>
       <c r="F456" s="28"/>
@@ -13239,28 +13577,28 @@
       <c r="H456" s="30"/>
       <c r="I456" s="30"/>
       <c r="J456" s="16"/>
-      <c r="K456" s="32"/>
+      <c r="K456" s="29"/>
       <c r="L456" s="29"/>
       <c r="M456" s="29"/>
       <c r="N456" s="28"/>
-      <c r="O456" s="27"/>
+      <c r="O456" s="33"/>
       <c r="P456" s="29"/>
       <c r="Q456" s="29"/>
-      <c r="R456" s="48"/>
+      <c r="R456" s="29"/>
       <c r="S456" s="29"/>
     </row>
     <row r="457" s="2" customFormat="1" spans="1:19">
       <c r="A457" s="27"/>
-      <c r="B457" s="32"/>
-      <c r="C457" s="32"/>
-      <c r="D457" s="34"/>
-      <c r="E457" s="32"/>
+      <c r="B457" s="16"/>
+      <c r="C457" s="16"/>
+      <c r="D457" s="17"/>
+      <c r="E457" s="16"/>
       <c r="F457" s="27"/>
       <c r="G457" s="29"/>
       <c r="H457" s="30"/>
       <c r="I457" s="30"/>
       <c r="J457" s="16"/>
-      <c r="K457" s="32"/>
+      <c r="K457" s="29"/>
       <c r="L457" s="29"/>
       <c r="M457" s="29"/>
       <c r="N457" s="28"/>
@@ -13268,37 +13606,37 @@
       <c r="P457" s="29"/>
       <c r="Q457" s="29"/>
       <c r="R457" s="48"/>
-      <c r="S457" s="32"/>
+      <c r="S457" s="29"/>
     </row>
     <row r="458" s="2" customFormat="1" spans="1:19">
-      <c r="A458" s="33"/>
+      <c r="A458" s="27"/>
       <c r="B458" s="16"/>
       <c r="C458" s="16"/>
       <c r="D458" s="17"/>
       <c r="E458" s="16"/>
       <c r="F458" s="28"/>
-      <c r="G458" s="29"/>
+      <c r="G458" s="58"/>
       <c r="H458" s="30"/>
       <c r="I458" s="30"/>
       <c r="J458" s="16"/>
-      <c r="K458" s="32"/>
-      <c r="L458" s="32"/>
+      <c r="K458" s="29"/>
+      <c r="L458" s="29"/>
       <c r="M458" s="29"/>
       <c r="N458" s="28"/>
-      <c r="O458" s="33"/>
+      <c r="O458" s="27"/>
       <c r="P458" s="29"/>
       <c r="Q458" s="29"/>
-      <c r="R458" s="29"/>
+      <c r="R458" s="48"/>
       <c r="S458" s="29"/>
     </row>
     <row r="459" s="2" customFormat="1" spans="1:19">
-      <c r="A459" s="33"/>
+      <c r="A459" s="27"/>
       <c r="B459" s="16"/>
       <c r="C459" s="16"/>
       <c r="D459" s="17"/>
       <c r="E459" s="16"/>
       <c r="F459" s="28"/>
-      <c r="G459" s="29"/>
+      <c r="G459" s="54"/>
       <c r="H459" s="30"/>
       <c r="I459" s="30"/>
       <c r="J459" s="16"/>
@@ -13306,19 +13644,19 @@
       <c r="L459" s="29"/>
       <c r="M459" s="29"/>
       <c r="N459" s="28"/>
-      <c r="O459" s="33"/>
+      <c r="O459" s="27"/>
       <c r="P459" s="29"/>
       <c r="Q459" s="29"/>
-      <c r="R459" s="29"/>
+      <c r="R459" s="48"/>
       <c r="S459" s="29"/>
     </row>
     <row r="460" s="2" customFormat="1" spans="1:19">
       <c r="A460" s="27"/>
-      <c r="B460" s="16"/>
-      <c r="C460" s="16"/>
-      <c r="D460" s="17"/>
-      <c r="E460" s="16"/>
-      <c r="F460" s="27"/>
+      <c r="B460" s="29"/>
+      <c r="C460" s="29"/>
+      <c r="D460" s="29"/>
+      <c r="E460" s="29"/>
+      <c r="F460" s="28"/>
       <c r="G460" s="29"/>
       <c r="H460" s="30"/>
       <c r="I460" s="30"/>
@@ -13335,12 +13673,12 @@
     </row>
     <row r="461" s="2" customFormat="1" spans="1:19">
       <c r="A461" s="27"/>
-      <c r="B461" s="16"/>
-      <c r="C461" s="16"/>
-      <c r="D461" s="17"/>
-      <c r="E461" s="16"/>
+      <c r="B461" s="29"/>
+      <c r="C461" s="29"/>
+      <c r="D461" s="29"/>
+      <c r="E461" s="29"/>
       <c r="F461" s="28"/>
-      <c r="G461" s="58"/>
+      <c r="G461" s="29"/>
       <c r="H461" s="30"/>
       <c r="I461" s="30"/>
       <c r="J461" s="16"/>
@@ -13356,12 +13694,12 @@
     </row>
     <row r="462" s="2" customFormat="1" spans="1:19">
       <c r="A462" s="27"/>
-      <c r="B462" s="16"/>
-      <c r="C462" s="16"/>
-      <c r="D462" s="17"/>
-      <c r="E462" s="16"/>
+      <c r="B462" s="29"/>
+      <c r="C462" s="29"/>
+      <c r="D462" s="29"/>
+      <c r="E462" s="29"/>
       <c r="F462" s="28"/>
-      <c r="G462" s="54"/>
+      <c r="G462" s="29"/>
       <c r="H462" s="30"/>
       <c r="I462" s="30"/>
       <c r="J462" s="16"/>
@@ -13502,32 +13840,32 @@
       <c r="S468" s="29"/>
     </row>
     <row r="469" s="2" customFormat="1" spans="1:19">
-      <c r="A469" s="27"/>
-      <c r="B469" s="29"/>
-      <c r="C469" s="29"/>
-      <c r="D469" s="29"/>
-      <c r="E469" s="29"/>
+      <c r="A469" s="33"/>
+      <c r="B469" s="16"/>
+      <c r="C469" s="16"/>
+      <c r="D469" s="17"/>
+      <c r="E469" s="16"/>
       <c r="F469" s="28"/>
       <c r="G469" s="29"/>
       <c r="H469" s="30"/>
       <c r="I469" s="30"/>
       <c r="J469" s="16"/>
-      <c r="K469" s="29"/>
+      <c r="K469" s="32"/>
       <c r="L469" s="29"/>
       <c r="M469" s="29"/>
-      <c r="N469" s="28"/>
-      <c r="O469" s="27"/>
+      <c r="N469" s="34"/>
+      <c r="O469" s="33"/>
       <c r="P469" s="29"/>
       <c r="Q469" s="29"/>
       <c r="R469" s="48"/>
       <c r="S469" s="29"/>
     </row>
     <row r="470" s="2" customFormat="1" spans="1:19">
-      <c r="A470" s="27"/>
-      <c r="B470" s="29"/>
-      <c r="C470" s="29"/>
-      <c r="D470" s="29"/>
-      <c r="E470" s="29"/>
+      <c r="A470" s="33"/>
+      <c r="B470" s="16"/>
+      <c r="C470" s="16"/>
+      <c r="D470" s="17"/>
+      <c r="E470" s="16"/>
       <c r="F470" s="28"/>
       <c r="G470" s="29"/>
       <c r="H470" s="30"/>
@@ -13536,8 +13874,8 @@
       <c r="K470" s="29"/>
       <c r="L470" s="29"/>
       <c r="M470" s="29"/>
-      <c r="N470" s="28"/>
-      <c r="O470" s="27"/>
+      <c r="N470" s="34"/>
+      <c r="O470" s="33"/>
       <c r="P470" s="29"/>
       <c r="Q470" s="29"/>
       <c r="R470" s="48"/>
@@ -13553,7 +13891,7 @@
       <c r="G471" s="29"/>
       <c r="H471" s="30"/>
       <c r="I471" s="30"/>
-      <c r="J471" s="16"/>
+      <c r="J471" s="29"/>
       <c r="K471" s="29"/>
       <c r="L471" s="29"/>
       <c r="M471" s="29"/>
@@ -13565,42 +13903,42 @@
       <c r="S471" s="29"/>
     </row>
     <row r="472" s="2" customFormat="1" spans="1:19">
-      <c r="A472" s="33"/>
-      <c r="B472" s="16"/>
-      <c r="C472" s="16"/>
-      <c r="D472" s="17"/>
-      <c r="E472" s="16"/>
+      <c r="A472" s="27"/>
+      <c r="B472" s="29"/>
+      <c r="C472" s="29"/>
+      <c r="D472" s="29"/>
+      <c r="E472" s="29"/>
       <c r="F472" s="28"/>
       <c r="G472" s="29"/>
       <c r="H472" s="30"/>
       <c r="I472" s="30"/>
-      <c r="J472" s="16"/>
-      <c r="K472" s="32"/>
+      <c r="J472" s="29"/>
+      <c r="K472" s="29"/>
       <c r="L472" s="29"/>
       <c r="M472" s="29"/>
-      <c r="N472" s="34"/>
-      <c r="O472" s="33"/>
+      <c r="N472" s="28"/>
+      <c r="O472" s="27"/>
       <c r="P472" s="29"/>
       <c r="Q472" s="29"/>
       <c r="R472" s="48"/>
       <c r="S472" s="29"/>
     </row>
     <row r="473" s="2" customFormat="1" spans="1:19">
-      <c r="A473" s="33"/>
-      <c r="B473" s="16"/>
-      <c r="C473" s="16"/>
-      <c r="D473" s="17"/>
-      <c r="E473" s="16"/>
+      <c r="A473" s="27"/>
+      <c r="B473" s="29"/>
+      <c r="C473" s="29"/>
+      <c r="D473" s="29"/>
+      <c r="E473" s="29"/>
       <c r="F473" s="28"/>
       <c r="G473" s="29"/>
       <c r="H473" s="30"/>
       <c r="I473" s="30"/>
-      <c r="J473" s="16"/>
+      <c r="J473" s="29"/>
       <c r="K473" s="29"/>
       <c r="L473" s="29"/>
       <c r="M473" s="29"/>
-      <c r="N473" s="34"/>
-      <c r="O473" s="33"/>
+      <c r="N473" s="28"/>
+      <c r="O473" s="27"/>
       <c r="P473" s="29"/>
       <c r="Q473" s="29"/>
       <c r="R473" s="48"/>
@@ -13627,68 +13965,65 @@
       <c r="R474" s="48"/>
       <c r="S474" s="29"/>
     </row>
-    <row r="475" s="2" customFormat="1" spans="1:19">
-      <c r="A475" s="27"/>
-      <c r="B475" s="29"/>
-      <c r="C475" s="29"/>
-      <c r="D475" s="29"/>
-      <c r="E475" s="29"/>
-      <c r="F475" s="28"/>
-      <c r="G475" s="29"/>
-      <c r="H475" s="30"/>
-      <c r="I475" s="30"/>
-      <c r="J475" s="29"/>
-      <c r="K475" s="29"/>
-      <c r="L475" s="29"/>
-      <c r="M475" s="29"/>
-      <c r="N475" s="28"/>
-      <c r="O475" s="27"/>
-      <c r="P475" s="29"/>
-      <c r="Q475" s="29"/>
-      <c r="R475" s="48"/>
-      <c r="S475" s="29"/>
-    </row>
-    <row r="476" s="2" customFormat="1" spans="1:19">
-      <c r="A476" s="27"/>
-      <c r="B476" s="29"/>
-      <c r="C476" s="29"/>
-      <c r="D476" s="29"/>
-      <c r="E476" s="29"/>
-      <c r="F476" s="28"/>
-      <c r="G476" s="29"/>
-      <c r="H476" s="30"/>
-      <c r="I476" s="30"/>
-      <c r="J476" s="29"/>
-      <c r="K476" s="29"/>
-      <c r="L476" s="29"/>
-      <c r="M476" s="29"/>
-      <c r="N476" s="28"/>
-      <c r="O476" s="27"/>
-      <c r="P476" s="29"/>
-      <c r="Q476" s="29"/>
-      <c r="R476" s="48"/>
-      <c r="S476" s="29"/>
-    </row>
-    <row r="477" s="2" customFormat="1" spans="1:19">
-      <c r="A477" s="27"/>
-      <c r="B477" s="29"/>
-      <c r="C477" s="29"/>
-      <c r="D477" s="29"/>
-      <c r="E477" s="29"/>
-      <c r="F477" s="28"/>
-      <c r="G477" s="29"/>
-      <c r="H477" s="30"/>
-      <c r="I477" s="30"/>
-      <c r="J477" s="29"/>
-      <c r="K477" s="29"/>
-      <c r="L477" s="29"/>
-      <c r="M477" s="29"/>
-      <c r="N477" s="28"/>
-      <c r="O477" s="27"/>
-      <c r="P477" s="29"/>
-      <c r="Q477" s="29"/>
-      <c r="R477" s="48"/>
-      <c r="S477" s="29"/>
+    <row r="475" spans="1:19">
+      <c r="A475" s="59"/>
+      <c r="B475" s="23"/>
+      <c r="C475" s="23"/>
+      <c r="D475" s="23"/>
+      <c r="E475" s="23"/>
+      <c r="F475" s="7"/>
+      <c r="G475" s="23"/>
+      <c r="H475" s="24"/>
+      <c r="I475" s="24"/>
+      <c r="J475" s="23"/>
+      <c r="K475" s="23"/>
+      <c r="L475" s="23"/>
+      <c r="M475" s="23"/>
+      <c r="O475" s="59"/>
+      <c r="P475" s="23"/>
+      <c r="Q475" s="23"/>
+      <c r="R475" s="47"/>
+      <c r="S475" s="23"/>
+    </row>
+    <row r="476" spans="1:19">
+      <c r="A476" s="59"/>
+      <c r="B476" s="23"/>
+      <c r="C476" s="23"/>
+      <c r="D476" s="23"/>
+      <c r="E476" s="23"/>
+      <c r="F476" s="7"/>
+      <c r="G476" s="23"/>
+      <c r="H476" s="24"/>
+      <c r="I476" s="24"/>
+      <c r="J476" s="23"/>
+      <c r="K476" s="23"/>
+      <c r="L476" s="23"/>
+      <c r="M476" s="23"/>
+      <c r="O476" s="59"/>
+      <c r="P476" s="23"/>
+      <c r="Q476" s="23"/>
+      <c r="R476" s="47"/>
+      <c r="S476" s="23"/>
+    </row>
+    <row r="477" spans="1:19">
+      <c r="A477" s="59"/>
+      <c r="B477" s="23"/>
+      <c r="C477" s="23"/>
+      <c r="D477" s="23"/>
+      <c r="E477" s="23"/>
+      <c r="F477" s="7"/>
+      <c r="G477" s="23"/>
+      <c r="H477" s="24"/>
+      <c r="I477" s="24"/>
+      <c r="J477" s="23"/>
+      <c r="K477" s="23"/>
+      <c r="L477" s="23"/>
+      <c r="M477" s="23"/>
+      <c r="O477" s="59"/>
+      <c r="P477" s="23"/>
+      <c r="Q477" s="23"/>
+      <c r="R477" s="47"/>
+      <c r="S477" s="23"/>
     </row>
     <row r="478" spans="1:19">
       <c r="A478" s="59"/>
@@ -16330,68 +16665,8 @@
       <c r="R609" s="47"/>
       <c r="S609" s="23"/>
     </row>
-    <row r="610" spans="1:19">
-      <c r="A610" s="59"/>
-      <c r="B610" s="23"/>
-      <c r="C610" s="23"/>
-      <c r="D610" s="23"/>
-      <c r="E610" s="23"/>
-      <c r="F610" s="7"/>
-      <c r="G610" s="23"/>
-      <c r="H610" s="24"/>
-      <c r="I610" s="24"/>
-      <c r="J610" s="23"/>
-      <c r="K610" s="23"/>
-      <c r="L610" s="23"/>
-      <c r="M610" s="23"/>
-      <c r="O610" s="59"/>
-      <c r="P610" s="23"/>
-      <c r="Q610" s="23"/>
-      <c r="R610" s="47"/>
-      <c r="S610" s="23"/>
-    </row>
-    <row r="611" spans="1:19">
-      <c r="A611" s="59"/>
-      <c r="B611" s="23"/>
-      <c r="C611" s="23"/>
-      <c r="D611" s="23"/>
-      <c r="E611" s="23"/>
-      <c r="F611" s="7"/>
-      <c r="G611" s="23"/>
-      <c r="H611" s="24"/>
-      <c r="I611" s="24"/>
-      <c r="J611" s="23"/>
-      <c r="K611" s="23"/>
-      <c r="L611" s="23"/>
-      <c r="M611" s="23"/>
-      <c r="O611" s="59"/>
-      <c r="P611" s="23"/>
-      <c r="Q611" s="23"/>
-      <c r="R611" s="47"/>
-      <c r="S611" s="23"/>
-    </row>
-    <row r="612" spans="1:19">
-      <c r="A612" s="59"/>
-      <c r="B612" s="23"/>
-      <c r="C612" s="23"/>
-      <c r="D612" s="23"/>
-      <c r="E612" s="23"/>
-      <c r="F612" s="7"/>
-      <c r="G612" s="23"/>
-      <c r="H612" s="24"/>
-      <c r="I612" s="24"/>
-      <c r="J612" s="23"/>
-      <c r="K612" s="23"/>
-      <c r="L612" s="23"/>
-      <c r="M612" s="23"/>
-      <c r="O612" s="59"/>
-      <c r="P612" s="23"/>
-      <c r="Q612" s="23"/>
-      <c r="R612" s="47"/>
-      <c r="S612" s="23"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S473">
+  <autoFilter ref="A1:S470">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
@@ -16426,7 +16701,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="客户信息录入" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="313">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -200,99 +200,99 @@
     <t>00101012</t>
   </si>
   <si>
-    <t>TradeData3.WHETHER_AGEN</t>
+    <t>张凤阳</t>
+  </si>
+  <si>
+    <t>0010107601</t>
+  </si>
+  <si>
+    <t>00101076</t>
+  </si>
+  <si>
+    <t>CARD_NO</t>
+  </si>
+  <si>
+    <t>张莉</t>
+  </si>
+  <si>
+    <t>0010101101</t>
+  </si>
+  <si>
+    <t>00101011</t>
+  </si>
+  <si>
+    <t>0050801001</t>
+  </si>
+  <si>
+    <t>00508010</t>
+  </si>
+  <si>
+    <t>aui-button-submit</t>
+  </si>
+  <si>
+    <t>tradeCustomInput</t>
+  </si>
+  <si>
+    <t>交易提交</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>周冬强</t>
+  </si>
+  <si>
+    <t>0050800601</t>
+  </si>
+  <si>
+    <t>00508006</t>
+  </si>
+  <si>
+    <t>0050800701</t>
+  </si>
+  <si>
+    <t>00508007</t>
+  </si>
+  <si>
+    <t>ADD_ETC_OPEN_ACCT_PERSON_CRTF_TYP</t>
+  </si>
+  <si>
+    <t>0050800702</t>
+  </si>
+  <si>
+    <t>ADD_UNIT_SPCY_OPRR_CRTF_TYP</t>
+  </si>
+  <si>
+    <t>0030105501</t>
+  </si>
+  <si>
+    <t>00301055</t>
+  </si>
+  <si>
+    <t>aui_button_submit</t>
+  </si>
+  <si>
+    <t>TradeData.Payr_Acct_Typ</t>
+  </si>
+  <si>
+    <t>客户类型</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>孙飞</t>
+  </si>
+  <si>
+    <t>0030105502</t>
+  </si>
+  <si>
+    <t>TradeData.isAgency</t>
   </si>
   <si>
     <t>是否代理</t>
   </si>
   <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>0010107601</t>
-  </si>
-  <si>
-    <t>00101076</t>
-  </si>
-  <si>
-    <t>CARD_NO</t>
-  </si>
-  <si>
-    <t>张莉</t>
-  </si>
-  <si>
-    <t>0010101101</t>
-  </si>
-  <si>
-    <t>00101011</t>
-  </si>
-  <si>
-    <t>0050801001</t>
-  </si>
-  <si>
-    <t>00508010</t>
-  </si>
-  <si>
-    <t>aui-button-submit</t>
-  </si>
-  <si>
-    <t>tradeCustomInput</t>
-  </si>
-  <si>
-    <t>交易提交</t>
-  </si>
-  <si>
-    <t>周冬强</t>
-  </si>
-  <si>
-    <t>0050800601</t>
-  </si>
-  <si>
-    <t>00508006</t>
-  </si>
-  <si>
-    <t>0050800701</t>
-  </si>
-  <si>
-    <t>00508007</t>
-  </si>
-  <si>
-    <t>ADD_ETC_OPEN_ACCT_PERSON_CRTF_TYP</t>
-  </si>
-  <si>
-    <t>0050800702</t>
-  </si>
-  <si>
-    <t>ADD_UNIT_SPCY_OPRR_CRTF_TYP</t>
-  </si>
-  <si>
-    <t>0030105501</t>
-  </si>
-  <si>
-    <t>00301055</t>
-  </si>
-  <si>
-    <t>aui_button_submit</t>
-  </si>
-  <si>
-    <t>TradeData.Payr_Acct_Typ</t>
-  </si>
-  <si>
-    <t>客户类型</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>孙飞</t>
-  </si>
-  <si>
-    <t>0030105502</t>
-  </si>
-  <si>
-    <t>TradeData.isAgency</t>
-  </si>
-  <si>
     <t>00301039_0101</t>
   </si>
   <si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>00101064</t>
+  </si>
+  <si>
+    <t>CRDTCRD_NO</t>
   </si>
   <si>
     <t>0010101301</t>
@@ -931,9 +934,6 @@
     <t>00101079</t>
   </si>
   <si>
-    <t>张凤阳</t>
-  </si>
-  <si>
     <t>0010104801</t>
   </si>
   <si>
@@ -965,6 +965,36 @@
   </si>
   <si>
     <t>孙佳星</t>
+  </si>
+  <si>
+    <t>0050901101</t>
+  </si>
+  <si>
+    <t>00509011</t>
+  </si>
+  <si>
+    <t>李节</t>
+  </si>
+  <si>
+    <t>0050901102</t>
+  </si>
+  <si>
+    <t>TradeData.Amt</t>
+  </si>
+  <si>
+    <t>监管金额</t>
+  </si>
+  <si>
+    <t>0050901103</t>
+  </si>
+  <si>
+    <t>DrawType</t>
+  </si>
+  <si>
+    <t>TradeData.DrawType</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>同一交易码如果多个条件且关系 此项 写成数字相同  否则都写成不同数字</t>
@@ -975,10 +1005,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1026,10 +1056,117 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,28 +1179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,94 +1193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,6 +1227,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1209,61 +1383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,109 +1401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1440,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,24 +1492,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,51 +1533,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1521,133 +1551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2127,29 +2157,29 @@
   <dimension ref="A1:T617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="4" width="7.875" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="22.8796296296296" customWidth="1"/>
+    <col min="3" max="4" width="7.87962962962963" customWidth="1"/>
+    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="34.6296296296296" customWidth="1"/>
     <col min="8" max="9" width="9" style="6"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.3796296296296" customWidth="1"/>
     <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="30.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.3796296296296" style="4" customWidth="1"/>
     <col min="18" max="18" width="15.75" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" spans="1:19">
+    <row r="1" ht="81.6" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2383,7 @@
       <c r="R4" s="43"/>
       <c r="S4" s="31"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" ht="14.4" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" ht="14.4" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -2437,7 +2467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" ht="14.4" spans="1:19">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -2479,7 +2509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" ht="14.4" spans="1:19">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -2521,7 +2551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" ht="14.4" spans="1:19">
       <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
@@ -2563,7 +2593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" ht="14.4" spans="1:19">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -2605,7 +2635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" ht="14.4" spans="1:19">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2647,7 +2677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" ht="14.4" spans="1:19">
       <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
@@ -2720,29 +2750,21 @@
       <c r="J13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="43"/>
-      <c r="S13" s="31"/>
+      <c r="S13" s="31" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:19">
       <c r="A14" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>20</v>
@@ -2757,10 +2779,10 @@
         <v>23</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="29">
         <v>1</v>
@@ -2780,12 +2802,12 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="45"/>
       <c r="S14" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>20</v>
@@ -2800,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>38</v>
@@ -2828,7 +2850,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:19">
       <c r="A16" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>20</v>
@@ -2843,10 +2865,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="29">
         <v>1</v>
@@ -2858,16 +2880,16 @@
         <v>26</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M16" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O16" s="22" t="s">
         <v>31</v>
@@ -2876,7 +2898,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="45"/>
       <c r="S16" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:19">
@@ -2919,12 +2941,12 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="45"/>
       <c r="S17" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:19">
       <c r="A18" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>20</v>
@@ -2939,10 +2961,10 @@
         <v>23</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" s="29">
         <v>1</v>
@@ -2954,16 +2976,16 @@
         <v>26</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M18" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>31</v>
@@ -2972,12 +2994,12 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="45"/>
       <c r="S18" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:19">
       <c r="A19" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>20</v>
@@ -2992,10 +3014,10 @@
         <v>23</v>
       </c>
       <c r="F19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>77</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="H19" s="29">
         <v>1</v>
@@ -3015,12 +3037,12 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="45"/>
       <c r="S19" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:19">
       <c r="A20" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>20</v>
@@ -3035,10 +3057,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="29">
         <v>1</v>
@@ -3058,12 +3080,12 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="45"/>
       <c r="S20" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:19">
       <c r="A21" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>20</v>
@@ -3078,10 +3100,10 @@
         <v>23</v>
       </c>
       <c r="F21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="H21" s="29">
         <v>1</v>
@@ -3093,16 +3115,16 @@
         <v>26</v>
       </c>
       <c r="K21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="M21" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>39</v>
@@ -3111,12 +3133,12 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="45"/>
       <c r="S21" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:19">
       <c r="A22" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>20</v>
@@ -3131,10 +3153,10 @@
         <v>23</v>
       </c>
       <c r="F22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="H22" s="29">
         <v>1</v>
@@ -3146,16 +3168,16 @@
         <v>26</v>
       </c>
       <c r="K22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="M22" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O22" s="26" t="s">
         <v>39</v>
@@ -3164,12 +3186,12 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="45"/>
       <c r="S22" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:19">
       <c r="A23" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>20</v>
@@ -3184,10 +3206,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="H23" s="29">
         <v>1</v>
@@ -3199,16 +3221,16 @@
         <v>26</v>
       </c>
       <c r="K23" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>60</v>
       </c>
       <c r="M23" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>39</v>
@@ -3217,7 +3239,7 @@
       <c r="Q23" s="31"/>
       <c r="R23" s="45"/>
       <c r="S23" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:19">
@@ -3255,13 +3277,13 @@
         <v>93</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O24" s="26" t="s">
         <v>39</v>
@@ -3270,7 +3292,7 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="45"/>
       <c r="S24" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:19">
@@ -3308,13 +3330,13 @@
         <v>93</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>39</v>
@@ -3323,7 +3345,7 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="45"/>
       <c r="S25" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:19">
@@ -3361,13 +3383,13 @@
         <v>93</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>39</v>
@@ -3376,7 +3398,7 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="45"/>
       <c r="S26" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:19">
@@ -3414,13 +3436,13 @@
         <v>93</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>39</v>
@@ -3429,7 +3451,7 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="45"/>
       <c r="S27" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:19">
@@ -3467,13 +3489,13 @@
         <v>100</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M28" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O28" s="26" t="s">
         <v>31</v>
@@ -3482,7 +3504,7 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="45"/>
       <c r="S28" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:19">
@@ -3526,7 +3548,7 @@
         <v>29</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>104</v>
@@ -3535,7 +3557,7 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="45"/>
       <c r="S29" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:19">
@@ -3588,7 +3610,7 @@
       <c r="Q30" s="31"/>
       <c r="R30" s="45"/>
       <c r="S30" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:19">
@@ -3632,7 +3654,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>104</v>
@@ -3641,7 +3663,7 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="45"/>
       <c r="S31" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:19">
@@ -3694,7 +3716,7 @@
       <c r="Q32" s="31"/>
       <c r="R32" s="45"/>
       <c r="S32" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:19">
@@ -3732,13 +3754,13 @@
         <v>100</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M33" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>31</v>
@@ -3747,7 +3769,7 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="45"/>
       <c r="S33" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:19">
@@ -3800,7 +3822,7 @@
       <c r="Q34" s="31"/>
       <c r="R34" s="45"/>
       <c r="S34" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:19">
@@ -3823,7 +3845,7 @@
         <v>117</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H35" s="29">
         <v>1</v>
@@ -3843,7 +3865,7 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="45"/>
       <c r="S35" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:19">
@@ -3887,7 +3909,7 @@
         <v>29</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O36" s="26" t="s">
         <v>39</v>
@@ -3896,7 +3918,7 @@
       <c r="Q36" s="31"/>
       <c r="R36" s="45"/>
       <c r="S36" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:19">
@@ -3949,7 +3971,7 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="45"/>
       <c r="S37" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:19">
@@ -3993,7 +4015,7 @@
         <v>29</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O38" s="26" t="s">
         <v>31</v>
@@ -4002,7 +4024,7 @@
       <c r="Q38" s="31"/>
       <c r="R38" s="45"/>
       <c r="S38" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:19">
@@ -4055,7 +4077,7 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="45"/>
       <c r="S39" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:19">
@@ -4093,13 +4115,13 @@
         <v>100</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M40" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O40" s="26" t="s">
         <v>31</v>
@@ -4108,7 +4130,7 @@
       <c r="Q40" s="31"/>
       <c r="R40" s="45"/>
       <c r="S40" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:19">
@@ -4152,7 +4174,7 @@
         <v>29</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O41" s="26" t="s">
         <v>104</v>
@@ -4161,7 +4183,7 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="45"/>
       <c r="S41" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:19">
@@ -4214,7 +4236,7 @@
       <c r="Q42" s="31"/>
       <c r="R42" s="45"/>
       <c r="S42" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:19">
@@ -4258,7 +4280,7 @@
         <v>29</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O43" s="26" t="s">
         <v>104</v>
@@ -4267,7 +4289,7 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="45"/>
       <c r="S43" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:19">
@@ -4320,7 +4342,7 @@
       <c r="Q44" s="31"/>
       <c r="R44" s="45"/>
       <c r="S44" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:19">
@@ -4358,13 +4380,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M45" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>31</v>
@@ -4373,7 +4395,7 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="45"/>
       <c r="S45" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:19">
@@ -4420,13 +4442,13 @@
         <v>35</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="P46" s="31"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="45"/>
       <c r="S46" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:19">
@@ -4479,7 +4501,7 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="45"/>
       <c r="S47" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:19">
@@ -4522,7 +4544,7 @@
       <c r="Q48" s="31"/>
       <c r="R48" s="45"/>
       <c r="S48" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:19">
@@ -4575,7 +4597,7 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="45"/>
       <c r="S49" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:19">
@@ -4618,7 +4640,7 @@
       <c r="Q50" s="31"/>
       <c r="R50" s="45"/>
       <c r="S50" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:19">
@@ -4656,13 +4678,13 @@
         <v>100</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M51" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>31</v>
@@ -4715,7 +4737,7 @@
         <v>29</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O52" s="26" t="s">
         <v>31</v>
@@ -4747,7 +4769,7 @@
         <v>146</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H53" s="29">
         <v>1</v>
@@ -4762,7 +4784,7 @@
         <v>149</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M53" s="31" t="s">
         <v>29</v>
@@ -4815,13 +4837,13 @@
         <v>38</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M54" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O54" s="26" t="s">
         <v>31</v>
@@ -4871,7 +4893,7 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="45"/>
       <c r="S55" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:19">
@@ -4909,13 +4931,13 @@
         <v>156</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M56" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N56" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O56" s="40" t="s">
         <v>39</v>
@@ -4962,13 +4984,13 @@
         <v>100</v>
       </c>
       <c r="L57" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N57" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O57" s="40" t="s">
         <v>39</v>
@@ -5015,13 +5037,13 @@
         <v>156</v>
       </c>
       <c r="L58" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M58" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O58" s="40" t="s">
         <v>39</v>
@@ -5068,13 +5090,13 @@
         <v>100</v>
       </c>
       <c r="L59" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M59" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O59" s="40" t="s">
         <v>31</v>
@@ -5121,13 +5143,13 @@
         <v>156</v>
       </c>
       <c r="L60" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M60" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N60" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O60" s="40" t="s">
         <v>39</v>
@@ -5174,13 +5196,13 @@
         <v>100</v>
       </c>
       <c r="L61" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M61" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O61" s="40" t="s">
         <v>39</v>
@@ -5227,13 +5249,13 @@
         <v>100</v>
       </c>
       <c r="L62" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M62" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O62" s="40" t="s">
         <v>31</v>
@@ -5280,13 +5302,13 @@
         <v>100</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M63" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O63" s="40" t="s">
         <v>39</v>
@@ -5339,7 +5361,7 @@
         <v>29</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O64" s="40" t="s">
         <v>39</v>
@@ -5439,13 +5461,13 @@
         <v>100</v>
       </c>
       <c r="L66" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M66" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O66" s="40" t="s">
         <v>39</v>
@@ -5498,7 +5520,7 @@
         <v>29</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O67" s="40" t="s">
         <v>39</v>
@@ -5598,13 +5620,13 @@
         <v>100</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M69" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O69" s="40" t="s">
         <v>31</v>
@@ -5704,13 +5726,13 @@
         <v>100</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M71" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O71" s="40" t="s">
         <v>31</v>
@@ -5795,7 +5817,7 @@
         <v>170</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>31</v>
@@ -5838,7 +5860,7 @@
         <v>172</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>31</v>
@@ -5881,7 +5903,7 @@
         <v>174</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>31</v>
@@ -5939,7 +5961,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="48" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M76" s="48" t="s">
         <v>29</v>
@@ -5992,13 +6014,13 @@
         <v>100</v>
       </c>
       <c r="L77" s="48" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M77" s="48" t="s">
         <v>29</v>
       </c>
       <c r="N77" s="68" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O77" s="40" t="s">
         <v>31</v>
@@ -6045,13 +6067,13 @@
         <v>100</v>
       </c>
       <c r="L78" s="48" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M78" s="48" t="s">
         <v>29</v>
       </c>
       <c r="N78" s="68" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O78" s="40" t="s">
         <v>31</v>
@@ -6083,7 +6105,7 @@
         <v>185</v>
       </c>
       <c r="G79" s="48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>31</v>
@@ -6141,13 +6163,13 @@
         <v>100</v>
       </c>
       <c r="L80" s="48" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M80" s="48" t="s">
         <v>29</v>
       </c>
       <c r="N80" s="68" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O80" s="40" t="s">
         <v>31</v>
@@ -6179,7 +6201,7 @@
         <v>189</v>
       </c>
       <c r="G81" s="48" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>31</v>
@@ -6204,7 +6226,7 @@
     </row>
     <row r="82" s="2" customFormat="1" spans="1:19">
       <c r="A82" s="46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B82" s="47" t="s">
         <v>20</v>
@@ -6237,13 +6259,13 @@
         <v>100</v>
       </c>
       <c r="L82" s="48" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M82" s="48" t="s">
         <v>29</v>
       </c>
       <c r="N82" s="68" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O82" s="40" t="s">
         <v>31</v>
@@ -6257,7 +6279,7 @@
     </row>
     <row r="83" s="2" customFormat="1" spans="1:19">
       <c r="A83" s="46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B83" s="47" t="s">
         <v>20</v>
@@ -6272,7 +6294,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G83" s="48" t="s">
         <v>120</v>
@@ -6310,7 +6332,7 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="1:19">
       <c r="A84" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>20</v>
@@ -6325,10 +6347,10 @@
         <v>23</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H84" s="22" t="s">
         <v>31</v>
@@ -6348,12 +6370,12 @@
       <c r="Q84" s="31"/>
       <c r="R84" s="45"/>
       <c r="S84" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:19">
       <c r="A85" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>20</v>
@@ -6368,10 +6390,10 @@
         <v>23</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H85" s="22" t="s">
         <v>31</v>
@@ -6391,12 +6413,12 @@
       <c r="Q85" s="31"/>
       <c r="R85" s="45"/>
       <c r="S85" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:19">
       <c r="A86" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>20</v>
@@ -6411,10 +6433,10 @@
         <v>23</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H86" s="22" t="s">
         <v>31</v>
@@ -6434,12 +6456,12 @@
       <c r="Q86" s="31"/>
       <c r="R86" s="45"/>
       <c r="S86" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:19">
       <c r="A87" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>20</v>
@@ -6454,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G87" s="31" t="s">
         <v>25</v>
@@ -6477,12 +6499,12 @@
       <c r="Q87" s="31"/>
       <c r="R87" s="45"/>
       <c r="S87" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:19">
       <c r="A88" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" s="23" t="s">
         <v>20</v>
@@ -6497,7 +6519,7 @@
         <v>23</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G88" s="31" t="s">
         <v>25</v>
@@ -6520,12 +6542,12 @@
       <c r="Q88" s="31"/>
       <c r="R88" s="45"/>
       <c r="S88" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:19">
       <c r="A89" s="32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B89" s="23" t="s">
         <v>20</v>
@@ -6540,10 +6562,10 @@
         <v>23</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H89" s="22" t="s">
         <v>31</v>
@@ -6563,12 +6585,12 @@
       <c r="Q89" s="31"/>
       <c r="R89" s="45"/>
       <c r="S89" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:19">
       <c r="A90" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>20</v>
@@ -6583,7 +6605,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G90" s="31" t="s">
         <v>25</v>
@@ -6606,12 +6628,12 @@
       <c r="Q90" s="31"/>
       <c r="R90" s="45"/>
       <c r="S90" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:19">
       <c r="A91" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>20</v>
@@ -6626,7 +6648,7 @@
         <v>23</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>25</v>
@@ -6649,12 +6671,12 @@
       <c r="Q91" s="31"/>
       <c r="R91" s="45"/>
       <c r="S91" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" s="2" customFormat="1" spans="1:19">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A92" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B92" s="50" t="s">
         <v>20</v>
@@ -6669,10 +6691,10 @@
         <v>23</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G92" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H92" s="52">
         <v>1</v>
@@ -6684,16 +6706,16 @@
         <v>26</v>
       </c>
       <c r="K92" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L92" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M92" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N92" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O92" s="40" t="s">
         <v>39</v>
@@ -6702,12 +6724,12 @@
       <c r="Q92" s="31"/>
       <c r="R92" s="45"/>
       <c r="S92" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A93" s="49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B93" s="50" t="s">
         <v>20</v>
@@ -6722,10 +6744,10 @@
         <v>23</v>
       </c>
       <c r="F93" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G93" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H93" s="52">
         <v>1</v>
@@ -6737,16 +6759,16 @@
         <v>26</v>
       </c>
       <c r="K93" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L93" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M93" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N93" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O93" s="40" t="s">
         <v>39</v>
@@ -6755,12 +6777,12 @@
       <c r="Q93" s="31"/>
       <c r="R93" s="45"/>
       <c r="S93" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A94" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B94" s="50" t="s">
         <v>20</v>
@@ -6775,10 +6797,10 @@
         <v>23</v>
       </c>
       <c r="F94" s="46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G94" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H94" s="52">
         <v>1</v>
@@ -6790,16 +6812,16 @@
         <v>26</v>
       </c>
       <c r="K94" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L94" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M94" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N94" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O94" s="40" t="s">
         <v>39</v>
@@ -6808,12 +6830,12 @@
       <c r="Q94" s="31"/>
       <c r="R94" s="45"/>
       <c r="S94" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A95" s="49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B95" s="50" t="s">
         <v>20</v>
@@ -6828,10 +6850,10 @@
         <v>23</v>
       </c>
       <c r="F95" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G95" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H95" s="52">
         <v>1</v>
@@ -6843,16 +6865,16 @@
         <v>26</v>
       </c>
       <c r="K95" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L95" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M95" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N95" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O95" s="40" t="s">
         <v>39</v>
@@ -6861,12 +6883,12 @@
       <c r="Q95" s="31"/>
       <c r="R95" s="45"/>
       <c r="S95" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A96" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B96" s="50" t="s">
         <v>20</v>
@@ -6881,10 +6903,10 @@
         <v>23</v>
       </c>
       <c r="F96" s="46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G96" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H96" s="52">
         <v>1</v>
@@ -6896,16 +6918,16 @@
         <v>26</v>
       </c>
       <c r="K96" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L96" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M96" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N96" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O96" s="40" t="s">
         <v>39</v>
@@ -6914,12 +6936,12 @@
       <c r="Q96" s="31"/>
       <c r="R96" s="45"/>
       <c r="S96" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A97" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B97" s="50" t="s">
         <v>20</v>
@@ -6934,10 +6956,10 @@
         <v>23</v>
       </c>
       <c r="F97" s="46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G97" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H97" s="52">
         <v>1</v>
@@ -6949,16 +6971,16 @@
         <v>26</v>
       </c>
       <c r="K97" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L97" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M97" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N97" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O97" s="40" t="s">
         <v>39</v>
@@ -6967,12 +6989,12 @@
       <c r="Q97" s="31"/>
       <c r="R97" s="45"/>
       <c r="S97" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A98" s="49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B98" s="50" t="s">
         <v>20</v>
@@ -6987,10 +7009,10 @@
         <v>23</v>
       </c>
       <c r="F98" s="46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H98" s="52">
         <v>1</v>
@@ -7002,16 +7024,16 @@
         <v>26</v>
       </c>
       <c r="K98" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L98" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M98" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N98" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O98" s="40" t="s">
         <v>39</v>
@@ -7020,12 +7042,12 @@
       <c r="Q98" s="31"/>
       <c r="R98" s="45"/>
       <c r="S98" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A99" s="49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" s="50" t="s">
         <v>20</v>
@@ -7040,10 +7062,10 @@
         <v>23</v>
       </c>
       <c r="F99" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G99" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H99" s="52">
         <v>1</v>
@@ -7055,16 +7077,16 @@
         <v>26</v>
       </c>
       <c r="K99" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M99" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N99" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O99" s="40" t="s">
         <v>39</v>
@@ -7073,12 +7095,12 @@
       <c r="Q99" s="31"/>
       <c r="R99" s="45"/>
       <c r="S99" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1" spans="1:19">
       <c r="A100" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>20</v>
@@ -7093,10 +7115,10 @@
         <v>23</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H100" s="22" t="s">
         <v>31</v>
@@ -7108,16 +7130,16 @@
         <v>26</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L100" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M100" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N100" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O100" s="22" t="s">
         <v>39</v>
@@ -7126,12 +7148,12 @@
       <c r="Q100" s="23"/>
       <c r="R100" s="63"/>
       <c r="S100" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1" spans="1:19">
       <c r="A101" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>20</v>
@@ -7146,10 +7168,10 @@
         <v>23</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H101" s="22" t="s">
         <v>31</v>
@@ -7161,16 +7183,16 @@
         <v>26</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L101" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M101" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N101" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O101" s="22" t="s">
         <v>39</v>
@@ -7179,12 +7201,12 @@
       <c r="Q101" s="23"/>
       <c r="R101" s="63"/>
       <c r="S101" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:19">
       <c r="A102" s="67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" s="50" t="s">
         <v>20</v>
@@ -7199,10 +7221,10 @@
         <v>23</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H102" s="29">
         <v>1</v>
@@ -7214,16 +7236,16 @@
         <v>26</v>
       </c>
       <c r="K102" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L102" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M102" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O102" s="26" t="s">
         <v>39</v>
@@ -7232,12 +7254,12 @@
       <c r="Q102" s="31"/>
       <c r="R102" s="45"/>
       <c r="S102" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:19">
       <c r="A103" s="67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B103" s="50" t="s">
         <v>20</v>
@@ -7252,10 +7274,10 @@
         <v>23</v>
       </c>
       <c r="F103" s="70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H103" s="29">
         <v>1</v>
@@ -7275,12 +7297,12 @@
       <c r="Q103" s="31"/>
       <c r="R103" s="45"/>
       <c r="S103" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" spans="1:19">
       <c r="A104" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>20</v>
@@ -7295,10 +7317,10 @@
         <v>23</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H104" s="22" t="s">
         <v>31</v>
@@ -7310,16 +7332,16 @@
         <v>26</v>
       </c>
       <c r="K104" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L104" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M104" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N104" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O104" s="22" t="s">
         <v>39</v>
@@ -7328,12 +7350,12 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="63"/>
       <c r="S104" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:19">
       <c r="A105" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>20</v>
@@ -7348,10 +7370,10 @@
         <v>23</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H105" s="29">
         <v>1</v>
@@ -7363,16 +7385,16 @@
         <v>26</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L105" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M105" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N105" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O105" s="26" t="s">
         <v>39</v>
@@ -7381,12 +7403,12 @@
       <c r="Q105" s="31"/>
       <c r="R105" s="45"/>
       <c r="S105" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:19">
       <c r="A106" s="40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>20</v>
@@ -7401,10 +7423,10 @@
         <v>23</v>
       </c>
       <c r="F106" s="54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H106" s="29">
         <v>1</v>
@@ -7424,12 +7446,12 @@
       <c r="Q106" s="31"/>
       <c r="R106" s="45"/>
       <c r="S106" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" spans="1:19">
       <c r="A107" s="71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B107" s="23" t="s">
         <v>20</v>
@@ -7444,7 +7466,7 @@
         <v>23</v>
       </c>
       <c r="F107" s="71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G107" s="31" t="s">
         <v>25</v>
@@ -7467,12 +7489,12 @@
       <c r="Q107" s="31"/>
       <c r="R107" s="45"/>
       <c r="S107" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" spans="1:19">
       <c r="A108" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B108" s="23" t="s">
         <v>20</v>
@@ -7487,7 +7509,7 @@
         <v>23</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G108" s="24" t="s">
         <v>25</v>
@@ -7502,16 +7524,16 @@
         <v>26</v>
       </c>
       <c r="K108" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L108" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M108" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N108" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O108" s="22" t="s">
         <v>39</v>
@@ -7520,12 +7542,12 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="63"/>
       <c r="S108" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" spans="1:19">
       <c r="A109" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>20</v>
@@ -7540,7 +7562,7 @@
         <v>23</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G109" s="24" t="s">
         <v>25</v>
@@ -7555,16 +7577,16 @@
         <v>26</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L109" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M109" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N109" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O109" s="22" t="s">
         <v>39</v>
@@ -7573,12 +7595,12 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="63"/>
       <c r="S109" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:19">
       <c r="A110" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B110" s="23" t="s">
         <v>20</v>
@@ -7593,7 +7615,7 @@
         <v>23</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G110" s="24" t="s">
         <v>25</v>
@@ -7608,16 +7630,16 @@
         <v>26</v>
       </c>
       <c r="K110" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L110" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M110" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N110" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O110" s="22" t="s">
         <v>39</v>
@@ -7626,12 +7648,12 @@
       <c r="Q110" s="31"/>
       <c r="R110" s="45"/>
       <c r="S110" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:19">
       <c r="A111" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>20</v>
@@ -7646,7 +7668,7 @@
         <v>23</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G111" s="24" t="s">
         <v>25</v>
@@ -7661,16 +7683,16 @@
         <v>26</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M111" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N111" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O111" s="22" t="s">
         <v>39</v>
@@ -7679,12 +7701,12 @@
       <c r="Q111" s="31"/>
       <c r="R111" s="45"/>
       <c r="S111" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:19">
       <c r="A112" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B112" s="23" t="s">
         <v>20</v>
@@ -7699,7 +7721,7 @@
         <v>23</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G112" s="24" t="s">
         <v>25</v>
@@ -7714,16 +7736,16 @@
         <v>26</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L112" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M112" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N112" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O112" s="22" t="s">
         <v>39</v>
@@ -7732,12 +7754,12 @@
       <c r="Q112" s="31"/>
       <c r="R112" s="45"/>
       <c r="S112" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:19">
       <c r="A113" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>20</v>
@@ -7752,7 +7774,7 @@
         <v>23</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G113" s="24" t="s">
         <v>25</v>
@@ -7767,16 +7789,16 @@
         <v>26</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L113" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M113" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N113" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O113" s="22" t="s">
         <v>39</v>
@@ -7785,12 +7807,12 @@
       <c r="Q113" s="31"/>
       <c r="R113" s="45"/>
       <c r="S113" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:19">
       <c r="A114" s="72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B114" s="23" t="s">
         <v>20</v>
@@ -7805,10 +7827,10 @@
         <v>23</v>
       </c>
       <c r="F114" s="72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H114" s="29">
         <v>1</v>
@@ -7828,12 +7850,12 @@
       <c r="Q114" s="31"/>
       <c r="R114" s="45"/>
       <c r="S114" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" s="2" customFormat="1" spans="1:19">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A115" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B115" s="23" t="s">
         <v>20</v>
@@ -7848,10 +7870,10 @@
         <v>23</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H115" s="29">
         <v>1</v>
@@ -7871,12 +7893,12 @@
       <c r="Q115" s="31"/>
       <c r="R115" s="45"/>
       <c r="S115" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:19">
       <c r="A116" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B116" s="23" t="s">
         <v>20</v>
@@ -7891,7 +7913,7 @@
         <v>23</v>
       </c>
       <c r="F116" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G116" s="31" t="s">
         <v>25</v>
@@ -7914,12 +7936,12 @@
       <c r="Q116" s="31"/>
       <c r="R116" s="45"/>
       <c r="S116" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:19">
       <c r="A117" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>20</v>
@@ -7934,7 +7956,7 @@
         <v>23</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G117" s="31" t="s">
         <v>25</v>
@@ -7957,12 +7979,12 @@
       <c r="Q117" s="31"/>
       <c r="R117" s="45"/>
       <c r="S117" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:19">
       <c r="A118" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>20</v>
@@ -7977,10 +7999,10 @@
         <v>23</v>
       </c>
       <c r="F118" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G118" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H118" s="29">
         <v>1</v>
@@ -8000,12 +8022,12 @@
       <c r="Q118" s="31"/>
       <c r="R118" s="45"/>
       <c r="S118" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:19">
       <c r="A119" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>20</v>
@@ -8020,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G119" s="31" t="s">
         <v>25</v>
@@ -8043,12 +8065,12 @@
       <c r="Q119" s="31"/>
       <c r="R119" s="45"/>
       <c r="S119" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" ht="15" customHeight="1" spans="1:19">
       <c r="A120" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>20</v>
@@ -8063,10 +8085,10 @@
         <v>23</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G120" s="55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H120" s="29">
         <v>1</v>
@@ -8078,16 +8100,16 @@
         <v>26</v>
       </c>
       <c r="K120" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L120" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M120" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N120" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O120" s="40" t="s">
         <v>39</v>
@@ -8096,12 +8118,12 @@
       <c r="Q120" s="31"/>
       <c r="R120" s="45"/>
       <c r="S120" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:19">
       <c r="A121" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>20</v>
@@ -8116,10 +8138,10 @@
         <v>23</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G121" s="55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H121" s="29">
         <v>1</v>
@@ -8131,16 +8153,16 @@
         <v>26</v>
       </c>
       <c r="K121" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L121" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M121" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O121" s="40" t="s">
         <v>39</v>
@@ -8149,12 +8171,12 @@
       <c r="Q121" s="31"/>
       <c r="R121" s="45"/>
       <c r="S121" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:19">
       <c r="A122" s="54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>20</v>
@@ -8169,10 +8191,10 @@
         <v>23</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G122" s="55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H122" s="29">
         <v>1</v>
@@ -8184,16 +8206,16 @@
         <v>26</v>
       </c>
       <c r="K122" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L122" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M122" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N122" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O122" s="40" t="s">
         <v>39</v>
@@ -8202,12 +8224,12 @@
       <c r="Q122" s="31"/>
       <c r="R122" s="45"/>
       <c r="S122" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:19">
       <c r="A123" s="54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>20</v>
@@ -8222,10 +8244,10 @@
         <v>23</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G123" s="55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H123" s="29">
         <v>1</v>
@@ -8240,13 +8262,13 @@
         <v>100</v>
       </c>
       <c r="L123" s="31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M123" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N123" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O123" s="26" t="s">
         <v>31</v>
@@ -8255,12 +8277,12 @@
       <c r="Q123" s="31"/>
       <c r="R123" s="45"/>
       <c r="S123" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:19">
       <c r="A124" s="54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>20</v>
@@ -8275,10 +8297,10 @@
         <v>23</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G124" s="55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H124" s="29">
         <v>1</v>
@@ -8290,16 +8312,16 @@
         <v>26</v>
       </c>
       <c r="K124" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L124" s="61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M124" s="31" t="s">
         <v>29</v>
       </c>
       <c r="N124" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O124" s="40" t="s">
         <v>39</v>
@@ -8308,12 +8330,12 @@
       <c r="Q124" s="31"/>
       <c r="R124" s="45"/>
       <c r="S124" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" s="3" customFormat="1" spans="1:19">
       <c r="A125" s="54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>20</v>
@@ -8328,10 +8350,10 @@
         <v>23</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>31</v>
@@ -8343,16 +8365,16 @@
         <v>26</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M125" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N125" s="27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O125" s="40" t="s">
         <v>31</v>
@@ -8361,12 +8383,12 @@
       <c r="Q125" s="23"/>
       <c r="R125" s="63"/>
       <c r="S125" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:19">
       <c r="A126" s="54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B126" s="23" t="s">
         <v>20</v>
@@ -8381,10 +8403,10 @@
         <v>23</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H126" s="21">
         <v>1</v>
@@ -8396,16 +8418,16 @@
         <v>26</v>
       </c>
       <c r="K126" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L126" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M126" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N126" s="69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O126" s="40" t="s">
         <v>39</v>
@@ -8414,12 +8436,12 @@
       <c r="Q126" s="31"/>
       <c r="R126" s="45"/>
       <c r="S126" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:19">
       <c r="A127" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>20</v>
@@ -8434,10 +8456,10 @@
         <v>23</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H127" s="29">
         <v>1</v>
@@ -8457,10 +8479,10 @@
       <c r="Q127" s="31"/>
       <c r="R127" s="62"/>
       <c r="S127" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="128" s="2" customFormat="1" spans="1:19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A128" s="56" t="s">
         <v>291</v>
       </c>
@@ -8500,10 +8522,10 @@
       <c r="Q128" s="31"/>
       <c r="R128" s="62"/>
       <c r="S128" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" s="2" customFormat="1" spans="1:19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A129" s="56" t="s">
         <v>294</v>
       </c>
@@ -8543,7 +8565,7 @@
       <c r="Q129" s="31"/>
       <c r="R129" s="62"/>
       <c r="S129" s="31" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:19">
@@ -8566,7 +8588,7 @@
         <v>298</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H130" s="29">
         <v>1</v>
@@ -8586,10 +8608,10 @@
       <c r="Q130" s="31"/>
       <c r="R130" s="45"/>
       <c r="S130" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="131" s="2" customFormat="1" spans="1:19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A131" s="56" t="s">
         <v>299</v>
       </c>
@@ -8609,7 +8631,7 @@
         <v>300</v>
       </c>
       <c r="G131" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H131" s="29">
         <v>1</v>
@@ -8632,70 +8654,166 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:19">
-      <c r="A132" s="56"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="31"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="40"/>
+    <row r="132" s="2" customFormat="1" ht="14.4" spans="1:19">
+      <c r="A132" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132" s="29">
+        <v>1</v>
+      </c>
+      <c r="I132" s="29">
+        <v>0</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K132" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L132" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M132" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N132" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="O132" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="P132" s="31"/>
       <c r="Q132" s="31"/>
-      <c r="R132" s="62"/>
-      <c r="S132" s="31"/>
-    </row>
-    <row r="133" s="2" customFormat="1" spans="1:19">
-      <c r="A133" s="26"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="31"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="26"/>
+      <c r="R132" s="45"/>
+      <c r="S132" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" s="2" customFormat="1" ht="14.4" spans="1:19">
+      <c r="A133" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="H133" s="29">
+        <v>1</v>
+      </c>
+      <c r="I133" s="29">
+        <v>1</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K133" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="L133" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="M133" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N133" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O133" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="P133" s="31"/>
       <c r="Q133" s="31"/>
       <c r="R133" s="45"/>
-      <c r="S133" s="31"/>
-    </row>
-    <row r="134" s="2" customFormat="1" spans="1:19">
-      <c r="A134" s="26"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="26"/>
+      <c r="S133" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="14.4" spans="1:19">
+      <c r="A134" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="H134" s="29">
+        <v>1</v>
+      </c>
+      <c r="I134" s="29">
+        <v>0</v>
+      </c>
+      <c r="J134" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K134" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="L134" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M134" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N134" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="O134" s="40" t="s">
+        <v>311</v>
+      </c>
       <c r="P134" s="31"/>
       <c r="Q134" s="31"/>
       <c r="R134" s="45"/>
-      <c r="S134" s="31"/>
-    </row>
-    <row r="135" s="2" customFormat="1" spans="1:19">
+      <c r="S134" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A135" s="56"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -8758,7 +8876,7 @@
       <c r="R137" s="45"/>
       <c r="S137" s="31"/>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:19">
+    <row r="138" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A138" s="56"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -8947,7 +9065,7 @@
       <c r="R146" s="62"/>
       <c r="S146" s="31"/>
     </row>
-    <row r="147" s="2" customFormat="1" spans="1:19">
+    <row r="147" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A147" s="56"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -8968,7 +9086,7 @@
       <c r="R147" s="62"/>
       <c r="S147" s="31"/>
     </row>
-    <row r="148" s="2" customFormat="1" spans="1:19">
+    <row r="148" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A148" s="56"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -8989,7 +9107,7 @@
       <c r="R148" s="62"/>
       <c r="S148" s="31"/>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:19">
+    <row r="149" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A149" s="56"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -9010,7 +9128,7 @@
       <c r="R149" s="62"/>
       <c r="S149" s="31"/>
     </row>
-    <row r="150" s="2" customFormat="1" spans="1:19">
+    <row r="150" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A150" s="56"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -9031,7 +9149,7 @@
       <c r="R150" s="62"/>
       <c r="S150" s="31"/>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:19">
+    <row r="151" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A151" s="56"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -9283,7 +9401,7 @@
       <c r="R162" s="45"/>
       <c r="S162" s="31"/>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:19">
+    <row r="163" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A163" s="56"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -12832,7 +12950,7 @@
       <c r="R331" s="45"/>
       <c r="S331" s="31"/>
     </row>
-    <row r="332" s="2" customFormat="1" spans="1:19">
+    <row r="332" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A332" s="26"/>
       <c r="B332" s="16"/>
       <c r="C332" s="16"/>
@@ -12958,7 +13076,7 @@
       <c r="R337" s="45"/>
       <c r="S337" s="31"/>
     </row>
-    <row r="338" s="2" customFormat="1" spans="1:19">
+    <row r="338" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A338" s="26"/>
       <c r="B338" s="16"/>
       <c r="C338" s="16"/>
@@ -13084,7 +13202,7 @@
       <c r="R343" s="45"/>
       <c r="S343" s="31"/>
     </row>
-    <row r="344" s="2" customFormat="1" spans="1:19">
+    <row r="344" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A344" s="26"/>
       <c r="B344" s="16"/>
       <c r="C344" s="16"/>
@@ -13210,7 +13328,7 @@
       <c r="R349" s="45"/>
       <c r="S349" s="31"/>
     </row>
-    <row r="350" s="2" customFormat="1" spans="1:19">
+    <row r="350" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A350" s="26"/>
       <c r="B350" s="16"/>
       <c r="C350" s="16"/>
@@ -13336,7 +13454,7 @@
       <c r="R355" s="45"/>
       <c r="S355" s="31"/>
     </row>
-    <row r="356" s="2" customFormat="1" spans="1:19">
+    <row r="356" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A356" s="26"/>
       <c r="B356" s="16"/>
       <c r="C356" s="16"/>
@@ -13420,7 +13538,7 @@
       <c r="R359" s="45"/>
       <c r="S359" s="31"/>
     </row>
-    <row r="360" s="2" customFormat="1" spans="1:19">
+    <row r="360" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A360" s="26"/>
       <c r="B360" s="16"/>
       <c r="C360" s="16"/>
@@ -13525,7 +13643,7 @@
       <c r="R364" s="45"/>
       <c r="S364" s="31"/>
     </row>
-    <row r="365" s="2" customFormat="1" spans="1:19">
+    <row r="365" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A365" s="26"/>
       <c r="B365" s="16"/>
       <c r="C365" s="16"/>
@@ -13693,7 +13811,7 @@
       <c r="R372" s="45"/>
       <c r="S372" s="31"/>
     </row>
-    <row r="373" s="2" customFormat="1" spans="1:19">
+    <row r="373" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A373" s="26"/>
       <c r="B373" s="16"/>
       <c r="C373" s="16"/>
@@ -13903,7 +14021,7 @@
       <c r="R382" s="45"/>
       <c r="S382" s="31"/>
     </row>
-    <row r="383" s="2" customFormat="1" spans="1:19">
+    <row r="383" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A383" s="26"/>
       <c r="B383" s="16"/>
       <c r="C383" s="16"/>
@@ -14092,7 +14210,7 @@
       <c r="R391" s="45"/>
       <c r="S391" s="31"/>
     </row>
-    <row r="392" s="2" customFormat="1" spans="1:19">
+    <row r="392" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A392" s="26"/>
       <c r="B392" s="16"/>
       <c r="C392" s="16"/>
@@ -14281,7 +14399,7 @@
       <c r="R400" s="45"/>
       <c r="S400" s="31"/>
     </row>
-    <row r="401" s="2" customFormat="1" spans="1:19">
+    <row r="401" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A401" s="26"/>
       <c r="B401" s="16"/>
       <c r="C401" s="16"/>
@@ -14365,7 +14483,7 @@
       <c r="R404" s="45"/>
       <c r="S404" s="31"/>
     </row>
-    <row r="405" s="2" customFormat="1" spans="1:19">
+    <row r="405" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A405" s="26"/>
       <c r="B405" s="16"/>
       <c r="C405" s="16"/>
@@ -14491,7 +14609,7 @@
       <c r="R410" s="45"/>
       <c r="S410" s="31"/>
     </row>
-    <row r="411" s="2" customFormat="1" spans="1:19">
+    <row r="411" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A411" s="26"/>
       <c r="B411" s="16"/>
       <c r="C411" s="16"/>
@@ -14617,7 +14735,7 @@
       <c r="R416" s="45"/>
       <c r="S416" s="31"/>
     </row>
-    <row r="417" s="2" customFormat="1" spans="1:19">
+    <row r="417" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A417" s="26"/>
       <c r="B417" s="16"/>
       <c r="C417" s="16"/>
@@ -14764,7 +14882,7 @@
       <c r="R423" s="45"/>
       <c r="S423" s="31"/>
     </row>
-    <row r="424" s="2" customFormat="1" spans="1:19">
+    <row r="424" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A424" s="26"/>
       <c r="B424" s="16"/>
       <c r="C424" s="16"/>
@@ -14848,7 +14966,7 @@
       <c r="R427" s="45"/>
       <c r="S427" s="31"/>
     </row>
-    <row r="428" s="2" customFormat="1" spans="1:19">
+    <row r="428" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A428" s="26"/>
       <c r="B428" s="16"/>
       <c r="C428" s="16"/>
@@ -15037,7 +15155,7 @@
       <c r="R436" s="45"/>
       <c r="S436" s="31"/>
     </row>
-    <row r="437" s="2" customFormat="1" spans="1:19">
+    <row r="437" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A437" s="26"/>
       <c r="B437" s="16"/>
       <c r="C437" s="16"/>
@@ -15247,7 +15365,7 @@
       <c r="R446" s="45"/>
       <c r="S446" s="31"/>
     </row>
-    <row r="447" s="2" customFormat="1" spans="1:19">
+    <row r="447" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A447" s="26"/>
       <c r="B447" s="16"/>
       <c r="C447" s="16"/>
@@ -15646,7 +15764,7 @@
       <c r="R465" s="45"/>
       <c r="S465" s="31"/>
     </row>
-    <row r="466" s="2" customFormat="1" spans="1:19">
+    <row r="466" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A466" s="26"/>
       <c r="B466" s="16"/>
       <c r="C466" s="16"/>
@@ -15667,7 +15785,7 @@
       <c r="R466" s="45"/>
       <c r="S466" s="31"/>
     </row>
-    <row r="467" s="2" customFormat="1" spans="1:19">
+    <row r="467" s="2" customFormat="1" ht="14.4" spans="1:19">
       <c r="A467" s="26"/>
       <c r="B467" s="16"/>
       <c r="C467" s="16"/>
@@ -18730,16 +18848,16 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="61.2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/src/customerInput/客户信息录入.xlsx
+++ b/src/customerInput/客户信息录入.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11319" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11319" uniqueCount="862">
   <si>
     <t>是否同一规则</t>
   </si>
@@ -3084,10 +3084,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>TradeData.MAGN_STRP_FLG</t>
-  </si>
-  <si>
-    <t>TradeData.TX_AMT</t>
+    <t>MAGN_STRP_FLG</t>
   </si>
   <si>
     <t>1030100128</t>
@@ -3282,13 +3279,10 @@
     <t>14</t>
   </si>
   <si>
-    <t>TradeData.WHETHER_AGEN</t>
-  </si>
-  <si>
     <t>1030100856</t>
   </si>
   <si>
-    <t>TradeData.CUR</t>
+    <t>CUR</t>
   </si>
   <si>
     <r>
@@ -3319,7 +3313,7 @@
     <t>1030100858</t>
   </si>
   <si>
-    <t>TradeData.DRAW_MANR</t>
+    <t>DRAW_MANR</t>
   </si>
   <si>
     <t>1030200101</t>
@@ -3603,22 +3597,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3633,22 +3627,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3656,7 +3664,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3664,14 +3672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3686,7 +3687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3700,26 +3701,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3730,9 +3716,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3789,7 +3783,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3801,73 +3855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3879,49 +3867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3939,7 +3891,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3951,19 +3951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3994,11 +3988,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4008,6 +4000,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4027,17 +4049,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4056,49 +4083,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4107,19 +4101,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4128,112 +4122,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4777,9 +4771,9 @@
   <dimension ref="A1:S842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F669" sqref="F669:F842"/>
+      <selection pane="bottomLeft" activeCell="K690" sqref="K690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -31649,7 +31643,7 @@
         <v>27</v>
       </c>
       <c r="K519" s="82" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L519" s="82" t="s">
         <v>162</v>
@@ -31672,7 +31666,7 @@
     </row>
     <row r="520" s="5" customFormat="1" spans="1:19">
       <c r="A520" s="78" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B520" s="79" t="s">
         <v>20</v>
@@ -31723,7 +31717,7 @@
     </row>
     <row r="521" s="5" customFormat="1" spans="1:19">
       <c r="A521" s="78" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B521" s="79" t="s">
         <v>20</v>
@@ -31776,7 +31770,7 @@
     </row>
     <row r="522" s="5" customFormat="1" spans="1:19">
       <c r="A522" s="78" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B522" s="79" t="s">
         <v>20</v>
@@ -31806,7 +31800,7 @@
         <v>27</v>
       </c>
       <c r="K522" s="82" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L522" s="82" t="s">
         <v>162</v>
@@ -31829,22 +31823,22 @@
     </row>
     <row r="523" s="5" customFormat="1" spans="1:19">
       <c r="A523" s="78" t="s">
+        <v>723</v>
+      </c>
+      <c r="B523" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C523" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D523" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E523" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F523" s="81" t="s">
         <v>724</v>
-      </c>
-      <c r="B523" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C523" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D523" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E523" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F523" s="81" t="s">
-        <v>725</v>
       </c>
       <c r="G523" s="82" t="s">
         <v>378</v>
@@ -31880,22 +31874,22 @@
     </row>
     <row r="524" s="5" customFormat="1" spans="1:19">
       <c r="A524" s="78" t="s">
+        <v>723</v>
+      </c>
+      <c r="B524" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C524" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D524" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E524" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F524" s="81" t="s">
         <v>724</v>
-      </c>
-      <c r="B524" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C524" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D524" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E524" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F524" s="81" t="s">
-        <v>725</v>
       </c>
       <c r="G524" s="82" t="s">
         <v>378</v>
@@ -31933,7 +31927,7 @@
     </row>
     <row r="525" s="5" customFormat="1" spans="1:19">
       <c r="A525" s="78" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B525" s="79" t="s">
         <v>20</v>
@@ -31948,7 +31942,7 @@
         <v>23</v>
       </c>
       <c r="F525" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G525" s="82" t="s">
         <v>378</v>
@@ -31984,7 +31978,7 @@
     </row>
     <row r="526" s="5" customFormat="1" spans="1:19">
       <c r="A526" s="78" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B526" s="79" t="s">
         <v>20</v>
@@ -31999,7 +31993,7 @@
         <v>23</v>
       </c>
       <c r="F526" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G526" s="82" t="s">
         <v>378</v>
@@ -32037,7 +32031,7 @@
     </row>
     <row r="527" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A527" s="78" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B527" s="79" t="s">
         <v>20</v>
@@ -32052,7 +32046,7 @@
         <v>23</v>
       </c>
       <c r="F527" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G527" s="82" t="s">
         <v>378</v>
@@ -32090,7 +32084,7 @@
     </row>
     <row r="528" s="5" customFormat="1" spans="1:19">
       <c r="A528" s="78" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B528" s="79" t="s">
         <v>20</v>
@@ -32105,7 +32099,7 @@
         <v>23</v>
       </c>
       <c r="F528" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G528" s="82" t="s">
         <v>378</v>
@@ -32141,7 +32135,7 @@
     </row>
     <row r="529" s="5" customFormat="1" spans="1:19">
       <c r="A529" s="78" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B529" s="79" t="s">
         <v>20</v>
@@ -32156,7 +32150,7 @@
         <v>23</v>
       </c>
       <c r="F529" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G529" s="82" t="s">
         <v>378</v>
@@ -32194,7 +32188,7 @@
     </row>
     <row r="530" s="5" customFormat="1" spans="1:19">
       <c r="A530" s="78" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B530" s="79" t="s">
         <v>20</v>
@@ -32209,7 +32203,7 @@
         <v>23</v>
       </c>
       <c r="F530" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G530" s="82" t="s">
         <v>378</v>
@@ -32247,7 +32241,7 @@
     </row>
     <row r="531" s="5" customFormat="1" spans="1:19">
       <c r="A531" s="78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B531" s="79" t="s">
         <v>20</v>
@@ -32262,7 +32256,7 @@
         <v>23</v>
       </c>
       <c r="F531" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G531" s="82" t="s">
         <v>378</v>
@@ -32298,7 +32292,7 @@
     </row>
     <row r="532" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A532" s="78" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B532" s="79" t="s">
         <v>20</v>
@@ -32313,7 +32307,7 @@
         <v>23</v>
       </c>
       <c r="F532" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G532" s="82" t="s">
         <v>378</v>
@@ -32351,7 +32345,7 @@
     </row>
     <row r="533" s="5" customFormat="1" spans="1:19">
       <c r="A533" s="78" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B533" s="79" t="s">
         <v>20</v>
@@ -32366,7 +32360,7 @@
         <v>23</v>
       </c>
       <c r="F533" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G533" s="82" t="s">
         <v>378</v>
@@ -32402,7 +32396,7 @@
     </row>
     <row r="534" s="5" customFormat="1" spans="1:19">
       <c r="A534" s="78" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B534" s="79" t="s">
         <v>20</v>
@@ -32417,7 +32411,7 @@
         <v>23</v>
       </c>
       <c r="F534" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G534" s="82" t="s">
         <v>378</v>
@@ -32455,7 +32449,7 @@
     </row>
     <row r="535" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A535" s="78" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B535" s="79" t="s">
         <v>20</v>
@@ -32470,7 +32464,7 @@
         <v>23</v>
       </c>
       <c r="F535" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G535" s="82" t="s">
         <v>378</v>
@@ -32508,7 +32502,7 @@
     </row>
     <row r="536" s="5" customFormat="1" spans="1:19">
       <c r="A536" s="78" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B536" s="79" t="s">
         <v>20</v>
@@ -32523,7 +32517,7 @@
         <v>23</v>
       </c>
       <c r="F536" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G536" s="82" t="s">
         <v>378</v>
@@ -32561,7 +32555,7 @@
     </row>
     <row r="537" s="5" customFormat="1" spans="1:19">
       <c r="A537" s="78" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B537" s="79" t="s">
         <v>20</v>
@@ -32576,7 +32570,7 @@
         <v>23</v>
       </c>
       <c r="F537" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G537" s="82" t="s">
         <v>378</v>
@@ -32612,7 +32606,7 @@
     </row>
     <row r="538" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A538" s="78" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B538" s="79" t="s">
         <v>20</v>
@@ -32627,7 +32621,7 @@
         <v>23</v>
       </c>
       <c r="F538" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G538" s="82" t="s">
         <v>378</v>
@@ -32665,7 +32659,7 @@
     </row>
     <row r="539" s="5" customFormat="1" spans="1:19">
       <c r="A539" s="78" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B539" s="79" t="s">
         <v>20</v>
@@ -32680,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="F539" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G539" s="82" t="s">
         <v>404</v>
@@ -32716,7 +32710,7 @@
     </row>
     <row r="540" s="5" customFormat="1" spans="1:19">
       <c r="A540" s="78" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B540" s="79" t="s">
         <v>20</v>
@@ -32731,7 +32725,7 @@
         <v>23</v>
       </c>
       <c r="F540" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G540" s="82" t="s">
         <v>404</v>
@@ -32769,7 +32763,7 @@
     </row>
     <row r="541" s="5" customFormat="1" spans="1:19">
       <c r="A541" s="78" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B541" s="79" t="s">
         <v>20</v>
@@ -32784,7 +32778,7 @@
         <v>23</v>
       </c>
       <c r="F541" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G541" s="82" t="s">
         <v>404</v>
@@ -32820,7 +32814,7 @@
     </row>
     <row r="542" s="5" customFormat="1" spans="1:19">
       <c r="A542" s="78" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B542" s="79" t="s">
         <v>20</v>
@@ -32835,7 +32829,7 @@
         <v>23</v>
       </c>
       <c r="F542" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G542" s="82" t="s">
         <v>404</v>
@@ -32873,7 +32867,7 @@
     </row>
     <row r="543" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A543" s="78" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B543" s="79" t="s">
         <v>20</v>
@@ -32888,7 +32882,7 @@
         <v>23</v>
       </c>
       <c r="F543" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G543" s="82" t="s">
         <v>404</v>
@@ -32926,7 +32920,7 @@
     </row>
     <row r="544" s="5" customFormat="1" spans="1:19">
       <c r="A544" s="78" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B544" s="79" t="s">
         <v>20</v>
@@ -32941,7 +32935,7 @@
         <v>23</v>
       </c>
       <c r="F544" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G544" s="82" t="s">
         <v>404</v>
@@ -32979,7 +32973,7 @@
     </row>
     <row r="545" s="5" customFormat="1" spans="1:19">
       <c r="A545" s="78" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B545" s="79" t="s">
         <v>20</v>
@@ -32994,7 +32988,7 @@
         <v>23</v>
       </c>
       <c r="F545" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G545" s="82" t="s">
         <v>404</v>
@@ -33030,7 +33024,7 @@
     </row>
     <row r="546" s="5" customFormat="1" spans="1:19">
       <c r="A546" s="78" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B546" s="79" t="s">
         <v>20</v>
@@ -33045,7 +33039,7 @@
         <v>23</v>
       </c>
       <c r="F546" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G546" s="82" t="s">
         <v>404</v>
@@ -33083,7 +33077,7 @@
     </row>
     <row r="547" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A547" s="78" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B547" s="79" t="s">
         <v>20</v>
@@ -33098,7 +33092,7 @@
         <v>23</v>
       </c>
       <c r="F547" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G547" s="82" t="s">
         <v>404</v>
@@ -33136,7 +33130,7 @@
     </row>
     <row r="548" s="5" customFormat="1" spans="1:19">
       <c r="A548" s="78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B548" s="79" t="s">
         <v>20</v>
@@ -33151,7 +33145,7 @@
         <v>23</v>
       </c>
       <c r="F548" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G548" s="82" t="s">
         <v>404</v>
@@ -33187,7 +33181,7 @@
     </row>
     <row r="549" s="5" customFormat="1" spans="1:19">
       <c r="A549" s="78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B549" s="79" t="s">
         <v>20</v>
@@ -33202,7 +33196,7 @@
         <v>23</v>
       </c>
       <c r="F549" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G549" s="82" t="s">
         <v>404</v>
@@ -33240,7 +33234,7 @@
     </row>
     <row r="550" s="5" customFormat="1" spans="1:19">
       <c r="A550" s="78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B550" s="79" t="s">
         <v>20</v>
@@ -33255,7 +33249,7 @@
         <v>23</v>
       </c>
       <c r="F550" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G550" s="82" t="s">
         <v>404</v>
@@ -33293,7 +33287,7 @@
     </row>
     <row r="551" s="5" customFormat="1" spans="1:19">
       <c r="A551" s="78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B551" s="79" t="s">
         <v>20</v>
@@ -33308,7 +33302,7 @@
         <v>23</v>
       </c>
       <c r="F551" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G551" s="82" t="s">
         <v>404</v>
@@ -33344,7 +33338,7 @@
     </row>
     <row r="552" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A552" s="78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B552" s="79" t="s">
         <v>20</v>
@@ -33359,7 +33353,7 @@
         <v>23</v>
       </c>
       <c r="F552" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G552" s="82" t="s">
         <v>404</v>
@@ -33397,7 +33391,7 @@
     </row>
     <row r="553" s="5" customFormat="1" spans="1:19">
       <c r="A553" s="78" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B553" s="79" t="s">
         <v>20</v>
@@ -33412,7 +33406,7 @@
         <v>23</v>
       </c>
       <c r="F553" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G553" s="82" t="s">
         <v>404</v>
@@ -33448,7 +33442,7 @@
     </row>
     <row r="554" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A554" s="78" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B554" s="79" t="s">
         <v>20</v>
@@ -33463,7 +33457,7 @@
         <v>23</v>
       </c>
       <c r="F554" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G554" s="82" t="s">
         <v>404</v>
@@ -33501,7 +33495,7 @@
     </row>
     <row r="555" s="5" customFormat="1" spans="1:19">
       <c r="A555" s="78" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B555" s="79" t="s">
         <v>20</v>
@@ -33516,7 +33510,7 @@
         <v>23</v>
       </c>
       <c r="F555" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G555" s="82" t="s">
         <v>271</v>
@@ -33552,7 +33546,7 @@
     </row>
     <row r="556" s="5" customFormat="1" spans="1:19">
       <c r="A556" s="78" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B556" s="79" t="s">
         <v>20</v>
@@ -33567,7 +33561,7 @@
         <v>23</v>
       </c>
       <c r="F556" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G556" s="82" t="s">
         <v>271</v>
@@ -33605,7 +33599,7 @@
     </row>
     <row r="557" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A557" s="78" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B557" s="79" t="s">
         <v>20</v>
@@ -33620,7 +33614,7 @@
         <v>23</v>
       </c>
       <c r="F557" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G557" s="82" t="s">
         <v>271</v>
@@ -33658,7 +33652,7 @@
     </row>
     <row r="558" s="5" customFormat="1" spans="1:19">
       <c r="A558" s="78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B558" s="79" t="s">
         <v>20</v>
@@ -33673,7 +33667,7 @@
         <v>23</v>
       </c>
       <c r="F558" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G558" s="82" t="s">
         <v>271</v>
@@ -33709,7 +33703,7 @@
     </row>
     <row r="559" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A559" s="78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B559" s="79" t="s">
         <v>20</v>
@@ -33724,7 +33718,7 @@
         <v>23</v>
       </c>
       <c r="F559" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G559" s="82" t="s">
         <v>271</v>
@@ -33762,7 +33756,7 @@
     </row>
     <row r="560" s="5" customFormat="1" spans="1:19">
       <c r="A560" s="78" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B560" s="79" t="s">
         <v>20</v>
@@ -33777,7 +33771,7 @@
         <v>23</v>
       </c>
       <c r="F560" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G560" s="82" t="s">
         <v>271</v>
@@ -33813,7 +33807,7 @@
     </row>
     <row r="561" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A561" s="78" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B561" s="79" t="s">
         <v>20</v>
@@ -33828,7 +33822,7 @@
         <v>23</v>
       </c>
       <c r="F561" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G561" s="82" t="s">
         <v>271</v>
@@ -33866,7 +33860,7 @@
     </row>
     <row r="562" s="5" customFormat="1" spans="1:19">
       <c r="A562" s="78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B562" s="79" t="s">
         <v>20</v>
@@ -33881,7 +33875,7 @@
         <v>23</v>
       </c>
       <c r="F562" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G562" s="82" t="s">
         <v>271</v>
@@ -33917,7 +33911,7 @@
     </row>
     <row r="563" s="5" customFormat="1" ht="13.2" customHeight="1" spans="1:19">
       <c r="A563" s="78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B563" s="79" t="s">
         <v>20</v>
@@ -33932,7 +33926,7 @@
         <v>23</v>
       </c>
       <c r="F563" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G563" s="82" t="s">
         <v>271</v>
@@ -33970,7 +33964,7 @@
     </row>
     <row r="564" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A564" s="78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B564" s="79" t="s">
         <v>20</v>
@@ -33985,7 +33979,7 @@
         <v>23</v>
       </c>
       <c r="F564" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G564" s="82" t="s">
         <v>271</v>
@@ -34023,7 +34017,7 @@
     </row>
     <row r="565" s="5" customFormat="1" spans="1:19">
       <c r="A565" s="78" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B565" s="79" t="s">
         <v>20</v>
@@ -34038,7 +34032,7 @@
         <v>23</v>
       </c>
       <c r="F565" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G565" s="82" t="s">
         <v>271</v>
@@ -34074,7 +34068,7 @@
     </row>
     <row r="566" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A566" s="78" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B566" s="79" t="s">
         <v>20</v>
@@ -34089,7 +34083,7 @@
         <v>23</v>
       </c>
       <c r="F566" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G566" s="82" t="s">
         <v>271</v>
@@ -34127,7 +34121,7 @@
     </row>
     <row r="567" s="5" customFormat="1" spans="1:19">
       <c r="A567" s="78" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B567" s="79" t="s">
         <v>20</v>
@@ -34142,7 +34136,7 @@
         <v>23</v>
       </c>
       <c r="F567" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G567" s="82" t="s">
         <v>271</v>
@@ -34178,7 +34172,7 @@
     </row>
     <row r="568" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A568" s="78" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B568" s="79" t="s">
         <v>20</v>
@@ -34193,7 +34187,7 @@
         <v>23</v>
       </c>
       <c r="F568" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G568" s="82" t="s">
         <v>271</v>
@@ -34231,7 +34225,7 @@
     </row>
     <row r="569" s="5" customFormat="1" spans="1:19">
       <c r="A569" s="78" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B569" s="79" t="s">
         <v>20</v>
@@ -34246,7 +34240,7 @@
         <v>23</v>
       </c>
       <c r="F569" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G569" s="82" t="s">
         <v>474</v>
@@ -34282,7 +34276,7 @@
     </row>
     <row r="570" s="5" customFormat="1" spans="1:19">
       <c r="A570" s="78" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B570" s="79" t="s">
         <v>20</v>
@@ -34297,7 +34291,7 @@
         <v>23</v>
       </c>
       <c r="F570" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G570" s="82" t="s">
         <v>474</v>
@@ -34335,7 +34329,7 @@
     </row>
     <row r="571" s="5" customFormat="1" spans="1:19">
       <c r="A571" s="78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B571" s="79" t="s">
         <v>20</v>
@@ -34350,7 +34344,7 @@
         <v>23</v>
       </c>
       <c r="F571" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G571" s="82" t="s">
         <v>474</v>
@@ -34386,7 +34380,7 @@
     </row>
     <row r="572" s="5" customFormat="1" spans="1:19">
       <c r="A572" s="78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B572" s="79" t="s">
         <v>20</v>
@@ -34401,7 +34395,7 @@
         <v>23</v>
       </c>
       <c r="F572" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G572" s="82" t="s">
         <v>474</v>
@@ -34439,7 +34433,7 @@
     </row>
     <row r="573" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A573" s="78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B573" s="79" t="s">
         <v>20</v>
@@ -34454,7 +34448,7 @@
         <v>23</v>
       </c>
       <c r="F573" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G573" s="82" t="s">
         <v>474</v>
@@ -34492,7 +34486,7 @@
     </row>
     <row r="574" s="5" customFormat="1" spans="1:19">
       <c r="A574" s="78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B574" s="79" t="s">
         <v>20</v>
@@ -34507,7 +34501,7 @@
         <v>23</v>
       </c>
       <c r="F574" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G574" s="82" t="s">
         <v>474</v>
@@ -34545,7 +34539,7 @@
     </row>
     <row r="575" s="5" customFormat="1" spans="1:19">
       <c r="A575" s="78" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B575" s="79" t="s">
         <v>20</v>
@@ -34560,7 +34554,7 @@
         <v>23</v>
       </c>
       <c r="F575" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G575" s="82" t="s">
         <v>474</v>
@@ -34596,7 +34590,7 @@
     </row>
     <row r="576" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A576" s="78" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B576" s="79" t="s">
         <v>20</v>
@@ -34611,7 +34605,7 @@
         <v>23</v>
       </c>
       <c r="F576" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G576" s="82" t="s">
         <v>474</v>
@@ -34649,7 +34643,7 @@
     </row>
     <row r="577" s="5" customFormat="1" spans="1:19">
       <c r="A577" s="78" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B577" s="79" t="s">
         <v>20</v>
@@ -34664,7 +34658,7 @@
         <v>23</v>
       </c>
       <c r="F577" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G577" s="82" t="s">
         <v>474</v>
@@ -34700,7 +34694,7 @@
     </row>
     <row r="578" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A578" s="78" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B578" s="79" t="s">
         <v>20</v>
@@ -34715,7 +34709,7 @@
         <v>23</v>
       </c>
       <c r="F578" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G578" s="82" t="s">
         <v>474</v>
@@ -34753,7 +34747,7 @@
     </row>
     <row r="579" s="5" customFormat="1" spans="1:19">
       <c r="A579" s="78" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B579" s="79" t="s">
         <v>20</v>
@@ -34768,7 +34762,7 @@
         <v>23</v>
       </c>
       <c r="F579" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G579" s="82" t="s">
         <v>404</v>
@@ -34804,7 +34798,7 @@
     </row>
     <row r="580" s="5" customFormat="1" spans="1:19">
       <c r="A580" s="78" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B580" s="79" t="s">
         <v>20</v>
@@ -34819,7 +34813,7 @@
         <v>23</v>
       </c>
       <c r="F580" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G580" s="82" t="s">
         <v>404</v>
@@ -34857,7 +34851,7 @@
     </row>
     <row r="581" s="5" customFormat="1" spans="1:19">
       <c r="A581" s="78" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B581" s="79" t="s">
         <v>20</v>
@@ -34872,7 +34866,7 @@
         <v>23</v>
       </c>
       <c r="F581" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G581" s="82" t="s">
         <v>404</v>
@@ -34908,7 +34902,7 @@
     </row>
     <row r="582" s="5" customFormat="1" spans="1:19">
       <c r="A582" s="78" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B582" s="79" t="s">
         <v>20</v>
@@ -34923,7 +34917,7 @@
         <v>23</v>
       </c>
       <c r="F582" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G582" s="82" t="s">
         <v>404</v>
@@ -34961,7 +34955,7 @@
     </row>
     <row r="583" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A583" s="78" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B583" s="79" t="s">
         <v>20</v>
@@ -34976,7 +34970,7 @@
         <v>23</v>
       </c>
       <c r="F583" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G583" s="82" t="s">
         <v>404</v>
@@ -35014,7 +35008,7 @@
     </row>
     <row r="584" s="5" customFormat="1" spans="1:19">
       <c r="A584" s="78" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B584" s="79" t="s">
         <v>20</v>
@@ -35029,7 +35023,7 @@
         <v>23</v>
       </c>
       <c r="F584" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G584" s="82" t="s">
         <v>404</v>
@@ -35067,7 +35061,7 @@
     </row>
     <row r="585" s="5" customFormat="1" spans="1:19">
       <c r="A585" s="78" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B585" s="79" t="s">
         <v>20</v>
@@ -35082,7 +35076,7 @@
         <v>23</v>
       </c>
       <c r="F585" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G585" s="82" t="s">
         <v>404</v>
@@ -35118,7 +35112,7 @@
     </row>
     <row r="586" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A586" s="78" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B586" s="79" t="s">
         <v>20</v>
@@ -35133,7 +35127,7 @@
         <v>23</v>
       </c>
       <c r="F586" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G586" s="82" t="s">
         <v>404</v>
@@ -35171,7 +35165,7 @@
     </row>
     <row r="587" s="5" customFormat="1" spans="1:19">
       <c r="A587" s="78" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B587" s="79" t="s">
         <v>20</v>
@@ -35186,7 +35180,7 @@
         <v>23</v>
       </c>
       <c r="F587" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G587" s="82" t="s">
         <v>404</v>
@@ -35222,7 +35216,7 @@
     </row>
     <row r="588" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A588" s="78" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B588" s="79" t="s">
         <v>20</v>
@@ -35237,7 +35231,7 @@
         <v>23</v>
       </c>
       <c r="F588" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G588" s="82" t="s">
         <v>404</v>
@@ -35275,7 +35269,7 @@
     </row>
     <row r="589" s="5" customFormat="1" spans="1:19">
       <c r="A589" s="78" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B589" s="79" t="s">
         <v>20</v>
@@ -35290,7 +35284,7 @@
         <v>23</v>
       </c>
       <c r="F589" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G589" s="82" t="s">
         <v>255</v>
@@ -35317,7 +35311,7 @@
         <v>35</v>
       </c>
       <c r="O589" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P589" s="82"/>
       <c r="Q589" s="82"/>
@@ -35326,7 +35320,7 @@
     </row>
     <row r="590" s="5" customFormat="1" spans="1:19">
       <c r="A590" s="78" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B590" s="79" t="s">
         <v>20</v>
@@ -35341,7 +35335,7 @@
         <v>23</v>
       </c>
       <c r="F590" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G590" s="82" t="s">
         <v>255</v>
@@ -35379,7 +35373,7 @@
     </row>
     <row r="591" s="5" customFormat="1" spans="1:19">
       <c r="A591" s="78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B591" s="79" t="s">
         <v>20</v>
@@ -35394,7 +35388,7 @@
         <v>23</v>
       </c>
       <c r="F591" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G591" s="82" t="s">
         <v>255</v>
@@ -35421,7 +35415,7 @@
         <v>35</v>
       </c>
       <c r="O591" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P591" s="82"/>
       <c r="Q591" s="82"/>
@@ -35430,7 +35424,7 @@
     </row>
     <row r="592" s="5" customFormat="1" spans="1:19">
       <c r="A592" s="78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B592" s="79" t="s">
         <v>20</v>
@@ -35445,7 +35439,7 @@
         <v>23</v>
       </c>
       <c r="F592" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G592" s="82" t="s">
         <v>255</v>
@@ -35483,7 +35477,7 @@
     </row>
     <row r="593" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A593" s="78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B593" s="79" t="s">
         <v>20</v>
@@ -35498,7 +35492,7 @@
         <v>23</v>
       </c>
       <c r="F593" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G593" s="82" t="s">
         <v>255</v>
@@ -35536,7 +35530,7 @@
     </row>
     <row r="594" s="5" customFormat="1" spans="1:19">
       <c r="A594" s="78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B594" s="79" t="s">
         <v>20</v>
@@ -35551,7 +35545,7 @@
         <v>23</v>
       </c>
       <c r="F594" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G594" s="82" t="s">
         <v>255</v>
@@ -35589,7 +35583,7 @@
     </row>
     <row r="595" s="5" customFormat="1" spans="1:19">
       <c r="A595" s="78" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B595" s="79" t="s">
         <v>20</v>
@@ -35604,7 +35598,7 @@
         <v>23</v>
       </c>
       <c r="F595" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G595" s="82" t="s">
         <v>255</v>
@@ -35631,7 +35625,7 @@
         <v>35</v>
       </c>
       <c r="O595" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P595" s="82"/>
       <c r="Q595" s="82"/>
@@ -35640,7 +35634,7 @@
     </row>
     <row r="596" s="5" customFormat="1" spans="1:19">
       <c r="A596" s="78" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B596" s="79" t="s">
         <v>20</v>
@@ -35655,7 +35649,7 @@
         <v>23</v>
       </c>
       <c r="F596" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G596" s="82" t="s">
         <v>255</v>
@@ -35693,7 +35687,7 @@
     </row>
     <row r="597" s="5" customFormat="1" spans="1:19">
       <c r="A597" s="78" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B597" s="79" t="s">
         <v>20</v>
@@ -35708,7 +35702,7 @@
         <v>23</v>
       </c>
       <c r="F597" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G597" s="82" t="s">
         <v>255</v>
@@ -35746,7 +35740,7 @@
     </row>
     <row r="598" s="5" customFormat="1" spans="1:19">
       <c r="A598" s="78" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B598" s="79" t="s">
         <v>20</v>
@@ -35761,7 +35755,7 @@
         <v>23</v>
       </c>
       <c r="F598" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G598" s="82" t="s">
         <v>255</v>
@@ -35788,7 +35782,7 @@
         <v>35</v>
       </c>
       <c r="O598" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P598" s="82"/>
       <c r="Q598" s="82"/>
@@ -35797,7 +35791,7 @@
     </row>
     <row r="599" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A599" s="78" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B599" s="79" t="s">
         <v>20</v>
@@ -35812,7 +35806,7 @@
         <v>23</v>
       </c>
       <c r="F599" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G599" s="82" t="s">
         <v>255</v>
@@ -35850,7 +35844,7 @@
     </row>
     <row r="600" s="5" customFormat="1" spans="1:19">
       <c r="A600" s="78" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B600" s="79" t="s">
         <v>20</v>
@@ -35865,7 +35859,7 @@
         <v>23</v>
       </c>
       <c r="F600" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G600" s="82" t="s">
         <v>255</v>
@@ -35892,7 +35886,7 @@
         <v>35</v>
       </c>
       <c r="O600" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P600" s="82"/>
       <c r="Q600" s="82"/>
@@ -35901,7 +35895,7 @@
     </row>
     <row r="601" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A601" s="78" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B601" s="79" t="s">
         <v>20</v>
@@ -35916,7 +35910,7 @@
         <v>23</v>
       </c>
       <c r="F601" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G601" s="82" t="s">
         <v>255</v>
@@ -35954,7 +35948,7 @@
     </row>
     <row r="602" s="5" customFormat="1" spans="1:19">
       <c r="A602" s="78" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B602" s="79" t="s">
         <v>20</v>
@@ -35969,7 +35963,7 @@
         <v>23</v>
       </c>
       <c r="F602" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G602" s="82" t="s">
         <v>404</v>
@@ -35996,7 +35990,7 @@
         <v>35</v>
       </c>
       <c r="O602" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P602" s="82"/>
       <c r="Q602" s="82"/>
@@ -36005,7 +35999,7 @@
     </row>
     <row r="603" s="5" customFormat="1" spans="1:19">
       <c r="A603" s="78" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B603" s="79" t="s">
         <v>20</v>
@@ -36020,7 +36014,7 @@
         <v>23</v>
       </c>
       <c r="F603" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G603" s="82" t="s">
         <v>404</v>
@@ -36058,7 +36052,7 @@
     </row>
     <row r="604" s="5" customFormat="1" spans="1:19">
       <c r="A604" s="78" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B604" s="79" t="s">
         <v>20</v>
@@ -36073,7 +36067,7 @@
         <v>23</v>
       </c>
       <c r="F604" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G604" s="82" t="s">
         <v>404</v>
@@ -36100,7 +36094,7 @@
         <v>35</v>
       </c>
       <c r="O604" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P604" s="82"/>
       <c r="Q604" s="82"/>
@@ -36109,7 +36103,7 @@
     </row>
     <row r="605" s="5" customFormat="1" spans="1:19">
       <c r="A605" s="78" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B605" s="79" t="s">
         <v>20</v>
@@ -36124,7 +36118,7 @@
         <v>23</v>
       </c>
       <c r="F605" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G605" s="82" t="s">
         <v>404</v>
@@ -36162,7 +36156,7 @@
     </row>
     <row r="606" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A606" s="78" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B606" s="79" t="s">
         <v>20</v>
@@ -36177,7 +36171,7 @@
         <v>23</v>
       </c>
       <c r="F606" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G606" s="82" t="s">
         <v>404</v>
@@ -36215,7 +36209,7 @@
     </row>
     <row r="607" s="5" customFormat="1" spans="1:19">
       <c r="A607" s="78" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B607" s="79" t="s">
         <v>20</v>
@@ -36230,7 +36224,7 @@
         <v>23</v>
       </c>
       <c r="F607" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G607" s="82" t="s">
         <v>404</v>
@@ -36268,7 +36262,7 @@
     </row>
     <row r="608" s="5" customFormat="1" spans="1:19">
       <c r="A608" s="78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B608" s="79" t="s">
         <v>20</v>
@@ -36283,7 +36277,7 @@
         <v>23</v>
       </c>
       <c r="F608" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G608" s="82" t="s">
         <v>404</v>
@@ -36310,7 +36304,7 @@
         <v>35</v>
       </c>
       <c r="O608" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P608" s="82"/>
       <c r="Q608" s="82"/>
@@ -36319,7 +36313,7 @@
     </row>
     <row r="609" s="5" customFormat="1" spans="1:19">
       <c r="A609" s="78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B609" s="79" t="s">
         <v>20</v>
@@ -36334,7 +36328,7 @@
         <v>23</v>
       </c>
       <c r="F609" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G609" s="82" t="s">
         <v>404</v>
@@ -36372,7 +36366,7 @@
     </row>
     <row r="610" s="5" customFormat="1" spans="1:19">
       <c r="A610" s="78" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B610" s="79" t="s">
         <v>20</v>
@@ -36387,7 +36381,7 @@
         <v>23</v>
       </c>
       <c r="F610" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G610" s="82" t="s">
         <v>404</v>
@@ -36425,7 +36419,7 @@
     </row>
     <row r="611" s="5" customFormat="1" spans="1:19">
       <c r="A611" s="78" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B611" s="79" t="s">
         <v>20</v>
@@ -36440,7 +36434,7 @@
         <v>23</v>
       </c>
       <c r="F611" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G611" s="82" t="s">
         <v>404</v>
@@ -36467,7 +36461,7 @@
         <v>35</v>
       </c>
       <c r="O611" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P611" s="82"/>
       <c r="Q611" s="82"/>
@@ -36476,7 +36470,7 @@
     </row>
     <row r="612" s="5" customFormat="1" spans="1:19">
       <c r="A612" s="78" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B612" s="79" t="s">
         <v>20</v>
@@ -36491,7 +36485,7 @@
         <v>23</v>
       </c>
       <c r="F612" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G612" s="82" t="s">
         <v>404</v>
@@ -36529,7 +36523,7 @@
     </row>
     <row r="613" s="5" customFormat="1" spans="1:19">
       <c r="A613" s="78" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B613" s="79" t="s">
         <v>20</v>
@@ -36544,7 +36538,7 @@
         <v>23</v>
       </c>
       <c r="F613" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G613" s="82" t="s">
         <v>404</v>
@@ -36571,7 +36565,7 @@
         <v>35</v>
       </c>
       <c r="O613" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P613" s="82"/>
       <c r="Q613" s="82"/>
@@ -36580,7 +36574,7 @@
     </row>
     <row r="614" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A614" s="78" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B614" s="79" t="s">
         <v>20</v>
@@ -36595,7 +36589,7 @@
         <v>23</v>
       </c>
       <c r="F614" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G614" s="82" t="s">
         <v>404</v>
@@ -36633,7 +36627,7 @@
     </row>
     <row r="615" s="5" customFormat="1" spans="1:19">
       <c r="A615" s="78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B615" s="79" t="s">
         <v>20</v>
@@ -36648,7 +36642,7 @@
         <v>23</v>
       </c>
       <c r="F615" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G615" s="82" t="s">
         <v>404</v>
@@ -36675,7 +36669,7 @@
         <v>35</v>
       </c>
       <c r="O615" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P615" s="82"/>
       <c r="Q615" s="82"/>
@@ -36684,7 +36678,7 @@
     </row>
     <row r="616" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A616" s="78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B616" s="79" t="s">
         <v>20</v>
@@ -36699,7 +36693,7 @@
         <v>23</v>
       </c>
       <c r="F616" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G616" s="82" t="s">
         <v>404</v>
@@ -36737,7 +36731,7 @@
     </row>
     <row r="617" s="5" customFormat="1" spans="1:19">
       <c r="A617" s="78" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B617" s="79" t="s">
         <v>20</v>
@@ -36752,7 +36746,7 @@
         <v>23</v>
       </c>
       <c r="F617" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G617" s="82" t="s">
         <v>404</v>
@@ -36779,7 +36773,7 @@
         <v>35</v>
       </c>
       <c r="O617" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P617" s="82"/>
       <c r="Q617" s="82"/>
@@ -36788,7 +36782,7 @@
     </row>
     <row r="618" s="5" customFormat="1" spans="1:19">
       <c r="A618" s="78" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B618" s="79" t="s">
         <v>20</v>
@@ -36803,7 +36797,7 @@
         <v>23</v>
       </c>
       <c r="F618" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G618" s="82" t="s">
         <v>404</v>
@@ -36841,7 +36835,7 @@
     </row>
     <row r="619" s="5" customFormat="1" spans="1:19">
       <c r="A619" s="78" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B619" s="79" t="s">
         <v>20</v>
@@ -36856,7 +36850,7 @@
         <v>23</v>
       </c>
       <c r="F619" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G619" s="82" t="s">
         <v>404</v>
@@ -36883,7 +36877,7 @@
         <v>35</v>
       </c>
       <c r="O619" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P619" s="82"/>
       <c r="Q619" s="82"/>
@@ -36892,7 +36886,7 @@
     </row>
     <row r="620" s="5" customFormat="1" spans="1:19">
       <c r="A620" s="78" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B620" s="79" t="s">
         <v>20</v>
@@ -36907,7 +36901,7 @@
         <v>23</v>
       </c>
       <c r="F620" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G620" s="82" t="s">
         <v>404</v>
@@ -36945,7 +36939,7 @@
     </row>
     <row r="621" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A621" s="78" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B621" s="79" t="s">
         <v>20</v>
@@ -36960,7 +36954,7 @@
         <v>23</v>
       </c>
       <c r="F621" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G621" s="82" t="s">
         <v>404</v>
@@ -36998,7 +36992,7 @@
     </row>
     <row r="622" s="5" customFormat="1" spans="1:19">
       <c r="A622" s="78" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B622" s="79" t="s">
         <v>20</v>
@@ -37013,7 +37007,7 @@
         <v>23</v>
       </c>
       <c r="F622" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G622" s="82" t="s">
         <v>404</v>
@@ -37051,7 +37045,7 @@
     </row>
     <row r="623" s="5" customFormat="1" spans="1:19">
       <c r="A623" s="78" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B623" s="79" t="s">
         <v>20</v>
@@ -37066,7 +37060,7 @@
         <v>23</v>
       </c>
       <c r="F623" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G623" s="82" t="s">
         <v>404</v>
@@ -37093,7 +37087,7 @@
         <v>35</v>
       </c>
       <c r="O623" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P623" s="82"/>
       <c r="Q623" s="82"/>
@@ -37102,7 +37096,7 @@
     </row>
     <row r="624" s="5" customFormat="1" spans="1:19">
       <c r="A624" s="78" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B624" s="79" t="s">
         <v>20</v>
@@ -37117,7 +37111,7 @@
         <v>23</v>
       </c>
       <c r="F624" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G624" s="82" t="s">
         <v>404</v>
@@ -37155,7 +37149,7 @@
     </row>
     <row r="625" s="5" customFormat="1" spans="1:19">
       <c r="A625" s="78" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B625" s="79" t="s">
         <v>20</v>
@@ -37170,7 +37164,7 @@
         <v>23</v>
       </c>
       <c r="F625" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G625" s="82" t="s">
         <v>404</v>
@@ -37208,7 +37202,7 @@
     </row>
     <row r="626" s="5" customFormat="1" spans="1:19">
       <c r="A626" s="78" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B626" s="79" t="s">
         <v>20</v>
@@ -37223,7 +37217,7 @@
         <v>23</v>
       </c>
       <c r="F626" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G626" s="82" t="s">
         <v>404</v>
@@ -37250,7 +37244,7 @@
         <v>35</v>
       </c>
       <c r="O626" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P626" s="82"/>
       <c r="Q626" s="82"/>
@@ -37259,7 +37253,7 @@
     </row>
     <row r="627" s="5" customFormat="1" spans="1:19">
       <c r="A627" s="78" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B627" s="79" t="s">
         <v>20</v>
@@ -37274,7 +37268,7 @@
         <v>23</v>
       </c>
       <c r="F627" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G627" s="82" t="s">
         <v>404</v>
@@ -37312,7 +37306,7 @@
     </row>
     <row r="628" s="5" customFormat="1" spans="1:19">
       <c r="A628" s="78" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B628" s="79" t="s">
         <v>20</v>
@@ -37327,7 +37321,7 @@
         <v>23</v>
       </c>
       <c r="F628" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G628" s="82" t="s">
         <v>404</v>
@@ -37354,7 +37348,7 @@
         <v>35</v>
       </c>
       <c r="O628" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P628" s="82"/>
       <c r="Q628" s="82"/>
@@ -37363,7 +37357,7 @@
     </row>
     <row r="629" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A629" s="78" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B629" s="79" t="s">
         <v>20</v>
@@ -37378,7 +37372,7 @@
         <v>23</v>
       </c>
       <c r="F629" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G629" s="82" t="s">
         <v>404</v>
@@ -37416,7 +37410,7 @@
     </row>
     <row r="630" s="5" customFormat="1" spans="1:19">
       <c r="A630" s="78" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B630" s="79" t="s">
         <v>20</v>
@@ -37431,7 +37425,7 @@
         <v>23</v>
       </c>
       <c r="F630" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G630" s="82" t="s">
         <v>404</v>
@@ -37458,7 +37452,7 @@
         <v>35</v>
       </c>
       <c r="O630" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P630" s="82"/>
       <c r="Q630" s="82"/>
@@ -37467,7 +37461,7 @@
     </row>
     <row r="631" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A631" s="78" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B631" s="79" t="s">
         <v>20</v>
@@ -37482,7 +37476,7 @@
         <v>23</v>
       </c>
       <c r="F631" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G631" s="82" t="s">
         <v>404</v>
@@ -37520,7 +37514,7 @@
     </row>
     <row r="632" s="5" customFormat="1" spans="1:19">
       <c r="A632" s="78" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B632" s="79" t="s">
         <v>20</v>
@@ -37535,7 +37529,7 @@
         <v>23</v>
       </c>
       <c r="F632" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G632" s="82" t="s">
         <v>404</v>
@@ -37562,7 +37556,7 @@
         <v>35</v>
       </c>
       <c r="O632" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P632" s="82"/>
       <c r="Q632" s="82"/>
@@ -37571,7 +37565,7 @@
     </row>
     <row r="633" s="5" customFormat="1" spans="1:19">
       <c r="A633" s="78" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B633" s="79" t="s">
         <v>20</v>
@@ -37586,7 +37580,7 @@
         <v>23</v>
       </c>
       <c r="F633" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G633" s="82" t="s">
         <v>404</v>
@@ -37624,7 +37618,7 @@
     </row>
     <row r="634" s="5" customFormat="1" spans="1:19">
       <c r="A634" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B634" s="79" t="s">
         <v>20</v>
@@ -37639,7 +37633,7 @@
         <v>23</v>
       </c>
       <c r="F634" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G634" s="82" t="s">
         <v>404</v>
@@ -37666,7 +37660,7 @@
         <v>35</v>
       </c>
       <c r="O634" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P634" s="82"/>
       <c r="Q634" s="82"/>
@@ -37675,7 +37669,7 @@
     </row>
     <row r="635" s="5" customFormat="1" spans="1:19">
       <c r="A635" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B635" s="79" t="s">
         <v>20</v>
@@ -37690,7 +37684,7 @@
         <v>23</v>
       </c>
       <c r="F635" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G635" s="82" t="s">
         <v>404</v>
@@ -37728,7 +37722,7 @@
     </row>
     <row r="636" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A636" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B636" s="79" t="s">
         <v>20</v>
@@ -37743,7 +37737,7 @@
         <v>23</v>
       </c>
       <c r="F636" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G636" s="82" t="s">
         <v>404</v>
@@ -37781,7 +37775,7 @@
     </row>
     <row r="637" s="5" customFormat="1" spans="1:19">
       <c r="A637" s="78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B637" s="79" t="s">
         <v>20</v>
@@ -37796,7 +37790,7 @@
         <v>23</v>
       </c>
       <c r="F637" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G637" s="82" t="s">
         <v>404</v>
@@ -37834,7 +37828,7 @@
     </row>
     <row r="638" s="5" customFormat="1" spans="1:19">
       <c r="A638" s="78" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B638" s="79" t="s">
         <v>20</v>
@@ -37849,7 +37843,7 @@
         <v>23</v>
       </c>
       <c r="F638" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G638" s="82" t="s">
         <v>404</v>
@@ -37876,7 +37870,7 @@
         <v>35</v>
       </c>
       <c r="O638" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P638" s="82"/>
       <c r="Q638" s="82"/>
@@ -37885,7 +37879,7 @@
     </row>
     <row r="639" s="5" customFormat="1" spans="1:19">
       <c r="A639" s="78" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B639" s="79" t="s">
         <v>20</v>
@@ -37900,7 +37894,7 @@
         <v>23</v>
       </c>
       <c r="F639" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G639" s="82" t="s">
         <v>404</v>
@@ -37938,7 +37932,7 @@
     </row>
     <row r="640" s="5" customFormat="1" spans="1:19">
       <c r="A640" s="78" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B640" s="79" t="s">
         <v>20</v>
@@ -37953,7 +37947,7 @@
         <v>23</v>
       </c>
       <c r="F640" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G640" s="82" t="s">
         <v>404</v>
@@ -37991,7 +37985,7 @@
     </row>
     <row r="641" s="5" customFormat="1" spans="1:19">
       <c r="A641" s="78" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B641" s="79" t="s">
         <v>20</v>
@@ -38006,7 +38000,7 @@
         <v>23</v>
       </c>
       <c r="F641" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G641" s="82" t="s">
         <v>404</v>
@@ -38033,7 +38027,7 @@
         <v>35</v>
       </c>
       <c r="O641" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P641" s="82"/>
       <c r="Q641" s="82"/>
@@ -38042,7 +38036,7 @@
     </row>
     <row r="642" s="5" customFormat="1" spans="1:19">
       <c r="A642" s="78" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B642" s="79" t="s">
         <v>20</v>
@@ -38057,7 +38051,7 @@
         <v>23</v>
       </c>
       <c r="F642" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G642" s="82" t="s">
         <v>404</v>
@@ -38095,7 +38089,7 @@
     </row>
     <row r="643" s="5" customFormat="1" spans="1:19">
       <c r="A643" s="78" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B643" s="79" t="s">
         <v>20</v>
@@ -38110,7 +38104,7 @@
         <v>23</v>
       </c>
       <c r="F643" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G643" s="82" t="s">
         <v>404</v>
@@ -38137,7 +38131,7 @@
         <v>35</v>
       </c>
       <c r="O643" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P643" s="82"/>
       <c r="Q643" s="82"/>
@@ -38146,7 +38140,7 @@
     </row>
     <row r="644" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A644" s="78" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B644" s="79" t="s">
         <v>20</v>
@@ -38161,7 +38155,7 @@
         <v>23</v>
       </c>
       <c r="F644" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G644" s="82" t="s">
         <v>404</v>
@@ -38199,7 +38193,7 @@
     </row>
     <row r="645" s="5" customFormat="1" spans="1:19">
       <c r="A645" s="78" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B645" s="79" t="s">
         <v>20</v>
@@ -38214,7 +38208,7 @@
         <v>23</v>
       </c>
       <c r="F645" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G645" s="82" t="s">
         <v>404</v>
@@ -38241,7 +38235,7 @@
         <v>35</v>
       </c>
       <c r="O645" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P645" s="82"/>
       <c r="Q645" s="82"/>
@@ -38250,7 +38244,7 @@
     </row>
     <row r="646" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A646" s="78" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B646" s="79" t="s">
         <v>20</v>
@@ -38265,7 +38259,7 @@
         <v>23</v>
       </c>
       <c r="F646" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G646" s="82" t="s">
         <v>404</v>
@@ -38303,7 +38297,7 @@
     </row>
     <row r="647" s="5" customFormat="1" spans="1:19">
       <c r="A647" s="78" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B647" s="79" t="s">
         <v>20</v>
@@ -38318,7 +38312,7 @@
         <v>23</v>
       </c>
       <c r="F647" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G647" s="82" t="s">
         <v>255</v>
@@ -38345,7 +38339,7 @@
         <v>35</v>
       </c>
       <c r="O647" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P647" s="82"/>
       <c r="Q647" s="82"/>
@@ -38354,7 +38348,7 @@
     </row>
     <row r="648" s="5" customFormat="1" spans="1:19">
       <c r="A648" s="78" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B648" s="79" t="s">
         <v>20</v>
@@ -38369,7 +38363,7 @@
         <v>23</v>
       </c>
       <c r="F648" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G648" s="82" t="s">
         <v>255</v>
@@ -38407,7 +38401,7 @@
     </row>
     <row r="649" s="5" customFormat="1" spans="1:19">
       <c r="A649" s="78" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B649" s="79" t="s">
         <v>20</v>
@@ -38422,7 +38416,7 @@
         <v>23</v>
       </c>
       <c r="F649" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G649" s="82" t="s">
         <v>255</v>
@@ -38449,7 +38443,7 @@
         <v>35</v>
       </c>
       <c r="O649" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P649" s="82"/>
       <c r="Q649" s="82"/>
@@ -38458,7 +38452,7 @@
     </row>
     <row r="650" s="5" customFormat="1" spans="1:19">
       <c r="A650" s="78" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B650" s="79" t="s">
         <v>20</v>
@@ -38473,7 +38467,7 @@
         <v>23</v>
       </c>
       <c r="F650" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G650" s="82" t="s">
         <v>255</v>
@@ -38511,7 +38505,7 @@
     </row>
     <row r="651" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A651" s="78" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B651" s="79" t="s">
         <v>20</v>
@@ -38526,7 +38520,7 @@
         <v>23</v>
       </c>
       <c r="F651" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G651" s="82" t="s">
         <v>255</v>
@@ -38564,7 +38558,7 @@
     </row>
     <row r="652" s="5" customFormat="1" spans="1:19">
       <c r="A652" s="78" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B652" s="79" t="s">
         <v>20</v>
@@ -38579,7 +38573,7 @@
         <v>23</v>
       </c>
       <c r="F652" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G652" s="82" t="s">
         <v>255</v>
@@ -38617,7 +38611,7 @@
     </row>
     <row r="653" s="5" customFormat="1" spans="1:19">
       <c r="A653" s="78" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B653" s="79" t="s">
         <v>20</v>
@@ -38632,7 +38626,7 @@
         <v>23</v>
       </c>
       <c r="F653" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G653" s="82" t="s">
         <v>255</v>
@@ -38659,7 +38653,7 @@
         <v>35</v>
       </c>
       <c r="O653" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P653" s="82"/>
       <c r="Q653" s="82"/>
@@ -38668,7 +38662,7 @@
     </row>
     <row r="654" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A654" s="78" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B654" s="79" t="s">
         <v>20</v>
@@ -38683,7 +38677,7 @@
         <v>23</v>
       </c>
       <c r="F654" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G654" s="82" t="s">
         <v>255</v>
@@ -38721,7 +38715,7 @@
     </row>
     <row r="655" s="5" customFormat="1" spans="1:19">
       <c r="A655" s="78" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B655" s="79" t="s">
         <v>20</v>
@@ -38736,7 +38730,7 @@
         <v>23</v>
       </c>
       <c r="F655" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G655" s="82" t="s">
         <v>255</v>
@@ -38763,7 +38757,7 @@
         <v>35</v>
       </c>
       <c r="O655" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P655" s="82"/>
       <c r="Q655" s="82"/>
@@ -38772,7 +38766,7 @@
     </row>
     <row r="656" s="5" customFormat="1" spans="1:19">
       <c r="A656" s="78" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B656" s="79" t="s">
         <v>20</v>
@@ -38787,7 +38781,7 @@
         <v>23</v>
       </c>
       <c r="F656" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G656" s="82" t="s">
         <v>255</v>
@@ -38825,7 +38819,7 @@
     </row>
     <row r="657" s="5" customFormat="1" spans="1:19">
       <c r="A657" s="78" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B657" s="79" t="s">
         <v>20</v>
@@ -38840,7 +38834,7 @@
         <v>23</v>
       </c>
       <c r="F657" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G657" s="82" t="s">
         <v>255</v>
@@ -38867,7 +38861,7 @@
         <v>35</v>
       </c>
       <c r="O657" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P657" s="82"/>
       <c r="Q657" s="82"/>
@@ -38876,7 +38870,7 @@
     </row>
     <row r="658" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A658" s="78" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B658" s="79" t="s">
         <v>20</v>
@@ -38891,7 +38885,7 @@
         <v>23</v>
       </c>
       <c r="F658" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G658" s="82" t="s">
         <v>255</v>
@@ -38929,25 +38923,25 @@
     </row>
     <row r="659" s="5" customFormat="1" spans="1:19">
       <c r="A659" s="78" t="s">
+        <v>783</v>
+      </c>
+      <c r="B659" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C659" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D659" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E659" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F659" s="81" t="s">
+        <v>724</v>
+      </c>
+      <c r="G659" s="82" t="s">
         <v>784</v>
-      </c>
-      <c r="B659" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C659" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D659" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E659" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F659" s="81" t="s">
-        <v>725</v>
-      </c>
-      <c r="G659" s="82" t="s">
-        <v>785</v>
       </c>
       <c r="H659" s="83">
         <v>1</v>
@@ -38971,7 +38965,7 @@
         <v>35</v>
       </c>
       <c r="O659" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P659" s="82"/>
       <c r="Q659" s="82"/>
@@ -38980,26 +38974,26 @@
     </row>
     <row r="660" s="5" customFormat="1" spans="1:19">
       <c r="A660" s="78" t="s">
+        <v>783</v>
+      </c>
+      <c r="B660" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C660" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D660" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E660" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F660" s="81" t="s">
+        <v>724</v>
+      </c>
+      <c r="G660" s="82" t="s">
         <v>784</v>
       </c>
-      <c r="B660" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C660" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D660" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E660" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F660" s="81" t="s">
-        <v>725</v>
-      </c>
-      <c r="G660" s="82" t="s">
-        <v>785</v>
-      </c>
       <c r="H660" s="83">
         <v>1</v>
       </c>
@@ -39010,7 +39004,7 @@
         <v>27</v>
       </c>
       <c r="K660" s="82" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L660" s="82" t="s">
         <v>33</v>
@@ -39033,7 +39027,7 @@
     </row>
     <row r="661" s="5" customFormat="1" spans="1:19">
       <c r="A661" s="78" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B661" s="79" t="s">
         <v>20</v>
@@ -39048,10 +39042,10 @@
         <v>23</v>
       </c>
       <c r="F661" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G661" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H661" s="83">
         <v>1</v>
@@ -39075,7 +39069,7 @@
         <v>35</v>
       </c>
       <c r="O661" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P661" s="82"/>
       <c r="Q661" s="82"/>
@@ -39084,7 +39078,7 @@
     </row>
     <row r="662" s="5" customFormat="1" spans="1:19">
       <c r="A662" s="78" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B662" s="79" t="s">
         <v>20</v>
@@ -39099,10 +39093,10 @@
         <v>23</v>
       </c>
       <c r="F662" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G662" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H662" s="83">
         <v>1</v>
@@ -39114,7 +39108,7 @@
         <v>27</v>
       </c>
       <c r="K662" s="82" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L662" s="82" t="s">
         <v>266</v>
@@ -39137,7 +39131,7 @@
     </row>
     <row r="663" s="5" customFormat="1" spans="1:19">
       <c r="A663" s="78" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B663" s="79" t="s">
         <v>20</v>
@@ -39152,10 +39146,10 @@
         <v>23</v>
       </c>
       <c r="F663" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G663" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H663" s="83">
         <v>1</v>
@@ -39167,7 +39161,7 @@
         <v>27</v>
       </c>
       <c r="K663" s="82" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L663" s="82" t="s">
         <v>162</v>
@@ -39176,7 +39170,7 @@
         <v>34</v>
       </c>
       <c r="N663" s="88" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="O663" s="78" t="s">
         <v>61</v>
@@ -39190,7 +39184,7 @@
     </row>
     <row r="664" s="5" customFormat="1" spans="1:19">
       <c r="A664" s="78" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B664" s="79" t="s">
         <v>20</v>
@@ -39205,10 +39199,10 @@
         <v>23</v>
       </c>
       <c r="F664" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G664" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H664" s="83">
         <v>1</v>
@@ -39232,7 +39226,7 @@
         <v>35</v>
       </c>
       <c r="O664" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P664" s="82"/>
       <c r="Q664" s="82"/>
@@ -39241,7 +39235,7 @@
     </row>
     <row r="665" s="5" customFormat="1" spans="1:19">
       <c r="A665" s="78" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B665" s="79" t="s">
         <v>20</v>
@@ -39256,10 +39250,10 @@
         <v>23</v>
       </c>
       <c r="F665" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G665" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H665" s="83">
         <v>1</v>
@@ -39271,7 +39265,7 @@
         <v>27</v>
       </c>
       <c r="K665" s="82" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L665" s="82" t="s">
         <v>266</v>
@@ -39294,7 +39288,7 @@
     </row>
     <row r="666" s="5" customFormat="1" spans="1:19">
       <c r="A666" s="78" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B666" s="79" t="s">
         <v>20</v>
@@ -39309,10 +39303,10 @@
         <v>23</v>
       </c>
       <c r="F666" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G666" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H666" s="83">
         <v>1</v>
@@ -39336,7 +39330,7 @@
         <v>35</v>
       </c>
       <c r="O666" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P666" s="82"/>
       <c r="Q666" s="82"/>
@@ -39345,7 +39339,7 @@
     </row>
     <row r="667" s="5" customFormat="1" spans="1:19">
       <c r="A667" s="78" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B667" s="79" t="s">
         <v>20</v>
@@ -39360,10 +39354,10 @@
         <v>23</v>
       </c>
       <c r="F667" s="81" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G667" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H667" s="83">
         <v>1</v>
@@ -39375,7 +39369,7 @@
         <v>27</v>
       </c>
       <c r="K667" s="82" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L667" s="82" t="s">
         <v>44</v>
@@ -39398,7 +39392,7 @@
     </row>
     <row r="668" s="5" customFormat="1" spans="1:19">
       <c r="A668" s="78" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B668" s="79" t="s">
         <v>20</v>
@@ -39413,7 +39407,7 @@
         <v>23</v>
       </c>
       <c r="F668" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G668" s="82" t="s">
         <v>255</v>
@@ -39449,7 +39443,7 @@
     </row>
     <row r="669" s="5" customFormat="1" spans="1:19">
       <c r="A669" s="78" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B669" s="79" t="s">
         <v>20</v>
@@ -39464,7 +39458,7 @@
         <v>23</v>
       </c>
       <c r="F669" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G669" s="82" t="s">
         <v>255</v>
@@ -39502,7 +39496,7 @@
     </row>
     <row r="670" s="5" customFormat="1" spans="1:19">
       <c r="A670" s="78" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B670" s="79" t="s">
         <v>20</v>
@@ -39517,7 +39511,7 @@
         <v>23</v>
       </c>
       <c r="F670" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G670" s="82" t="s">
         <v>255</v>
@@ -39553,7 +39547,7 @@
     </row>
     <row r="671" s="5" customFormat="1" spans="1:19">
       <c r="A671" s="78" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B671" s="79" t="s">
         <v>20</v>
@@ -39568,7 +39562,7 @@
         <v>23</v>
       </c>
       <c r="F671" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G671" s="82" t="s">
         <v>255</v>
@@ -39606,7 +39600,7 @@
     </row>
     <row r="672" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A672" s="78" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B672" s="79" t="s">
         <v>20</v>
@@ -39621,7 +39615,7 @@
         <v>23</v>
       </c>
       <c r="F672" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G672" s="82" t="s">
         <v>255</v>
@@ -39659,7 +39653,7 @@
     </row>
     <row r="673" s="5" customFormat="1" spans="1:19">
       <c r="A673" s="78" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B673" s="79" t="s">
         <v>20</v>
@@ -39674,7 +39668,7 @@
         <v>23</v>
       </c>
       <c r="F673" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G673" s="82" t="s">
         <v>255</v>
@@ -39712,7 +39706,7 @@
     </row>
     <row r="674" s="5" customFormat="1" spans="1:19">
       <c r="A674" s="78" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B674" s="79" t="s">
         <v>20</v>
@@ -39727,7 +39721,7 @@
         <v>23</v>
       </c>
       <c r="F674" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G674" s="82" t="s">
         <v>255</v>
@@ -39763,7 +39757,7 @@
     </row>
     <row r="675" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A675" s="78" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B675" s="79" t="s">
         <v>20</v>
@@ -39778,7 +39772,7 @@
         <v>23</v>
       </c>
       <c r="F675" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G675" s="82" t="s">
         <v>255</v>
@@ -39816,7 +39810,7 @@
     </row>
     <row r="676" s="5" customFormat="1" spans="1:19">
       <c r="A676" s="78" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B676" s="79" t="s">
         <v>20</v>
@@ -39831,7 +39825,7 @@
         <v>23</v>
       </c>
       <c r="F676" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G676" s="82" t="s">
         <v>255</v>
@@ -39869,7 +39863,7 @@
     </row>
     <row r="677" s="5" customFormat="1" spans="1:19">
       <c r="A677" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B677" s="79" t="s">
         <v>20</v>
@@ -39884,7 +39878,7 @@
         <v>23</v>
       </c>
       <c r="F677" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G677" s="82" t="s">
         <v>255</v>
@@ -39920,7 +39914,7 @@
     </row>
     <row r="678" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A678" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B678" s="79" t="s">
         <v>20</v>
@@ -39935,7 +39929,7 @@
         <v>23</v>
       </c>
       <c r="F678" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G678" s="82" t="s">
         <v>255</v>
@@ -39973,7 +39967,7 @@
     </row>
     <row r="679" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A679" s="78" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B679" s="79" t="s">
         <v>20</v>
@@ -39988,7 +39982,7 @@
         <v>23</v>
       </c>
       <c r="F679" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G679" s="82" t="s">
         <v>255</v>
@@ -40026,7 +40020,7 @@
     </row>
     <row r="680" s="5" customFormat="1" spans="1:19">
       <c r="A680" s="78" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B680" s="79" t="s">
         <v>20</v>
@@ -40041,7 +40035,7 @@
         <v>23</v>
       </c>
       <c r="F680" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G680" s="82" t="s">
         <v>255</v>
@@ -40077,7 +40071,7 @@
     </row>
     <row r="681" s="5" customFormat="1" spans="1:19">
       <c r="A681" s="78" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B681" s="79" t="s">
         <v>20</v>
@@ -40092,7 +40086,7 @@
         <v>23</v>
       </c>
       <c r="F681" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G681" s="82" t="s">
         <v>255</v>
@@ -40130,7 +40124,7 @@
     </row>
     <row r="682" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A682" s="78" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B682" s="79" t="s">
         <v>20</v>
@@ -40145,7 +40139,7 @@
         <v>23</v>
       </c>
       <c r="F682" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G682" s="82" t="s">
         <v>255</v>
@@ -40183,7 +40177,7 @@
     </row>
     <row r="683" s="5" customFormat="1" spans="1:19">
       <c r="A683" s="78" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B683" s="79" t="s">
         <v>20</v>
@@ -40198,7 +40192,7 @@
         <v>23</v>
       </c>
       <c r="F683" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G683" s="82" t="s">
         <v>255</v>
@@ -40234,7 +40228,7 @@
     </row>
     <row r="684" s="5" customFormat="1" spans="1:19">
       <c r="A684" s="78" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B684" s="79" t="s">
         <v>20</v>
@@ -40249,7 +40243,7 @@
         <v>23</v>
       </c>
       <c r="F684" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G684" s="82" t="s">
         <v>255</v>
@@ -40287,7 +40281,7 @@
     </row>
     <row r="685" s="5" customFormat="1" spans="1:19">
       <c r="A685" s="78" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B685" s="79" t="s">
         <v>20</v>
@@ -40302,7 +40296,7 @@
         <v>23</v>
       </c>
       <c r="F685" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G685" s="82" t="s">
         <v>425</v>
@@ -40338,7 +40332,7 @@
     </row>
     <row r="686" s="5" customFormat="1" spans="1:19">
       <c r="A686" s="78" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B686" s="79" t="s">
         <v>20</v>
@@ -40353,7 +40347,7 @@
         <v>23</v>
       </c>
       <c r="F686" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G686" s="82" t="s">
         <v>425</v>
@@ -40391,7 +40385,7 @@
     </row>
     <row r="687" s="5" customFormat="1" spans="1:19">
       <c r="A687" s="78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B687" s="79" t="s">
         <v>20</v>
@@ -40406,7 +40400,7 @@
         <v>23</v>
       </c>
       <c r="F687" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G687" s="82" t="s">
         <v>425</v>
@@ -40442,7 +40436,7 @@
     </row>
     <row r="688" s="5" customFormat="1" spans="1:19">
       <c r="A688" s="78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B688" s="79" t="s">
         <v>20</v>
@@ -40457,7 +40451,7 @@
         <v>23</v>
       </c>
       <c r="F688" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G688" s="82" t="s">
         <v>425</v>
@@ -40495,7 +40489,7 @@
     </row>
     <row r="689" s="5" customFormat="1" spans="1:19">
       <c r="A689" s="78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B689" s="79" t="s">
         <v>20</v>
@@ -40510,7 +40504,7 @@
         <v>23</v>
       </c>
       <c r="F689" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G689" s="82" t="s">
         <v>425</v>
@@ -40548,7 +40542,7 @@
     </row>
     <row r="690" s="5" customFormat="1" spans="1:19">
       <c r="A690" s="78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B690" s="79" t="s">
         <v>20</v>
@@ -40563,7 +40557,7 @@
         <v>23</v>
       </c>
       <c r="F690" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G690" s="82" t="s">
         <v>425</v>
@@ -40601,7 +40595,7 @@
     </row>
     <row r="691" s="5" customFormat="1" spans="1:19">
       <c r="A691" s="78" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B691" s="79" t="s">
         <v>20</v>
@@ -40616,7 +40610,7 @@
         <v>23</v>
       </c>
       <c r="F691" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G691" s="82" t="s">
         <v>425</v>
@@ -40652,7 +40646,7 @@
     </row>
     <row r="692" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A692" s="78" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B692" s="79" t="s">
         <v>20</v>
@@ -40667,7 +40661,7 @@
         <v>23</v>
       </c>
       <c r="F692" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G692" s="82" t="s">
         <v>425</v>
@@ -40705,7 +40699,7 @@
     </row>
     <row r="693" s="5" customFormat="1" spans="1:19">
       <c r="A693" s="78" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B693" s="79" t="s">
         <v>20</v>
@@ -40720,7 +40714,7 @@
         <v>23</v>
       </c>
       <c r="F693" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G693" s="82" t="s">
         <v>425</v>
@@ -40758,7 +40752,7 @@
     </row>
     <row r="694" s="5" customFormat="1" spans="1:19">
       <c r="A694" s="78" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B694" s="79" t="s">
         <v>20</v>
@@ -40773,7 +40767,7 @@
         <v>23</v>
       </c>
       <c r="F694" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G694" s="82" t="s">
         <v>425</v>
@@ -40809,7 +40803,7 @@
     </row>
     <row r="695" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A695" s="78" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B695" s="79" t="s">
         <v>20</v>
@@ -40824,7 +40818,7 @@
         <v>23</v>
       </c>
       <c r="F695" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G695" s="82" t="s">
         <v>425</v>
@@ -40862,7 +40856,7 @@
     </row>
     <row r="696" s="5" customFormat="1" spans="1:19">
       <c r="A696" s="78" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B696" s="79" t="s">
         <v>20</v>
@@ -40877,7 +40871,7 @@
         <v>23</v>
       </c>
       <c r="F696" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G696" s="82" t="s">
         <v>425</v>
@@ -40915,7 +40909,7 @@
     </row>
     <row r="697" s="5" customFormat="1" spans="1:19">
       <c r="A697" s="78" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B697" s="79" t="s">
         <v>20</v>
@@ -40930,7 +40924,7 @@
         <v>23</v>
       </c>
       <c r="F697" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G697" s="82" t="s">
         <v>425</v>
@@ -40966,7 +40960,7 @@
     </row>
     <row r="698" s="5" customFormat="1" spans="1:19">
       <c r="A698" s="78" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B698" s="79" t="s">
         <v>20</v>
@@ -40981,7 +40975,7 @@
         <v>23</v>
       </c>
       <c r="F698" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G698" s="82" t="s">
         <v>425</v>
@@ -41019,7 +41013,7 @@
     </row>
     <row r="699" s="5" customFormat="1" spans="1:19">
       <c r="A699" s="78" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B699" s="79" t="s">
         <v>20</v>
@@ -41034,7 +41028,7 @@
         <v>23</v>
       </c>
       <c r="F699" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G699" s="82" t="s">
         <v>425</v>
@@ -41070,7 +41064,7 @@
     </row>
     <row r="700" s="5" customFormat="1" spans="1:19">
       <c r="A700" s="78" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B700" s="79" t="s">
         <v>20</v>
@@ -41085,7 +41079,7 @@
         <v>23</v>
       </c>
       <c r="F700" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G700" s="82" t="s">
         <v>425</v>
@@ -41123,7 +41117,7 @@
     </row>
     <row r="701" s="5" customFormat="1" spans="1:19">
       <c r="A701" s="78" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B701" s="79" t="s">
         <v>20</v>
@@ -41138,7 +41132,7 @@
         <v>23</v>
       </c>
       <c r="F701" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G701" s="82" t="s">
         <v>271</v>
@@ -41174,7 +41168,7 @@
     </row>
     <row r="702" s="5" customFormat="1" spans="1:19">
       <c r="A702" s="78" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B702" s="79" t="s">
         <v>20</v>
@@ -41189,7 +41183,7 @@
         <v>23</v>
       </c>
       <c r="F702" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G702" s="82" t="s">
         <v>271</v>
@@ -41204,10 +41198,10 @@
         <v>27</v>
       </c>
       <c r="K702" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L702" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M702" s="82" t="s">
         <v>34</v>
@@ -41225,7 +41219,7 @@
     </row>
     <row r="703" s="5" customFormat="1" spans="1:19">
       <c r="A703" s="78" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B703" s="79" t="s">
         <v>20</v>
@@ -41240,7 +41234,7 @@
         <v>23</v>
       </c>
       <c r="F703" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G703" s="82" t="s">
         <v>271</v>
@@ -41278,7 +41272,7 @@
     </row>
     <row r="704" s="5" customFormat="1" spans="1:19">
       <c r="A704" s="78" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B704" s="79" t="s">
         <v>20</v>
@@ -41293,7 +41287,7 @@
         <v>23</v>
       </c>
       <c r="F704" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G704" s="82" t="s">
         <v>271</v>
@@ -41331,7 +41325,7 @@
     </row>
     <row r="705" s="5" customFormat="1" spans="1:19">
       <c r="A705" s="78" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B705" s="79" t="s">
         <v>20</v>
@@ -41346,7 +41340,7 @@
         <v>23</v>
       </c>
       <c r="F705" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G705" s="82" t="s">
         <v>271</v>
@@ -41382,7 +41376,7 @@
     </row>
     <row r="706" s="5" customFormat="1" spans="1:19">
       <c r="A706" s="78" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B706" s="79" t="s">
         <v>20</v>
@@ -41397,7 +41391,7 @@
         <v>23</v>
       </c>
       <c r="F706" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G706" s="82" t="s">
         <v>271</v>
@@ -41412,10 +41406,10 @@
         <v>27</v>
       </c>
       <c r="K706" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L706" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M706" s="82" t="s">
         <v>34</v>
@@ -41433,7 +41427,7 @@
     </row>
     <row r="707" s="5" customFormat="1" spans="1:19">
       <c r="A707" s="78" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B707" s="79" t="s">
         <v>20</v>
@@ -41448,7 +41442,7 @@
         <v>23</v>
       </c>
       <c r="F707" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G707" s="82" t="s">
         <v>271</v>
@@ -41486,7 +41480,7 @@
     </row>
     <row r="708" s="5" customFormat="1" spans="1:19">
       <c r="A708" s="78" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B708" s="79" t="s">
         <v>20</v>
@@ -41501,7 +41495,7 @@
         <v>23</v>
       </c>
       <c r="F708" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G708" s="82" t="s">
         <v>271</v>
@@ -41537,7 +41531,7 @@
     </row>
     <row r="709" s="5" customFormat="1" spans="1:19">
       <c r="A709" s="78" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B709" s="79" t="s">
         <v>20</v>
@@ -41552,7 +41546,7 @@
         <v>23</v>
       </c>
       <c r="F709" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G709" s="82" t="s">
         <v>271</v>
@@ -41567,10 +41561,10 @@
         <v>27</v>
       </c>
       <c r="K709" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L709" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M709" s="82" t="s">
         <v>34</v>
@@ -41588,7 +41582,7 @@
     </row>
     <row r="710" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A710" s="78" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B710" s="79" t="s">
         <v>20</v>
@@ -41603,7 +41597,7 @@
         <v>23</v>
       </c>
       <c r="F710" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G710" s="82" t="s">
         <v>271</v>
@@ -41641,7 +41635,7 @@
     </row>
     <row r="711" s="5" customFormat="1" spans="1:19">
       <c r="A711" s="78" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B711" s="79" t="s">
         <v>20</v>
@@ -41656,7 +41650,7 @@
         <v>23</v>
       </c>
       <c r="F711" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G711" s="82" t="s">
         <v>271</v>
@@ -41694,7 +41688,7 @@
     </row>
     <row r="712" s="5" customFormat="1" spans="1:19">
       <c r="A712" s="78" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B712" s="79" t="s">
         <v>20</v>
@@ -41709,7 +41703,7 @@
         <v>23</v>
       </c>
       <c r="F712" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G712" s="82" t="s">
         <v>271</v>
@@ -41745,7 +41739,7 @@
     </row>
     <row r="713" s="5" customFormat="1" spans="1:19">
       <c r="A713" s="78" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B713" s="79" t="s">
         <v>20</v>
@@ -41760,7 +41754,7 @@
         <v>23</v>
       </c>
       <c r="F713" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G713" s="82" t="s">
         <v>271</v>
@@ -41775,10 +41769,10 @@
         <v>27</v>
       </c>
       <c r="K713" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L713" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M713" s="82" t="s">
         <v>34</v>
@@ -41796,7 +41790,7 @@
     </row>
     <row r="714" s="5" customFormat="1" spans="1:19">
       <c r="A714" s="78" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B714" s="79" t="s">
         <v>20</v>
@@ -41811,7 +41805,7 @@
         <v>23</v>
       </c>
       <c r="F714" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G714" s="82" t="s">
         <v>271</v>
@@ -41849,7 +41843,7 @@
     </row>
     <row r="715" s="5" customFormat="1" spans="1:19">
       <c r="A715" s="78" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B715" s="79" t="s">
         <v>20</v>
@@ -41864,7 +41858,7 @@
         <v>23</v>
       </c>
       <c r="F715" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G715" s="82" t="s">
         <v>200</v>
@@ -41900,7 +41894,7 @@
     </row>
     <row r="716" s="5" customFormat="1" spans="1:19">
       <c r="A716" s="78" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B716" s="79" t="s">
         <v>20</v>
@@ -41915,7 +41909,7 @@
         <v>23</v>
       </c>
       <c r="F716" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G716" s="82" t="s">
         <v>200</v>
@@ -41930,10 +41924,10 @@
         <v>27</v>
       </c>
       <c r="K716" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L716" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M716" s="82" t="s">
         <v>34</v>
@@ -41951,7 +41945,7 @@
     </row>
     <row r="717" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A717" s="78" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B717" s="79" t="s">
         <v>20</v>
@@ -41966,7 +41960,7 @@
         <v>23</v>
       </c>
       <c r="F717" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G717" s="82" t="s">
         <v>200</v>
@@ -42004,7 +41998,7 @@
     </row>
     <row r="718" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A718" s="78" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B718" s="79" t="s">
         <v>20</v>
@@ -42019,7 +42013,7 @@
         <v>23</v>
       </c>
       <c r="F718" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G718" s="82" t="s">
         <v>200</v>
@@ -42057,7 +42051,7 @@
     </row>
     <row r="719" s="5" customFormat="1" spans="1:19">
       <c r="A719" s="78" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B719" s="79" t="s">
         <v>20</v>
@@ -42072,7 +42066,7 @@
         <v>23</v>
       </c>
       <c r="F719" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G719" s="82" t="s">
         <v>200</v>
@@ -42108,7 +42102,7 @@
     </row>
     <row r="720" s="5" customFormat="1" spans="1:19">
       <c r="A720" s="78" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B720" s="79" t="s">
         <v>20</v>
@@ -42123,7 +42117,7 @@
         <v>23</v>
       </c>
       <c r="F720" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G720" s="82" t="s">
         <v>200</v>
@@ -42138,10 +42132,10 @@
         <v>27</v>
       </c>
       <c r="K720" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L720" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M720" s="82" t="s">
         <v>34</v>
@@ -42159,7 +42153,7 @@
     </row>
     <row r="721" s="5" customFormat="1" spans="1:19">
       <c r="A721" s="78" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B721" s="79" t="s">
         <v>20</v>
@@ -42174,7 +42168,7 @@
         <v>23</v>
       </c>
       <c r="F721" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G721" s="82" t="s">
         <v>200</v>
@@ -42212,7 +42206,7 @@
     </row>
     <row r="722" s="5" customFormat="1" spans="1:19">
       <c r="A722" s="78" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B722" s="79" t="s">
         <v>20</v>
@@ -42227,7 +42221,7 @@
         <v>23</v>
       </c>
       <c r="F722" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G722" s="82" t="s">
         <v>271</v>
@@ -42263,7 +42257,7 @@
     </row>
     <row r="723" s="5" customFormat="1" spans="1:19">
       <c r="A723" s="78" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B723" s="79" t="s">
         <v>20</v>
@@ -42278,7 +42272,7 @@
         <v>23</v>
       </c>
       <c r="F723" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G723" s="82" t="s">
         <v>271</v>
@@ -42293,10 +42287,10 @@
         <v>27</v>
       </c>
       <c r="K723" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L723" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M723" s="82" t="s">
         <v>34</v>
@@ -42314,7 +42308,7 @@
     </row>
     <row r="724" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A724" s="78" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B724" s="79" t="s">
         <v>20</v>
@@ -42329,7 +42323,7 @@
         <v>23</v>
       </c>
       <c r="F724" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G724" s="82" t="s">
         <v>271</v>
@@ -42367,7 +42361,7 @@
     </row>
     <row r="725" s="5" customFormat="1" spans="1:19">
       <c r="A725" s="78" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B725" s="79" t="s">
         <v>20</v>
@@ -42382,7 +42376,7 @@
         <v>23</v>
       </c>
       <c r="F725" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G725" s="82" t="s">
         <v>271</v>
@@ -42420,7 +42414,7 @@
     </row>
     <row r="726" s="5" customFormat="1" spans="1:19">
       <c r="A726" s="78" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B726" s="79" t="s">
         <v>20</v>
@@ -42435,7 +42429,7 @@
         <v>23</v>
       </c>
       <c r="F726" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G726" s="82" t="s">
         <v>271</v>
@@ -42471,7 +42465,7 @@
     </row>
     <row r="727" s="5" customFormat="1" spans="1:19">
       <c r="A727" s="78" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B727" s="79" t="s">
         <v>20</v>
@@ -42486,7 +42480,7 @@
         <v>23</v>
       </c>
       <c r="F727" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G727" s="82" t="s">
         <v>271</v>
@@ -42501,10 +42495,10 @@
         <v>27</v>
       </c>
       <c r="K727" s="82" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L727" s="82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M727" s="82" t="s">
         <v>34</v>
@@ -42522,7 +42516,7 @@
     </row>
     <row r="728" s="5" customFormat="1" spans="1:19">
       <c r="A728" s="78" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B728" s="79" t="s">
         <v>20</v>
@@ -42537,7 +42531,7 @@
         <v>23</v>
       </c>
       <c r="F728" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G728" s="82" t="s">
         <v>271</v>
@@ -42575,7 +42569,7 @@
     </row>
     <row r="729" s="5" customFormat="1" spans="1:19">
       <c r="A729" s="78" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B729" s="79" t="s">
         <v>20</v>
@@ -42590,7 +42584,7 @@
         <v>23</v>
       </c>
       <c r="F729" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G729" s="82" t="s">
         <v>226</v>
@@ -42626,7 +42620,7 @@
     </row>
     <row r="730" s="5" customFormat="1" spans="1:19">
       <c r="A730" s="78" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B730" s="79" t="s">
         <v>20</v>
@@ -42641,7 +42635,7 @@
         <v>23</v>
       </c>
       <c r="F730" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G730" s="82" t="s">
         <v>226</v>
@@ -42656,7 +42650,7 @@
         <v>27</v>
       </c>
       <c r="K730" s="82" t="s">
-        <v>322</v>
+        <v>806</v>
       </c>
       <c r="L730" s="82" t="s">
         <v>33</v>
@@ -42679,7 +42673,7 @@
     </row>
     <row r="731" s="5" customFormat="1" spans="1:19">
       <c r="A731" s="78" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B731" s="79" t="s">
         <v>20</v>
@@ -42694,7 +42688,7 @@
         <v>23</v>
       </c>
       <c r="F731" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G731" s="82" t="s">
         <v>226</v>
@@ -42730,7 +42724,7 @@
     </row>
     <row r="732" s="5" customFormat="1" spans="1:19">
       <c r="A732" s="78" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B732" s="79" t="s">
         <v>20</v>
@@ -42745,7 +42739,7 @@
         <v>23</v>
       </c>
       <c r="F732" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G732" s="82" t="s">
         <v>226</v>
@@ -42760,7 +42754,7 @@
         <v>27</v>
       </c>
       <c r="K732" s="82" t="s">
-        <v>322</v>
+        <v>806</v>
       </c>
       <c r="L732" s="87" t="s">
         <v>33</v>
@@ -42783,7 +42777,7 @@
     </row>
     <row r="733" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A733" s="78" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B733" s="79" t="s">
         <v>20</v>
@@ -42798,7 +42792,7 @@
         <v>23</v>
       </c>
       <c r="F733" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G733" s="82" t="s">
         <v>226</v>
@@ -42836,7 +42830,7 @@
     </row>
     <row r="734" s="5" customFormat="1" spans="1:19">
       <c r="A734" s="78" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B734" s="79" t="s">
         <v>20</v>
@@ -42851,7 +42845,7 @@
         <v>23</v>
       </c>
       <c r="F734" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G734" s="82" t="s">
         <v>226</v>
@@ -42889,7 +42883,7 @@
     </row>
     <row r="735" s="5" customFormat="1" spans="1:19">
       <c r="A735" s="78" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B735" s="79" t="s">
         <v>20</v>
@@ -42904,7 +42898,7 @@
         <v>23</v>
       </c>
       <c r="F735" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G735" s="82" t="s">
         <v>226</v>
@@ -42940,7 +42934,7 @@
     </row>
     <row r="736" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A736" s="78" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B736" s="79" t="s">
         <v>20</v>
@@ -42955,7 +42949,7 @@
         <v>23</v>
       </c>
       <c r="F736" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G736" s="82" t="s">
         <v>226</v>
@@ -42993,7 +42987,7 @@
     </row>
     <row r="737" s="5" customFormat="1" spans="1:19">
       <c r="A737" s="78" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B737" s="79" t="s">
         <v>20</v>
@@ -43008,7 +43002,7 @@
         <v>23</v>
       </c>
       <c r="F737" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G737" s="82" t="s">
         <v>226</v>
@@ -43046,7 +43040,7 @@
     </row>
     <row r="738" s="5" customFormat="1" spans="1:19">
       <c r="A738" s="78" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B738" s="79" t="s">
         <v>20</v>
@@ -43061,7 +43055,7 @@
         <v>23</v>
       </c>
       <c r="F738" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G738" s="82" t="s">
         <v>226</v>
@@ -43097,7 +43091,7 @@
     </row>
     <row r="739" s="5" customFormat="1" spans="1:19">
       <c r="A739" s="78" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B739" s="79" t="s">
         <v>20</v>
@@ -43112,7 +43106,7 @@
         <v>23</v>
       </c>
       <c r="F739" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G739" s="82" t="s">
         <v>226</v>
@@ -43127,7 +43121,7 @@
         <v>27</v>
       </c>
       <c r="K739" s="82" t="s">
-        <v>322</v>
+        <v>806</v>
       </c>
       <c r="L739" s="82" t="s">
         <v>33</v>
@@ -43150,7 +43144,7 @@
     </row>
     <row r="740" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A740" s="78" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B740" s="79" t="s">
         <v>20</v>
@@ -43165,7 +43159,7 @@
         <v>23</v>
       </c>
       <c r="F740" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G740" s="82" t="s">
         <v>226</v>
@@ -43203,7 +43197,7 @@
     </row>
     <row r="741" s="5" customFormat="1" spans="1:19">
       <c r="A741" s="78" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B741" s="79" t="s">
         <v>20</v>
@@ -43218,7 +43212,7 @@
         <v>23</v>
       </c>
       <c r="F741" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G741" s="82" t="s">
         <v>226</v>
@@ -43254,7 +43248,7 @@
     </row>
     <row r="742" s="5" customFormat="1" spans="1:19">
       <c r="A742" s="78" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B742" s="79" t="s">
         <v>20</v>
@@ -43269,7 +43263,7 @@
         <v>23</v>
       </c>
       <c r="F742" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G742" s="82" t="s">
         <v>226</v>
@@ -43307,7 +43301,7 @@
     </row>
     <row r="743" s="5" customFormat="1" spans="1:19">
       <c r="A743" s="78" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B743" s="79" t="s">
         <v>20</v>
@@ -43322,7 +43316,7 @@
         <v>23</v>
       </c>
       <c r="F743" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G743" s="82" t="s">
         <v>404</v>
@@ -43358,7 +43352,7 @@
     </row>
     <row r="744" s="5" customFormat="1" spans="1:19">
       <c r="A744" s="78" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B744" s="79" t="s">
         <v>20</v>
@@ -43373,7 +43367,7 @@
         <v>23</v>
       </c>
       <c r="F744" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G744" s="82" t="s">
         <v>404</v>
@@ -43411,7 +43405,7 @@
     </row>
     <row r="745" s="5" customFormat="1" spans="1:19">
       <c r="A745" s="78" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B745" s="79" t="s">
         <v>20</v>
@@ -43426,7 +43420,7 @@
         <v>23</v>
       </c>
       <c r="F745" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G745" s="82" t="s">
         <v>404</v>
@@ -43462,7 +43456,7 @@
     </row>
     <row r="746" s="5" customFormat="1" spans="1:19">
       <c r="A746" s="78" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B746" s="79" t="s">
         <v>20</v>
@@ -43477,7 +43471,7 @@
         <v>23</v>
       </c>
       <c r="F746" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G746" s="82" t="s">
         <v>404</v>
@@ -43515,7 +43509,7 @@
     </row>
     <row r="747" s="5" customFormat="1" spans="1:19">
       <c r="A747" s="78" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B747" s="79" t="s">
         <v>20</v>
@@ -43530,7 +43524,7 @@
         <v>23</v>
       </c>
       <c r="F747" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G747" s="82" t="s">
         <v>404</v>
@@ -43568,7 +43562,7 @@
     </row>
     <row r="748" s="5" customFormat="1" spans="1:19">
       <c r="A748" s="78" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B748" s="79" t="s">
         <v>20</v>
@@ -43583,7 +43577,7 @@
         <v>23</v>
       </c>
       <c r="F748" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G748" s="82" t="s">
         <v>404</v>
@@ -43621,7 +43615,7 @@
     </row>
     <row r="749" s="5" customFormat="1" spans="1:19">
       <c r="A749" s="78" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B749" s="79" t="s">
         <v>20</v>
@@ -43636,7 +43630,7 @@
         <v>23</v>
       </c>
       <c r="F749" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G749" s="82" t="s">
         <v>404</v>
@@ -43672,7 +43666,7 @@
     </row>
     <row r="750" s="5" customFormat="1" spans="1:19">
       <c r="A750" s="78" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B750" s="79" t="s">
         <v>20</v>
@@ -43687,7 +43681,7 @@
         <v>23</v>
       </c>
       <c r="F750" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G750" s="82" t="s">
         <v>404</v>
@@ -43725,7 +43719,7 @@
     </row>
     <row r="751" s="5" customFormat="1" spans="1:19">
       <c r="A751" s="78" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B751" s="79" t="s">
         <v>20</v>
@@ -43740,7 +43734,7 @@
         <v>23</v>
       </c>
       <c r="F751" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G751" s="82" t="s">
         <v>404</v>
@@ -43776,7 +43770,7 @@
     </row>
     <row r="752" s="5" customFormat="1" spans="1:19">
       <c r="A752" s="78" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B752" s="79" t="s">
         <v>20</v>
@@ -43791,7 +43785,7 @@
         <v>23</v>
       </c>
       <c r="F752" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G752" s="82" t="s">
         <v>404</v>
@@ -43829,7 +43823,7 @@
     </row>
     <row r="753" s="5" customFormat="1" spans="1:19">
       <c r="A753" s="78" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B753" s="79" t="s">
         <v>20</v>
@@ -43844,7 +43838,7 @@
         <v>23</v>
       </c>
       <c r="F753" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G753" s="82" t="s">
         <v>255</v>
@@ -43871,7 +43865,7 @@
         <v>35</v>
       </c>
       <c r="O753" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P753" s="82"/>
       <c r="Q753" s="82"/>
@@ -43880,7 +43874,7 @@
     </row>
     <row r="754" s="5" customFormat="1" spans="1:19">
       <c r="A754" s="78" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B754" s="79" t="s">
         <v>20</v>
@@ -43895,7 +43889,7 @@
         <v>23</v>
       </c>
       <c r="F754" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G754" s="82" t="s">
         <v>255</v>
@@ -43933,7 +43927,7 @@
     </row>
     <row r="755" s="5" customFormat="1" spans="1:19">
       <c r="A755" s="78" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B755" s="79" t="s">
         <v>20</v>
@@ -43948,7 +43942,7 @@
         <v>23</v>
       </c>
       <c r="F755" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G755" s="82" t="s">
         <v>255</v>
@@ -43975,7 +43969,7 @@
         <v>35</v>
       </c>
       <c r="O755" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P755" s="82"/>
       <c r="Q755" s="82"/>
@@ -43984,7 +43978,7 @@
     </row>
     <row r="756" s="5" customFormat="1" spans="1:19">
       <c r="A756" s="78" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B756" s="79" t="s">
         <v>20</v>
@@ -43999,7 +43993,7 @@
         <v>23</v>
       </c>
       <c r="F756" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G756" s="82" t="s">
         <v>255</v>
@@ -44037,7 +44031,7 @@
     </row>
     <row r="757" s="5" customFormat="1" spans="1:19">
       <c r="A757" s="78" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B757" s="79" t="s">
         <v>20</v>
@@ -44052,7 +44046,7 @@
         <v>23</v>
       </c>
       <c r="F757" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G757" s="82" t="s">
         <v>255</v>
@@ -44090,7 +44084,7 @@
     </row>
     <row r="758" s="5" customFormat="1" spans="1:19">
       <c r="A758" s="78" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B758" s="79" t="s">
         <v>20</v>
@@ -44105,7 +44099,7 @@
         <v>23</v>
       </c>
       <c r="F758" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G758" s="82" t="s">
         <v>255</v>
@@ -44143,7 +44137,7 @@
     </row>
     <row r="759" s="5" customFormat="1" spans="1:19">
       <c r="A759" s="78" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B759" s="79" t="s">
         <v>20</v>
@@ -44158,7 +44152,7 @@
         <v>23</v>
       </c>
       <c r="F759" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G759" s="82" t="s">
         <v>255</v>
@@ -44185,7 +44179,7 @@
         <v>35</v>
       </c>
       <c r="O759" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P759" s="82"/>
       <c r="Q759" s="82"/>
@@ -44194,7 +44188,7 @@
     </row>
     <row r="760" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A760" s="78" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B760" s="79" t="s">
         <v>20</v>
@@ -44209,7 +44203,7 @@
         <v>23</v>
       </c>
       <c r="F760" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G760" s="82" t="s">
         <v>255</v>
@@ -44247,7 +44241,7 @@
     </row>
     <row r="761" s="5" customFormat="1" spans="1:19">
       <c r="A761" s="78" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B761" s="79" t="s">
         <v>20</v>
@@ -44262,7 +44256,7 @@
         <v>23</v>
       </c>
       <c r="F761" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G761" s="82" t="s">
         <v>255</v>
@@ -44300,7 +44294,7 @@
     </row>
     <row r="762" s="5" customFormat="1" spans="1:19">
       <c r="A762" s="78" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B762" s="79" t="s">
         <v>20</v>
@@ -44315,7 +44309,7 @@
         <v>23</v>
       </c>
       <c r="F762" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G762" s="82" t="s">
         <v>255</v>
@@ -44342,7 +44336,7 @@
         <v>35</v>
       </c>
       <c r="O762" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P762" s="82"/>
       <c r="Q762" s="82"/>
@@ -44351,7 +44345,7 @@
     </row>
     <row r="763" s="5" customFormat="1" spans="1:19">
       <c r="A763" s="78" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B763" s="79" t="s">
         <v>20</v>
@@ -44366,7 +44360,7 @@
         <v>23</v>
       </c>
       <c r="F763" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G763" s="82" t="s">
         <v>255</v>
@@ -44404,7 +44398,7 @@
     </row>
     <row r="764" s="5" customFormat="1" spans="1:19">
       <c r="A764" s="78" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B764" s="79" t="s">
         <v>20</v>
@@ -44419,7 +44413,7 @@
         <v>23</v>
       </c>
       <c r="F764" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G764" s="82" t="s">
         <v>255</v>
@@ -44446,7 +44440,7 @@
         <v>35</v>
       </c>
       <c r="O764" s="78" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P764" s="82"/>
       <c r="Q764" s="82"/>
@@ -44455,7 +44449,7 @@
     </row>
     <row r="765" s="5" customFormat="1" spans="1:19">
       <c r="A765" s="78" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B765" s="79" t="s">
         <v>20</v>
@@ -44470,7 +44464,7 @@
         <v>23</v>
       </c>
       <c r="F765" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G765" s="82" t="s">
         <v>255</v>
@@ -44508,7 +44502,7 @@
     </row>
     <row r="766" s="5" customFormat="1" spans="1:19">
       <c r="A766" s="78" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B766" s="79" t="s">
         <v>20</v>
@@ -44523,7 +44517,7 @@
         <v>23</v>
       </c>
       <c r="F766" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G766" s="82" t="s">
         <v>404</v>
@@ -44550,7 +44544,7 @@
         <v>35</v>
       </c>
       <c r="O766" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P766" s="82"/>
       <c r="Q766" s="82"/>
@@ -44559,7 +44553,7 @@
     </row>
     <row r="767" s="5" customFormat="1" spans="1:19">
       <c r="A767" s="78" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B767" s="79" t="s">
         <v>20</v>
@@ -44574,7 +44568,7 @@
         <v>23</v>
       </c>
       <c r="F767" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G767" s="82" t="s">
         <v>404</v>
@@ -44612,7 +44606,7 @@
     </row>
     <row r="768" s="5" customFormat="1" spans="1:19">
       <c r="A768" s="78" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B768" s="79" t="s">
         <v>20</v>
@@ -44627,7 +44621,7 @@
         <v>23</v>
       </c>
       <c r="F768" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G768" s="82" t="s">
         <v>404</v>
@@ -44654,7 +44648,7 @@
         <v>35</v>
       </c>
       <c r="O768" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P768" s="82"/>
       <c r="Q768" s="82"/>
@@ -44663,7 +44657,7 @@
     </row>
     <row r="769" s="5" customFormat="1" spans="1:19">
       <c r="A769" s="78" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B769" s="79" t="s">
         <v>20</v>
@@ -44678,7 +44672,7 @@
         <v>23</v>
       </c>
       <c r="F769" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G769" s="82" t="s">
         <v>404</v>
@@ -44716,7 +44710,7 @@
     </row>
     <row r="770" s="5" customFormat="1" spans="1:19">
       <c r="A770" s="78" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B770" s="79" t="s">
         <v>20</v>
@@ -44731,7 +44725,7 @@
         <v>23</v>
       </c>
       <c r="F770" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G770" s="82" t="s">
         <v>404</v>
@@ -44769,7 +44763,7 @@
     </row>
     <row r="771" s="5" customFormat="1" spans="1:19">
       <c r="A771" s="78" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B771" s="79" t="s">
         <v>20</v>
@@ -44784,7 +44778,7 @@
         <v>23</v>
       </c>
       <c r="F771" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G771" s="82" t="s">
         <v>404</v>
@@ -44822,7 +44816,7 @@
     </row>
     <row r="772" s="5" customFormat="1" spans="1:19">
       <c r="A772" s="78" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B772" s="79" t="s">
         <v>20</v>
@@ -44837,7 +44831,7 @@
         <v>23</v>
       </c>
       <c r="F772" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G772" s="82" t="s">
         <v>404</v>
@@ -44864,7 +44858,7 @@
         <v>35</v>
       </c>
       <c r="O772" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P772" s="82"/>
       <c r="Q772" s="82"/>
@@ -44873,7 +44867,7 @@
     </row>
     <row r="773" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A773" s="78" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B773" s="79" t="s">
         <v>20</v>
@@ -44888,7 +44882,7 @@
         <v>23</v>
       </c>
       <c r="F773" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G773" s="82" t="s">
         <v>404</v>
@@ -44926,7 +44920,7 @@
     </row>
     <row r="774" s="5" customFormat="1" spans="1:19">
       <c r="A774" s="78" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B774" s="79" t="s">
         <v>20</v>
@@ -44941,7 +44935,7 @@
         <v>23</v>
       </c>
       <c r="F774" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G774" s="82" t="s">
         <v>404</v>
@@ -44979,7 +44973,7 @@
     </row>
     <row r="775" s="5" customFormat="1" spans="1:19">
       <c r="A775" s="78" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B775" s="79" t="s">
         <v>20</v>
@@ -44994,7 +44988,7 @@
         <v>23</v>
       </c>
       <c r="F775" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G775" s="82" t="s">
         <v>404</v>
@@ -45021,7 +45015,7 @@
         <v>35</v>
       </c>
       <c r="O775" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P775" s="82"/>
       <c r="Q775" s="82"/>
@@ -45030,7 +45024,7 @@
     </row>
     <row r="776" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A776" s="78" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B776" s="79" t="s">
         <v>20</v>
@@ -45045,7 +45039,7 @@
         <v>23</v>
       </c>
       <c r="F776" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G776" s="82" t="s">
         <v>404</v>
@@ -45083,7 +45077,7 @@
     </row>
     <row r="777" s="5" customFormat="1" spans="1:19">
       <c r="A777" s="78" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B777" s="79" t="s">
         <v>20</v>
@@ -45098,7 +45092,7 @@
         <v>23</v>
       </c>
       <c r="F777" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G777" s="82" t="s">
         <v>404</v>
@@ -45136,7 +45130,7 @@
     </row>
     <row r="778" s="5" customFormat="1" spans="1:19">
       <c r="A778" s="78" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B778" s="79" t="s">
         <v>20</v>
@@ -45151,7 +45145,7 @@
         <v>23</v>
       </c>
       <c r="F778" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G778" s="82" t="s">
         <v>404</v>
@@ -45178,7 +45172,7 @@
         <v>35</v>
       </c>
       <c r="O778" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P778" s="82"/>
       <c r="Q778" s="82"/>
@@ -45187,7 +45181,7 @@
     </row>
     <row r="779" s="5" customFormat="1" spans="1:19">
       <c r="A779" s="78" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B779" s="79" t="s">
         <v>20</v>
@@ -45202,7 +45196,7 @@
         <v>23</v>
       </c>
       <c r="F779" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G779" s="82" t="s">
         <v>404</v>
@@ -45240,7 +45234,7 @@
     </row>
     <row r="780" s="5" customFormat="1" spans="1:19">
       <c r="A780" s="78" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B780" s="79" t="s">
         <v>20</v>
@@ -45255,7 +45249,7 @@
         <v>23</v>
       </c>
       <c r="F780" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G780" s="82" t="s">
         <v>404</v>
@@ -45282,7 +45276,7 @@
         <v>35</v>
       </c>
       <c r="O780" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P780" s="82"/>
       <c r="Q780" s="82"/>
@@ -45291,7 +45285,7 @@
     </row>
     <row r="781" s="5" customFormat="1" spans="1:19">
       <c r="A781" s="78" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B781" s="79" t="s">
         <v>20</v>
@@ -45306,7 +45300,7 @@
         <v>23</v>
       </c>
       <c r="F781" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G781" s="82" t="s">
         <v>404</v>
@@ -45344,7 +45338,7 @@
     </row>
     <row r="782" s="5" customFormat="1" spans="1:19">
       <c r="A782" s="78" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B782" s="79" t="s">
         <v>20</v>
@@ -45359,7 +45353,7 @@
         <v>23</v>
       </c>
       <c r="F782" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G782" s="82" t="s">
         <v>404</v>
@@ -45386,7 +45380,7 @@
         <v>35</v>
       </c>
       <c r="O782" s="78" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P782" s="82"/>
       <c r="Q782" s="82"/>
@@ -45395,7 +45389,7 @@
     </row>
     <row r="783" s="5" customFormat="1" spans="1:19">
       <c r="A783" s="78" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B783" s="79" t="s">
         <v>20</v>
@@ -45410,7 +45404,7 @@
         <v>23</v>
       </c>
       <c r="F783" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G783" s="82" t="s">
         <v>404</v>
@@ -45448,7 +45442,7 @@
     </row>
     <row r="784" s="5" customFormat="1" spans="1:19">
       <c r="A784" s="78" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B784" s="79" t="s">
         <v>20</v>
@@ -45463,7 +45457,7 @@
         <v>23</v>
       </c>
       <c r="F784" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G784" s="82" t="s">
         <v>404</v>
@@ -45490,7 +45484,7 @@
         <v>35</v>
       </c>
       <c r="O784" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P784" s="82"/>
       <c r="Q784" s="82"/>
@@ -45499,7 +45493,7 @@
     </row>
     <row r="785" s="5" customFormat="1" spans="1:19">
       <c r="A785" s="78" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B785" s="79" t="s">
         <v>20</v>
@@ -45514,7 +45508,7 @@
         <v>23</v>
       </c>
       <c r="F785" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G785" s="82" t="s">
         <v>404</v>
@@ -45552,7 +45546,7 @@
     </row>
     <row r="786" s="5" customFormat="1" spans="1:19">
       <c r="A786" s="78" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B786" s="79" t="s">
         <v>20</v>
@@ -45567,7 +45561,7 @@
         <v>23</v>
       </c>
       <c r="F786" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G786" s="82" t="s">
         <v>404</v>
@@ -45594,7 +45588,7 @@
         <v>35</v>
       </c>
       <c r="O786" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P786" s="82"/>
       <c r="Q786" s="82"/>
@@ -45603,7 +45597,7 @@
     </row>
     <row r="787" s="5" customFormat="1" spans="1:19">
       <c r="A787" s="78" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B787" s="79" t="s">
         <v>20</v>
@@ -45618,7 +45612,7 @@
         <v>23</v>
       </c>
       <c r="F787" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G787" s="82" t="s">
         <v>404</v>
@@ -45656,7 +45650,7 @@
     </row>
     <row r="788" s="5" customFormat="1" spans="1:19">
       <c r="A788" s="78" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B788" s="79" t="s">
         <v>20</v>
@@ -45671,7 +45665,7 @@
         <v>23</v>
       </c>
       <c r="F788" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G788" s="82" t="s">
         <v>404</v>
@@ -45709,7 +45703,7 @@
     </row>
     <row r="789" s="5" customFormat="1" spans="1:19">
       <c r="A789" s="78" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B789" s="79" t="s">
         <v>20</v>
@@ -45724,7 +45718,7 @@
         <v>23</v>
       </c>
       <c r="F789" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G789" s="82" t="s">
         <v>404</v>
@@ -45762,7 +45756,7 @@
     </row>
     <row r="790" s="5" customFormat="1" spans="1:19">
       <c r="A790" s="78" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B790" s="79" t="s">
         <v>20</v>
@@ -45777,7 +45771,7 @@
         <v>23</v>
       </c>
       <c r="F790" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G790" s="82" t="s">
         <v>404</v>
@@ -45804,7 +45798,7 @@
         <v>35</v>
       </c>
       <c r="O790" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P790" s="82"/>
       <c r="Q790" s="82"/>
@@ -45813,7 +45807,7 @@
     </row>
     <row r="791" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A791" s="78" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B791" s="79" t="s">
         <v>20</v>
@@ -45828,7 +45822,7 @@
         <v>23</v>
       </c>
       <c r="F791" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G791" s="82" t="s">
         <v>404</v>
@@ -45866,7 +45860,7 @@
     </row>
     <row r="792" s="5" customFormat="1" spans="1:19">
       <c r="A792" s="78" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B792" s="79" t="s">
         <v>20</v>
@@ -45881,7 +45875,7 @@
         <v>23</v>
       </c>
       <c r="F792" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G792" s="82" t="s">
         <v>404</v>
@@ -45919,7 +45913,7 @@
     </row>
     <row r="793" s="5" customFormat="1" spans="1:19">
       <c r="A793" s="78" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B793" s="79" t="s">
         <v>20</v>
@@ -45934,7 +45928,7 @@
         <v>23</v>
       </c>
       <c r="F793" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G793" s="82" t="s">
         <v>404</v>
@@ -45961,7 +45955,7 @@
         <v>35</v>
       </c>
       <c r="O793" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P793" s="82"/>
       <c r="Q793" s="82"/>
@@ -45970,7 +45964,7 @@
     </row>
     <row r="794" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A794" s="78" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B794" s="79" t="s">
         <v>20</v>
@@ -45985,7 +45979,7 @@
         <v>23</v>
       </c>
       <c r="F794" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G794" s="82" t="s">
         <v>404</v>
@@ -46023,7 +46017,7 @@
     </row>
     <row r="795" s="5" customFormat="1" spans="1:19">
       <c r="A795" s="78" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B795" s="79" t="s">
         <v>20</v>
@@ -46038,7 +46032,7 @@
         <v>23</v>
       </c>
       <c r="F795" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G795" s="82" t="s">
         <v>404</v>
@@ -46076,7 +46070,7 @@
     </row>
     <row r="796" s="5" customFormat="1" spans="1:19">
       <c r="A796" s="78" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B796" s="79" t="s">
         <v>20</v>
@@ -46091,7 +46085,7 @@
         <v>23</v>
       </c>
       <c r="F796" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G796" s="82" t="s">
         <v>404</v>
@@ -46118,7 +46112,7 @@
         <v>35</v>
       </c>
       <c r="O796" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P796" s="82"/>
       <c r="Q796" s="82"/>
@@ -46127,7 +46121,7 @@
     </row>
     <row r="797" s="5" customFormat="1" spans="1:19">
       <c r="A797" s="78" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B797" s="79" t="s">
         <v>20</v>
@@ -46142,7 +46136,7 @@
         <v>23</v>
       </c>
       <c r="F797" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G797" s="82" t="s">
         <v>404</v>
@@ -46180,7 +46174,7 @@
     </row>
     <row r="798" s="5" customFormat="1" spans="1:19">
       <c r="A798" s="78" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B798" s="79" t="s">
         <v>20</v>
@@ -46195,7 +46189,7 @@
         <v>23</v>
       </c>
       <c r="F798" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G798" s="82" t="s">
         <v>404</v>
@@ -46222,7 +46216,7 @@
         <v>35</v>
       </c>
       <c r="O798" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P798" s="82"/>
       <c r="Q798" s="82"/>
@@ -46231,7 +46225,7 @@
     </row>
     <row r="799" s="5" customFormat="1" spans="1:19">
       <c r="A799" s="78" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B799" s="79" t="s">
         <v>20</v>
@@ -46246,7 +46240,7 @@
         <v>23</v>
       </c>
       <c r="F799" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G799" s="82" t="s">
         <v>404</v>
@@ -46284,7 +46278,7 @@
     </row>
     <row r="800" s="5" customFormat="1" spans="1:19">
       <c r="A800" s="78" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B800" s="79" t="s">
         <v>20</v>
@@ -46299,7 +46293,7 @@
         <v>23</v>
       </c>
       <c r="F800" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G800" s="82" t="s">
         <v>404</v>
@@ -46326,7 +46320,7 @@
         <v>35</v>
       </c>
       <c r="O800" s="78" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P800" s="82"/>
       <c r="Q800" s="82"/>
@@ -46335,7 +46329,7 @@
     </row>
     <row r="801" s="5" customFormat="1" spans="1:19">
       <c r="A801" s="78" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B801" s="79" t="s">
         <v>20</v>
@@ -46350,7 +46344,7 @@
         <v>23</v>
       </c>
       <c r="F801" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G801" s="82" t="s">
         <v>404</v>
@@ -46388,7 +46382,7 @@
     </row>
     <row r="802" s="5" customFormat="1" spans="1:19">
       <c r="A802" s="78" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B802" s="79" t="s">
         <v>20</v>
@@ -46403,7 +46397,7 @@
         <v>23</v>
       </c>
       <c r="F802" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G802" s="82" t="s">
         <v>404</v>
@@ -46430,7 +46424,7 @@
         <v>35</v>
       </c>
       <c r="O802" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P802" s="82"/>
       <c r="Q802" s="82"/>
@@ -46439,7 +46433,7 @@
     </row>
     <row r="803" s="5" customFormat="1" spans="1:19">
       <c r="A803" s="78" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B803" s="79" t="s">
         <v>20</v>
@@ -46454,7 +46448,7 @@
         <v>23</v>
       </c>
       <c r="F803" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G803" s="82" t="s">
         <v>404</v>
@@ -46492,7 +46486,7 @@
     </row>
     <row r="804" s="5" customFormat="1" spans="1:19">
       <c r="A804" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B804" s="79" t="s">
         <v>20</v>
@@ -46507,7 +46501,7 @@
         <v>23</v>
       </c>
       <c r="F804" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G804" s="82" t="s">
         <v>404</v>
@@ -46534,7 +46528,7 @@
         <v>35</v>
       </c>
       <c r="O804" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P804" s="82"/>
       <c r="Q804" s="82"/>
@@ -46543,7 +46537,7 @@
     </row>
     <row r="805" s="5" customFormat="1" spans="1:19">
       <c r="A805" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B805" s="79" t="s">
         <v>20</v>
@@ -46558,7 +46552,7 @@
         <v>23</v>
       </c>
       <c r="F805" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G805" s="82" t="s">
         <v>404</v>
@@ -46596,7 +46590,7 @@
     </row>
     <row r="806" s="5" customFormat="1" spans="1:19">
       <c r="A806" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B806" s="79" t="s">
         <v>20</v>
@@ -46611,7 +46605,7 @@
         <v>23</v>
       </c>
       <c r="F806" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G806" s="82" t="s">
         <v>404</v>
@@ -46649,7 +46643,7 @@
     </row>
     <row r="807" s="5" customFormat="1" spans="1:19">
       <c r="A807" s="78" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B807" s="79" t="s">
         <v>20</v>
@@ -46664,7 +46658,7 @@
         <v>23</v>
       </c>
       <c r="F807" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G807" s="82" t="s">
         <v>404</v>
@@ -46702,7 +46696,7 @@
     </row>
     <row r="808" s="5" customFormat="1" spans="1:19">
       <c r="A808" s="78" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B808" s="79" t="s">
         <v>20</v>
@@ -46717,7 +46711,7 @@
         <v>23</v>
       </c>
       <c r="F808" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G808" s="82" t="s">
         <v>404</v>
@@ -46744,7 +46738,7 @@
         <v>35</v>
       </c>
       <c r="O808" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P808" s="82"/>
       <c r="Q808" s="82"/>
@@ -46753,7 +46747,7 @@
     </row>
     <row r="809" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A809" s="78" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B809" s="79" t="s">
         <v>20</v>
@@ -46768,7 +46762,7 @@
         <v>23</v>
       </c>
       <c r="F809" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G809" s="82" t="s">
         <v>404</v>
@@ -46806,7 +46800,7 @@
     </row>
     <row r="810" s="5" customFormat="1" spans="1:19">
       <c r="A810" s="78" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B810" s="79" t="s">
         <v>20</v>
@@ -46821,7 +46815,7 @@
         <v>23</v>
       </c>
       <c r="F810" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G810" s="82" t="s">
         <v>404</v>
@@ -46859,7 +46853,7 @@
     </row>
     <row r="811" s="5" customFormat="1" spans="1:19">
       <c r="A811" s="78" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B811" s="79" t="s">
         <v>20</v>
@@ -46874,7 +46868,7 @@
         <v>23</v>
       </c>
       <c r="F811" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G811" s="82" t="s">
         <v>404</v>
@@ -46901,7 +46895,7 @@
         <v>35</v>
       </c>
       <c r="O811" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P811" s="82"/>
       <c r="Q811" s="82"/>
@@ -46910,7 +46904,7 @@
     </row>
     <row r="812" s="5" customFormat="1" spans="1:19">
       <c r="A812" s="78" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B812" s="79" t="s">
         <v>20</v>
@@ -46925,7 +46919,7 @@
         <v>23</v>
       </c>
       <c r="F812" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G812" s="82" t="s">
         <v>404</v>
@@ -46963,7 +46957,7 @@
     </row>
     <row r="813" s="5" customFormat="1" spans="1:19">
       <c r="A813" s="78" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B813" s="79" t="s">
         <v>20</v>
@@ -46978,7 +46972,7 @@
         <v>23</v>
       </c>
       <c r="F813" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G813" s="82" t="s">
         <v>404</v>
@@ -47005,7 +46999,7 @@
         <v>35</v>
       </c>
       <c r="O813" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P813" s="82"/>
       <c r="Q813" s="82"/>
@@ -47014,7 +47008,7 @@
     </row>
     <row r="814" s="5" customFormat="1" spans="1:19">
       <c r="A814" s="78" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B814" s="79" t="s">
         <v>20</v>
@@ -47029,7 +47023,7 @@
         <v>23</v>
       </c>
       <c r="F814" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G814" s="82" t="s">
         <v>404</v>
@@ -47067,7 +47061,7 @@
     </row>
     <row r="815" s="5" customFormat="1" spans="1:19">
       <c r="A815" s="78" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B815" s="79" t="s">
         <v>20</v>
@@ -47082,7 +47076,7 @@
         <v>23</v>
       </c>
       <c r="F815" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G815" s="82" t="s">
         <v>404</v>
@@ -47109,7 +47103,7 @@
         <v>35</v>
       </c>
       <c r="O815" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P815" s="82"/>
       <c r="Q815" s="82"/>
@@ -47118,7 +47112,7 @@
     </row>
     <row r="816" s="5" customFormat="1" spans="1:19">
       <c r="A816" s="78" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B816" s="79" t="s">
         <v>20</v>
@@ -47133,7 +47127,7 @@
         <v>23</v>
       </c>
       <c r="F816" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G816" s="82" t="s">
         <v>404</v>
@@ -47171,7 +47165,7 @@
     </row>
     <row r="817" s="5" customFormat="1" spans="1:19">
       <c r="A817" s="78" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B817" s="79" t="s">
         <v>20</v>
@@ -47186,7 +47180,7 @@
         <v>23</v>
       </c>
       <c r="F817" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G817" s="82" t="s">
         <v>255</v>
@@ -47213,7 +47207,7 @@
         <v>35</v>
       </c>
       <c r="O817" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P817" s="82"/>
       <c r="Q817" s="82"/>
@@ -47222,7 +47216,7 @@
     </row>
     <row r="818" s="5" customFormat="1" spans="1:19">
       <c r="A818" s="78" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B818" s="79" t="s">
         <v>20</v>
@@ -47237,7 +47231,7 @@
         <v>23</v>
       </c>
       <c r="F818" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G818" s="82" t="s">
         <v>255</v>
@@ -47275,7 +47269,7 @@
     </row>
     <row r="819" s="5" customFormat="1" spans="1:19">
       <c r="A819" s="78" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B819" s="79" t="s">
         <v>20</v>
@@ -47290,7 +47284,7 @@
         <v>23</v>
       </c>
       <c r="F819" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G819" s="82" t="s">
         <v>255</v>
@@ -47317,7 +47311,7 @@
         <v>35</v>
       </c>
       <c r="O819" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P819" s="82"/>
       <c r="Q819" s="82"/>
@@ -47326,7 +47320,7 @@
     </row>
     <row r="820" s="5" customFormat="1" spans="1:19">
       <c r="A820" s="78" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B820" s="79" t="s">
         <v>20</v>
@@ -47341,7 +47335,7 @@
         <v>23</v>
       </c>
       <c r="F820" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G820" s="82" t="s">
         <v>255</v>
@@ -47379,7 +47373,7 @@
     </row>
     <row r="821" s="5" customFormat="1" spans="1:19">
       <c r="A821" s="78" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B821" s="79" t="s">
         <v>20</v>
@@ -47394,7 +47388,7 @@
         <v>23</v>
       </c>
       <c r="F821" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G821" s="82" t="s">
         <v>255</v>
@@ -47432,7 +47426,7 @@
     </row>
     <row r="822" s="5" customFormat="1" spans="1:19">
       <c r="A822" s="78" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B822" s="79" t="s">
         <v>20</v>
@@ -47447,7 +47441,7 @@
         <v>23</v>
       </c>
       <c r="F822" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G822" s="82" t="s">
         <v>255</v>
@@ -47485,7 +47479,7 @@
     </row>
     <row r="823" s="5" customFormat="1" spans="1:19">
       <c r="A823" s="78" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B823" s="79" t="s">
         <v>20</v>
@@ -47500,7 +47494,7 @@
         <v>23</v>
       </c>
       <c r="F823" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G823" s="82" t="s">
         <v>255</v>
@@ -47527,7 +47521,7 @@
         <v>35</v>
       </c>
       <c r="O823" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P823" s="82"/>
       <c r="Q823" s="82"/>
@@ -47536,7 +47530,7 @@
     </row>
     <row r="824" s="5" customFormat="1" spans="1:19">
       <c r="A824" s="78" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B824" s="79" t="s">
         <v>20</v>
@@ -47551,7 +47545,7 @@
         <v>23</v>
       </c>
       <c r="F824" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G824" s="82" t="s">
         <v>255</v>
@@ -47589,7 +47583,7 @@
     </row>
     <row r="825" s="5" customFormat="1" spans="1:19">
       <c r="A825" s="78" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B825" s="79" t="s">
         <v>20</v>
@@ -47604,7 +47598,7 @@
         <v>23</v>
       </c>
       <c r="F825" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G825" s="82" t="s">
         <v>255</v>
@@ -47631,7 +47625,7 @@
         <v>35</v>
       </c>
       <c r="O825" s="78" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P825" s="82"/>
       <c r="Q825" s="82"/>
@@ -47640,7 +47634,7 @@
     </row>
     <row r="826" s="5" customFormat="1" spans="1:19">
       <c r="A826" s="78" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B826" s="79" t="s">
         <v>20</v>
@@ -47655,7 +47649,7 @@
         <v>23</v>
       </c>
       <c r="F826" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G826" s="82" t="s">
         <v>255</v>
@@ -47693,7 +47687,7 @@
     </row>
     <row r="827" s="5" customFormat="1" spans="1:19">
       <c r="A827" s="78" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B827" s="79" t="s">
         <v>20</v>
@@ -47708,7 +47702,7 @@
         <v>23</v>
       </c>
       <c r="F827" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G827" s="82" t="s">
         <v>200</v>
@@ -47735,7 +47729,7 @@
         <v>35</v>
       </c>
       <c r="O827" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P827" s="82"/>
       <c r="Q827" s="82"/>
@@ -47744,7 +47738,7 @@
     </row>
     <row r="828" s="5" customFormat="1" ht="14.4" spans="1:19">
       <c r="A828" s="78" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B828" s="79" t="s">
         <v>20</v>
@@ -47759,7 +47753,7 @@
         <v>23</v>
       </c>
       <c r="F828" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G828" s="82" t="s">
         <v>200</v>
@@ -47797,7 +47791,7 @@
     </row>
     <row r="829" s="5" customFormat="1" spans="1:19">
       <c r="A829" s="78" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B829" s="79" t="s">
         <v>20</v>
@@ -47812,7 +47806,7 @@
         <v>23</v>
       </c>
       <c r="F829" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G829" s="82" t="s">
         <v>200</v>
@@ -47850,7 +47844,7 @@
     </row>
     <row r="830" s="5" customFormat="1" spans="1:19">
       <c r="A830" s="78" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B830" s="79" t="s">
         <v>20</v>
@@ -47865,7 +47859,7 @@
         <v>23</v>
       </c>
       <c r="F830" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G830" s="82" t="s">
         <v>200</v>
@@ -47892,7 +47886,7 @@
         <v>35</v>
       </c>
       <c r="O830" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P830" s="82"/>
       <c r="Q830" s="82"/>
@@ -47901,7 +47895,7 @@
     </row>
     <row r="831" s="5" customFormat="1" spans="1:19">
       <c r="A831" s="78" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B831" s="79" t="s">
         <v>20</v>
@@ -47916,7 +47910,7 @@
         <v>23</v>
       </c>
       <c r="F831" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G831" s="82" t="s">
         <v>200</v>
@@ -47954,7 +47948,7 @@
     </row>
     <row r="832" s="5" customFormat="1" spans="1:19">
       <c r="A832" s="78" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B832" s="79" t="s">
         <v>20</v>
@@ -47969,7 +47963,7 @@
         <v>23</v>
       </c>
       <c r="F832" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G832" s="82" t="s">
         <v>200</v>
@@ -47996,7 +47990,7 @@
         <v>35</v>
       </c>
       <c r="O832" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="P832" s="82"/>
       <c r="Q832" s="82"/>
@@ -48005,7 +47999,7 @@
     </row>
     <row r="833" s="5" customFormat="1" spans="1:19">
       <c r="A833" s="78" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B833" s="79" t="s">
         <v>20</v>
@@ -48020,7 +48014,7 @@
         <v>23</v>
       </c>
       <c r="F833" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G833" s="82" t="s">
         <v>200</v>
@@ -48058,7 +48052,7 @@
     </row>
     <row r="834" s="5" customFormat="1" spans="1:19">
       <c r="A834" s="78" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B834" s="79" t="s">
         <v>20</v>
@@ -48073,10 +48067,10 @@
         <v>23</v>
       </c>
       <c r="F834" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G834" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H834" s="83">
         <v>1</v>
@@ -48100,7 +48094,7 @@
         <v>35</v>
       </c>
       <c r="O834" s="78" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P834" s="82"/>
       <c r="Q834" s="82"/>
@@ -48109,7 +48103,7 @@
     </row>
     <row r="835" s="5" customFormat="1" spans="1:19">
       <c r="A835" s="78" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B835" s="79" t="s">
         <v>20</v>
@@ -48124,10 +48118,10 @@
         <v>23</v>
       </c>
       <c r="F835" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G835" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H835" s="83">
         <v>1</v>
@@ -48139,7 +48133,7 @@
         <v>27</v>
       </c>
       <c r="K835" s="82" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L835" s="82" t="s">
         <v>33</v>
@@ -48162,7 +48156,7 @@
     </row>
     <row r="836" s="5" customFormat="1" spans="1:19">
       <c r="A836" s="78" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B836" s="79" t="s">
         <v>20</v>
@@ -48177,10 +48171,10 @@
         <v>23</v>
       </c>
       <c r="F836" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G836" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H836" s="83">
         <v>1</v>
@@ -48204,7 +48198,7 @@
         <v>35</v>
       </c>
       <c r="O836" s="78" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P836" s="82"/>
       <c r="Q836" s="82"/>
@@ -48213,7 +48207,7 @@
     </row>
     <row r="837" s="5" customFormat="1" spans="1:19">
       <c r="A837" s="78" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B837" s="79" t="s">
         <v>20</v>
@@ -48228,10 +48222,10 @@
         <v>23</v>
       </c>
       <c r="F837" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G837" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H837" s="83">
         <v>1</v>
@@ -48243,7 +48237,7 @@
         <v>27</v>
       </c>
       <c r="K837" s="82" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L837" s="82" t="s">
         <v>266</v>
@@ -48266,7 +48260,7 @@
     </row>
     <row r="838" s="5" customFormat="1" spans="1:19">
       <c r="A838" s="78" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B838" s="79" t="s">
         <v>20</v>
@@ -48281,10 +48275,10 @@
         <v>23</v>
       </c>
       <c r="F838" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G838" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H838" s="83">
         <v>1</v>
@@ -48296,7 +48290,7 @@
         <v>27</v>
       </c>
       <c r="K838" s="82" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L838" s="82" t="s">
         <v>120</v>
@@ -48319,7 +48313,7 @@
     </row>
     <row r="839" s="5" customFormat="1" spans="1:19">
       <c r="A839" s="78" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B839" s="79" t="s">
         <v>20</v>
@@ -48334,10 +48328,10 @@
         <v>23</v>
       </c>
       <c r="F839" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G839" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H839" s="83">
         <v>1</v>
@@ -48361,7 +48355,7 @@
         <v>35</v>
       </c>
       <c r="O839" s="78" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P839" s="82"/>
       <c r="Q839" s="82"/>
@@ -48370,7 +48364,7 @@
     </row>
     <row r="840" s="5" customFormat="1" spans="1:19">
       <c r="A840" s="78" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B840" s="79" t="s">
         <v>20</v>
@@ -48385,10 +48379,10 @@
         <v>23</v>
       </c>
       <c r="F840" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G840" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H840" s="83">
         <v>1</v>
@@ -48400,7 +48394,7 @@
         <v>27</v>
       </c>
       <c r="K840" s="82" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L840" s="82" t="s">
         <v>266</v>
@@ -48423,7 +48417,7 @@
     </row>
     <row r="841" s="5" customFormat="1" spans="1:19">
       <c r="A841" s="78" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B841" s="79" t="s">
         <v>20</v>
@@ -48438,10 +48432,10 @@
         <v>23</v>
       </c>
       <c r="F841" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G841" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H841" s="83">
         <v>1</v>
@@ -48465,7 +48459,7 @@
         <v>35</v>
       </c>
       <c r="O841" s="78" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P841" s="82"/>
       <c r="Q841" s="82"/>
@@ -48474,7 +48468,7 @@
     </row>
     <row r="842" s="5" customFormat="1" spans="1:19">
       <c r="A842" s="78" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B842" s="79" t="s">
         <v>20</v>
@@ -48489,10 +48483,10 @@
         <v>23</v>
       </c>
       <c r="F842" s="81" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G842" s="82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H842" s="83">
         <v>1</v>
@@ -48504,7 +48498,7 @@
         <v>27</v>
       </c>
       <c r="K842" s="82" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L842" s="82" t="s">
         <v>44</v>
@@ -48530,11 +48524,11 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
+      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
       <formula1>"等于,大于,小于,大于等于,小于等于"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2">
-      <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48561,7 +48555,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
